--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="784">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Not Listed</t>
   </si>
   <si>
-    <t xml:space="preserve">1-2-3-4</t>
+    <t xml:space="preserve">1_2_3_4_5</t>
   </si>
   <si>
     <t xml:space="preserve">Dendrocygna eytoni</t>
@@ -70,25 +70,31 @@
     <t xml:space="preserve">TODO</t>
   </si>
   <si>
-    <t xml:space="preserve">4-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dendrocygna arcuata</t>
   </si>
   <si>
     <t xml:space="preserve">Wandering Whistling-Duck</t>
   </si>
   <si>
+    <t xml:space="preserve">1_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malacorhynchus membranaceus</t>
   </si>
   <si>
     <t xml:space="preserve">Pink-eared Duck</t>
   </si>
   <si>
+    <t xml:space="preserve">1_2_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cygnus atratus</t>
   </si>
   <si>
     <t xml:space="preserve">Black Swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_3_4</t>
   </si>
   <si>
     <t xml:space="preserve">Tadorna radjah</t>
@@ -2372,8 +2378,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2441,8 +2448,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2466,18 +2477,18 @@
   <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,8 +2556,8 @@
       <c r="F3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,22 +2565,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,8 +2602,8 @@
       <c r="F5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>12</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +2611,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>15</v>
@@ -2614,8 +2625,8 @@
       <c r="F6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>12</v>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,10 +2634,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>15</v>
@@ -2646,10 +2657,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>15</v>
@@ -2669,10 +2680,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>15</v>
@@ -2692,10 +2703,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>15</v>
@@ -2715,10 +2726,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>15</v>
@@ -2738,10 +2749,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>15</v>
@@ -2761,10 +2772,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -2784,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>15</v>
@@ -2807,10 +2818,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>15</v>
@@ -2830,10 +2841,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>15</v>
@@ -2853,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>15</v>
@@ -2876,10 +2887,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>15</v>
@@ -2899,10 +2910,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>15</v>
@@ -2922,10 +2933,10 @@
         <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>15</v>
@@ -2945,10 +2956,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>15</v>
@@ -2968,10 +2979,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>15</v>
@@ -2991,10 +3002,10 @@
         <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>15</v>
@@ -3014,10 +3025,10 @@
         <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>15</v>
@@ -3037,10 +3048,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>15</v>
@@ -3060,10 +3071,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>15</v>
@@ -3083,10 +3094,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>15</v>
@@ -3106,10 +3117,10 @@
         <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>15</v>
@@ -3129,10 +3140,10 @@
         <v>115</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>15</v>
@@ -3152,10 +3163,10 @@
         <v>120</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>15</v>
@@ -3175,10 +3186,10 @@
         <v>123</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>15</v>
@@ -3198,10 +3209,10 @@
         <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>15</v>
@@ -3221,10 +3232,10 @@
         <v>128</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>15</v>
@@ -3244,10 +3255,10 @@
         <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>15</v>
@@ -3267,10 +3278,10 @@
         <v>145</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>15</v>
@@ -3290,10 +3301,10 @@
         <v>149</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>15</v>
@@ -3313,10 +3324,10 @@
         <v>151</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>15</v>
@@ -3336,10 +3347,10 @@
         <v>158</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>15</v>
@@ -3359,10 +3370,10 @@
         <v>161</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>15</v>
@@ -3382,10 +3393,10 @@
         <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>15</v>
@@ -3405,10 +3416,10 @@
         <v>171</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>15</v>
@@ -3428,10 +3439,10 @@
         <v>173</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>15</v>
@@ -3451,10 +3462,10 @@
         <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>15</v>
@@ -3474,10 +3485,10 @@
         <v>178</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>15</v>
@@ -3497,10 +3508,10 @@
         <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>15</v>
@@ -3520,10 +3531,10 @@
         <v>186</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>15</v>
@@ -3543,10 +3554,10 @@
         <v>189</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>15</v>
@@ -3566,10 +3577,10 @@
         <v>192</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>15</v>
@@ -3589,10 +3600,10 @@
         <v>195</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>15</v>
@@ -3612,10 +3623,10 @@
         <v>201</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>15</v>
@@ -3635,10 +3646,10 @@
         <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>15</v>
@@ -3658,10 +3669,10 @@
         <v>213</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>15</v>
@@ -3681,10 +3692,10 @@
         <v>218</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>15</v>
@@ -3704,10 +3715,10 @@
         <v>223</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>15</v>
@@ -3727,10 +3738,10 @@
         <v>228</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>15</v>
@@ -3750,10 +3761,10 @@
         <v>234</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>15</v>
@@ -3773,10 +3784,10 @@
         <v>241</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>15</v>
@@ -3796,10 +3807,10 @@
         <v>246</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>15</v>
@@ -3819,10 +3830,10 @@
         <v>249</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>15</v>
@@ -3842,10 +3853,10 @@
         <v>251</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>15</v>
@@ -3865,10 +3876,10 @@
         <v>253</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>15</v>
@@ -3888,10 +3899,10 @@
         <v>259</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>15</v>
@@ -3911,10 +3922,10 @@
         <v>265</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>15</v>
@@ -3934,10 +3945,10 @@
         <v>267</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>15</v>
@@ -3957,10 +3968,10 @@
         <v>269</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>15</v>
@@ -3980,10 +3991,10 @@
         <v>273</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>15</v>
@@ -4003,10 +4014,10 @@
         <v>274</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>15</v>
@@ -4026,10 +4037,10 @@
         <v>275</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>15</v>
@@ -4049,10 +4060,10 @@
         <v>278</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>15</v>
@@ -4072,10 +4083,10 @@
         <v>279</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>15</v>
@@ -4095,10 +4106,10 @@
         <v>280</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>15</v>
@@ -4118,10 +4129,10 @@
         <v>284</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>15</v>
@@ -4141,10 +4152,10 @@
         <v>285</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>15</v>
@@ -4164,10 +4175,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>15</v>
@@ -4187,10 +4198,10 @@
         <v>288</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>15</v>
@@ -4210,10 +4221,10 @@
         <v>289</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>15</v>
@@ -4233,10 +4244,10 @@
         <v>297</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>15</v>
@@ -4256,10 +4267,10 @@
         <v>298</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>15</v>
@@ -4279,10 +4290,10 @@
         <v>300</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>15</v>
@@ -4302,10 +4313,10 @@
         <v>303</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>15</v>
@@ -4325,10 +4336,10 @@
         <v>310</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>15</v>
@@ -4348,10 +4359,10 @@
         <v>312</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>15</v>
@@ -4371,10 +4382,10 @@
         <v>313</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>15</v>
@@ -4394,10 +4405,10 @@
         <v>316</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>15</v>
@@ -4417,10 +4428,10 @@
         <v>319</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>15</v>
@@ -4440,10 +4451,10 @@
         <v>321</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>15</v>
@@ -4463,10 +4474,10 @@
         <v>324</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>15</v>
@@ -4486,10 +4497,10 @@
         <v>327</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>15</v>
@@ -4509,10 +4520,10 @@
         <v>330</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>15</v>
@@ -4532,10 +4543,10 @@
         <v>331</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>15</v>
@@ -4555,10 +4566,10 @@
         <v>335</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>15</v>
@@ -4578,10 +4589,10 @@
         <v>337</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>15</v>
@@ -4601,10 +4612,10 @@
         <v>339</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>15</v>
@@ -4624,10 +4635,10 @@
         <v>340</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>15</v>
@@ -4647,10 +4658,10 @@
         <v>343</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>15</v>
@@ -4670,10 +4681,10 @@
         <v>344</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>15</v>
@@ -4693,10 +4704,10 @@
         <v>346</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>15</v>
@@ -4716,10 +4727,10 @@
         <v>348</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>15</v>
@@ -4739,10 +4750,10 @@
         <v>349</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>15</v>
@@ -4762,10 +4773,10 @@
         <v>350</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>15</v>
@@ -4785,10 +4796,10 @@
         <v>351</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>15</v>
@@ -4808,10 +4819,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>15</v>
@@ -4831,10 +4842,10 @@
         <v>360</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
@@ -4854,10 +4865,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>15</v>
@@ -4877,10 +4888,10 @@
         <v>366</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>15</v>
@@ -4900,10 +4911,10 @@
         <v>367</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>15</v>
@@ -4923,10 +4934,10 @@
         <v>369</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>15</v>
@@ -4946,10 +4957,10 @@
         <v>370</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>15</v>
@@ -4969,10 +4980,10 @@
         <v>371</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>15</v>
@@ -4992,10 +5003,10 @@
         <v>373</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>15</v>
@@ -5015,10 +5026,10 @@
         <v>376</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>15</v>
@@ -5038,10 +5049,10 @@
         <v>377</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>15</v>
@@ -5061,10 +5072,10 @@
         <v>382</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>15</v>
@@ -5084,10 +5095,10 @@
         <v>384</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>15</v>
@@ -5107,10 +5118,10 @@
         <v>385</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>15</v>
@@ -5130,10 +5141,10 @@
         <v>390</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>15</v>
@@ -5153,10 +5164,10 @@
         <v>392</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>15</v>
@@ -5176,10 +5187,10 @@
         <v>394</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>15</v>
@@ -5199,10 +5210,10 @@
         <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>15</v>
@@ -5222,10 +5233,10 @@
         <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>15</v>
@@ -5245,10 +5256,10 @@
         <v>400</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>15</v>
@@ -5268,10 +5279,10 @@
         <v>404</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>15</v>
@@ -5291,10 +5302,10 @@
         <v>411</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
@@ -5314,10 +5325,10 @@
         <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>15</v>
@@ -5337,10 +5348,10 @@
         <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>15</v>
@@ -5360,10 +5371,10 @@
         <v>423</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>15</v>
@@ -5383,10 +5394,10 @@
         <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>15</v>
@@ -5406,10 +5417,10 @@
         <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>15</v>
@@ -5429,10 +5440,10 @@
         <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>15</v>
@@ -5452,10 +5463,10 @@
         <v>442</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>15</v>
@@ -5475,10 +5486,10 @@
         <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>15</v>
@@ -5498,10 +5509,10 @@
         <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>15</v>
@@ -5521,10 +5532,10 @@
         <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -5544,10 +5555,10 @@
         <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>15</v>
@@ -5567,10 +5578,10 @@
         <v>463</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>15</v>
@@ -5590,10 +5601,10 @@
         <v>465</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>15</v>
@@ -5613,10 +5624,10 @@
         <v>493</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>15</v>
@@ -5636,10 +5647,10 @@
         <v>497</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>15</v>
@@ -5659,10 +5670,10 @@
         <v>501</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>15</v>
@@ -5682,10 +5693,10 @@
         <v>517</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>15</v>
@@ -5705,10 +5716,10 @@
         <v>519</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>15</v>
@@ -5728,10 +5739,10 @@
         <v>534</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>15</v>
@@ -5751,10 +5762,10 @@
         <v>535</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
@@ -5774,10 +5785,10 @@
         <v>537</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>15</v>
@@ -5797,10 +5808,10 @@
         <v>547</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>15</v>
@@ -5820,10 +5831,10 @@
         <v>548</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>15</v>
@@ -5843,10 +5854,10 @@
         <v>555</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>15</v>
@@ -5866,10 +5877,10 @@
         <v>563</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>15</v>
@@ -5889,10 +5900,10 @@
         <v>564</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>15</v>
@@ -5912,10 +5923,10 @@
         <v>582</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>15</v>
@@ -5935,10 +5946,10 @@
         <v>584</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>15</v>
@@ -5958,10 +5969,10 @@
         <v>587</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>15</v>
@@ -5981,10 +5992,10 @@
         <v>589</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
@@ -6004,10 +6015,10 @@
         <v>590</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>15</v>
@@ -6027,10 +6038,10 @@
         <v>591</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>15</v>
@@ -6050,10 +6061,10 @@
         <v>611</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>15</v>
@@ -6073,10 +6084,10 @@
         <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>15</v>
@@ -6096,10 +6107,10 @@
         <v>615</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>15</v>
@@ -6119,10 +6130,10 @@
         <v>619</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>15</v>
@@ -6142,10 +6153,10 @@
         <v>627</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>15</v>
@@ -6165,10 +6176,10 @@
         <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>15</v>
@@ -6188,10 +6199,10 @@
         <v>636</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>15</v>
@@ -6211,10 +6222,10 @@
         <v>640</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
@@ -6234,10 +6245,10 @@
         <v>645</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>15</v>
@@ -6257,10 +6268,10 @@
         <v>647</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>15</v>
@@ -6280,10 +6291,10 @@
         <v>650</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>15</v>
@@ -6303,10 +6314,10 @@
         <v>651</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>15</v>
@@ -6326,10 +6337,10 @@
         <v>656</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>15</v>
@@ -6349,10 +6360,10 @@
         <v>658</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>15</v>
@@ -6372,10 +6383,10 @@
         <v>659</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>15</v>
@@ -6395,10 +6406,10 @@
         <v>660</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>15</v>
@@ -6418,10 +6429,10 @@
         <v>661</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>15</v>
@@ -6441,10 +6452,10 @@
         <v>662</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -6464,10 +6475,10 @@
         <v>663</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>15</v>
@@ -6487,10 +6498,10 @@
         <v>669</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>15</v>
@@ -6510,10 +6521,10 @@
         <v>670</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>15</v>
@@ -6533,10 +6544,10 @@
         <v>672</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>15</v>
@@ -6556,10 +6567,10 @@
         <v>674</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>15</v>
@@ -6579,10 +6590,10 @@
         <v>677</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>15</v>
@@ -6602,10 +6613,10 @@
         <v>682</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>15</v>
@@ -6625,10 +6636,10 @@
         <v>684</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>15</v>
@@ -6648,10 +6659,10 @@
         <v>686</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>15</v>
@@ -6671,10 +6682,10 @@
         <v>688</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -6694,10 +6705,10 @@
         <v>690</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>15</v>
@@ -6717,10 +6728,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>15</v>
@@ -6740,10 +6751,10 @@
         <v>697</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>15</v>
@@ -6763,10 +6774,10 @@
         <v>698</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>15</v>
@@ -6786,10 +6797,10 @@
         <v>699</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>15</v>
@@ -6809,10 +6820,10 @@
         <v>702</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>15</v>
@@ -6832,10 +6843,10 @@
         <v>705</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>15</v>
@@ -6855,10 +6866,10 @@
         <v>706</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>15</v>
@@ -6878,10 +6889,10 @@
         <v>707</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>15</v>
@@ -6901,10 +6912,10 @@
         <v>708</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
@@ -6924,10 +6935,10 @@
         <v>710</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>15</v>
@@ -6947,10 +6958,10 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>15</v>
@@ -6970,10 +6981,10 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>15</v>
@@ -6993,10 +7004,10 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>15</v>
@@ -7016,10 +7027,10 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>15</v>
@@ -7039,10 +7050,10 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>15</v>
@@ -7062,10 +7073,10 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>15</v>
@@ -7085,10 +7096,10 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>15</v>
@@ -7108,10 +7119,10 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>15</v>
@@ -7131,10 +7142,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -7154,10 +7165,10 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>15</v>
@@ -7177,10 +7188,10 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>15</v>
@@ -7200,10 +7211,10 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>15</v>
@@ -7223,10 +7234,10 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>15</v>
@@ -7246,10 +7257,10 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>15</v>
@@ -7269,10 +7280,10 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>15</v>
@@ -7292,10 +7303,10 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>15</v>
@@ -7315,10 +7326,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>15</v>
@@ -7338,10 +7349,10 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>15</v>
@@ -7361,10 +7372,10 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>15</v>
@@ -7384,10 +7395,10 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>15</v>
@@ -7407,10 +7418,10 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>15</v>
@@ -7430,10 +7441,10 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>15</v>
@@ -7453,10 +7464,10 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>15</v>
@@ -7476,10 +7487,10 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>15</v>
@@ -7499,10 +7510,10 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>15</v>
@@ -7522,10 +7533,10 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>15</v>
@@ -7545,10 +7556,10 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>15</v>
@@ -7568,10 +7579,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>15</v>
@@ -7591,10 +7602,10 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>15</v>
@@ -7614,10 +7625,10 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>15</v>
@@ -7637,10 +7648,10 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>15</v>
@@ -7660,10 +7671,10 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>15</v>
@@ -7683,10 +7694,10 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>15</v>
@@ -7706,10 +7717,10 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>15</v>
@@ -7729,10 +7740,10 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>15</v>
@@ -7752,10 +7763,10 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>15</v>
@@ -7775,10 +7786,10 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>15</v>
@@ -7798,10 +7809,10 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>15</v>
@@ -7821,10 +7832,10 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>15</v>
@@ -7844,10 +7855,10 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>15</v>
@@ -7867,10 +7878,10 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>15</v>
@@ -7890,10 +7901,10 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>15</v>
@@ -7913,10 +7924,10 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>15</v>
@@ -7936,10 +7947,10 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>15</v>
@@ -7959,10 +7970,10 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>15</v>
@@ -7982,10 +7993,10 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>15</v>
@@ -8005,10 +8016,10 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>15</v>
@@ -8028,10 +8039,10 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>15</v>
@@ -8051,10 +8062,10 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>15</v>
@@ -8074,10 +8085,10 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>15</v>
@@ -8097,10 +8108,10 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>15</v>
@@ -8120,10 +8131,10 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>15</v>
@@ -8143,10 +8154,10 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>15</v>
@@ -8166,10 +8177,10 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>15</v>
@@ -8189,10 +8200,10 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>15</v>
@@ -8212,10 +8223,10 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>15</v>
@@ -8235,10 +8246,10 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>15</v>
@@ -8258,10 +8269,10 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>15</v>
@@ -8281,10 +8292,10 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>15</v>
@@ -8304,10 +8315,10 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>15</v>
@@ -8327,10 +8338,10 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>15</v>
@@ -8350,10 +8361,10 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>15</v>
@@ -8373,10 +8384,10 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>15</v>
@@ -8396,10 +8407,10 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>15</v>
@@ -8419,10 +8430,10 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>15</v>
@@ -8442,10 +8453,10 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>15</v>
@@ -8465,10 +8476,10 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>15</v>
@@ -8488,10 +8499,10 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>15</v>
@@ -8511,10 +8522,10 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>15</v>
@@ -8534,10 +8545,10 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>15</v>
@@ -8557,10 +8568,10 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>15</v>
@@ -8580,10 +8591,10 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>15</v>
@@ -8603,10 +8614,10 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>15</v>
@@ -8626,10 +8637,10 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>15</v>
@@ -8649,10 +8660,10 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>15</v>
@@ -8672,10 +8683,10 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>15</v>
@@ -8695,10 +8706,10 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>15</v>
@@ -8718,10 +8729,10 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>15</v>
@@ -8741,10 +8752,10 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>15</v>
@@ -8764,10 +8775,10 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>15</v>
@@ -8787,10 +8798,10 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>15</v>
@@ -8810,10 +8821,10 @@
         <v>1254</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>15</v>
@@ -8833,10 +8844,10 @@
         <v>1261</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>15</v>
@@ -8856,10 +8867,10 @@
         <v>1262</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>15</v>
@@ -8879,10 +8890,10 @@
         <v>1274</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>15</v>
@@ -8902,10 +8913,10 @@
         <v>1282</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>15</v>
@@ -8925,10 +8936,10 @@
         <v>1290</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>15</v>
@@ -8948,10 +8959,10 @@
         <v>1300</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>15</v>
@@ -8971,10 +8982,10 @@
         <v>1313</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>15</v>
@@ -8994,10 +9005,10 @@
         <v>1321</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>15</v>
@@ -9017,10 +9028,10 @@
         <v>1330</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>15</v>
@@ -9040,10 +9051,10 @@
         <v>1355</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>15</v>
@@ -9063,10 +9074,10 @@
         <v>1360</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>15</v>
@@ -9086,10 +9097,10 @@
         <v>1374</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>15</v>
@@ -9109,10 +9120,10 @@
         <v>1389</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>15</v>
@@ -9132,10 +9143,10 @@
         <v>1394</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>15</v>
@@ -9155,10 +9166,10 @@
         <v>1398</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>15</v>
@@ -9178,10 +9189,10 @@
         <v>1411</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>15</v>
@@ -9201,10 +9212,10 @@
         <v>1424</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>15</v>
@@ -9224,10 +9235,10 @@
         <v>1430</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>15</v>
@@ -9247,10 +9258,10 @@
         <v>1434</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>15</v>
@@ -9270,10 +9281,10 @@
         <v>1444</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>15</v>
@@ -9293,10 +9304,10 @@
         <v>1450</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>15</v>
@@ -9316,10 +9327,10 @@
         <v>1451</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>15</v>
@@ -9339,10 +9350,10 @@
         <v>1453</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>15</v>
@@ -9362,10 +9373,10 @@
         <v>1457</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>15</v>
@@ -9385,10 +9396,10 @@
         <v>1463</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>15</v>
@@ -9408,10 +9419,10 @@
         <v>1466</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>15</v>
@@ -9431,10 +9442,10 @@
         <v>1469</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>15</v>
@@ -9454,10 +9465,10 @@
         <v>1474</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>15</v>
@@ -9477,10 +9488,10 @@
         <v>1500</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>15</v>
@@ -9500,10 +9511,10 @@
         <v>1509</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>15</v>
@@ -9523,10 +9534,10 @@
         <v>1520</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>15</v>
@@ -9546,10 +9557,10 @@
         <v>1529</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>15</v>
@@ -9569,10 +9580,10 @@
         <v>1536</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>15</v>
@@ -9592,10 +9603,10 @@
         <v>1543</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>15</v>
@@ -9615,10 +9626,10 @@
         <v>1553</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>15</v>
@@ -9638,10 +9649,10 @@
         <v>1557</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>15</v>
@@ -9661,10 +9672,10 @@
         <v>1573</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>15</v>
@@ -9684,10 +9695,10 @@
         <v>1592</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>15</v>
@@ -9707,10 +9718,10 @@
         <v>1601</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>15</v>
@@ -9730,10 +9741,10 @@
         <v>1604</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>15</v>
@@ -9753,10 +9764,10 @@
         <v>1612</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>15</v>
@@ -9776,10 +9787,10 @@
         <v>1613</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>15</v>
@@ -9799,10 +9810,10 @@
         <v>1614</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>15</v>
@@ -9822,10 +9833,10 @@
         <v>1617</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>15</v>
@@ -9845,10 +9856,10 @@
         <v>1622</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>15</v>
@@ -9868,10 +9879,10 @@
         <v>1625</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>15</v>
@@ -9891,10 +9902,10 @@
         <v>1627</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>15</v>
@@ -9914,10 +9925,10 @@
         <v>1635</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>15</v>
@@ -9937,10 +9948,10 @@
         <v>1639</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>15</v>
@@ -9960,10 +9971,10 @@
         <v>1644</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>15</v>
@@ -9983,10 +9994,10 @@
         <v>1656</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>15</v>
@@ -10006,10 +10017,10 @@
         <v>1664</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>15</v>
@@ -10029,10 +10040,10 @@
         <v>1669</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>15</v>
@@ -10052,10 +10063,10 @@
         <v>1677</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>15</v>
@@ -10075,10 +10086,10 @@
         <v>1678</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>15</v>
@@ -10098,10 +10109,10 @@
         <v>1681</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>15</v>
@@ -10121,10 +10132,10 @@
         <v>1689</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>15</v>
@@ -10144,10 +10155,10 @@
         <v>1692</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>15</v>
@@ -10167,10 +10178,10 @@
         <v>1696</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>15</v>
@@ -10190,10 +10201,10 @@
         <v>1701</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>15</v>
@@ -10213,10 +10224,10 @@
         <v>1705</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>15</v>
@@ -10236,10 +10247,10 @@
         <v>1711</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>15</v>
@@ -10259,10 +10270,10 @@
         <v>1715</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>15</v>
@@ -10282,10 +10293,10 @@
         <v>1720</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>15</v>
@@ -10305,10 +10316,10 @@
         <v>1725</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>15</v>
@@ -10328,10 +10339,10 @@
         <v>1733</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>15</v>
@@ -10351,10 +10362,10 @@
         <v>1744</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>15</v>
@@ -10374,10 +10385,10 @@
         <v>1753</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>15</v>
@@ -10397,10 +10408,10 @@
         <v>1756</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>15</v>
@@ -10420,10 +10431,10 @@
         <v>1769</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>15</v>
@@ -10443,10 +10454,10 @@
         <v>1775</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>15</v>
@@ -10466,10 +10477,10 @@
         <v>1779</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>15</v>
@@ -10489,10 +10500,10 @@
         <v>1790</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>15</v>
@@ -10512,10 +10523,10 @@
         <v>1800</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>15</v>
@@ -10535,10 +10546,10 @@
         <v>1810</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>15</v>
@@ -10558,10 +10569,10 @@
         <v>1812</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>15</v>
@@ -10581,10 +10592,10 @@
         <v>1818</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>15</v>
@@ -10604,10 +10615,10 @@
         <v>1826</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>15</v>
@@ -10627,10 +10638,10 @@
         <v>1831</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>15</v>
@@ -10650,10 +10661,10 @@
         <v>1838</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>15</v>
@@ -10673,10 +10684,10 @@
         <v>1846</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>15</v>
@@ -10696,10 +10707,10 @@
         <v>1850</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>15</v>
@@ -10719,10 +10730,10 @@
         <v>1852</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>15</v>
@@ -10742,10 +10753,10 @@
         <v>1868</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>15</v>
@@ -10765,10 +10776,10 @@
         <v>1876</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>15</v>
@@ -10788,10 +10799,10 @@
         <v>1877</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>15</v>
@@ -10811,10 +10822,10 @@
         <v>1878</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>15</v>
@@ -10834,10 +10845,10 @@
         <v>1880</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>15</v>
@@ -10857,10 +10868,10 @@
         <v>1887</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>15</v>
@@ -10880,10 +10891,10 @@
         <v>1890</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>15</v>
@@ -10903,10 +10914,10 @@
         <v>1893</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>15</v>
@@ -10926,10 +10937,10 @@
         <v>1894</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>15</v>
@@ -10949,10 +10960,10 @@
         <v>1899</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>15</v>
@@ -10972,10 +10983,10 @@
         <v>1915</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>15</v>
@@ -10995,10 +11006,10 @@
         <v>1928</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>15</v>
@@ -11018,10 +11029,10 @@
         <v>1933</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>15</v>
@@ -11041,10 +11052,10 @@
         <v>1960</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>15</v>
@@ -11064,10 +11075,10 @@
         <v>1966</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>15</v>
@@ -11087,10 +11098,10 @@
         <v>11000</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>15</v>
@@ -11110,10 +11121,10 @@
         <v>11050</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>15</v>
@@ -11133,10 +11144,10 @@
         <v>11100</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>15</v>
@@ -11156,10 +11167,10 @@
         <v>11150</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>15</v>
@@ -11179,10 +11190,10 @@
         <v>11200</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>15</v>
@@ -11202,10 +11213,10 @@
         <v>11250</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>15</v>
@@ -11225,10 +11236,10 @@
         <v>11300</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>15</v>
@@ -11248,10 +11259,10 @@
         <v>11350</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>15</v>
@@ -11271,10 +11282,10 @@
         <v>11400</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>15</v>
@@ -11294,10 +11305,10 @@
         <v>11450</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>15</v>
@@ -11317,10 +11328,10 @@
         <v>11500</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>15</v>
@@ -11340,10 +11351,10 @@
         <v>11550</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>15</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="785">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -58,49 +58,52 @@
     <t xml:space="preserve">Not Listed</t>
   </si>
   <si>
+    <t xml:space="preserve">1_2_3_4_5_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrocygna eytoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plumed Whistling-Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrocygna arcuata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandering Whistling-Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink-eared Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cygnus atratus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadorna radjah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radjah Shelduck</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_2_3_4_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrocygna eytoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plumed Whistling-Duck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrocygna arcuata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wandering Whistling-Duck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malacorhynchus membranaceus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink-eared Duck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cygnus atratus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Swan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2_3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tadorna radjah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radjah Shelduck</t>
   </si>
   <si>
     <t xml:space="preserve">Aythya australis</t>
@@ -2477,18 +2480,18 @@
   <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.3826530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,10 +2660,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>15</v>
@@ -2680,10 +2683,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>15</v>
@@ -2703,10 +2706,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>15</v>
@@ -2726,10 +2729,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>15</v>
@@ -2749,10 +2752,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>15</v>
@@ -2772,10 +2775,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -2795,10 +2798,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>15</v>
@@ -2818,10 +2821,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>15</v>
@@ -2841,10 +2844,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>15</v>
@@ -2864,10 +2867,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>15</v>
@@ -2887,10 +2890,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>15</v>
@@ -2910,10 +2913,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>15</v>
@@ -2933,10 +2936,10 @@
         <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>15</v>
@@ -2956,10 +2959,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>15</v>
@@ -2979,10 +2982,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>15</v>
@@ -3002,10 +3005,10 @@
         <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>15</v>
@@ -3025,10 +3028,10 @@
         <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>15</v>
@@ -3048,10 +3051,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>15</v>
@@ -3071,10 +3074,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>15</v>
@@ -3094,10 +3097,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>15</v>
@@ -3117,10 +3120,10 @@
         <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>15</v>
@@ -3140,10 +3143,10 @@
         <v>115</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>15</v>
@@ -3163,10 +3166,10 @@
         <v>120</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>15</v>
@@ -3186,10 +3189,10 @@
         <v>123</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>15</v>
@@ -3209,10 +3212,10 @@
         <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>15</v>
@@ -3232,10 +3235,10 @@
         <v>128</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>15</v>
@@ -3255,10 +3258,10 @@
         <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>15</v>
@@ -3278,10 +3281,10 @@
         <v>145</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>15</v>
@@ -3301,10 +3304,10 @@
         <v>149</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>15</v>
@@ -3324,10 +3327,10 @@
         <v>151</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>15</v>
@@ -3347,10 +3350,10 @@
         <v>158</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>15</v>
@@ -3370,10 +3373,10 @@
         <v>161</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>15</v>
@@ -3393,10 +3396,10 @@
         <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>15</v>
@@ -3416,10 +3419,10 @@
         <v>171</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>15</v>
@@ -3439,10 +3442,10 @@
         <v>173</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>15</v>
@@ -3462,10 +3465,10 @@
         <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>15</v>
@@ -3485,10 +3488,10 @@
         <v>178</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>15</v>
@@ -3508,10 +3511,10 @@
         <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>15</v>
@@ -3531,10 +3534,10 @@
         <v>186</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>15</v>
@@ -3554,10 +3557,10 @@
         <v>189</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>15</v>
@@ -3577,10 +3580,10 @@
         <v>192</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>15</v>
@@ -3600,10 +3603,10 @@
         <v>195</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>15</v>
@@ -3623,10 +3626,10 @@
         <v>201</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>15</v>
@@ -3646,10 +3649,10 @@
         <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>15</v>
@@ -3669,10 +3672,10 @@
         <v>213</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>15</v>
@@ -3692,10 +3695,10 @@
         <v>218</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>15</v>
@@ -3715,10 +3718,10 @@
         <v>223</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>15</v>
@@ -3738,10 +3741,10 @@
         <v>228</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>15</v>
@@ -3761,10 +3764,10 @@
         <v>234</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>15</v>
@@ -3784,10 +3787,10 @@
         <v>241</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>15</v>
@@ -3807,10 +3810,10 @@
         <v>246</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>15</v>
@@ -3830,10 +3833,10 @@
         <v>249</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>15</v>
@@ -3853,10 +3856,10 @@
         <v>251</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>15</v>
@@ -3876,10 +3879,10 @@
         <v>253</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>15</v>
@@ -3899,10 +3902,10 @@
         <v>259</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>15</v>
@@ -3922,10 +3925,10 @@
         <v>265</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>15</v>
@@ -3945,10 +3948,10 @@
         <v>267</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>15</v>
@@ -3968,10 +3971,10 @@
         <v>269</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>15</v>
@@ -3991,10 +3994,10 @@
         <v>273</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>15</v>
@@ -4014,10 +4017,10 @@
         <v>274</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>15</v>
@@ -4037,10 +4040,10 @@
         <v>275</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>15</v>
@@ -4060,10 +4063,10 @@
         <v>278</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>15</v>
@@ -4083,10 +4086,10 @@
         <v>279</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>15</v>
@@ -4106,10 +4109,10 @@
         <v>280</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>15</v>
@@ -4129,10 +4132,10 @@
         <v>284</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>15</v>
@@ -4152,10 +4155,10 @@
         <v>285</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>15</v>
@@ -4175,10 +4178,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>15</v>
@@ -4198,10 +4201,10 @@
         <v>288</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>15</v>
@@ -4221,10 +4224,10 @@
         <v>289</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>15</v>
@@ -4244,10 +4247,10 @@
         <v>297</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>15</v>
@@ -4267,10 +4270,10 @@
         <v>298</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>15</v>
@@ -4290,10 +4293,10 @@
         <v>300</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>15</v>
@@ -4313,10 +4316,10 @@
         <v>303</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>15</v>
@@ -4336,10 +4339,10 @@
         <v>310</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>15</v>
@@ -4359,10 +4362,10 @@
         <v>312</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>15</v>
@@ -4382,10 +4385,10 @@
         <v>313</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>15</v>
@@ -4405,10 +4408,10 @@
         <v>316</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>15</v>
@@ -4428,10 +4431,10 @@
         <v>319</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>15</v>
@@ -4451,10 +4454,10 @@
         <v>321</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>15</v>
@@ -4474,10 +4477,10 @@
         <v>324</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>15</v>
@@ -4497,10 +4500,10 @@
         <v>327</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>15</v>
@@ -4520,10 +4523,10 @@
         <v>330</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>15</v>
@@ -4543,10 +4546,10 @@
         <v>331</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>15</v>
@@ -4566,10 +4569,10 @@
         <v>335</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>15</v>
@@ -4589,10 +4592,10 @@
         <v>337</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>15</v>
@@ -4612,10 +4615,10 @@
         <v>339</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>15</v>
@@ -4635,10 +4638,10 @@
         <v>340</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>15</v>
@@ -4658,10 +4661,10 @@
         <v>343</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>15</v>
@@ -4681,10 +4684,10 @@
         <v>344</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>15</v>
@@ -4704,10 +4707,10 @@
         <v>346</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>15</v>
@@ -4727,10 +4730,10 @@
         <v>348</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>15</v>
@@ -4750,10 +4753,10 @@
         <v>349</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>15</v>
@@ -4773,10 +4776,10 @@
         <v>350</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>15</v>
@@ -4796,10 +4799,10 @@
         <v>351</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>15</v>
@@ -4819,10 +4822,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>15</v>
@@ -4842,10 +4845,10 @@
         <v>360</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
@@ -4865,10 +4868,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>15</v>
@@ -4888,10 +4891,10 @@
         <v>366</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>15</v>
@@ -4911,10 +4914,10 @@
         <v>367</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>15</v>
@@ -4934,10 +4937,10 @@
         <v>369</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>15</v>
@@ -4957,10 +4960,10 @@
         <v>370</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>15</v>
@@ -4980,10 +4983,10 @@
         <v>371</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>15</v>
@@ -5003,10 +5006,10 @@
         <v>373</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>15</v>
@@ -5026,10 +5029,10 @@
         <v>376</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>15</v>
@@ -5049,10 +5052,10 @@
         <v>377</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>15</v>
@@ -5072,10 +5075,10 @@
         <v>382</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>15</v>
@@ -5095,10 +5098,10 @@
         <v>384</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>15</v>
@@ -5118,10 +5121,10 @@
         <v>385</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>15</v>
@@ -5141,10 +5144,10 @@
         <v>390</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>15</v>
@@ -5164,10 +5167,10 @@
         <v>392</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>15</v>
@@ -5187,10 +5190,10 @@
         <v>394</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>15</v>
@@ -5210,10 +5213,10 @@
         <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>15</v>
@@ -5233,10 +5236,10 @@
         <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>15</v>
@@ -5256,10 +5259,10 @@
         <v>400</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>15</v>
@@ -5279,10 +5282,10 @@
         <v>404</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>15</v>
@@ -5302,10 +5305,10 @@
         <v>411</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
@@ -5325,10 +5328,10 @@
         <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>15</v>
@@ -5348,10 +5351,10 @@
         <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>15</v>
@@ -5371,10 +5374,10 @@
         <v>423</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>15</v>
@@ -5394,10 +5397,10 @@
         <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>15</v>
@@ -5417,10 +5420,10 @@
         <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>15</v>
@@ -5440,10 +5443,10 @@
         <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>15</v>
@@ -5463,10 +5466,10 @@
         <v>442</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>15</v>
@@ -5486,10 +5489,10 @@
         <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>15</v>
@@ -5509,10 +5512,10 @@
         <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>15</v>
@@ -5532,10 +5535,10 @@
         <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -5555,10 +5558,10 @@
         <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>15</v>
@@ -5578,10 +5581,10 @@
         <v>463</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>15</v>
@@ -5601,10 +5604,10 @@
         <v>465</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>15</v>
@@ -5624,10 +5627,10 @@
         <v>493</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>15</v>
@@ -5647,10 +5650,10 @@
         <v>497</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>15</v>
@@ -5670,10 +5673,10 @@
         <v>501</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>15</v>
@@ -5693,10 +5696,10 @@
         <v>517</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>15</v>
@@ -5716,10 +5719,10 @@
         <v>519</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>15</v>
@@ -5739,10 +5742,10 @@
         <v>534</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>15</v>
@@ -5762,10 +5765,10 @@
         <v>535</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
@@ -5785,10 +5788,10 @@
         <v>537</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>15</v>
@@ -5808,10 +5811,10 @@
         <v>547</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>15</v>
@@ -5831,10 +5834,10 @@
         <v>548</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>15</v>
@@ -5854,10 +5857,10 @@
         <v>555</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>15</v>
@@ -5877,10 +5880,10 @@
         <v>563</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>15</v>
@@ -5900,10 +5903,10 @@
         <v>564</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>15</v>
@@ -5923,10 +5926,10 @@
         <v>582</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>15</v>
@@ -5946,10 +5949,10 @@
         <v>584</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>15</v>
@@ -5969,10 +5972,10 @@
         <v>587</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>15</v>
@@ -5992,10 +5995,10 @@
         <v>589</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
@@ -6015,10 +6018,10 @@
         <v>590</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>15</v>
@@ -6038,10 +6041,10 @@
         <v>591</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>15</v>
@@ -6061,10 +6064,10 @@
         <v>611</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>15</v>
@@ -6084,10 +6087,10 @@
         <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>15</v>
@@ -6107,10 +6110,10 @@
         <v>615</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>15</v>
@@ -6130,10 +6133,10 @@
         <v>619</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>15</v>
@@ -6153,10 +6156,10 @@
         <v>627</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>15</v>
@@ -6176,10 +6179,10 @@
         <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>15</v>
@@ -6199,10 +6202,10 @@
         <v>636</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>15</v>
@@ -6222,10 +6225,10 @@
         <v>640</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
@@ -6245,10 +6248,10 @@
         <v>645</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>15</v>
@@ -6268,10 +6271,10 @@
         <v>647</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>15</v>
@@ -6291,10 +6294,10 @@
         <v>650</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>15</v>
@@ -6314,10 +6317,10 @@
         <v>651</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>15</v>
@@ -6337,10 +6340,10 @@
         <v>656</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>15</v>
@@ -6360,10 +6363,10 @@
         <v>658</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>15</v>
@@ -6383,10 +6386,10 @@
         <v>659</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>15</v>
@@ -6406,10 +6409,10 @@
         <v>660</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>15</v>
@@ -6429,10 +6432,10 @@
         <v>661</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>15</v>
@@ -6452,10 +6455,10 @@
         <v>662</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -6475,10 +6478,10 @@
         <v>663</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>15</v>
@@ -6498,10 +6501,10 @@
         <v>669</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>15</v>
@@ -6521,10 +6524,10 @@
         <v>670</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>15</v>
@@ -6544,10 +6547,10 @@
         <v>672</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>15</v>
@@ -6567,10 +6570,10 @@
         <v>674</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>15</v>
@@ -6590,10 +6593,10 @@
         <v>677</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>15</v>
@@ -6613,10 +6616,10 @@
         <v>682</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>15</v>
@@ -6636,10 +6639,10 @@
         <v>684</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>15</v>
@@ -6659,10 +6662,10 @@
         <v>686</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>15</v>
@@ -6682,10 +6685,10 @@
         <v>688</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -6705,10 +6708,10 @@
         <v>690</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>15</v>
@@ -6728,10 +6731,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>15</v>
@@ -6751,10 +6754,10 @@
         <v>697</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>15</v>
@@ -6774,10 +6777,10 @@
         <v>698</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>15</v>
@@ -6797,10 +6800,10 @@
         <v>699</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>15</v>
@@ -6820,10 +6823,10 @@
         <v>702</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>15</v>
@@ -6843,10 +6846,10 @@
         <v>705</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>15</v>
@@ -6866,10 +6869,10 @@
         <v>706</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>15</v>
@@ -6889,10 +6892,10 @@
         <v>707</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>15</v>
@@ -6912,10 +6915,10 @@
         <v>708</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
@@ -6935,10 +6938,10 @@
         <v>710</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>15</v>
@@ -6958,10 +6961,10 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>15</v>
@@ -6981,10 +6984,10 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>15</v>
@@ -7004,10 +7007,10 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>15</v>
@@ -7027,10 +7030,10 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>15</v>
@@ -7050,10 +7053,10 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>15</v>
@@ -7073,10 +7076,10 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>15</v>
@@ -7096,10 +7099,10 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>15</v>
@@ -7119,10 +7122,10 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>15</v>
@@ -7142,10 +7145,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -7165,10 +7168,10 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>15</v>
@@ -7188,10 +7191,10 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>15</v>
@@ -7211,10 +7214,10 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>15</v>
@@ -7234,10 +7237,10 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>15</v>
@@ -7257,10 +7260,10 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>15</v>
@@ -7280,10 +7283,10 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>15</v>
@@ -7303,10 +7306,10 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>15</v>
@@ -7326,10 +7329,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>15</v>
@@ -7349,10 +7352,10 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>15</v>
@@ -7372,10 +7375,10 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>15</v>
@@ -7395,10 +7398,10 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>15</v>
@@ -7418,10 +7421,10 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>15</v>
@@ -7441,10 +7444,10 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>15</v>
@@ -7464,10 +7467,10 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>15</v>
@@ -7487,10 +7490,10 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>15</v>
@@ -7510,10 +7513,10 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>15</v>
@@ -7533,10 +7536,10 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>15</v>
@@ -7556,10 +7559,10 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>15</v>
@@ -7579,10 +7582,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>15</v>
@@ -7602,10 +7605,10 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>15</v>
@@ -7625,10 +7628,10 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>15</v>
@@ -7648,10 +7651,10 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>15</v>
@@ -7671,10 +7674,10 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>15</v>
@@ -7694,10 +7697,10 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>15</v>
@@ -7717,10 +7720,10 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>15</v>
@@ -7740,10 +7743,10 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>15</v>
@@ -7763,10 +7766,10 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>15</v>
@@ -7786,10 +7789,10 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>15</v>
@@ -7809,10 +7812,10 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>15</v>
@@ -7832,10 +7835,10 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>15</v>
@@ -7855,10 +7858,10 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>15</v>
@@ -7878,10 +7881,10 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>15</v>
@@ -7901,10 +7904,10 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>15</v>
@@ -7924,10 +7927,10 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>15</v>
@@ -7947,10 +7950,10 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>15</v>
@@ -7970,10 +7973,10 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>15</v>
@@ -7993,10 +7996,10 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>15</v>
@@ -8016,10 +8019,10 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>15</v>
@@ -8039,10 +8042,10 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>15</v>
@@ -8062,10 +8065,10 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>15</v>
@@ -8085,10 +8088,10 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>15</v>
@@ -8108,10 +8111,10 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>15</v>
@@ -8131,10 +8134,10 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>15</v>
@@ -8154,10 +8157,10 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>15</v>
@@ -8177,10 +8180,10 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>15</v>
@@ -8200,10 +8203,10 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>15</v>
@@ -8223,10 +8226,10 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>15</v>
@@ -8246,10 +8249,10 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>15</v>
@@ -8269,10 +8272,10 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>15</v>
@@ -8292,10 +8295,10 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>15</v>
@@ -8315,10 +8318,10 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>15</v>
@@ -8338,10 +8341,10 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>15</v>
@@ -8361,10 +8364,10 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>15</v>
@@ -8384,10 +8387,10 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>15</v>
@@ -8407,10 +8410,10 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>15</v>
@@ -8430,10 +8433,10 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>15</v>
@@ -8453,10 +8456,10 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>15</v>
@@ -8476,10 +8479,10 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>15</v>
@@ -8499,10 +8502,10 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>15</v>
@@ -8522,10 +8525,10 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>15</v>
@@ -8545,10 +8548,10 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>15</v>
@@ -8568,10 +8571,10 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>15</v>
@@ -8591,10 +8594,10 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>15</v>
@@ -8614,10 +8617,10 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>15</v>
@@ -8637,10 +8640,10 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>15</v>
@@ -8660,10 +8663,10 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>15</v>
@@ -8683,10 +8686,10 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>15</v>
@@ -8706,10 +8709,10 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>15</v>
@@ -8729,10 +8732,10 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>15</v>
@@ -8752,10 +8755,10 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>15</v>
@@ -8775,10 +8778,10 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>15</v>
@@ -8798,10 +8801,10 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>15</v>
@@ -8821,10 +8824,10 @@
         <v>1254</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>15</v>
@@ -8844,10 +8847,10 @@
         <v>1261</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>15</v>
@@ -8867,10 +8870,10 @@
         <v>1262</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>15</v>
@@ -8890,10 +8893,10 @@
         <v>1274</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>15</v>
@@ -8913,10 +8916,10 @@
         <v>1282</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>15</v>
@@ -8936,10 +8939,10 @@
         <v>1290</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>15</v>
@@ -8959,10 +8962,10 @@
         <v>1300</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>15</v>
@@ -8982,10 +8985,10 @@
         <v>1313</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>15</v>
@@ -9005,10 +9008,10 @@
         <v>1321</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>15</v>
@@ -9028,10 +9031,10 @@
         <v>1330</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>15</v>
@@ -9051,10 +9054,10 @@
         <v>1355</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>15</v>
@@ -9074,10 +9077,10 @@
         <v>1360</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>15</v>
@@ -9097,10 +9100,10 @@
         <v>1374</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>15</v>
@@ -9120,10 +9123,10 @@
         <v>1389</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>15</v>
@@ -9143,10 +9146,10 @@
         <v>1394</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>15</v>
@@ -9166,10 +9169,10 @@
         <v>1398</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>15</v>
@@ -9189,10 +9192,10 @@
         <v>1411</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>15</v>
@@ -9212,10 +9215,10 @@
         <v>1424</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>15</v>
@@ -9235,10 +9238,10 @@
         <v>1430</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>15</v>
@@ -9258,10 +9261,10 @@
         <v>1434</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>15</v>
@@ -9281,10 +9284,10 @@
         <v>1444</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>15</v>
@@ -9304,10 +9307,10 @@
         <v>1450</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>15</v>
@@ -9327,10 +9330,10 @@
         <v>1451</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>15</v>
@@ -9350,10 +9353,10 @@
         <v>1453</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>15</v>
@@ -9373,10 +9376,10 @@
         <v>1457</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>15</v>
@@ -9396,10 +9399,10 @@
         <v>1463</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>15</v>
@@ -9419,10 +9422,10 @@
         <v>1466</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>15</v>
@@ -9442,10 +9445,10 @@
         <v>1469</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>15</v>
@@ -9465,10 +9468,10 @@
         <v>1474</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>15</v>
@@ -9488,10 +9491,10 @@
         <v>1500</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>15</v>
@@ -9511,10 +9514,10 @@
         <v>1509</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>15</v>
@@ -9534,10 +9537,10 @@
         <v>1520</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>15</v>
@@ -9557,10 +9560,10 @@
         <v>1529</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>15</v>
@@ -9580,10 +9583,10 @@
         <v>1536</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>15</v>
@@ -9603,10 +9606,10 @@
         <v>1543</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>15</v>
@@ -9626,10 +9629,10 @@
         <v>1553</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>15</v>
@@ -9649,10 +9652,10 @@
         <v>1557</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>15</v>
@@ -9672,10 +9675,10 @@
         <v>1573</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>15</v>
@@ -9695,10 +9698,10 @@
         <v>1592</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>15</v>
@@ -9718,10 +9721,10 @@
         <v>1601</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>15</v>
@@ -9741,10 +9744,10 @@
         <v>1604</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>15</v>
@@ -9764,10 +9767,10 @@
         <v>1612</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>15</v>
@@ -9787,10 +9790,10 @@
         <v>1613</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>15</v>
@@ -9810,10 +9813,10 @@
         <v>1614</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>15</v>
@@ -9833,10 +9836,10 @@
         <v>1617</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>15</v>
@@ -9856,10 +9859,10 @@
         <v>1622</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>15</v>
@@ -9879,10 +9882,10 @@
         <v>1625</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>15</v>
@@ -9902,10 +9905,10 @@
         <v>1627</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>15</v>
@@ -9925,10 +9928,10 @@
         <v>1635</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>15</v>
@@ -9948,10 +9951,10 @@
         <v>1639</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>15</v>
@@ -9971,10 +9974,10 @@
         <v>1644</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>15</v>
@@ -9994,10 +9997,10 @@
         <v>1656</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>15</v>
@@ -10017,10 +10020,10 @@
         <v>1664</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>15</v>
@@ -10040,10 +10043,10 @@
         <v>1669</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>15</v>
@@ -10063,10 +10066,10 @@
         <v>1677</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>15</v>
@@ -10086,10 +10089,10 @@
         <v>1678</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>15</v>
@@ -10109,10 +10112,10 @@
         <v>1681</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>15</v>
@@ -10132,10 +10135,10 @@
         <v>1689</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>15</v>
@@ -10155,10 +10158,10 @@
         <v>1692</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>15</v>
@@ -10178,10 +10181,10 @@
         <v>1696</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>15</v>
@@ -10201,10 +10204,10 @@
         <v>1701</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>15</v>
@@ -10224,10 +10227,10 @@
         <v>1705</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>15</v>
@@ -10247,10 +10250,10 @@
         <v>1711</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>15</v>
@@ -10270,10 +10273,10 @@
         <v>1715</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>15</v>
@@ -10293,10 +10296,10 @@
         <v>1720</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>15</v>
@@ -10316,10 +10319,10 @@
         <v>1725</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>15</v>
@@ -10339,10 +10342,10 @@
         <v>1733</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>15</v>
@@ -10362,10 +10365,10 @@
         <v>1744</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>15</v>
@@ -10385,10 +10388,10 @@
         <v>1753</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>15</v>
@@ -10408,10 +10411,10 @@
         <v>1756</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>15</v>
@@ -10431,10 +10434,10 @@
         <v>1769</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>15</v>
@@ -10454,10 +10457,10 @@
         <v>1775</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>15</v>
@@ -10477,10 +10480,10 @@
         <v>1779</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>15</v>
@@ -10500,10 +10503,10 @@
         <v>1790</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>15</v>
@@ -10523,10 +10526,10 @@
         <v>1800</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>15</v>
@@ -10546,10 +10549,10 @@
         <v>1810</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>15</v>
@@ -10569,10 +10572,10 @@
         <v>1812</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>15</v>
@@ -10592,10 +10595,10 @@
         <v>1818</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>15</v>
@@ -10615,10 +10618,10 @@
         <v>1826</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>15</v>
@@ -10638,10 +10641,10 @@
         <v>1831</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>15</v>
@@ -10661,10 +10664,10 @@
         <v>1838</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>15</v>
@@ -10684,10 +10687,10 @@
         <v>1846</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>15</v>
@@ -10707,10 +10710,10 @@
         <v>1850</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>15</v>
@@ -10730,10 +10733,10 @@
         <v>1852</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>15</v>
@@ -10753,10 +10756,10 @@
         <v>1868</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>15</v>
@@ -10776,10 +10779,10 @@
         <v>1876</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>15</v>
@@ -10799,10 +10802,10 @@
         <v>1877</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>15</v>
@@ -10822,10 +10825,10 @@
         <v>1878</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>15</v>
@@ -10845,10 +10848,10 @@
         <v>1880</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>15</v>
@@ -10868,10 +10871,10 @@
         <v>1887</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>15</v>
@@ -10891,10 +10894,10 @@
         <v>1890</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>15</v>
@@ -10914,10 +10917,10 @@
         <v>1893</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>15</v>
@@ -10937,10 +10940,10 @@
         <v>1894</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>15</v>
@@ -10960,10 +10963,10 @@
         <v>1899</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>15</v>
@@ -10983,10 +10986,10 @@
         <v>1915</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>15</v>
@@ -11006,10 +11009,10 @@
         <v>1928</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>15</v>
@@ -11029,10 +11032,10 @@
         <v>1933</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>15</v>
@@ -11052,10 +11055,10 @@
         <v>1960</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>15</v>
@@ -11075,10 +11078,10 @@
         <v>1966</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>15</v>
@@ -11098,10 +11101,10 @@
         <v>11000</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>15</v>
@@ -11121,10 +11124,10 @@
         <v>11050</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>15</v>
@@ -11144,10 +11147,10 @@
         <v>11100</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>15</v>
@@ -11167,10 +11170,10 @@
         <v>11150</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>15</v>
@@ -11190,10 +11193,10 @@
         <v>11200</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>15</v>
@@ -11213,10 +11216,10 @@
         <v>11250</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>15</v>
@@ -11236,10 +11239,10 @@
         <v>11300</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>15</v>
@@ -11259,10 +11262,10 @@
         <v>11350</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>15</v>
@@ -11282,10 +11285,10 @@
         <v>11400</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>15</v>
@@ -11305,10 +11308,10 @@
         <v>11450</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>15</v>
@@ -11328,10 +11331,10 @@
         <v>11500</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>15</v>
@@ -11351,10 +11354,10 @@
         <v>11550</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>15</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -2483,18 +2483,18 @@
   <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="16.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="18.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="795">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -118,52 +118,49 @@
     <t xml:space="preserve">Radjah Shelduck</t>
   </si>
   <si>
+    <t xml:space="preserve">Aythya australis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australasian Shoveler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas superciliosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific Black Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas gracilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Teal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_3_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas castanea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chestnut Teal</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_2_3_4_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aythya australis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spatula rhynchotis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australasian Shoveler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anas superciliosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific Black Duck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anas gracilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Teal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2_3_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anas castanea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chestnut Teal</t>
   </si>
   <si>
     <t xml:space="preserve">Stictonetta naevosa</t>
@@ -2512,19 +2509,19 @@
   </sheetPr>
   <dimension ref="A1:K386"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="28.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="30.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,12 +2753,7 @@
       <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="0" t="n">
         <v>2005</v>
       </c>
@@ -2777,10 +2769,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
@@ -2812,25 +2804,25 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2005</v>
@@ -2847,10 +2839,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>20</v>
@@ -2874,7 +2866,7 @@
         <v>2005</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,34 +2874,34 @@
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="I11" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,25 +2909,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2005</v>
@@ -2952,25 +2944,25 @@
         <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2010</v>
@@ -2987,10 +2979,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>20</v>
@@ -3022,10 +3014,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>20</v>
@@ -3057,10 +3049,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>20</v>
@@ -3092,10 +3084,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>20</v>
@@ -3127,10 +3119,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>20</v>
@@ -3162,10 +3154,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>20</v>
@@ -3197,10 +3189,10 @@
         <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>20</v>
@@ -3232,10 +3224,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>20</v>
@@ -3267,10 +3259,10 @@
         <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>20</v>
@@ -3302,10 +3294,10 @@
         <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>20</v>
@@ -3337,10 +3329,10 @@
         <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>20</v>
@@ -3372,10 +3364,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>20</v>
@@ -3407,10 +3399,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>20</v>
@@ -3442,10 +3434,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>20</v>
@@ -3477,10 +3469,10 @@
         <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>20</v>
@@ -3512,10 +3504,10 @@
         <v>115</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>20</v>
@@ -3547,10 +3539,10 @@
         <v>120</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>20</v>
@@ -3582,10 +3574,10 @@
         <v>123</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>20</v>
@@ -3617,10 +3609,10 @@
         <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>20</v>
@@ -3652,10 +3644,10 @@
         <v>128</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>20</v>
@@ -3687,10 +3679,10 @@
         <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>20</v>
@@ -3722,10 +3714,10 @@
         <v>145</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>20</v>
@@ -3757,10 +3749,10 @@
         <v>149</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>20</v>
@@ -3792,10 +3784,10 @@
         <v>151</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>20</v>
@@ -3827,10 +3819,10 @@
         <v>158</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>20</v>
@@ -3862,10 +3854,10 @@
         <v>161</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>20</v>
@@ -3897,10 +3889,10 @@
         <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>20</v>
@@ -3932,10 +3924,10 @@
         <v>171</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>20</v>
@@ -3967,10 +3959,10 @@
         <v>173</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>20</v>
@@ -4002,10 +3994,10 @@
         <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>20</v>
@@ -4037,10 +4029,10 @@
         <v>178</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>20</v>
@@ -4072,10 +4064,10 @@
         <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>20</v>
@@ -4107,10 +4099,10 @@
         <v>186</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>20</v>
@@ -4142,10 +4134,10 @@
         <v>189</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>20</v>
@@ -4177,10 +4169,10 @@
         <v>192</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>20</v>
@@ -4212,10 +4204,10 @@
         <v>195</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>20</v>
@@ -4247,10 +4239,10 @@
         <v>201</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>20</v>
@@ -4282,10 +4274,10 @@
         <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>20</v>
@@ -4317,10 +4309,10 @@
         <v>213</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>20</v>
@@ -4352,10 +4344,10 @@
         <v>218</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>20</v>
@@ -4387,10 +4379,10 @@
         <v>223</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>20</v>
@@ -4422,10 +4414,10 @@
         <v>228</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>20</v>
@@ -4457,10 +4449,10 @@
         <v>234</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>20</v>
@@ -4492,10 +4484,10 @@
         <v>241</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>20</v>
@@ -4527,10 +4519,10 @@
         <v>246</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>20</v>
@@ -4562,10 +4554,10 @@
         <v>249</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>20</v>
@@ -4597,10 +4589,10 @@
         <v>251</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>20</v>
@@ -4632,10 +4624,10 @@
         <v>253</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>20</v>
@@ -4667,10 +4659,10 @@
         <v>259</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>20</v>
@@ -4702,10 +4694,10 @@
         <v>265</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>20</v>
@@ -4737,10 +4729,10 @@
         <v>267</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>20</v>
@@ -4772,10 +4764,10 @@
         <v>269</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>20</v>
@@ -4807,10 +4799,10 @@
         <v>273</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>20</v>
@@ -4842,10 +4834,10 @@
         <v>274</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>20</v>
@@ -4877,10 +4869,10 @@
         <v>275</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>20</v>
@@ -4912,10 +4904,10 @@
         <v>278</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>20</v>
@@ -4947,10 +4939,10 @@
         <v>279</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>20</v>
@@ -4982,10 +4974,10 @@
         <v>280</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>20</v>
@@ -5017,10 +5009,10 @@
         <v>284</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>20</v>
@@ -5052,10 +5044,10 @@
         <v>285</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>20</v>
@@ -5087,10 +5079,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>20</v>
@@ -5122,10 +5114,10 @@
         <v>288</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>20</v>
@@ -5157,10 +5149,10 @@
         <v>289</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>20</v>
@@ -5192,10 +5184,10 @@
         <v>297</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>20</v>
@@ -5227,10 +5219,10 @@
         <v>298</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>20</v>
@@ -5262,10 +5254,10 @@
         <v>300</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>20</v>
@@ -5297,10 +5289,10 @@
         <v>303</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>20</v>
@@ -5332,10 +5324,10 @@
         <v>310</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>20</v>
@@ -5367,10 +5359,10 @@
         <v>312</v>
       </c>
       <c r="B82" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>20</v>
@@ -5402,10 +5394,10 @@
         <v>313</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>20</v>
@@ -5437,10 +5429,10 @@
         <v>316</v>
       </c>
       <c r="B84" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>20</v>
@@ -5472,10 +5464,10 @@
         <v>319</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>20</v>
@@ -5507,10 +5499,10 @@
         <v>321</v>
       </c>
       <c r="B86" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>20</v>
@@ -5542,10 +5534,10 @@
         <v>324</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>20</v>
@@ -5577,10 +5569,10 @@
         <v>327</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>20</v>
@@ -5612,10 +5604,10 @@
         <v>330</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>20</v>
@@ -5647,10 +5639,10 @@
         <v>331</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>20</v>
@@ -5682,10 +5674,10 @@
         <v>335</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>20</v>
@@ -5717,10 +5709,10 @@
         <v>337</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>20</v>
@@ -5752,10 +5744,10 @@
         <v>339</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>20</v>
@@ -5787,10 +5779,10 @@
         <v>340</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>20</v>
@@ -5822,10 +5814,10 @@
         <v>343</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>20</v>
@@ -5857,10 +5849,10 @@
         <v>344</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>20</v>
@@ -5892,10 +5884,10 @@
         <v>346</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>20</v>
@@ -5927,10 +5919,10 @@
         <v>348</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>20</v>
@@ -5962,10 +5954,10 @@
         <v>349</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>20</v>
@@ -5997,10 +5989,10 @@
         <v>350</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>20</v>
@@ -6032,10 +6024,10 @@
         <v>351</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>20</v>
@@ -6067,10 +6059,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>20</v>
@@ -6102,10 +6094,10 @@
         <v>360</v>
       </c>
       <c r="B103" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>20</v>
@@ -6137,10 +6129,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>20</v>
@@ -6172,10 +6164,10 @@
         <v>366</v>
       </c>
       <c r="B105" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>20</v>
@@ -6207,10 +6199,10 @@
         <v>367</v>
       </c>
       <c r="B106" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>20</v>
@@ -6242,10 +6234,10 @@
         <v>369</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>20</v>
@@ -6277,10 +6269,10 @@
         <v>370</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>20</v>
@@ -6312,10 +6304,10 @@
         <v>371</v>
       </c>
       <c r="B109" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>20</v>
@@ -6347,10 +6339,10 @@
         <v>373</v>
       </c>
       <c r="B110" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>20</v>
@@ -6382,10 +6374,10 @@
         <v>376</v>
       </c>
       <c r="B111" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>20</v>
@@ -6417,10 +6409,10 @@
         <v>377</v>
       </c>
       <c r="B112" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>20</v>
@@ -6452,10 +6444,10 @@
         <v>382</v>
       </c>
       <c r="B113" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>20</v>
@@ -6487,10 +6479,10 @@
         <v>384</v>
       </c>
       <c r="B114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>252</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>20</v>
@@ -6522,10 +6514,10 @@
         <v>385</v>
       </c>
       <c r="B115" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>20</v>
@@ -6557,10 +6549,10 @@
         <v>390</v>
       </c>
       <c r="B116" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>256</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>20</v>
@@ -6592,10 +6584,10 @@
         <v>392</v>
       </c>
       <c r="B117" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>20</v>
@@ -6627,10 +6619,10 @@
         <v>394</v>
       </c>
       <c r="B118" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>260</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>20</v>
@@ -6662,10 +6654,10 @@
         <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>262</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>20</v>
@@ -6697,10 +6689,10 @@
         <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>20</v>
@@ -6732,10 +6724,10 @@
         <v>400</v>
       </c>
       <c r="B121" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>20</v>
@@ -6767,10 +6759,10 @@
         <v>404</v>
       </c>
       <c r="B122" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>20</v>
@@ -6802,10 +6794,10 @@
         <v>411</v>
       </c>
       <c r="B123" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>20</v>
@@ -6837,10 +6829,10 @@
         <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>272</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>20</v>
@@ -6872,10 +6864,10 @@
         <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>20</v>
@@ -6907,10 +6899,10 @@
         <v>423</v>
       </c>
       <c r="B126" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>20</v>
@@ -6942,10 +6934,10 @@
         <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>20</v>
@@ -6977,10 +6969,10 @@
         <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>20</v>
@@ -7012,10 +7004,10 @@
         <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>20</v>
@@ -7047,10 +7039,10 @@
         <v>442</v>
       </c>
       <c r="B130" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>20</v>
@@ -7082,10 +7074,10 @@
         <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>20</v>
@@ -7117,10 +7109,10 @@
         <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>20</v>
@@ -7152,10 +7144,10 @@
         <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>290</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>20</v>
@@ -7187,10 +7179,10 @@
         <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>292</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>20</v>
@@ -7222,10 +7214,10 @@
         <v>463</v>
       </c>
       <c r="B135" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>20</v>
@@ -7257,10 +7249,10 @@
         <v>465</v>
       </c>
       <c r="B136" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>20</v>
@@ -7292,10 +7284,10 @@
         <v>493</v>
       </c>
       <c r="B137" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>20</v>
@@ -7327,10 +7319,10 @@
         <v>497</v>
       </c>
       <c r="B138" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>20</v>
@@ -7362,10 +7354,10 @@
         <v>501</v>
       </c>
       <c r="B139" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>20</v>
@@ -7397,10 +7389,10 @@
         <v>517</v>
       </c>
       <c r="B140" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>20</v>
@@ -7432,10 +7424,10 @@
         <v>519</v>
       </c>
       <c r="B141" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>20</v>
@@ -7467,10 +7459,10 @@
         <v>534</v>
       </c>
       <c r="B142" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>20</v>
@@ -7502,10 +7494,10 @@
         <v>535</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>20</v>
@@ -7537,10 +7529,10 @@
         <v>537</v>
       </c>
       <c r="B144" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>20</v>
@@ -7572,10 +7564,10 @@
         <v>547</v>
       </c>
       <c r="B145" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>20</v>
@@ -7607,10 +7599,10 @@
         <v>548</v>
       </c>
       <c r="B146" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>316</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>20</v>
@@ -7642,10 +7634,10 @@
         <v>555</v>
       </c>
       <c r="B147" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>318</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>20</v>
@@ -7677,10 +7669,10 @@
         <v>563</v>
       </c>
       <c r="B148" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>20</v>
@@ -7712,10 +7704,10 @@
         <v>564</v>
       </c>
       <c r="B149" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>20</v>
@@ -7747,10 +7739,10 @@
         <v>582</v>
       </c>
       <c r="B150" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>20</v>
@@ -7782,10 +7774,10 @@
         <v>584</v>
       </c>
       <c r="B151" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>20</v>
@@ -7817,10 +7809,10 @@
         <v>587</v>
       </c>
       <c r="B152" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>20</v>
@@ -7852,10 +7844,10 @@
         <v>589</v>
       </c>
       <c r="B153" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>20</v>
@@ -7887,10 +7879,10 @@
         <v>590</v>
       </c>
       <c r="B154" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>332</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>20</v>
@@ -7922,10 +7914,10 @@
         <v>591</v>
       </c>
       <c r="B155" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>20</v>
@@ -7957,10 +7949,10 @@
         <v>611</v>
       </c>
       <c r="B156" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>20</v>
@@ -7992,10 +7984,10 @@
         <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C157" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>338</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>20</v>
@@ -8027,10 +8019,10 @@
         <v>615</v>
       </c>
       <c r="B158" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>20</v>
@@ -8062,10 +8054,10 @@
         <v>619</v>
       </c>
       <c r="B159" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>20</v>
@@ -8097,10 +8089,10 @@
         <v>627</v>
       </c>
       <c r="B160" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>20</v>
@@ -8132,10 +8124,10 @@
         <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C161" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>20</v>
@@ -8167,10 +8159,10 @@
         <v>636</v>
       </c>
       <c r="B162" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>20</v>
@@ -8202,10 +8194,10 @@
         <v>640</v>
       </c>
       <c r="B163" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>20</v>
@@ -8237,10 +8229,10 @@
         <v>645</v>
       </c>
       <c r="B164" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>352</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>20</v>
@@ -8272,10 +8264,10 @@
         <v>647</v>
       </c>
       <c r="B165" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>354</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>20</v>
@@ -8307,10 +8299,10 @@
         <v>650</v>
       </c>
       <c r="B166" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C166" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>20</v>
@@ -8342,10 +8334,10 @@
         <v>651</v>
       </c>
       <c r="B167" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>358</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>20</v>
@@ -8377,10 +8369,10 @@
         <v>656</v>
       </c>
       <c r="B168" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="0" t="s">
         <v>359</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>360</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>20</v>
@@ -8412,10 +8404,10 @@
         <v>658</v>
       </c>
       <c r="B169" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>362</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>20</v>
@@ -8447,10 +8439,10 @@
         <v>659</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C170" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>20</v>
@@ -8482,10 +8474,10 @@
         <v>660</v>
       </c>
       <c r="B171" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C171" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>20</v>
@@ -8517,10 +8509,10 @@
         <v>661</v>
       </c>
       <c r="B172" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C172" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>20</v>
@@ -8552,10 +8544,10 @@
         <v>662</v>
       </c>
       <c r="B173" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C173" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>20</v>
@@ -8587,10 +8579,10 @@
         <v>663</v>
       </c>
       <c r="B174" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>20</v>
@@ -8622,10 +8614,10 @@
         <v>669</v>
       </c>
       <c r="B175" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C175" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>20</v>
@@ -8657,10 +8649,10 @@
         <v>670</v>
       </c>
       <c r="B176" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C176" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>20</v>
@@ -8692,10 +8684,10 @@
         <v>672</v>
       </c>
       <c r="B177" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C177" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>378</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>20</v>
@@ -8727,10 +8719,10 @@
         <v>674</v>
       </c>
       <c r="B178" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>20</v>
@@ -8762,10 +8754,10 @@
         <v>677</v>
       </c>
       <c r="B179" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C179" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>20</v>
@@ -8797,10 +8789,10 @@
         <v>682</v>
       </c>
       <c r="B180" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C180" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>20</v>
@@ -8832,10 +8824,10 @@
         <v>684</v>
       </c>
       <c r="B181" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>20</v>
@@ -8867,10 +8859,10 @@
         <v>686</v>
       </c>
       <c r="B182" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C182" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>388</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>20</v>
@@ -8902,10 +8894,10 @@
         <v>688</v>
       </c>
       <c r="B183" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C183" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>390</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>20</v>
@@ -8937,10 +8929,10 @@
         <v>690</v>
       </c>
       <c r="B184" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>392</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>20</v>
@@ -8972,10 +8964,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C185" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>20</v>
@@ -9007,10 +8999,10 @@
         <v>697</v>
       </c>
       <c r="B186" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C186" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>20</v>
@@ -9042,10 +9034,10 @@
         <v>698</v>
       </c>
       <c r="B187" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C187" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>20</v>
@@ -9077,10 +9069,10 @@
         <v>699</v>
       </c>
       <c r="B188" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C188" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>20</v>
@@ -9112,10 +9104,10 @@
         <v>702</v>
       </c>
       <c r="B189" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C189" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>20</v>
@@ -9147,10 +9139,10 @@
         <v>705</v>
       </c>
       <c r="B190" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C190" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>20</v>
@@ -9182,10 +9174,10 @@
         <v>706</v>
       </c>
       <c r="B191" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C191" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>20</v>
@@ -9217,10 +9209,10 @@
         <v>707</v>
       </c>
       <c r="B192" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C192" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>20</v>
@@ -9252,10 +9244,10 @@
         <v>708</v>
       </c>
       <c r="B193" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C193" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>20</v>
@@ -9287,10 +9279,10 @@
         <v>710</v>
       </c>
       <c r="B194" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>20</v>
@@ -9322,10 +9314,10 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C195" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>20</v>
@@ -9357,10 +9349,10 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C196" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>20</v>
@@ -9392,10 +9384,10 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C197" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>20</v>
@@ -9427,10 +9419,10 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C198" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>20</v>
@@ -9462,10 +9454,10 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C199" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>20</v>
@@ -9497,10 +9489,10 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C200" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>20</v>
@@ -9532,10 +9524,10 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C201" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>20</v>
@@ -9567,10 +9559,10 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C202" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>428</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>20</v>
@@ -9602,10 +9594,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C203" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>20</v>
@@ -9637,10 +9629,10 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C204" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>432</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>20</v>
@@ -9672,10 +9664,10 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C205" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>20</v>
@@ -9707,10 +9699,10 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C206" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>20</v>
@@ -9742,10 +9734,10 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C207" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>438</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>20</v>
@@ -9777,10 +9769,10 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C208" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>20</v>
@@ -9812,10 +9804,10 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C209" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>20</v>
@@ -9847,10 +9839,10 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C210" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>444</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>20</v>
@@ -9882,10 +9874,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>20</v>
@@ -9917,10 +9909,10 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>20</v>
@@ -9952,10 +9944,10 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C213" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>20</v>
@@ -9987,10 +9979,10 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C214" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>20</v>
@@ -10022,10 +10014,10 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>454</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>20</v>
@@ -10057,10 +10049,10 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>456</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>20</v>
@@ -10092,10 +10084,10 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C217" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>20</v>
@@ -10127,10 +10119,10 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C218" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>20</v>
@@ -10162,10 +10154,10 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C219" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>20</v>
@@ -10197,10 +10189,10 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>20</v>
@@ -10232,10 +10224,10 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>20</v>
@@ -10267,10 +10259,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C222" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>20</v>
@@ -10302,10 +10294,10 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C223" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>20</v>
@@ -10337,10 +10329,10 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C224" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>472</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>20</v>
@@ -10372,10 +10364,10 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>20</v>
@@ -10407,10 +10399,10 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>20</v>
@@ -10442,10 +10434,10 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>20</v>
@@ -10477,10 +10469,10 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>20</v>
@@ -10512,10 +10504,10 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>20</v>
@@ -10547,10 +10539,10 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>484</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>20</v>
@@ -10582,10 +10574,10 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C231" s="0" t="s">
         <v>485</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>486</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>20</v>
@@ -10617,10 +10609,10 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C232" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>20</v>
@@ -10652,10 +10644,10 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C233" s="0" t="s">
         <v>489</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>20</v>
@@ -10687,10 +10679,10 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>20</v>
@@ -10722,10 +10714,10 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C235" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>20</v>
@@ -10757,10 +10749,10 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>20</v>
@@ -10792,10 +10784,10 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>20</v>
@@ -10827,10 +10819,10 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C238" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>20</v>
@@ -10862,10 +10854,10 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C239" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>20</v>
@@ -10897,10 +10889,10 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C240" s="0" t="s">
         <v>503</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>504</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>20</v>
@@ -10932,10 +10924,10 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>20</v>
@@ -10967,10 +10959,10 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C242" s="0" t="s">
         <v>507</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>508</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>20</v>
@@ -11002,10 +10994,10 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C243" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>20</v>
@@ -11037,10 +11029,10 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C244" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>20</v>
@@ -11072,10 +11064,10 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>514</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>20</v>
@@ -11107,10 +11099,10 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C246" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>20</v>
@@ -11142,10 +11134,10 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C247" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>518</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>20</v>
@@ -11177,10 +11169,10 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>20</v>
@@ -11212,10 +11204,10 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C249" s="0" t="s">
         <v>521</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>522</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>20</v>
@@ -11247,10 +11239,10 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C250" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>20</v>
@@ -11282,10 +11274,10 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>526</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>20</v>
@@ -11317,10 +11309,10 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>20</v>
@@ -11352,10 +11344,10 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>530</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>20</v>
@@ -11387,10 +11379,10 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>20</v>
@@ -11422,10 +11414,10 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C255" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>534</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>20</v>
@@ -11457,10 +11449,10 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>536</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>20</v>
@@ -11492,10 +11484,10 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C257" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>20</v>
@@ -11527,10 +11519,10 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>20</v>
@@ -11562,10 +11554,10 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C259" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>542</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>20</v>
@@ -11597,10 +11589,10 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C260" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>544</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>20</v>
@@ -11632,10 +11624,10 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="C261" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>20</v>
@@ -11667,10 +11659,10 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="C262" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>20</v>
@@ -11702,10 +11694,10 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C263" s="0" t="s">
         <v>549</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>550</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>20</v>
@@ -11737,10 +11729,10 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C264" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>552</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>20</v>
@@ -11772,10 +11764,10 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C265" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>554</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>20</v>
@@ -11807,10 +11799,10 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>556</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>20</v>
@@ -11842,10 +11834,10 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>557</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>558</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>20</v>
@@ -11877,10 +11869,10 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C268" s="0" t="s">
         <v>559</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>560</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>20</v>
@@ -11912,10 +11904,10 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C269" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>562</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>20</v>
@@ -11947,10 +11939,10 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C270" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>564</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>20</v>
@@ -11982,10 +11974,10 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C271" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>20</v>
@@ -12017,10 +12009,10 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C272" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>20</v>
@@ -12052,10 +12044,10 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C273" s="0" t="s">
         <v>569</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>570</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>20</v>
@@ -12087,10 +12079,10 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C274" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>572</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>20</v>
@@ -12122,10 +12114,10 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C275" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>574</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>20</v>
@@ -12157,10 +12149,10 @@
         <v>1254</v>
       </c>
       <c r="B276" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C276" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>576</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>20</v>
@@ -12192,10 +12184,10 @@
         <v>1261</v>
       </c>
       <c r="B277" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C277" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>578</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>20</v>
@@ -12227,10 +12219,10 @@
         <v>1262</v>
       </c>
       <c r="B278" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C278" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>580</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>20</v>
@@ -12262,10 +12254,10 @@
         <v>1274</v>
       </c>
       <c r="B279" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>581</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>582</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>20</v>
@@ -12297,10 +12289,10 @@
         <v>1282</v>
       </c>
       <c r="B280" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C280" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>584</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>20</v>
@@ -12332,10 +12324,10 @@
         <v>1290</v>
       </c>
       <c r="B281" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C281" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>20</v>
@@ -12367,10 +12359,10 @@
         <v>1300</v>
       </c>
       <c r="B282" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>588</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>20</v>
@@ -12402,10 +12394,10 @@
         <v>1313</v>
       </c>
       <c r="B283" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C283" s="0" t="s">
         <v>589</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>590</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>20</v>
@@ -12437,10 +12429,10 @@
         <v>1321</v>
       </c>
       <c r="B284" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C284" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>592</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>20</v>
@@ -12472,10 +12464,10 @@
         <v>1330</v>
       </c>
       <c r="B285" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="C285" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>594</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>20</v>
@@ -12507,10 +12499,10 @@
         <v>1355</v>
       </c>
       <c r="B286" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="C286" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>596</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>20</v>
@@ -12542,10 +12534,10 @@
         <v>1360</v>
       </c>
       <c r="B287" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C287" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>598</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>20</v>
@@ -12577,10 +12569,10 @@
         <v>1374</v>
       </c>
       <c r="B288" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="C288" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>20</v>
@@ -12612,10 +12604,10 @@
         <v>1389</v>
       </c>
       <c r="B289" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C289" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>602</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>20</v>
@@ -12647,10 +12639,10 @@
         <v>1394</v>
       </c>
       <c r="B290" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C290" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>604</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>20</v>
@@ -12682,10 +12674,10 @@
         <v>1398</v>
       </c>
       <c r="B291" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C291" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>20</v>
@@ -12717,10 +12709,10 @@
         <v>1411</v>
       </c>
       <c r="B292" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C292" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>608</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>20</v>
@@ -12752,10 +12744,10 @@
         <v>1424</v>
       </c>
       <c r="B293" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C293" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>20</v>
@@ -12787,10 +12779,10 @@
         <v>1430</v>
       </c>
       <c r="B294" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C294" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>20</v>
@@ -12822,10 +12814,10 @@
         <v>1434</v>
       </c>
       <c r="B295" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C295" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>20</v>
@@ -12857,10 +12849,10 @@
         <v>1444</v>
       </c>
       <c r="B296" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>615</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>616</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>20</v>
@@ -12892,10 +12884,10 @@
         <v>1450</v>
       </c>
       <c r="B297" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>20</v>
@@ -12927,10 +12919,10 @@
         <v>1451</v>
       </c>
       <c r="B298" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>620</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>20</v>
@@ -12962,10 +12954,10 @@
         <v>1453</v>
       </c>
       <c r="B299" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C299" s="0" t="s">
         <v>621</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>622</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>20</v>
@@ -12997,10 +12989,10 @@
         <v>1457</v>
       </c>
       <c r="B300" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>623</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>624</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>20</v>
@@ -13032,10 +13024,10 @@
         <v>1463</v>
       </c>
       <c r="B301" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C301" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>626</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>20</v>
@@ -13067,10 +13059,10 @@
         <v>1466</v>
       </c>
       <c r="B302" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>20</v>
@@ -13102,10 +13094,10 @@
         <v>1469</v>
       </c>
       <c r="B303" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C303" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>630</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>20</v>
@@ -13137,10 +13129,10 @@
         <v>1474</v>
       </c>
       <c r="B304" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>632</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>20</v>
@@ -13172,10 +13164,10 @@
         <v>1500</v>
       </c>
       <c r="B305" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>634</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>20</v>
@@ -13207,10 +13199,10 @@
         <v>1509</v>
       </c>
       <c r="B306" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="C306" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>20</v>
@@ -13242,10 +13234,10 @@
         <v>1520</v>
       </c>
       <c r="B307" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="C307" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>638</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>20</v>
@@ -13277,10 +13269,10 @@
         <v>1529</v>
       </c>
       <c r="B308" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C308" s="0" t="s">
         <v>639</v>
-      </c>
-      <c r="C308" s="0" t="s">
-        <v>640</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>20</v>
@@ -13312,10 +13304,10 @@
         <v>1536</v>
       </c>
       <c r="B309" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C309" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>642</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>20</v>
@@ -13347,10 +13339,10 @@
         <v>1543</v>
       </c>
       <c r="B310" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C310" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>20</v>
@@ -13382,10 +13374,10 @@
         <v>1553</v>
       </c>
       <c r="B311" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>645</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>646</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>20</v>
@@ -13417,10 +13409,10 @@
         <v>1557</v>
       </c>
       <c r="B312" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C312" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>648</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>20</v>
@@ -13452,10 +13444,10 @@
         <v>1573</v>
       </c>
       <c r="B313" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C313" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>650</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>20</v>
@@ -13487,10 +13479,10 @@
         <v>1592</v>
       </c>
       <c r="B314" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="C314" s="0" t="s">
         <v>651</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>652</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>20</v>
@@ -13522,10 +13514,10 @@
         <v>1601</v>
       </c>
       <c r="B315" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C315" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>20</v>
@@ -13557,10 +13549,10 @@
         <v>1604</v>
       </c>
       <c r="B316" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="C316" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>656</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>20</v>
@@ -13592,10 +13584,10 @@
         <v>1612</v>
       </c>
       <c r="B317" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C317" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>658</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>20</v>
@@ -13627,10 +13619,10 @@
         <v>1613</v>
       </c>
       <c r="B318" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C318" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>660</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>20</v>
@@ -13662,10 +13654,10 @@
         <v>1614</v>
       </c>
       <c r="B319" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C319" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>662</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>20</v>
@@ -13697,10 +13689,10 @@
         <v>1617</v>
       </c>
       <c r="B320" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C320" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>20</v>
@@ -13732,10 +13724,10 @@
         <v>1622</v>
       </c>
       <c r="B321" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C321" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>666</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>20</v>
@@ -13767,10 +13759,10 @@
         <v>1625</v>
       </c>
       <c r="B322" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>667</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>668</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>20</v>
@@ -13802,10 +13794,10 @@
         <v>1627</v>
       </c>
       <c r="B323" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C323" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>670</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>20</v>
@@ -13837,10 +13829,10 @@
         <v>1635</v>
       </c>
       <c r="B324" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>672</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>20</v>
@@ -13872,10 +13864,10 @@
         <v>1639</v>
       </c>
       <c r="B325" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C325" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>674</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>20</v>
@@ -13907,10 +13899,10 @@
         <v>1644</v>
       </c>
       <c r="B326" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>676</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>20</v>
@@ -13942,10 +13934,10 @@
         <v>1656</v>
       </c>
       <c r="B327" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>20</v>
@@ -13977,10 +13969,10 @@
         <v>1664</v>
       </c>
       <c r="B328" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C328" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>680</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>20</v>
@@ -14012,10 +14004,10 @@
         <v>1669</v>
       </c>
       <c r="B329" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="C329" s="0" t="s">
         <v>681</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>682</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>20</v>
@@ -14047,10 +14039,10 @@
         <v>1677</v>
       </c>
       <c r="B330" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="C330" s="0" t="s">
         <v>683</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>684</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>20</v>
@@ -14082,10 +14074,10 @@
         <v>1678</v>
       </c>
       <c r="B331" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>685</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>686</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>20</v>
@@ -14117,10 +14109,10 @@
         <v>1681</v>
       </c>
       <c r="B332" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>687</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>688</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>20</v>
@@ -14152,10 +14144,10 @@
         <v>1689</v>
       </c>
       <c r="B333" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>690</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>20</v>
@@ -14187,10 +14179,10 @@
         <v>1692</v>
       </c>
       <c r="B334" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>691</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>692</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>20</v>
@@ -14222,10 +14214,10 @@
         <v>1696</v>
       </c>
       <c r="B335" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C335" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>694</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>20</v>
@@ -14257,10 +14249,10 @@
         <v>1701</v>
       </c>
       <c r="B336" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C336" s="0" t="s">
         <v>695</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>696</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>20</v>
@@ -14292,10 +14284,10 @@
         <v>1705</v>
       </c>
       <c r="B337" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C337" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>698</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>20</v>
@@ -14327,10 +14319,10 @@
         <v>1711</v>
       </c>
       <c r="B338" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C338" s="0" t="s">
         <v>699</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>700</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>20</v>
@@ -14362,10 +14354,10 @@
         <v>1715</v>
       </c>
       <c r="B339" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="C339" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>702</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>20</v>
@@ -14397,10 +14389,10 @@
         <v>1720</v>
       </c>
       <c r="B340" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="C340" s="0" t="s">
         <v>703</v>
-      </c>
-      <c r="C340" s="0" t="s">
-        <v>704</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>20</v>
@@ -14432,10 +14424,10 @@
         <v>1725</v>
       </c>
       <c r="B341" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>706</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>20</v>
@@ -14467,10 +14459,10 @@
         <v>1733</v>
       </c>
       <c r="B342" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C342" s="0" t="s">
         <v>707</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>708</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>20</v>
@@ -14502,10 +14494,10 @@
         <v>1744</v>
       </c>
       <c r="B343" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="C343" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>710</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>20</v>
@@ -14537,10 +14529,10 @@
         <v>1753</v>
       </c>
       <c r="B344" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C344" s="0" t="s">
         <v>711</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>712</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>20</v>
@@ -14572,10 +14564,10 @@
         <v>1756</v>
       </c>
       <c r="B345" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C345" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>20</v>
@@ -14607,10 +14599,10 @@
         <v>1769</v>
       </c>
       <c r="B346" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C346" s="0" t="s">
         <v>715</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>716</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>20</v>
@@ -14642,10 +14634,10 @@
         <v>1775</v>
       </c>
       <c r="B347" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="C347" s="0" t="s">
         <v>717</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>20</v>
@@ -14677,10 +14669,10 @@
         <v>1779</v>
       </c>
       <c r="B348" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C348" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="C348" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>20</v>
@@ -14712,10 +14704,10 @@
         <v>1790</v>
       </c>
       <c r="B349" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C349" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>722</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>20</v>
@@ -14747,10 +14739,10 @@
         <v>1800</v>
       </c>
       <c r="B350" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C350" s="0" t="s">
         <v>723</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>724</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>20</v>
@@ -14782,10 +14774,10 @@
         <v>1810</v>
       </c>
       <c r="B351" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="C351" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>726</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>20</v>
@@ -14817,10 +14809,10 @@
         <v>1812</v>
       </c>
       <c r="B352" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C352" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>728</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>20</v>
@@ -14852,10 +14844,10 @@
         <v>1818</v>
       </c>
       <c r="B353" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="C353" s="0" t="s">
         <v>729</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>730</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>20</v>
@@ -14887,10 +14879,10 @@
         <v>1826</v>
       </c>
       <c r="B354" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C354" s="0" t="s">
         <v>731</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>732</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>20</v>
@@ -14922,10 +14914,10 @@
         <v>1831</v>
       </c>
       <c r="B355" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C355" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>734</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>20</v>
@@ -14957,10 +14949,10 @@
         <v>1838</v>
       </c>
       <c r="B356" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C356" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>736</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>20</v>
@@ -14992,10 +14984,10 @@
         <v>1846</v>
       </c>
       <c r="B357" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C357" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>738</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>20</v>
@@ -15027,10 +15019,10 @@
         <v>1850</v>
       </c>
       <c r="B358" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C358" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>20</v>
@@ -15062,10 +15054,10 @@
         <v>1852</v>
       </c>
       <c r="B359" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="C359" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="C359" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>20</v>
@@ -15097,10 +15089,10 @@
         <v>1868</v>
       </c>
       <c r="B360" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C360" s="0" t="s">
         <v>743</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>744</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>20</v>
@@ -15132,10 +15124,10 @@
         <v>1876</v>
       </c>
       <c r="B361" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C361" s="0" t="s">
         <v>745</v>
-      </c>
-      <c r="C361" s="0" t="s">
-        <v>746</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>20</v>
@@ -15167,10 +15159,10 @@
         <v>1877</v>
       </c>
       <c r="B362" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C362" s="0" t="s">
         <v>747</v>
-      </c>
-      <c r="C362" s="0" t="s">
-        <v>748</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>20</v>
@@ -15202,10 +15194,10 @@
         <v>1878</v>
       </c>
       <c r="B363" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C363" s="0" t="s">
         <v>749</v>
-      </c>
-      <c r="C363" s="0" t="s">
-        <v>750</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>20</v>
@@ -15237,10 +15229,10 @@
         <v>1880</v>
       </c>
       <c r="B364" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C364" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>752</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>20</v>
@@ -15272,10 +15264,10 @@
         <v>1887</v>
       </c>
       <c r="B365" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="C365" s="0" t="s">
         <v>753</v>
-      </c>
-      <c r="C365" s="0" t="s">
-        <v>754</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>20</v>
@@ -15307,10 +15299,10 @@
         <v>1890</v>
       </c>
       <c r="B366" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>756</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>20</v>
@@ -15342,10 +15334,10 @@
         <v>1893</v>
       </c>
       <c r="B367" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C367" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>758</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>20</v>
@@ -15377,10 +15369,10 @@
         <v>1894</v>
       </c>
       <c r="B368" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C368" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>760</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>20</v>
@@ -15412,10 +15404,10 @@
         <v>1899</v>
       </c>
       <c r="B369" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C369" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>762</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>20</v>
@@ -15447,10 +15439,10 @@
         <v>1915</v>
       </c>
       <c r="B370" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C370" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>764</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>20</v>
@@ -15482,10 +15474,10 @@
         <v>1928</v>
       </c>
       <c r="B371" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C371" s="0" t="s">
         <v>765</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>766</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>20</v>
@@ -15517,10 +15509,10 @@
         <v>1933</v>
       </c>
       <c r="B372" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C372" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>20</v>
@@ -15552,10 +15544,10 @@
         <v>1960</v>
       </c>
       <c r="B373" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C373" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>770</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>20</v>
@@ -15587,10 +15579,10 @@
         <v>1966</v>
       </c>
       <c r="B374" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>772</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>20</v>
@@ -15622,10 +15614,10 @@
         <v>11000</v>
       </c>
       <c r="B375" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C375" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>774</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>20</v>
@@ -15657,10 +15649,10 @@
         <v>11050</v>
       </c>
       <c r="B376" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C376" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>776</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>20</v>
@@ -15692,10 +15684,10 @@
         <v>11100</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>20</v>
@@ -15727,10 +15719,10 @@
         <v>11150</v>
       </c>
       <c r="B378" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C378" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>20</v>
@@ -15762,10 +15754,10 @@
         <v>11200</v>
       </c>
       <c r="B379" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="C379" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="C379" s="0" t="s">
-        <v>781</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>20</v>
@@ -15797,10 +15789,10 @@
         <v>11250</v>
       </c>
       <c r="B380" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C380" s="0" t="s">
         <v>782</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>783</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>20</v>
@@ -15832,10 +15824,10 @@
         <v>11300</v>
       </c>
       <c r="B381" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="C381" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="C381" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>20</v>
@@ -15867,10 +15859,10 @@
         <v>11350</v>
       </c>
       <c r="B382" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C382" s="0" t="s">
         <v>786</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>787</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>20</v>
@@ -15902,10 +15894,10 @@
         <v>11400</v>
       </c>
       <c r="B383" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C383" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="C383" s="0" t="s">
-        <v>789</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>20</v>
@@ -15937,10 +15929,10 @@
         <v>11450</v>
       </c>
       <c r="B384" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C384" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>791</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>20</v>
@@ -15972,10 +15964,10 @@
         <v>11500</v>
       </c>
       <c r="B385" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C385" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="C385" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>20</v>
@@ -16007,10 +15999,10 @@
         <v>11550</v>
       </c>
       <c r="B386" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C386" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>20</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -10,21 +10,17 @@
   <sheets>
     <sheet name="atlas_list" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">atlas_list!$A$1:$K$386</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">atlas_list!$A$1:$K$386</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="812">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -1800,12 +1796,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yellow-faced Honeyeater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichenostomus melanops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow-tufted Honeyeater</t>
   </si>
   <si>
     <t xml:space="preserve">Manorina melanophrys</t>
@@ -2477,9 +2467,8 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2541,12 +2530,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2562,68 +2547,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J98" activeCellId="0" sqref="J98"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A276" activeCellId="0" sqref="A276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="30.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6275510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.1683673469388"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>10</v>
       </c>
@@ -2658,7 +2643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>12</v>
       </c>
@@ -2693,7 +2678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>13</v>
       </c>
@@ -2728,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>16</v>
       </c>
@@ -2763,7 +2748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>20</v>
       </c>
@@ -2798,7 +2783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>24</v>
       </c>
@@ -2833,7 +2818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>28</v>
       </c>
@@ -2868,7 +2853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>30</v>
       </c>
@@ -2903,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>34</v>
       </c>
@@ -2938,7 +2923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>36</v>
       </c>
@@ -2973,7 +2958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>37</v>
       </c>
@@ -3008,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>41</v>
       </c>
@@ -3043,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>42</v>
       </c>
@@ -3078,7 +3063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>43</v>
       </c>
@@ -3113,7 +3098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>44</v>
       </c>
@@ -3148,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>47</v>
       </c>
@@ -3183,7 +3168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>60</v>
       </c>
@@ -3218,7 +3203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>61</v>
       </c>
@@ -3253,7 +3238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>64</v>
       </c>
@@ -3288,7 +3273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>76</v>
       </c>
@@ -3323,7 +3308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>78</v>
       </c>
@@ -3358,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>79</v>
       </c>
@@ -3393,7 +3378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>81</v>
       </c>
@@ -3428,7 +3413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>85</v>
       </c>
@@ -3463,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>91</v>
       </c>
@@ -3498,7 +3483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>96</v>
       </c>
@@ -3533,7 +3518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>100</v>
       </c>
@@ -3568,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>115</v>
       </c>
@@ -3603,7 +3588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>120</v>
       </c>
@@ -3638,7 +3623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>123</v>
       </c>
@@ -3673,7 +3658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>124</v>
       </c>
@@ -3708,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>128</v>
       </c>
@@ -3743,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>134</v>
       </c>
@@ -3778,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>145</v>
       </c>
@@ -3813,7 +3798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>149</v>
       </c>
@@ -3848,7 +3833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>151</v>
       </c>
@@ -3883,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>158</v>
       </c>
@@ -3918,7 +3903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>161</v>
       </c>
@@ -3953,7 +3938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>167</v>
       </c>
@@ -3988,7 +3973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>171</v>
       </c>
@@ -4023,7 +4008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>173</v>
       </c>
@@ -4058,7 +4043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>175</v>
       </c>
@@ -4093,7 +4078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>178</v>
       </c>
@@ -4128,7 +4113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>184</v>
       </c>
@@ -4163,7 +4148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>186</v>
       </c>
@@ -4198,7 +4183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>189</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>192</v>
       </c>
@@ -4268,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>195</v>
       </c>
@@ -4303,7 +4288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>201</v>
       </c>
@@ -4338,7 +4323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>206</v>
       </c>
@@ -4373,7 +4358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>213</v>
       </c>
@@ -4408,7 +4393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>218</v>
       </c>
@@ -4443,7 +4428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>223</v>
       </c>
@@ -4478,7 +4463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>228</v>
       </c>
@@ -4513,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>234</v>
       </c>
@@ -4548,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>241</v>
       </c>
@@ -4583,7 +4568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>246</v>
       </c>
@@ -4618,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>249</v>
       </c>
@@ -4653,7 +4638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>251</v>
       </c>
@@ -4688,7 +4673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>253</v>
       </c>
@@ -4723,7 +4708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>259</v>
       </c>
@@ -4758,7 +4743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>265</v>
       </c>
@@ -4793,7 +4778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>267</v>
       </c>
@@ -4828,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>269</v>
       </c>
@@ -4863,7 +4848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>273</v>
       </c>
@@ -4898,7 +4883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>274</v>
       </c>
@@ -4933,7 +4918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>275</v>
       </c>
@@ -4968,7 +4953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>278</v>
       </c>
@@ -4997,13 +4982,13 @@
         <v>2005</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>279</v>
       </c>
@@ -5038,7 +5023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>280</v>
       </c>
@@ -5073,7 +5058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>284</v>
       </c>
@@ -5108,7 +5093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>285</v>
       </c>
@@ -5143,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>286</v>
       </c>
@@ -5178,7 +5163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>288</v>
       </c>
@@ -5213,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>289</v>
       </c>
@@ -5232,23 +5217,17 @@
       <c r="F76" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>297</v>
       </c>
@@ -5283,7 +5262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>298</v>
       </c>
@@ -5318,7 +5297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>300</v>
       </c>
@@ -5353,7 +5332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>303</v>
       </c>
@@ -5388,7 +5367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>310</v>
       </c>
@@ -5423,7 +5402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>312</v>
       </c>
@@ -5452,13 +5431,13 @@
         <v>2005</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>313</v>
       </c>
@@ -5493,7 +5472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>316</v>
       </c>
@@ -5528,7 +5507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>319</v>
       </c>
@@ -5563,7 +5542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>321</v>
       </c>
@@ -5598,7 +5577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>324</v>
       </c>
@@ -5633,7 +5612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>327</v>
       </c>
@@ -5668,7 +5647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>330</v>
       </c>
@@ -5703,7 +5682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>331</v>
       </c>
@@ -5738,7 +5717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>335</v>
       </c>
@@ -5773,7 +5752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>337</v>
       </c>
@@ -5808,7 +5787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>339</v>
       </c>
@@ -5843,7 +5822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>340</v>
       </c>
@@ -5878,7 +5857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>343</v>
       </c>
@@ -5913,7 +5892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>344</v>
       </c>
@@ -5948,7 +5927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>346</v>
       </c>
@@ -5983,7 +5962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>348</v>
       </c>
@@ -6018,7 +5997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>349</v>
       </c>
@@ -6053,7 +6032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>350</v>
       </c>
@@ -6088,7 +6067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>351</v>
       </c>
@@ -6123,7 +6102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>359</v>
       </c>
@@ -6158,7 +6137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>360</v>
       </c>
@@ -6193,7 +6172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>363</v>
       </c>
@@ -6228,7 +6207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>366</v>
       </c>
@@ -6263,7 +6242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>367</v>
       </c>
@@ -6298,7 +6277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>369</v>
       </c>
@@ -6333,7 +6312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>370</v>
       </c>
@@ -6368,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>371</v>
       </c>
@@ -6397,13 +6376,13 @@
         <v>2005</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K109" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>373</v>
       </c>
@@ -6438,7 +6417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>376</v>
       </c>
@@ -6473,7 +6452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>377</v>
       </c>
@@ -6508,7 +6487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>382</v>
       </c>
@@ -6543,7 +6522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>384</v>
       </c>
@@ -6578,7 +6557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>385</v>
       </c>
@@ -6613,7 +6592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>390</v>
       </c>
@@ -6648,7 +6627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>392</v>
       </c>
@@ -6683,7 +6662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>394</v>
       </c>
@@ -6702,23 +6681,17 @@
       <c r="F118" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I118" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K118" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>395</v>
       </c>
@@ -6753,7 +6726,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>396</v>
       </c>
@@ -6788,7 +6761,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>400</v>
       </c>
@@ -6823,7 +6796,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>404</v>
       </c>
@@ -6858,7 +6831,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>411</v>
       </c>
@@ -6893,7 +6866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>416</v>
       </c>
@@ -6922,13 +6895,13 @@
         <v>2005</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>417</v>
       </c>
@@ -6957,13 +6930,13 @@
         <v>2005</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K125" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>423</v>
       </c>
@@ -6998,7 +6971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>428</v>
       </c>
@@ -7033,7 +7006,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>431</v>
       </c>
@@ -7068,7 +7041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>434</v>
       </c>
@@ -7103,7 +7076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>442</v>
       </c>
@@ -7138,7 +7111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>443</v>
       </c>
@@ -7173,7 +7146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>444</v>
       </c>
@@ -7208,7 +7181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>446</v>
       </c>
@@ -7243,7 +7216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>456</v>
       </c>
@@ -7278,7 +7251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>463</v>
       </c>
@@ -7313,7 +7286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>465</v>
       </c>
@@ -7348,7 +7321,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>493</v>
       </c>
@@ -7367,23 +7340,17 @@
       <c r="F137" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I137" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>497</v>
       </c>
@@ -7402,23 +7369,17 @@
       <c r="F138" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G138" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I138" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K138" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>501</v>
       </c>
@@ -7437,23 +7398,17 @@
       <c r="F139" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I139" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>517</v>
       </c>
@@ -7482,13 +7437,13 @@
         <v>2005</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K140" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>519</v>
       </c>
@@ -7507,23 +7462,17 @@
       <c r="F141" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G141" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I141" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K141" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>534</v>
       </c>
@@ -7542,23 +7491,17 @@
       <c r="F142" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I142" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K142" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>535</v>
       </c>
@@ -7577,23 +7520,17 @@
       <c r="F143" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I143" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K143" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>537</v>
       </c>
@@ -7612,23 +7549,17 @@
       <c r="F144" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G144" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I144" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K144" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>547</v>
       </c>
@@ -7647,23 +7578,17 @@
       <c r="F145" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I145" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K145" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>548</v>
       </c>
@@ -7682,23 +7607,17 @@
       <c r="F146" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G146" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I146" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K146" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>555</v>
       </c>
@@ -7733,7 +7652,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>563</v>
       </c>
@@ -7752,23 +7671,17 @@
       <c r="F148" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G148" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I148" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K148" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>564</v>
       </c>
@@ -7787,23 +7700,17 @@
       <c r="F149" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G149" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I149" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K149" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>582</v>
       </c>
@@ -7838,7 +7745,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>584</v>
       </c>
@@ -7873,7 +7780,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>587</v>
       </c>
@@ -7892,23 +7799,17 @@
       <c r="F152" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G152" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I152" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>589</v>
       </c>
@@ -7927,23 +7828,17 @@
       <c r="F153" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G153" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I153" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K153" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>590</v>
       </c>
@@ -7972,13 +7867,13 @@
         <v>2005</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K154" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>591</v>
       </c>
@@ -8007,13 +7902,13 @@
         <v>2005</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K155" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>611</v>
       </c>
@@ -8048,7 +7943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>613</v>
       </c>
@@ -8083,7 +7978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>615</v>
       </c>
@@ -8118,7 +8013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>619</v>
       </c>
@@ -8153,7 +8048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>627</v>
       </c>
@@ -8188,7 +8083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>629</v>
       </c>
@@ -8223,7 +8118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>636</v>
       </c>
@@ -8258,7 +8153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>640</v>
       </c>
@@ -8293,7 +8188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>645</v>
       </c>
@@ -8328,7 +8223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>647</v>
       </c>
@@ -8363,7 +8258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>650</v>
       </c>
@@ -8398,7 +8293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>651</v>
       </c>
@@ -8433,7 +8328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>656</v>
       </c>
@@ -8468,7 +8363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>658</v>
       </c>
@@ -8503,7 +8398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>659</v>
       </c>
@@ -8538,7 +8433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>660</v>
       </c>
@@ -8573,7 +8468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>661</v>
       </c>
@@ -8608,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>662</v>
       </c>
@@ -8643,7 +8538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>663</v>
       </c>
@@ -8678,7 +8573,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>669</v>
       </c>
@@ -8713,7 +8608,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>670</v>
       </c>
@@ -8748,7 +8643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>672</v>
       </c>
@@ -8777,13 +8672,13 @@
         <v>2005</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>674</v>
       </c>
@@ -8818,7 +8713,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>677</v>
       </c>
@@ -8853,7 +8748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>682</v>
       </c>
@@ -8888,7 +8783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>684</v>
       </c>
@@ -8923,7 +8818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>686</v>
       </c>
@@ -8958,7 +8853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>688</v>
       </c>
@@ -8993,7 +8888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>690</v>
       </c>
@@ -9028,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>693</v>
       </c>
@@ -9063,7 +8958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>697</v>
       </c>
@@ -9098,7 +8993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>698</v>
       </c>
@@ -9133,7 +9028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>699</v>
       </c>
@@ -9168,7 +9063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>702</v>
       </c>
@@ -9203,7 +9098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>705</v>
       </c>
@@ -9238,7 +9133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>706</v>
       </c>
@@ -9273,7 +9168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>707</v>
       </c>
@@ -9308,7 +9203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>708</v>
       </c>
@@ -9343,7 +9238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>710</v>
       </c>
@@ -9378,7 +9273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>717</v>
       </c>
@@ -9413,7 +9308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>720</v>
       </c>
@@ -9448,7 +9343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>721</v>
       </c>
@@ -9483,7 +9378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>722</v>
       </c>
@@ -9518,7 +9413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>724</v>
       </c>
@@ -9553,7 +9448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>726</v>
       </c>
@@ -9588,7 +9483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>728</v>
       </c>
@@ -9623,7 +9518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>730</v>
       </c>
@@ -9658,7 +9553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>735</v>
       </c>
@@ -9693,7 +9588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>741</v>
       </c>
@@ -9728,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>742</v>
       </c>
@@ -9763,7 +9658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>746</v>
       </c>
@@ -9798,7 +9693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>764</v>
       </c>
@@ -9833,7 +9728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>765</v>
       </c>
@@ -9868,7 +9763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>773</v>
       </c>
@@ -9903,7 +9798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>782</v>
       </c>
@@ -9938,7 +9833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>785</v>
       </c>
@@ -9973,7 +9868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>789</v>
       </c>
@@ -10008,7 +9903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>793</v>
       </c>
@@ -10043,7 +9938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>797</v>
       </c>
@@ -10078,7 +9973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>800</v>
       </c>
@@ -10107,13 +10002,13 @@
         <v>2005</v>
       </c>
       <c r="J215" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K215" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>803</v>
       </c>
@@ -10148,7 +10043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>807</v>
       </c>
@@ -10183,7 +10078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>810</v>
       </c>
@@ -10218,7 +10113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>813</v>
       </c>
@@ -10253,7 +10148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>814</v>
       </c>
@@ -10288,7 +10183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>818</v>
       </c>
@@ -10323,7 +10218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>819</v>
       </c>
@@ -10358,7 +10253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>825</v>
       </c>
@@ -10393,7 +10288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>829</v>
       </c>
@@ -10428,7 +10323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>838</v>
       </c>
@@ -10463,7 +10358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>842</v>
       </c>
@@ -10498,7 +10393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>845</v>
       </c>
@@ -10533,7 +10428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>849</v>
       </c>
@@ -10568,7 +10463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
         <v>853</v>
       </c>
@@ -10603,7 +10498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>861</v>
       </c>
@@ -10638,7 +10533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>864</v>
       </c>
@@ -10673,7 +10568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>871</v>
       </c>
@@ -10708,7 +10603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>887</v>
       </c>
@@ -10743,7 +10638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>898</v>
       </c>
@@ -10778,7 +10673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>901</v>
       </c>
@@ -10813,7 +10708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <v>914</v>
       </c>
@@ -10842,13 +10737,13 @@
         <v>2005</v>
       </c>
       <c r="J236" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K236" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>933</v>
       </c>
@@ -10883,7 +10778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>935</v>
       </c>
@@ -10918,7 +10813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>938</v>
       </c>
@@ -10953,7 +10848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>943</v>
       </c>
@@ -10988,7 +10883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
         <v>948</v>
       </c>
@@ -11023,7 +10918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>961</v>
       </c>
@@ -11058,7 +10953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>980</v>
       </c>
@@ -11093,7 +10988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>983</v>
       </c>
@@ -11128,7 +11023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>984</v>
       </c>
@@ -11163,7 +11058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
         <v>995</v>
       </c>
@@ -11198,7 +11093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>1001</v>
       </c>
@@ -11233,7 +11128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
         <v>1006</v>
       </c>
@@ -11268,7 +11163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>1019</v>
       </c>
@@ -11303,7 +11198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>1025</v>
       </c>
@@ -11338,7 +11233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>1037</v>
       </c>
@@ -11373,7 +11268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>1094</v>
       </c>
@@ -11408,7 +11303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
         <v>1101</v>
       </c>
@@ -11443,7 +11338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>1103</v>
       </c>
@@ -11478,7 +11373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>1104</v>
       </c>
@@ -11513,7 +11408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>1116</v>
       </c>
@@ -11526,7 +11421,7 @@
       <c r="D256" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F256" s="0" t="s">
@@ -11548,7 +11443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
         <v>1119</v>
       </c>
@@ -11583,7 +11478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
         <v>1123</v>
       </c>
@@ -11618,7 +11513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
         <v>1131</v>
       </c>
@@ -11631,7 +11526,7 @@
       <c r="D259" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E259" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F259" s="0" t="s">
@@ -11653,7 +11548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
         <v>1137</v>
       </c>
@@ -11688,7 +11583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>1145</v>
       </c>
@@ -11723,7 +11618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
         <v>1149</v>
       </c>
@@ -11758,7 +11653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
         <v>1153</v>
       </c>
@@ -11793,7 +11688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
         <v>1159</v>
       </c>
@@ -11828,7 +11723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
         <v>1162</v>
       </c>
@@ -11863,7 +11758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
         <v>1171</v>
       </c>
@@ -11898,7 +11793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
         <v>1195</v>
       </c>
@@ -11933,7 +11828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
         <v>1208</v>
       </c>
@@ -11968,7 +11863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>1210</v>
       </c>
@@ -12003,7 +11898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>1214</v>
       </c>
@@ -12038,7 +11933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <v>1215</v>
       </c>
@@ -12073,7 +11968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
         <v>1231</v>
       </c>
@@ -12108,7 +12003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <v>1238</v>
       </c>
@@ -12143,7 +12038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <v>1249</v>
       </c>
@@ -12178,7 +12073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
         <v>1250</v>
       </c>
@@ -12191,7 +12086,7 @@
       <c r="D275" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E275" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F275" s="0" t="s">
@@ -12213,9 +12108,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>592</v>
@@ -12226,7 +12121,7 @@
       <c r="D276" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E276" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F276" s="0" t="s">
@@ -12248,9 +12143,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>594</v>
@@ -12283,9 +12178,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>596</v>
@@ -12318,9 +12213,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>598</v>
@@ -12353,9 +12248,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>600</v>
@@ -12388,9 +12283,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>602</v>
@@ -12423,9 +12318,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
-        <v>1300</v>
+        <v>1313</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>604</v>
@@ -12458,9 +12353,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>606</v>
@@ -12493,9 +12388,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>608</v>
@@ -12528,9 +12423,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>610</v>
@@ -12563,9 +12458,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>612</v>
@@ -12598,9 +12493,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>614</v>
@@ -12633,9 +12528,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>616</v>
@@ -12668,9 +12563,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>618</v>
@@ -12703,9 +12598,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>620</v>
@@ -12738,9 +12633,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
-        <v>1398</v>
+        <v>1411</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>622</v>
@@ -12773,9 +12668,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
-        <v>1411</v>
+        <v>1424</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>624</v>
@@ -12808,9 +12703,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="B293" s="0" t="s">
         <v>626</v>
@@ -12843,9 +12738,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>628</v>
@@ -12878,9 +12773,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>630</v>
@@ -12913,9 +12808,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>632</v>
@@ -12942,15 +12837,15 @@
         <v>2005</v>
       </c>
       <c r="J296" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K296" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B297" s="0" t="s">
         <v>634</v>
@@ -12983,9 +12878,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>636</v>
@@ -12997,7 +12892,7 @@
         <v>13</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F298" s="0" t="s">
         <v>20</v>
@@ -13018,9 +12913,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="B299" s="0" t="s">
         <v>638</v>
@@ -13053,9 +12948,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="B300" s="0" t="s">
         <v>640</v>
@@ -13088,9 +12983,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>642</v>
@@ -13102,7 +12997,7 @@
         <v>13</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="F301" s="0" t="s">
         <v>20</v>
@@ -13123,9 +13018,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>644</v>
@@ -13158,9 +13053,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>646</v>
@@ -13193,9 +13088,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
-        <v>1474</v>
+        <v>1500</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>648</v>
@@ -13228,9 +13123,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
-        <v>1500</v>
+        <v>1509</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>650</v>
@@ -13263,9 +13158,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
-        <v>1509</v>
+        <v>1520</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>652</v>
@@ -13298,9 +13193,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
-        <v>1520</v>
+        <v>1529</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>654</v>
@@ -13333,9 +13228,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>656</v>
@@ -13368,9 +13263,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>658</v>
@@ -13403,9 +13298,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>660</v>
@@ -13438,9 +13333,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>662</v>
@@ -13473,9 +13368,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
-        <v>1557</v>
+        <v>1573</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>664</v>
@@ -13508,9 +13403,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
-        <v>1573</v>
+        <v>1592</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>666</v>
@@ -13521,7 +13416,7 @@
       <c r="D313" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E313" s="1" t="s">
+      <c r="E313" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F313" s="0" t="s">
@@ -13543,9 +13438,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>668</v>
@@ -13556,7 +13451,7 @@
       <c r="D314" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E314" s="1" t="s">
+      <c r="E314" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F314" s="0" t="s">
@@ -13578,9 +13473,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>670</v>
@@ -13591,7 +13486,7 @@
       <c r="D315" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E315" s="1" t="s">
+      <c r="E315" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F315" s="0" t="s">
@@ -13613,9 +13508,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>672</v>
@@ -13648,9 +13543,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>674</v>
@@ -13683,9 +13578,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>676</v>
@@ -13718,9 +13613,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>678</v>
@@ -13753,9 +13648,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>680</v>
@@ -13788,9 +13683,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>682</v>
@@ -13823,9 +13718,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>684</v>
@@ -13837,7 +13732,7 @@
         <v>13</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F322" s="0" t="s">
         <v>20</v>
@@ -13858,9 +13753,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="B323" s="0" t="s">
         <v>686</v>
@@ -13872,7 +13767,7 @@
         <v>13</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="F323" s="0" t="s">
         <v>20</v>
@@ -13893,9 +13788,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>688</v>
@@ -13907,7 +13802,7 @@
         <v>13</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F324" s="0" t="s">
         <v>20</v>
@@ -13928,9 +13823,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>690</v>
@@ -13942,7 +13837,7 @@
         <v>13</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F325" s="0" t="s">
         <v>20</v>
@@ -13963,9 +13858,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
-        <v>1644</v>
+        <v>1656</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>692</v>
@@ -13998,9 +13893,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>694</v>
@@ -14027,15 +13922,15 @@
         <v>2005</v>
       </c>
       <c r="J327" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K327" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>696</v>
@@ -14068,9 +13963,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>698</v>
@@ -14082,7 +13977,7 @@
         <v>13</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F329" s="0" t="s">
         <v>20</v>
@@ -14103,9 +13998,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>700</v>
@@ -14117,7 +14012,7 @@
         <v>13</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F330" s="0" t="s">
         <v>20</v>
@@ -14138,9 +14033,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>702</v>
@@ -14173,9 +14068,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>704</v>
@@ -14187,7 +14082,7 @@
         <v>13</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F332" s="0" t="s">
         <v>20</v>
@@ -14208,9 +14103,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>706</v>
@@ -14222,7 +14117,7 @@
         <v>13</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="F333" s="0" t="s">
         <v>20</v>
@@ -14243,9 +14138,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>708</v>
@@ -14257,7 +14152,7 @@
         <v>13</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F334" s="0" t="s">
         <v>20</v>
@@ -14278,9 +14173,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>710</v>
@@ -14292,7 +14187,7 @@
         <v>13</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>20</v>
@@ -14313,9 +14208,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>712</v>
@@ -14327,7 +14222,7 @@
         <v>13</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F336" s="0" t="s">
         <v>20</v>
@@ -14348,9 +14243,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="B337" s="0" t="s">
         <v>714</v>
@@ -14358,7 +14253,7 @@
       <c r="C337" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="D337" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E337" s="0" t="s">
@@ -14383,9 +14278,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="B338" s="0" t="s">
         <v>716</v>
@@ -14418,9 +14313,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="B339" s="0" t="s">
         <v>718</v>
@@ -14453,9 +14348,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>720</v>
@@ -14488,9 +14383,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>722</v>
@@ -14523,9 +14418,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
-        <v>1733</v>
+        <v>1744</v>
       </c>
       <c r="B342" s="0" t="s">
         <v>724</v>
@@ -14558,9 +14453,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
-        <v>1744</v>
+        <v>1753</v>
       </c>
       <c r="B343" s="0" t="s">
         <v>726</v>
@@ -14593,9 +14488,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>728</v>
@@ -14628,9 +14523,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
-        <v>1756</v>
+        <v>1769</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>730</v>
@@ -14663,9 +14558,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>732</v>
@@ -14698,9 +14593,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>734</v>
@@ -14733,9 +14628,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
-        <v>1779</v>
+        <v>1790</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>736</v>
@@ -14768,9 +14663,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>738</v>
@@ -14803,9 +14698,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>740</v>
@@ -14838,9 +14733,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>742</v>
@@ -14873,9 +14768,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>744</v>
@@ -14908,9 +14803,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>746</v>
@@ -14922,7 +14817,7 @@
         <v>13</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F353" s="0" t="s">
         <v>20</v>
@@ -14943,9 +14838,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>748</v>
@@ -14957,7 +14852,7 @@
         <v>13</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>20</v>
@@ -14978,9 +14873,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>750</v>
@@ -14992,7 +14887,7 @@
         <v>13</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="F355" s="0" t="s">
         <v>20</v>
@@ -15013,9 +14908,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>752</v>
@@ -15027,7 +14922,7 @@
         <v>13</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="F356" s="0" t="s">
         <v>20</v>
@@ -15048,9 +14943,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>754</v>
@@ -15083,9 +14978,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>756</v>
@@ -15118,9 +15013,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
-        <v>1852</v>
+        <v>1868</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>758</v>
@@ -15153,9 +15048,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>760</v>
@@ -15188,9 +15083,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>762</v>
@@ -15223,9 +15118,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>764</v>
@@ -15258,9 +15153,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>766</v>
@@ -15293,9 +15188,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>768</v>
@@ -15307,7 +15202,7 @@
         <v>13</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F364" s="0" t="s">
         <v>20</v>
@@ -15328,9 +15223,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>770</v>
@@ -15342,7 +15237,7 @@
         <v>13</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="F365" s="0" t="s">
         <v>20</v>
@@ -15357,15 +15252,15 @@
         <v>2005</v>
       </c>
       <c r="J365" s="0" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="K365" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="B366" s="0" t="s">
         <v>772</v>
@@ -15398,9 +15293,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>774</v>
@@ -15412,7 +15307,7 @@
         <v>13</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="F367" s="0" t="s">
         <v>20</v>
@@ -15433,9 +15328,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>776</v>
@@ -15468,9 +15363,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
-        <v>1899</v>
+        <v>1915</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>778</v>
@@ -15503,9 +15398,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
-        <v>1915</v>
+        <v>1928</v>
       </c>
       <c r="B370" s="0" t="s">
         <v>780</v>
@@ -15517,7 +15412,7 @@
         <v>13</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="F370" s="0" t="s">
         <v>20</v>
@@ -15538,9 +15433,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="B371" s="0" t="s">
         <v>782</v>
@@ -15573,9 +15468,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
-        <v>1933</v>
+        <v>1960</v>
       </c>
       <c r="B372" s="0" t="s">
         <v>784</v>
@@ -15608,9 +15503,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>786</v>
@@ -15625,7 +15520,7 @@
         <v>20</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>20</v>
+        <v>788</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>16</v>
@@ -15643,15 +15538,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
-        <v>1966</v>
+        <v>11000</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>13</v>
@@ -15660,7 +15555,7 @@
         <v>20</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>790</v>
+        <v>20</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>16</v>
@@ -15678,9 +15573,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
-        <v>11000</v>
+        <v>11050</v>
       </c>
       <c r="B375" s="0" t="s">
         <v>791</v>
@@ -15713,51 +15608,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
-        <v>11050</v>
+        <v>11100</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>793</v>
       </c>
       <c r="C376" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G376" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H376" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I376" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J376" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="K376" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B377" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="D376" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E376" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F376" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G376" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H376" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I376" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J376" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="K376" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="n">
-        <v>11100</v>
-      </c>
-      <c r="B377" s="0" t="s">
+      <c r="C377" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="C377" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="D377" s="0" t="s">
         <v>13</v>
       </c>
@@ -15783,9 +15678,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
-        <v>11150</v>
+        <v>11200</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>796</v>
@@ -15818,9 +15713,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
-        <v>11200</v>
+        <v>11250</v>
       </c>
       <c r="B379" s="0" t="s">
         <v>798</v>
@@ -15853,9 +15748,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
-        <v>11250</v>
+        <v>11300</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>800</v>
@@ -15888,9 +15783,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
-        <v>11300</v>
+        <v>11350</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>802</v>
@@ -15923,9 +15818,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
-        <v>11350</v>
+        <v>11400</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>804</v>
@@ -15958,9 +15853,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
-        <v>11400</v>
+        <v>11450</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>806</v>
@@ -15993,9 +15888,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
-        <v>11450</v>
+        <v>11500</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>808</v>
@@ -16028,9 +15923,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
-        <v>11500</v>
+        <v>11550</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>810</v>
@@ -16063,50 +15958,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="n">
-        <v>11550</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="D386" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E386" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F386" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G386" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H386" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I386" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J386" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="K386" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K386"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="813">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t xml:space="preserve">Not threatened; Marine; Not migratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2_3_5_6</t>
   </si>
   <si>
     <t xml:space="preserve">Stercorarius longicaudus</t>
@@ -2554,23 +2557,22 @@
   </sheetPr>
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A276" activeCellId="0" sqref="A276"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D379" activeCellId="0" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3520408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.219387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.7397959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="14.9387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.234693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,7 +6649,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>16</v>
@@ -6667,16 +6669,16 @@
         <v>394</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>20</v>
@@ -6688,7 +6690,7 @@
         <v>1700</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,10 +6698,10 @@
         <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>13</v>
@@ -6723,7 +6725,7 @@
         <v>2005</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,16 +6733,16 @@
         <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>20</v>
@@ -6758,7 +6760,7 @@
         <v>2005</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,16 +6768,16 @@
         <v>400</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>20</v>
@@ -6793,7 +6795,7 @@
         <v>2005</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,10 +6803,10 @@
         <v>404</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>13</v>
@@ -6828,7 +6830,7 @@
         <v>2005</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6836,10 +6838,10 @@
         <v>411</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>13</v>
@@ -6871,10 +6873,10 @@
         <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>13</v>
@@ -6906,10 +6908,10 @@
         <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>13</v>
@@ -6941,10 +6943,10 @@
         <v>423</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>13</v>
@@ -6976,10 +6978,10 @@
         <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>13</v>
@@ -7003,7 +7005,7 @@
         <v>2005</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,16 +7013,16 @@
         <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>20</v>
@@ -7038,7 +7040,7 @@
         <v>2005</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,10 +7048,10 @@
         <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>13</v>
@@ -7081,16 +7083,16 @@
         <v>442</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>20</v>
@@ -7116,16 +7118,16 @@
         <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
@@ -7151,10 +7153,10 @@
         <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>13</v>
@@ -7186,10 +7188,10 @@
         <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>13</v>
@@ -7221,10 +7223,10 @@
         <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>13</v>
@@ -7256,10 +7258,10 @@
         <v>463</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>13</v>
@@ -7291,16 +7293,16 @@
         <v>465</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>20</v>
@@ -7318,7 +7320,7 @@
         <v>2005</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,16 +7328,16 @@
         <v>493</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>20</v>
@@ -7347,7 +7349,7 @@
         <v>1700</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,10 +7357,10 @@
         <v>497</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>13</v>
@@ -7376,7 +7378,7 @@
         <v>1700</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,10 +7386,10 @@
         <v>501</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>13</v>
@@ -7405,7 +7407,7 @@
         <v>1700</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,22 +7415,22 @@
         <v>517</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>114</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>16</v>
@@ -7440,7 +7442,7 @@
         <v>1700</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7448,16 +7450,16 @@
         <v>519</v>
       </c>
       <c r="B141" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>20</v>
@@ -7469,7 +7471,7 @@
         <v>1700</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,16 +7479,16 @@
         <v>534</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>179</v>
@@ -7498,7 +7500,7 @@
         <v>1700</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,10 +7508,10 @@
         <v>535</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>13</v>
@@ -7527,7 +7529,7 @@
         <v>1700</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,10 +7537,10 @@
         <v>537</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>13</v>
@@ -7556,7 +7558,7 @@
         <v>1700</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,10 +7566,10 @@
         <v>547</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>13</v>
@@ -7585,7 +7587,7 @@
         <v>1700</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,10 +7595,10 @@
         <v>548</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>13</v>
@@ -7614,7 +7616,7 @@
         <v>1700</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7622,16 +7624,16 @@
         <v>555</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>114</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>20</v>
@@ -7649,7 +7651,7 @@
         <v>2005</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,10 +7659,10 @@
         <v>563</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>114</v>
@@ -7678,7 +7680,7 @@
         <v>1700</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,16 +7688,16 @@
         <v>564</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>20</v>
@@ -7707,7 +7709,7 @@
         <v>1700</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,16 +7717,16 @@
         <v>582</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F150" s="0" t="s">
         <v>114</v>
@@ -7742,7 +7744,7 @@
         <v>2005</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,10 +7752,10 @@
         <v>584</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>13</v>
@@ -7777,7 +7779,7 @@
         <v>2005</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,16 +7787,16 @@
         <v>587</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>153</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>20</v>
@@ -7806,7 +7808,7 @@
         <v>1700</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,10 +7816,10 @@
         <v>589</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>153</v>
@@ -7835,7 +7837,7 @@
         <v>1700</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,10 +7845,10 @@
         <v>590</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>13</v>
@@ -7858,7 +7860,7 @@
         <v>20</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>16</v>
@@ -7870,7 +7872,7 @@
         <v>1700</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,10 +7880,10 @@
         <v>591</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>179</v>
@@ -7905,7 +7907,7 @@
         <v>1700</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,10 +7915,10 @@
         <v>611</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>153</v>
@@ -7948,10 +7950,10 @@
         <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>13</v>
@@ -7983,10 +7985,10 @@
         <v>615</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>13</v>
@@ -8018,10 +8020,10 @@
         <v>619</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>13</v>
@@ -8053,10 +8055,10 @@
         <v>627</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>13</v>
@@ -8088,10 +8090,10 @@
         <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>13</v>
@@ -8123,10 +8125,10 @@
         <v>636</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>13</v>
@@ -8158,10 +8160,10 @@
         <v>640</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>13</v>
@@ -8193,10 +8195,10 @@
         <v>645</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>13</v>
@@ -8228,10 +8230,10 @@
         <v>647</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>13</v>
@@ -8263,10 +8265,10 @@
         <v>650</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>13</v>
@@ -8298,10 +8300,10 @@
         <v>651</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>13</v>
@@ -8333,10 +8335,10 @@
         <v>656</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>13</v>
@@ -8368,10 +8370,10 @@
         <v>658</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>13</v>
@@ -8403,10 +8405,10 @@
         <v>659</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>13</v>
@@ -8438,10 +8440,10 @@
         <v>660</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>13</v>
@@ -8473,10 +8475,10 @@
         <v>661</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>13</v>
@@ -8508,10 +8510,10 @@
         <v>662</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>13</v>
@@ -8543,10 +8545,10 @@
         <v>663</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>13</v>
@@ -8570,7 +8572,7 @@
         <v>2005</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,10 +8580,10 @@
         <v>669</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>13</v>
@@ -8605,7 +8607,7 @@
         <v>2005</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8613,16 +8615,16 @@
         <v>670</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F176" s="0" t="s">
         <v>20</v>
@@ -8640,7 +8642,7 @@
         <v>2005</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8648,10 +8650,10 @@
         <v>672</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>13</v>
@@ -8663,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>16</v>
@@ -8675,7 +8677,7 @@
         <v>1700</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8683,16 +8685,16 @@
         <v>674</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>20</v>
@@ -8710,7 +8712,7 @@
         <v>2005</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,10 +8720,10 @@
         <v>677</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>13</v>
@@ -8753,10 +8755,10 @@
         <v>682</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>13</v>
@@ -8788,10 +8790,10 @@
         <v>684</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>13</v>
@@ -8823,10 +8825,10 @@
         <v>686</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>13</v>
@@ -8858,10 +8860,10 @@
         <v>688</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>13</v>
@@ -8893,10 +8895,10 @@
         <v>690</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>13</v>
@@ -8928,10 +8930,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>13</v>
@@ -8963,10 +8965,10 @@
         <v>697</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>13</v>
@@ -8998,10 +9000,10 @@
         <v>698</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>13</v>
@@ -9033,10 +9035,10 @@
         <v>699</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>13</v>
@@ -9068,10 +9070,10 @@
         <v>702</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>13</v>
@@ -9103,10 +9105,10 @@
         <v>705</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>13</v>
@@ -9138,10 +9140,10 @@
         <v>706</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>13</v>
@@ -9173,10 +9175,10 @@
         <v>707</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>13</v>
@@ -9208,10 +9210,10 @@
         <v>708</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>13</v>
@@ -9243,10 +9245,10 @@
         <v>710</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>13</v>
@@ -9278,10 +9280,10 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>13</v>
@@ -9313,10 +9315,10 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>13</v>
@@ -9348,10 +9350,10 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>13</v>
@@ -9383,10 +9385,10 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>13</v>
@@ -9418,10 +9420,10 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>13</v>
@@ -9453,10 +9455,10 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>13</v>
@@ -9488,10 +9490,10 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>13</v>
@@ -9523,10 +9525,10 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>13</v>
@@ -9558,10 +9560,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>13</v>
@@ -9593,10 +9595,10 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>13</v>
@@ -9628,10 +9630,10 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>13</v>
@@ -9663,10 +9665,10 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>13</v>
@@ -9698,10 +9700,10 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>13</v>
@@ -9733,10 +9735,10 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>13</v>
@@ -9768,10 +9770,10 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>13</v>
@@ -9803,10 +9805,10 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>13</v>
@@ -9838,10 +9840,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>13</v>
@@ -9873,10 +9875,10 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>13</v>
@@ -9908,10 +9910,10 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>13</v>
@@ -9943,10 +9945,10 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>13</v>
@@ -9978,10 +9980,10 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>13</v>
@@ -9993,7 +9995,7 @@
         <v>20</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>16</v>
@@ -10013,10 +10015,10 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>13</v>
@@ -10048,10 +10050,10 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>13</v>
@@ -10083,10 +10085,10 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>13</v>
@@ -10118,10 +10120,10 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>13</v>
@@ -10153,10 +10155,10 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>13</v>
@@ -10188,10 +10190,10 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>13</v>
@@ -10223,10 +10225,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>13</v>
@@ -10258,10 +10260,10 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>13</v>
@@ -10293,10 +10295,10 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>13</v>
@@ -10328,10 +10330,10 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>13</v>
@@ -10363,10 +10365,10 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>13</v>
@@ -10398,10 +10400,10 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>13</v>
@@ -10433,10 +10435,10 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>13</v>
@@ -10468,10 +10470,10 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>13</v>
@@ -10503,10 +10505,10 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>13</v>
@@ -10538,10 +10540,10 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>13</v>
@@ -10573,10 +10575,10 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>13</v>
@@ -10608,10 +10610,10 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>13</v>
@@ -10643,10 +10645,10 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>13</v>
@@ -10678,10 +10680,10 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>13</v>
@@ -10713,16 +10715,16 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>179</v>
@@ -10748,10 +10750,10 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>13</v>
@@ -10783,10 +10785,10 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>13</v>
@@ -10818,10 +10820,10 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>13</v>
@@ -10853,10 +10855,10 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>13</v>
@@ -10888,10 +10890,10 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>13</v>
@@ -10923,10 +10925,10 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>13</v>
@@ -10958,10 +10960,10 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>13</v>
@@ -10993,10 +10995,10 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>13</v>
@@ -11028,10 +11030,10 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>13</v>
@@ -11063,10 +11065,10 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>13</v>
@@ -11098,10 +11100,10 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>13</v>
@@ -11133,10 +11135,10 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>13</v>
@@ -11148,7 +11150,7 @@
         <v>20</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>16</v>
@@ -11168,10 +11170,10 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>13</v>
@@ -11203,10 +11205,10 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>13</v>
@@ -11238,10 +11240,10 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>13</v>
@@ -11273,10 +11275,10 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>13</v>
@@ -11308,10 +11310,10 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>13</v>
@@ -11343,10 +11345,10 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>114</v>
@@ -11378,10 +11380,10 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>13</v>
@@ -11413,10 +11415,10 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>13</v>
@@ -11448,10 +11450,10 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>13</v>
@@ -11483,10 +11485,10 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>13</v>
@@ -11518,10 +11520,10 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>13</v>
@@ -11553,10 +11555,10 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>13</v>
@@ -11588,10 +11590,10 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>13</v>
@@ -11623,10 +11625,10 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>13</v>
@@ -11658,10 +11660,10 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>13</v>
@@ -11693,10 +11695,10 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>13</v>
@@ -11728,10 +11730,10 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>13</v>
@@ -11763,10 +11765,10 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>13</v>
@@ -11798,10 +11800,10 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>13</v>
@@ -11833,10 +11835,10 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>13</v>
@@ -11868,10 +11870,10 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>13</v>
@@ -11903,16 +11905,16 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>179</v>
@@ -11938,10 +11940,10 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>13</v>
@@ -11973,10 +11975,10 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>13</v>
@@ -12008,10 +12010,10 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>13</v>
@@ -12043,10 +12045,10 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>13</v>
@@ -12078,10 +12080,10 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>13</v>
@@ -12113,10 +12115,10 @@
         <v>1261</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>13</v>
@@ -12148,10 +12150,10 @@
         <v>1262</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>13</v>
@@ -12183,10 +12185,10 @@
         <v>1274</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>13</v>
@@ -12218,10 +12220,10 @@
         <v>1282</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>13</v>
@@ -12253,10 +12255,10 @@
         <v>1290</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>13</v>
@@ -12288,10 +12290,10 @@
         <v>1300</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>13</v>
@@ -12323,10 +12325,10 @@
         <v>1313</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>13</v>
@@ -12358,10 +12360,10 @@
         <v>1321</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>13</v>
@@ -12393,10 +12395,10 @@
         <v>1330</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>13</v>
@@ -12428,10 +12430,10 @@
         <v>1355</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>13</v>
@@ -12463,10 +12465,10 @@
         <v>1360</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>13</v>
@@ -12498,10 +12500,10 @@
         <v>1374</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>13</v>
@@ -12533,10 +12535,10 @@
         <v>1389</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>13</v>
@@ -12568,10 +12570,10 @@
         <v>1394</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>13</v>
@@ -12603,10 +12605,10 @@
         <v>1398</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>13</v>
@@ -12638,10 +12640,10 @@
         <v>1411</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>13</v>
@@ -12673,10 +12675,10 @@
         <v>1424</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>13</v>
@@ -12708,10 +12710,10 @@
         <v>1430</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>13</v>
@@ -12743,10 +12745,10 @@
         <v>1434</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>13</v>
@@ -12778,10 +12780,10 @@
         <v>1444</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>13</v>
@@ -12813,10 +12815,10 @@
         <v>1450</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>13</v>
@@ -12828,7 +12830,7 @@
         <v>20</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H296" s="0" t="s">
         <v>16</v>
@@ -12848,10 +12850,10 @@
         <v>1451</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>13</v>
@@ -12883,10 +12885,10 @@
         <v>1453</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>13</v>
@@ -12918,10 +12920,10 @@
         <v>1457</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>13</v>
@@ -12953,10 +12955,10 @@
         <v>1463</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>13</v>
@@ -12988,10 +12990,10 @@
         <v>1466</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>13</v>
@@ -13023,10 +13025,10 @@
         <v>1469</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>13</v>
@@ -13058,10 +13060,10 @@
         <v>1474</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>13</v>
@@ -13093,10 +13095,10 @@
         <v>1500</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>13</v>
@@ -13128,10 +13130,10 @@
         <v>1509</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>13</v>
@@ -13163,10 +13165,10 @@
         <v>1520</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>13</v>
@@ -13198,10 +13200,10 @@
         <v>1529</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>13</v>
@@ -13233,10 +13235,10 @@
         <v>1536</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>13</v>
@@ -13268,10 +13270,10 @@
         <v>1543</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>13</v>
@@ -13303,10 +13305,10 @@
         <v>1553</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>13</v>
@@ -13338,10 +13340,10 @@
         <v>1557</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>13</v>
@@ -13373,10 +13375,10 @@
         <v>1573</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>13</v>
@@ -13408,10 +13410,10 @@
         <v>1592</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>13</v>
@@ -13443,10 +13445,10 @@
         <v>1601</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>13</v>
@@ -13478,10 +13480,10 @@
         <v>1604</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>13</v>
@@ -13513,10 +13515,10 @@
         <v>1612</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>13</v>
@@ -13548,10 +13550,10 @@
         <v>1613</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>13</v>
@@ -13583,10 +13585,10 @@
         <v>1614</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>13</v>
@@ -13618,10 +13620,10 @@
         <v>1617</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>13</v>
@@ -13653,10 +13655,10 @@
         <v>1622</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>13</v>
@@ -13668,7 +13670,7 @@
         <v>20</v>
       </c>
       <c r="G320" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H320" s="0" t="s">
         <v>16</v>
@@ -13688,10 +13690,10 @@
         <v>1625</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>13</v>
@@ -13723,10 +13725,10 @@
         <v>1627</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>13</v>
@@ -13758,10 +13760,10 @@
         <v>1635</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>13</v>
@@ -13793,10 +13795,10 @@
         <v>1639</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>13</v>
@@ -13828,10 +13830,10 @@
         <v>1644</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>13</v>
@@ -13863,10 +13865,10 @@
         <v>1656</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>13</v>
@@ -13898,10 +13900,10 @@
         <v>1664</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>13</v>
@@ -13933,10 +13935,10 @@
         <v>1669</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>13</v>
@@ -13968,10 +13970,10 @@
         <v>1677</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>13</v>
@@ -14003,10 +14005,10 @@
         <v>1678</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>13</v>
@@ -14038,10 +14040,10 @@
         <v>1681</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>13</v>
@@ -14073,10 +14075,10 @@
         <v>1689</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>13</v>
@@ -14108,10 +14110,10 @@
         <v>1692</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>13</v>
@@ -14143,10 +14145,10 @@
         <v>1696</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>13</v>
@@ -14178,10 +14180,10 @@
         <v>1701</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>13</v>
@@ -14213,10 +14215,10 @@
         <v>1705</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>13</v>
@@ -14248,10 +14250,10 @@
         <v>1711</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>13</v>
@@ -14283,10 +14285,10 @@
         <v>1715</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>13</v>
@@ -14318,10 +14320,10 @@
         <v>1720</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>13</v>
@@ -14353,10 +14355,10 @@
         <v>1725</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>13</v>
@@ -14388,10 +14390,10 @@
         <v>1733</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>13</v>
@@ -14423,10 +14425,10 @@
         <v>1744</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>13</v>
@@ -14458,10 +14460,10 @@
         <v>1753</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>13</v>
@@ -14493,10 +14495,10 @@
         <v>1756</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>13</v>
@@ -14528,10 +14530,10 @@
         <v>1769</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>13</v>
@@ -14563,10 +14565,10 @@
         <v>1775</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>13</v>
@@ -14598,10 +14600,10 @@
         <v>1779</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>13</v>
@@ -14633,10 +14635,10 @@
         <v>1790</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>13</v>
@@ -14668,10 +14670,10 @@
         <v>1800</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>13</v>
@@ -14703,10 +14705,10 @@
         <v>1810</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>13</v>
@@ -14738,10 +14740,10 @@
         <v>1812</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>13</v>
@@ -14773,10 +14775,10 @@
         <v>1818</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>13</v>
@@ -14808,10 +14810,10 @@
         <v>1826</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>13</v>
@@ -14843,10 +14845,10 @@
         <v>1831</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>13</v>
@@ -14878,10 +14880,10 @@
         <v>1838</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>13</v>
@@ -14893,7 +14895,7 @@
         <v>20</v>
       </c>
       <c r="G355" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H355" s="0" t="s">
         <v>16</v>
@@ -14913,10 +14915,10 @@
         <v>1846</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>13</v>
@@ -14948,10 +14950,10 @@
         <v>1850</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>13</v>
@@ -14983,10 +14985,10 @@
         <v>1852</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>13</v>
@@ -15018,10 +15020,10 @@
         <v>1868</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>13</v>
@@ -15053,10 +15055,10 @@
         <v>1876</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>13</v>
@@ -15088,10 +15090,10 @@
         <v>1877</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>13</v>
@@ -15123,10 +15125,10 @@
         <v>1878</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>13</v>
@@ -15158,10 +15160,10 @@
         <v>1880</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>13</v>
@@ -15193,10 +15195,10 @@
         <v>1887</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>13</v>
@@ -15228,10 +15230,10 @@
         <v>1890</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>13</v>
@@ -15263,10 +15265,10 @@
         <v>1893</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>13</v>
@@ -15298,10 +15300,10 @@
         <v>1894</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>13</v>
@@ -15333,10 +15335,10 @@
         <v>1899</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>13</v>
@@ -15368,10 +15370,10 @@
         <v>1915</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>13</v>
@@ -15403,10 +15405,10 @@
         <v>1928</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>13</v>
@@ -15438,10 +15440,10 @@
         <v>1933</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>13</v>
@@ -15473,10 +15475,10 @@
         <v>1960</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>13</v>
@@ -15508,10 +15510,10 @@
         <v>1966</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>13</v>
@@ -15520,7 +15522,7 @@
         <v>20</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>16</v>
@@ -15543,10 +15545,10 @@
         <v>11000</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>13</v>
@@ -15578,10 +15580,10 @@
         <v>11050</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>13</v>
@@ -15613,10 +15615,10 @@
         <v>11100</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>13</v>
@@ -15648,10 +15650,10 @@
         <v>11150</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>13</v>
@@ -15683,10 +15685,10 @@
         <v>11200</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>13</v>
@@ -15718,10 +15720,10 @@
         <v>11250</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>13</v>
@@ -15753,10 +15755,10 @@
         <v>11300</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>13</v>
@@ -15788,10 +15790,10 @@
         <v>11350</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>13</v>
@@ -15803,7 +15805,7 @@
         <v>20</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="H381" s="0" t="s">
         <v>16</v>
@@ -15823,10 +15825,10 @@
         <v>11400</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>13</v>
@@ -15858,10 +15860,10 @@
         <v>11450</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>13</v>
@@ -15893,10 +15895,10 @@
         <v>11500</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>13</v>
@@ -15928,10 +15930,10 @@
         <v>11550</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>13</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">atlas_list!$A$1:$K$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">atlas_list!$A$1:$K$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">atlas_list!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -59,6 +60,9 @@
     <t xml:space="preserve">distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">profile_url</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anseranas semipalmata</t>
   </si>
   <si>
@@ -78,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://farm2.staticflickr.com/1883/44747039332_0666291b70_o_d.png</t>
   </si>
   <si>
     <t xml:space="preserve">Columba livia</t>
@@ -263,28 +270,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="149" zoomScaleNormal="149" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5357142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.1683673469388"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -318,31 +325,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1700</v>
@@ -351,33 +361,36 @@
         <v>1700</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1700</v>
@@ -386,7 +399,7 @@
         <v>1700</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,25 +407,25 @@
         <v>128</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1700</v>
@@ -421,7 +434,7 @@
         <v>1700</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,25 +442,25 @@
         <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1700</v>
@@ -456,7 +469,7 @@
         <v>1700</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,25 +477,25 @@
         <v>201</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1700</v>
@@ -491,7 +504,7 @@
         <v>1700</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,25 +512,25 @@
         <v>218</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1700</v>
@@ -526,7 +539,7 @@
         <v>1700</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,25 +547,25 @@
         <v>330</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1700</v>
@@ -561,7 +574,7 @@
         <v>1700</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,25 +582,25 @@
         <v>340</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>1700</v>
@@ -596,7 +609,7 @@
         <v>1700</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,25 +617,25 @@
         <v>411</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1700</v>
@@ -631,7 +644,7 @@
         <v>1700</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,19 +652,19 @@
         <v>493</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1700</v>
@@ -660,7 +673,7 @@
         <v>1700</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="838">
   <si>
     <t>species_order</t>
   </si>
@@ -2490,6 +2490,54 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4844/45748208141_d9644b3842_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4865/44849846555_7f59f7c99e_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1927/30823273837_2772163664_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4861/44849823975_13a79ac5fb_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4839/45713194162_6e3c91bbfa_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4804/30823257747_3b99e4059c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4820/45038273264_a70c862dca_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1934/45038271104_90620a4f83_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1912/45038269094_bc40949d24_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4824/43945599780_c431c35de5_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4857/45763352411_ca8876b80b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4827/44850284545_d1c1a05c32_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4851/45763822791_e7a4985ed6_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4830/43946076730_cb74142588_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4817/43946076920_855c9ce67c_o_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4903/43946078610_32800b179c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4897/43946083370_c13241a0f1_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2808,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2937,6 +2985,9 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
+      <c r="L3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2972,6 +3023,9 @@
       <c r="K4" t="s">
         <v>18</v>
       </c>
+      <c r="L4" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3077,6 +3131,9 @@
       <c r="K7" t="s">
         <v>18</v>
       </c>
+      <c r="L7" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3182,6 +3239,9 @@
       <c r="K10" t="s">
         <v>18</v>
       </c>
+      <c r="L10" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3287,6 +3347,9 @@
       <c r="K13" t="s">
         <v>18</v>
       </c>
+      <c r="L13" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3322,6 +3385,9 @@
       <c r="K14" t="s">
         <v>18</v>
       </c>
+      <c r="L14" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3392,6 +3458,9 @@
       <c r="K16" t="s">
         <v>18</v>
       </c>
+      <c r="L16" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3953,7 +4022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>128</v>
       </c>
@@ -3988,7 +4057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4023,7 +4092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4058,7 +4127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4093,7 +4162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4128,7 +4197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4163,7 +4232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4198,7 +4267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4233,7 +4302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4268,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4303,7 +4372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4338,7 +4407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4373,7 +4442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4408,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4443,7 +4512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4477,8 +4546,11 @@
       <c r="K47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>192</v>
       </c>
@@ -4513,7 +4585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>195</v>
       </c>
@@ -4548,7 +4620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201</v>
       </c>
@@ -4583,7 +4655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>206</v>
       </c>
@@ -4618,7 +4690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>213</v>
       </c>
@@ -4653,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>218</v>
       </c>
@@ -4688,7 +4760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>223</v>
       </c>
@@ -4723,7 +4795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>228</v>
       </c>
@@ -4758,7 +4830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>234</v>
       </c>
@@ -4793,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>241</v>
       </c>
@@ -4828,7 +4900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>246</v>
       </c>
@@ -4863,7 +4935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>249</v>
       </c>
@@ -4897,8 +4969,11 @@
       <c r="K59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>251</v>
       </c>
@@ -4933,7 +5008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>253</v>
       </c>
@@ -4968,7 +5043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5003,7 +5078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5038,7 +5113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5839,6 +5914,9 @@
       <c r="K86" t="s">
         <v>18</v>
       </c>
+      <c r="L86" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -8557,6 +8635,9 @@
       <c r="K167" t="s">
         <v>18</v>
       </c>
+      <c r="L167" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -8662,6 +8743,9 @@
       <c r="K170" t="s">
         <v>18</v>
       </c>
+      <c r="L170" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -14452,7 +14536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1711</v>
       </c>
@@ -14487,7 +14571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1715</v>
       </c>
@@ -14522,7 +14606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1720</v>
       </c>
@@ -14557,7 +14641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1725</v>
       </c>
@@ -14592,7 +14676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1733</v>
       </c>
@@ -14626,8 +14710,11 @@
       <c r="K341" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1744</v>
       </c>
@@ -14662,7 +14749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1753</v>
       </c>
@@ -14697,7 +14784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1756</v>
       </c>
@@ -14732,7 +14819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1769</v>
       </c>
@@ -14767,7 +14854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1775</v>
       </c>
@@ -14802,7 +14889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1779</v>
       </c>
@@ -14836,8 +14923,11 @@
       <c r="K347" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L347" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1790</v>
       </c>
@@ -14871,8 +14961,11 @@
       <c r="K348" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L348" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1800</v>
       </c>
@@ -14907,7 +15000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1810</v>
       </c>
@@ -14942,7 +15035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1812</v>
       </c>
@@ -14977,7 +15070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1818</v>
       </c>
@@ -15012,7 +15105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1826</v>
       </c>
@@ -15047,7 +15140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1831</v>
       </c>
@@ -15082,7 +15175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1838</v>
       </c>
@@ -15114,7 +15207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1846</v>
       </c>
@@ -15149,7 +15242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1850</v>
       </c>
@@ -15184,7 +15277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1852</v>
       </c>
@@ -15219,7 +15312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1868</v>
       </c>
@@ -15254,7 +15347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1876</v>
       </c>
@@ -15289,7 +15382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1877</v>
       </c>
@@ -15324,7 +15417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1878</v>
       </c>
@@ -15359,7 +15452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1880</v>
       </c>
@@ -15394,7 +15487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1887</v>
       </c>
@@ -15429,7 +15522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1890</v>
       </c>
@@ -15461,7 +15554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1893</v>
       </c>
@@ -15496,7 +15589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1894</v>
       </c>
@@ -15531,7 +15624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1899</v>
       </c>
@@ -15564,6 +15657,9 @@
       </c>
       <c r="K368" t="s">
         <v>18</v>
+      </c>
+      <c r="L368" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0B3378D-9F91-4F5C-BE3D-6CEB4FDD5469}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="836">
   <si>
     <t>species_order</t>
   </si>
@@ -531,12 +532,6 @@
   </si>
   <si>
     <t>Pacific Golden Plover</t>
-  </si>
-  <si>
-    <t>Pluvialis dominica</t>
-  </si>
-  <si>
-    <t>American Golden Plover</t>
   </si>
   <si>
     <t>Charadrius ruficapillus</t>
@@ -2543,7 +2538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2853,11 +2848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2986,7 +2981,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3024,7 +3019,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,7 +3097,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -3129,7 +3124,7 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3237,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3342,7 +3337,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3377,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3450,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3645,7 +3640,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -4529,7 +4524,7 @@
         <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4946,7 +4941,7 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5226,7 +5221,7 @@
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5401,7 +5396,7 @@
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5528,8 +5523,11 @@
       <c r="F76" t="s">
         <v>21</v>
       </c>
-      <c r="H76">
-        <v>6</v>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
       </c>
       <c r="I76">
         <v>2005</v>
@@ -5555,7 +5553,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
         <v>21</v>
@@ -5581,19 +5579,19 @@
         <v>298</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -5616,19 +5614,19 @@
         <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -5651,19 +5649,19 @@
         <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -5700,9 +5698,6 @@
       <c r="F81" t="s">
         <v>21</v>
       </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
@@ -5735,6 +5730,9 @@
       <c r="F82" t="s">
         <v>21</v>
       </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
       <c r="H82" t="s">
         <v>16</v>
       </c>
@@ -5782,6 +5780,9 @@
       <c r="K83" t="s">
         <v>17</v>
       </c>
+      <c r="L83" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -5794,19 +5795,16 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
+        <v>114</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
       </c>
       <c r="I84">
         <v>2005</v>
@@ -5816,9 +5814,6 @@
       </c>
       <c r="K84" t="s">
         <v>17</v>
-      </c>
-      <c r="L84" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5826,22 +5821,25 @@
         <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
-      </c>
-      <c r="H85">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
       </c>
       <c r="I85">
         <v>2005</v>
@@ -5851,6 +5849,9 @@
       </c>
       <c r="K85" t="s">
         <v>17</v>
+      </c>
+      <c r="L85" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5867,7 +5868,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
@@ -5886,9 +5887,6 @@
       </c>
       <c r="K86" t="s">
         <v>17</v>
-      </c>
-      <c r="L86" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5910,11 +5908,8 @@
       <c r="F87" t="s">
         <v>21</v>
       </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" t="s">
-        <v>16</v>
+      <c r="H87">
+        <v>6</v>
       </c>
       <c r="I87">
         <v>2005</v>
@@ -5937,16 +5932,19 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
       </c>
       <c r="I88">
         <v>2005</v>
@@ -5963,19 +5961,19 @@
         <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F89" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -5998,19 +5996,19 @@
         <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
         <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -6039,7 +6037,7 @@
         <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>166</v>
@@ -6074,13 +6072,13 @@
         <v>210</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -6109,13 +6107,13 @@
         <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -6144,13 +6142,13 @@
         <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -6237,6 +6235,9 @@
       <c r="K96" t="s">
         <v>17</v>
       </c>
+      <c r="L96" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -6249,13 +6250,13 @@
         <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -6273,7 +6274,7 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6287,19 +6288,16 @@
         <v>222</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F98" t="s">
-        <v>179</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
       </c>
       <c r="I98">
         <v>2005</v>
@@ -6309,9 +6307,6 @@
       </c>
       <c r="K98" t="s">
         <v>17</v>
-      </c>
-      <c r="L98" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6333,8 +6328,11 @@
       <c r="F99" t="s">
         <v>21</v>
       </c>
-      <c r="H99">
-        <v>6</v>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
       </c>
       <c r="I99">
         <v>2005</v>
@@ -6365,9 +6363,6 @@
       <c r="F100" t="s">
         <v>21</v>
       </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" t="s">
         <v>16</v>
       </c>
@@ -6400,8 +6395,11 @@
       <c r="F101" t="s">
         <v>21</v>
       </c>
-      <c r="H101" t="s">
-        <v>16</v>
+      <c r="G101" t="s">
+        <v>835</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
       </c>
       <c r="I101">
         <v>2005</v>
@@ -6424,16 +6422,13 @@
         <v>230</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
         <v>166</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>837</v>
       </c>
       <c r="H102">
         <v>6</v>
@@ -6459,7 +6454,7 @@
         <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -6467,8 +6462,11 @@
       <c r="F103" t="s">
         <v>21</v>
       </c>
-      <c r="H103">
-        <v>6</v>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
       </c>
       <c r="I103">
         <v>2005</v>
@@ -6599,16 +6597,13 @@
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" t="s">
-        <v>16</v>
+      <c r="H107">
+        <v>6</v>
       </c>
       <c r="I107">
         <v>2005</v>
@@ -6625,16 +6620,16 @@
         <v>370</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -6666,13 +6661,16 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
       </c>
-      <c r="H109">
-        <v>6</v>
+      <c r="G109" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
       </c>
       <c r="I109">
         <v>2005</v>
@@ -6768,7 +6766,7 @@
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -6800,13 +6798,13 @@
         <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
@@ -6829,19 +6827,19 @@
         <v>384</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -6878,9 +6876,6 @@
       <c r="F115" t="s">
         <v>21</v>
       </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
       <c r="H115" t="s">
         <v>16</v>
       </c>
@@ -6908,7 +6903,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -6931,23 +6926,20 @@
         <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F117" t="s">
         <v>21</v>
       </c>
-      <c r="H117" t="s">
-        <v>16</v>
-      </c>
       <c r="I117">
         <v>2005</v>
       </c>
@@ -6955,7 +6947,7 @@
         <v>1700</v>
       </c>
       <c r="K117" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6963,28 +6955,34 @@
         <v>394</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118">
+        <v>2005</v>
+      </c>
+      <c r="J118">
+        <v>1700</v>
+      </c>
+      <c r="K118" t="s">
         <v>265</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>266</v>
-      </c>
-      <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118">
-        <v>2005</v>
-      </c>
-      <c r="J118">
-        <v>1700</v>
-      </c>
-      <c r="K118" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -7001,7 +6999,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -7019,7 +7017,7 @@
         <v>1700</v>
       </c>
       <c r="K119" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -7036,14 +7034,11 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F120" t="s">
         <v>21</v>
       </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
       <c r="H120" t="s">
         <v>16</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>1700</v>
       </c>
       <c r="K120" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -7071,7 +7066,7 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -7086,7 +7081,7 @@
         <v>1700</v>
       </c>
       <c r="K121" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -7103,11 +7098,14 @@
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
       </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
       <c r="H122" t="s">
         <v>16</v>
       </c>
@@ -7118,7 +7116,7 @@
         <v>1700</v>
       </c>
       <c r="K122" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -7135,13 +7133,10 @@
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -7170,7 +7165,7 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -7202,7 +7197,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -7234,7 +7229,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -7249,7 +7244,7 @@
         <v>1700</v>
       </c>
       <c r="K126" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -7266,11 +7261,14 @@
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
       </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
       <c r="H127" t="s">
         <v>16</v>
       </c>
@@ -7281,7 +7279,7 @@
         <v>1700</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -7298,7 +7296,7 @@
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -7316,7 +7314,7 @@
         <v>1700</v>
       </c>
       <c r="K128" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -7333,7 +7331,7 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -7359,16 +7357,16 @@
         <v>442</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -7394,16 +7392,16 @@
         <v>443</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -7438,7 +7436,7 @@
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -7508,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -7543,7 +7541,7 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
@@ -7561,7 +7559,7 @@
         <v>1700</v>
       </c>
       <c r="K135" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -7578,17 +7576,11 @@
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
       </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136" t="s">
-        <v>16</v>
-      </c>
       <c r="I136">
         <v>2005</v>
       </c>
@@ -7596,7 +7588,7 @@
         <v>1700</v>
       </c>
       <c r="K136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -7613,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -7625,7 +7617,7 @@
         <v>1700</v>
       </c>
       <c r="K137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -7642,7 +7634,7 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -7654,7 +7646,7 @@
         <v>1700</v>
       </c>
       <c r="K138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -7668,13 +7660,16 @@
         <v>311</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
       </c>
       <c r="I139">
         <v>2005</v>
@@ -7683,7 +7678,7 @@
         <v>1700</v>
       </c>
       <c r="K139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -7691,22 +7686,19 @@
         <v>517</v>
       </c>
       <c r="B140" t="s">
+        <v>313</v>
+      </c>
+      <c r="C140" t="s">
+        <v>314</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
         <v>312</v>
       </c>
-      <c r="C140" t="s">
-        <v>313</v>
-      </c>
-      <c r="D140" t="s">
-        <v>179</v>
-      </c>
-      <c r="E140" t="s">
-        <v>314</v>
-      </c>
       <c r="F140" t="s">
-        <v>114</v>
-      </c>
-      <c r="H140" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I140">
         <v>2005</v>
@@ -7715,7 +7707,7 @@
         <v>1700</v>
       </c>
       <c r="K140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -7732,10 +7724,10 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I141">
         <v>2005</v>
@@ -7744,7 +7736,7 @@
         <v>1700</v>
       </c>
       <c r="K141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -7752,19 +7744,19 @@
         <v>534</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I142">
         <v>2005</v>
@@ -7773,7 +7765,7 @@
         <v>1700</v>
       </c>
       <c r="K142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7790,7 +7782,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -7802,7 +7794,7 @@
         <v>1700</v>
       </c>
       <c r="K143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7819,7 +7811,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -7831,7 +7823,7 @@
         <v>1700</v>
       </c>
       <c r="K144" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7848,7 +7840,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -7860,7 +7852,7 @@
         <v>1700</v>
       </c>
       <c r="K145" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7874,14 +7866,17 @@
         <v>327</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
       </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
       <c r="I146">
         <v>2005</v>
       </c>
@@ -7889,7 +7884,7 @@
         <v>1700</v>
       </c>
       <c r="K146" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7897,23 +7892,20 @@
         <v>555</v>
       </c>
       <c r="B147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D147" t="s">
         <v>114</v>
       </c>
       <c r="E147" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
         <v>21</v>
       </c>
-      <c r="H147" t="s">
-        <v>16</v>
-      </c>
       <c r="I147">
         <v>2005</v>
       </c>
@@ -7921,7 +7913,7 @@
         <v>1700</v>
       </c>
       <c r="K147" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7935,10 +7927,10 @@
         <v>332</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F148" t="s">
         <v>21</v>
@@ -7950,7 +7942,7 @@
         <v>1700</v>
       </c>
       <c r="K148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7958,19 +7950,25 @@
         <v>564</v>
       </c>
       <c r="B149" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C149" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D149" t="s">
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
       </c>
       <c r="I149">
         <v>2005</v>
@@ -7979,7 +7977,7 @@
         <v>1700</v>
       </c>
       <c r="K149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7996,10 +7994,10 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F150" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
@@ -8014,7 +8012,7 @@
         <v>1700</v>
       </c>
       <c r="K150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -8028,20 +8026,14 @@
         <v>339</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
       </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" t="s">
-        <v>16</v>
-      </c>
       <c r="I151">
         <v>2005</v>
       </c>
@@ -8049,7 +8041,7 @@
         <v>1700</v>
       </c>
       <c r="K151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -8057,16 +8049,16 @@
         <v>587</v>
       </c>
       <c r="B152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C152" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D152" t="s">
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -8078,7 +8070,7 @@
         <v>1700</v>
       </c>
       <c r="K152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -8092,14 +8084,17 @@
         <v>344</v>
       </c>
       <c r="D153" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
       </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
       <c r="I153">
         <v>2005</v>
       </c>
@@ -8107,7 +8102,7 @@
         <v>1700</v>
       </c>
       <c r="K153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,14 +8116,17 @@
         <v>346</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
       </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
       <c r="H154" t="s">
         <v>16</v>
       </c>
@@ -8139,7 +8137,7 @@
         <v>1700</v>
       </c>
       <c r="K154" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -8153,10 +8151,10 @@
         <v>348</v>
       </c>
       <c r="D155" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E155" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -8174,7 +8172,7 @@
         <v>1700</v>
       </c>
       <c r="K155" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -8188,10 +8186,10 @@
         <v>350</v>
       </c>
       <c r="D156" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
@@ -8226,7 +8224,7 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F157" t="s">
         <v>21</v>
@@ -8296,7 +8294,7 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F159" t="s">
         <v>21</v>
@@ -8331,7 +8329,7 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F160" t="s">
         <v>21</v>
@@ -8366,7 +8364,7 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -8401,7 +8399,7 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F162" t="s">
         <v>21</v>
@@ -8420,6 +8418,9 @@
       </c>
       <c r="K162" t="s">
         <v>17</v>
+      </c>
+      <c r="L162" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8436,7 +8437,7 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F163" t="s">
         <v>21</v>
@@ -8455,9 +8456,6 @@
       </c>
       <c r="K163" t="s">
         <v>17</v>
-      </c>
-      <c r="L163" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8474,7 +8472,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F164" t="s">
         <v>21</v>
@@ -8509,7 +8507,7 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
         <v>21</v>
@@ -8544,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F166" t="s">
         <v>21</v>
@@ -8563,6 +8561,9 @@
       </c>
       <c r="K166" t="s">
         <v>17</v>
+      </c>
+      <c r="L166" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8579,7 +8580,7 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
         <v>21</v>
@@ -8598,9 +8599,6 @@
       </c>
       <c r="K167" t="s">
         <v>17</v>
-      </c>
-      <c r="L167" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8617,7 +8615,7 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F168" t="s">
         <v>21</v>
@@ -8652,7 +8650,7 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
@@ -8671,6 +8669,9 @@
       </c>
       <c r="K169" t="s">
         <v>17</v>
+      </c>
+      <c r="L169" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8687,7 +8688,7 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -8706,9 +8707,6 @@
       </c>
       <c r="K170" t="s">
         <v>17</v>
-      </c>
-      <c r="L170" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8760,7 +8758,7 @@
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F172" t="s">
         <v>21</v>
@@ -8795,14 +8793,11 @@
         <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
       </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
       <c r="H173" t="s">
         <v>16</v>
       </c>
@@ -8813,7 +8808,7 @@
         <v>1700</v>
       </c>
       <c r="K173" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8830,11 +8825,14 @@
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
       </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
       <c r="H174" t="s">
         <v>16</v>
       </c>
@@ -8845,7 +8843,7 @@
         <v>1700</v>
       </c>
       <c r="K174" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8862,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -8880,7 +8878,7 @@
         <v>1700</v>
       </c>
       <c r="K175" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8897,14 +8895,11 @@
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
       </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
       <c r="H176" t="s">
         <v>16</v>
       </c>
@@ -8915,7 +8910,7 @@
         <v>1700</v>
       </c>
       <c r="K176" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8932,11 +8927,14 @@
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
         <v>21</v>
       </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
       <c r="H177" t="s">
         <v>16</v>
       </c>
@@ -8947,7 +8945,7 @@
         <v>1700</v>
       </c>
       <c r="K177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8964,7 +8962,7 @@
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="F178" t="s">
         <v>21</v>
@@ -8982,7 +8980,7 @@
         <v>1700</v>
       </c>
       <c r="K178" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -9139,7 +9137,7 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F183" t="s">
         <v>21</v>
@@ -9174,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F184" t="s">
         <v>21</v>
@@ -9214,9 +9212,6 @@
       <c r="F185" t="s">
         <v>21</v>
       </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
       <c r="H185" t="s">
         <v>16</v>
       </c>
@@ -9249,6 +9244,9 @@
       <c r="F186" t="s">
         <v>21</v>
       </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
       <c r="H186" t="s">
         <v>16</v>
       </c>
@@ -9381,7 +9379,7 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -9416,7 +9414,7 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -9486,7 +9484,7 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -9521,7 +9519,7 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -9556,7 +9554,7 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -9591,7 +9589,7 @@
         <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -9626,7 +9624,7 @@
         <v>14</v>
       </c>
       <c r="E197" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -9661,7 +9659,7 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F198" t="s">
         <v>21</v>
@@ -9839,7 +9837,7 @@
         <v>21</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G203" t="s">
         <v>16</v>
@@ -9874,7 +9872,7 @@
         <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G204" t="s">
         <v>16</v>
@@ -9906,7 +9904,7 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F205" t="s">
         <v>21</v>
@@ -9941,7 +9939,7 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F206" t="s">
         <v>21</v>
@@ -9976,7 +9974,7 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F207" t="s">
         <v>21</v>
@@ -10011,7 +10009,7 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F208" t="s">
         <v>21</v>
@@ -10046,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F209" t="s">
         <v>21</v>
@@ -10081,7 +10079,7 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F210" t="s">
         <v>21</v>
@@ -10116,7 +10114,7 @@
         <v>14</v>
       </c>
       <c r="E211" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F211" t="s">
         <v>21</v>
@@ -10151,7 +10149,7 @@
         <v>14</v>
       </c>
       <c r="E212" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F212" t="s">
         <v>21</v>
@@ -10226,9 +10224,6 @@
       <c r="F214" t="s">
         <v>21</v>
       </c>
-      <c r="G214" t="s">
-        <v>16</v>
-      </c>
       <c r="H214" t="s">
         <v>16</v>
       </c>
@@ -10256,10 +10251,13 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F215" t="s">
         <v>21</v>
+      </c>
+      <c r="G215" t="s">
+        <v>16</v>
       </c>
       <c r="H215" t="s">
         <v>16</v>
@@ -10288,7 +10286,7 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F216" t="s">
         <v>21</v>
@@ -10501,7 +10499,7 @@
         <v>21</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G222" t="s">
         <v>16</v>
@@ -10536,7 +10534,7 @@
         <v>21</v>
       </c>
       <c r="F223" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
@@ -10950,16 +10948,13 @@
         <v>508</v>
       </c>
       <c r="D235" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="E235" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="F235" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="H235" t="s">
         <v>16</v>
@@ -10979,19 +10974,22 @@
         <v>914</v>
       </c>
       <c r="B236" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C236" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D236" t="s">
-        <v>511</v>
+        <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="F236" t="s">
-        <v>179</v>
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>16</v>
       </c>
       <c r="H236" t="s">
         <v>16</v>
@@ -11160,7 +11158,7 @@
         <v>14</v>
       </c>
       <c r="E241" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F241" t="s">
         <v>21</v>
@@ -11195,7 +11193,7 @@
         <v>14</v>
       </c>
       <c r="E242" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F242" t="s">
         <v>21</v>
@@ -11375,9 +11373,6 @@
       <c r="F247" t="s">
         <v>21</v>
       </c>
-      <c r="G247" t="s">
-        <v>16</v>
-      </c>
       <c r="H247" t="s">
         <v>16</v>
       </c>
@@ -11410,6 +11405,9 @@
       <c r="F248" t="s">
         <v>21</v>
       </c>
+      <c r="G248" t="s">
+        <v>16</v>
+      </c>
       <c r="H248" t="s">
         <v>16</v>
       </c>
@@ -11574,13 +11572,13 @@
         <v>546</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E253" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F253" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G253" t="s">
         <v>16</v>
@@ -11609,13 +11607,13 @@
         <v>548</v>
       </c>
       <c r="D254" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E254" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="F254" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G254" t="s">
         <v>16</v>
@@ -12134,13 +12132,13 @@
         <v>578</v>
       </c>
       <c r="D269" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="E269" t="s">
-        <v>21</v>
+        <v>579</v>
       </c>
       <c r="F269" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G269" t="s">
         <v>16</v>
@@ -12163,19 +12161,19 @@
         <v>1214</v>
       </c>
       <c r="B270" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C270" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D270" t="s">
-        <v>511</v>
+        <v>14</v>
       </c>
       <c r="E270" t="s">
-        <v>581</v>
+        <v>21</v>
       </c>
       <c r="F270" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="G270" t="s">
         <v>16</v>
@@ -12717,6 +12715,9 @@
       <c r="K285" t="s">
         <v>17</v>
       </c>
+      <c r="L285" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -12752,9 +12753,6 @@
       <c r="K286" t="s">
         <v>17</v>
       </c>
-      <c r="L286" t="s">
-        <v>815</v>
-      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -13055,9 +13053,6 @@
       <c r="F295" t="s">
         <v>21</v>
       </c>
-      <c r="G295" t="s">
-        <v>16</v>
-      </c>
       <c r="H295" t="s">
         <v>16</v>
       </c>
@@ -13090,6 +13085,9 @@
       <c r="F296" t="s">
         <v>21</v>
       </c>
+      <c r="G296" t="s">
+        <v>16</v>
+      </c>
       <c r="H296" t="s">
         <v>16</v>
       </c>
@@ -13117,7 +13115,7 @@
         <v>14</v>
       </c>
       <c r="E297" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F297" t="s">
         <v>21</v>
@@ -13152,7 +13150,7 @@
         <v>14</v>
       </c>
       <c r="E298" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F298" t="s">
         <v>21</v>
@@ -13187,7 +13185,7 @@
         <v>14</v>
       </c>
       <c r="E299" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F299" t="s">
         <v>21</v>
@@ -13222,7 +13220,7 @@
         <v>14</v>
       </c>
       <c r="E300" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F300" t="s">
         <v>21</v>
@@ -13893,7 +13891,7 @@
         <v>21</v>
       </c>
       <c r="G319" t="s">
-        <v>16</v>
+        <v>680</v>
       </c>
       <c r="H319" t="s">
         <v>16</v>
@@ -13913,10 +13911,10 @@
         <v>1622</v>
       </c>
       <c r="B320" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C320" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D320" t="s">
         <v>14</v>
@@ -13928,7 +13926,7 @@
         <v>21</v>
       </c>
       <c r="G320" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="H320" t="s">
         <v>16</v>
@@ -13957,7 +13955,7 @@
         <v>14</v>
       </c>
       <c r="E321" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F321" t="s">
         <v>21</v>
@@ -13992,7 +13990,7 @@
         <v>14</v>
       </c>
       <c r="E322" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F322" t="s">
         <v>21</v>
@@ -14027,7 +14025,7 @@
         <v>14</v>
       </c>
       <c r="E323" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F323" t="s">
         <v>21</v>
@@ -14062,7 +14060,7 @@
         <v>14</v>
       </c>
       <c r="E324" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F324" t="s">
         <v>21</v>
@@ -14137,9 +14135,6 @@
       <c r="F326" t="s">
         <v>21</v>
       </c>
-      <c r="G326" t="s">
-        <v>16</v>
-      </c>
       <c r="H326" t="s">
         <v>16</v>
       </c>
@@ -14172,6 +14167,9 @@
       <c r="F327" t="s">
         <v>21</v>
       </c>
+      <c r="G327" t="s">
+        <v>16</v>
+      </c>
       <c r="H327" t="s">
         <v>16</v>
       </c>
@@ -14199,7 +14197,7 @@
         <v>14</v>
       </c>
       <c r="E328" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F328" t="s">
         <v>21</v>
@@ -14234,7 +14232,7 @@
         <v>14</v>
       </c>
       <c r="E329" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F329" t="s">
         <v>21</v>
@@ -14304,7 +14302,7 @@
         <v>14</v>
       </c>
       <c r="E331" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F331" t="s">
         <v>21</v>
@@ -14339,7 +14337,7 @@
         <v>14</v>
       </c>
       <c r="E332" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="F332" t="s">
         <v>21</v>
@@ -14374,7 +14372,7 @@
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F333" t="s">
         <v>21</v>
@@ -14409,7 +14407,7 @@
         <v>14</v>
       </c>
       <c r="E334" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F334" t="s">
         <v>21</v>
@@ -14444,7 +14442,7 @@
         <v>14</v>
       </c>
       <c r="E335" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F335" t="s">
         <v>21</v>
@@ -14639,6 +14637,9 @@
       <c r="K340" t="s">
         <v>17</v>
       </c>
+      <c r="L340" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
@@ -14674,9 +14675,6 @@
       <c r="K341" t="s">
         <v>17</v>
       </c>
-      <c r="L341" t="s">
-        <v>822</v>
-      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
@@ -14852,6 +14850,9 @@
       <c r="K346" t="s">
         <v>17</v>
       </c>
+      <c r="L346" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
@@ -14888,7 +14889,7 @@
         <v>17</v>
       </c>
       <c r="L347" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -14925,9 +14926,6 @@
       <c r="K348" t="s">
         <v>17</v>
       </c>
-      <c r="L348" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
@@ -15048,7 +15046,7 @@
         <v>14</v>
       </c>
       <c r="E352" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F352" t="s">
         <v>21</v>
@@ -15083,7 +15081,7 @@
         <v>14</v>
       </c>
       <c r="E353" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F353" t="s">
         <v>21</v>
@@ -15118,13 +15116,10 @@
         <v>14</v>
       </c>
       <c r="E354" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="F354" t="s">
         <v>21</v>
-      </c>
-      <c r="G354" t="s">
-        <v>16</v>
       </c>
       <c r="H354" t="s">
         <v>16</v>
@@ -15153,10 +15148,13 @@
         <v>14</v>
       </c>
       <c r="E355" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F355" t="s">
         <v>21</v>
+      </c>
+      <c r="G355" t="s">
+        <v>16</v>
       </c>
       <c r="H355" t="s">
         <v>16</v>
@@ -15430,7 +15428,7 @@
         <v>14</v>
       </c>
       <c r="E363" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F363" t="s">
         <v>21</v>
@@ -15465,13 +15463,10 @@
         <v>14</v>
       </c>
       <c r="E364" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F364" t="s">
         <v>21</v>
-      </c>
-      <c r="G364" t="s">
-        <v>16</v>
       </c>
       <c r="H364" t="s">
         <v>16</v>
@@ -15505,6 +15500,9 @@
       <c r="F365" t="s">
         <v>21</v>
       </c>
+      <c r="G365" t="s">
+        <v>16</v>
+      </c>
       <c r="H365" t="s">
         <v>16</v>
       </c>
@@ -15532,7 +15530,7 @@
         <v>14</v>
       </c>
       <c r="E366" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F366" t="s">
         <v>21</v>
@@ -15567,7 +15565,7 @@
         <v>14</v>
       </c>
       <c r="E367" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F367" t="s">
         <v>21</v>
@@ -15586,6 +15584,9 @@
       </c>
       <c r="K367" t="s">
         <v>17</v>
+      </c>
+      <c r="L367" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -15602,7 +15603,7 @@
         <v>14</v>
       </c>
       <c r="E368" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F368" t="s">
         <v>21</v>
@@ -15621,9 +15622,6 @@
       </c>
       <c r="K368" t="s">
         <v>17</v>
-      </c>
-      <c r="L368" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -15640,7 +15638,7 @@
         <v>14</v>
       </c>
       <c r="E369" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="F369" t="s">
         <v>21</v>
@@ -15748,7 +15746,7 @@
         <v>21</v>
       </c>
       <c r="F372" t="s">
-        <v>21</v>
+        <v>787</v>
       </c>
       <c r="G372" t="s">
         <v>16</v>
@@ -15771,10 +15769,10 @@
         <v>1966</v>
       </c>
       <c r="B373" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C373" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D373" t="s">
         <v>14</v>
@@ -15783,7 +15781,7 @@
         <v>21</v>
       </c>
       <c r="F373" t="s">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="G373" t="s">
         <v>16</v>
@@ -15844,7 +15842,7 @@
         <v>792</v>
       </c>
       <c r="C375" t="s">
-        <v>793</v>
+        <v>478</v>
       </c>
       <c r="D375" t="s">
         <v>14</v>
@@ -15876,10 +15874,10 @@
         <v>11100</v>
       </c>
       <c r="B376" t="s">
+        <v>793</v>
+      </c>
+      <c r="C376" t="s">
         <v>794</v>
-      </c>
-      <c r="C376" t="s">
-        <v>480</v>
       </c>
       <c r="D376" t="s">
         <v>14</v>
@@ -16030,9 +16028,6 @@
       <c r="F380" t="s">
         <v>21</v>
       </c>
-      <c r="G380" t="s">
-        <v>16</v>
-      </c>
       <c r="H380" t="s">
         <v>16</v>
       </c>
@@ -16065,6 +16060,9 @@
       <c r="F381" t="s">
         <v>21</v>
       </c>
+      <c r="G381" t="s">
+        <v>16</v>
+      </c>
       <c r="H381" t="s">
         <v>16</v>
       </c>
@@ -16183,39 +16181,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>11550</v>
-      </c>
-      <c r="B385" t="s">
-        <v>811</v>
-      </c>
-      <c r="C385" t="s">
-        <v>812</v>
-      </c>
-      <c r="D385" t="s">
-        <v>14</v>
-      </c>
-      <c r="E385" t="s">
-        <v>21</v>
-      </c>
-      <c r="F385" t="s">
-        <v>21</v>
-      </c>
-      <c r="G385" t="s">
-        <v>16</v>
-      </c>
-      <c r="H385" t="s">
-        <v>16</v>
-      </c>
-      <c r="I385">
-        <v>2005</v>
-      </c>
-      <c r="J385">
-        <v>1700</v>
-      </c>
-      <c r="K385" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E0B3378D-9F91-4F5C-BE3D-6CEB4FDD5469}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{888B0FFE-488B-479B-8610-592EE3C0CE7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2849,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L385"/>
+  <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16181,11 +16181,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>11550</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{888B0FFE-488B-479B-8610-592EE3C0CE7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="836">
   <si>
     <t>species_order</t>
   </si>
@@ -2538,7 +2537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2848,11 +2847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3111,8 +3110,8 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="H7" t="s">
+        <v>16</v>
       </c>
       <c r="I7">
         <v>2005</v>
@@ -3324,8 +3323,8 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="H13">
-        <v>6</v>
+      <c r="H13" t="s">
+        <v>16</v>
       </c>
       <c r="I13">
         <v>2005</v>
@@ -3359,8 +3358,8 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="H14">
-        <v>6</v>
+      <c r="H14" t="s">
+        <v>16</v>
       </c>
       <c r="I14">
         <v>2005</v>
@@ -3502,8 +3501,8 @@
       <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="H18">
-        <v>6</v>
+      <c r="H18" t="s">
+        <v>16</v>
       </c>
       <c r="I18">
         <v>2005</v>
@@ -3642,8 +3641,8 @@
       <c r="G22" t="s">
         <v>835</v>
       </c>
-      <c r="H22">
-        <v>6</v>
+      <c r="H22" t="s">
+        <v>16</v>
       </c>
       <c r="I22">
         <v>2005</v>
@@ -3954,8 +3953,8 @@
       <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="H31">
-        <v>6</v>
+      <c r="H31" t="s">
+        <v>16</v>
       </c>
       <c r="I31">
         <v>2005</v>
@@ -4126,8 +4125,8 @@
       <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="H36">
-        <v>6</v>
+      <c r="H36" t="s">
+        <v>16</v>
       </c>
       <c r="I36">
         <v>2005</v>
@@ -4756,8 +4755,8 @@
       <c r="F54" t="s">
         <v>21</v>
       </c>
-      <c r="H54">
-        <v>6</v>
+      <c r="H54" t="s">
+        <v>16</v>
       </c>
       <c r="I54">
         <v>2005</v>
@@ -4893,8 +4892,8 @@
       <c r="F58" t="s">
         <v>21</v>
       </c>
-      <c r="H58">
-        <v>6</v>
+      <c r="H58" t="s">
+        <v>16</v>
       </c>
       <c r="I58">
         <v>2005</v>
@@ -5103,8 +5102,8 @@
       <c r="F64" t="s">
         <v>21</v>
       </c>
-      <c r="H64">
-        <v>6</v>
+      <c r="H64" t="s">
+        <v>16</v>
       </c>
       <c r="I64">
         <v>2005</v>
@@ -5278,8 +5277,8 @@
       <c r="F69" t="s">
         <v>21</v>
       </c>
-      <c r="H69">
-        <v>6</v>
+      <c r="H69" t="s">
+        <v>16</v>
       </c>
       <c r="I69">
         <v>2005</v>
@@ -5803,8 +5802,8 @@
       <c r="F84" t="s">
         <v>114</v>
       </c>
-      <c r="H84">
-        <v>6</v>
+      <c r="H84" t="s">
+        <v>16</v>
       </c>
       <c r="I84">
         <v>2005</v>
@@ -5908,8 +5907,8 @@
       <c r="F87" t="s">
         <v>21</v>
       </c>
-      <c r="H87">
-        <v>6</v>
+      <c r="H87" t="s">
+        <v>16</v>
       </c>
       <c r="I87">
         <v>2005</v>
@@ -6296,8 +6295,8 @@
       <c r="F98" t="s">
         <v>21</v>
       </c>
-      <c r="H98">
-        <v>6</v>
+      <c r="H98" t="s">
+        <v>16</v>
       </c>
       <c r="I98">
         <v>2005</v>
@@ -6398,8 +6397,8 @@
       <c r="G101" t="s">
         <v>835</v>
       </c>
-      <c r="H101">
-        <v>6</v>
+      <c r="H101" t="s">
+        <v>16</v>
       </c>
       <c r="I101">
         <v>2005</v>
@@ -6430,8 +6429,8 @@
       <c r="F102" t="s">
         <v>21</v>
       </c>
-      <c r="H102">
-        <v>6</v>
+      <c r="H102" t="s">
+        <v>16</v>
       </c>
       <c r="I102">
         <v>2005</v>
@@ -6602,8 +6601,8 @@
       <c r="F107" t="s">
         <v>21</v>
       </c>
-      <c r="H107">
-        <v>6</v>
+      <c r="H107" t="s">
+        <v>16</v>
       </c>
       <c r="I107">
         <v>2005</v>
@@ -6634,8 +6633,8 @@
       <c r="F108" t="s">
         <v>21</v>
       </c>
-      <c r="H108">
-        <v>6</v>
+      <c r="H108" t="s">
+        <v>16</v>
       </c>
       <c r="I108">
         <v>2005</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="847">
   <si>
     <t>species_order</t>
   </si>
@@ -2532,6 +2532,39 @@
   </si>
   <si>
     <t>3_6</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1905/45055136544_f0c9da9688_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4905/45055137744_3958182c8e_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4889/45729776412_7afe946f98_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4881/45055142214_663d8fa110_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1967/45729763972_428499f54f_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4850/45055131014_8d032f5775_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4861/45729766702_157f300a29_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4905/45055134774_2ca1b1cc23_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1925/45055135844_d170ae8d49_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4860/45729769952_fb28cb236b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4878/45055143344_21583d31e5_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2850,9 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3447,7 +3478,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3481,8 +3512,11 @@
       <c r="K17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3514,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3549,7 +3583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3584,7 +3618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3619,7 +3653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3654,7 +3688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -3689,7 +3723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3724,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -3758,8 +3792,11 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -3793,8 +3830,11 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -3828,8 +3868,11 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3864,7 +3907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -3898,8 +3941,11 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -3933,8 +3979,11 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>123</v>
       </c>
@@ -3965,8 +4014,11 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4070,6 +4122,9 @@
       <c r="K34" t="s">
         <v>17</v>
       </c>
+      <c r="L34" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4172,6 +4227,9 @@
       <c r="K37" t="s">
         <v>17</v>
       </c>
+      <c r="L37" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4242,6 +4300,9 @@
       <c r="K39" t="s">
         <v>17</v>
       </c>
+      <c r="L39" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4311,6 +4372,9 @@
       </c>
       <c r="K41" t="s">
         <v>17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7AE816C-C939-4D62-AA72-1B131230C1F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="848">
   <si>
     <t>species_order</t>
   </si>
@@ -2565,12 +2566,15 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4878/45055143344_21583d31e5_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4865/31933987778_eb8a8ec938_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2880,24 +2884,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625"/>
-    <col min="2" max="2" width="46.453125"/>
-    <col min="3" max="3" width="38.08984375"/>
-    <col min="4" max="4" width="26.08984375"/>
-    <col min="5" max="5" width="105.1796875"/>
-    <col min="6" max="6" width="40.81640625"/>
-    <col min="7" max="8" width="17.08984375"/>
-    <col min="9" max="9" width="28.81640625"/>
-    <col min="10" max="10" width="26.453125"/>
-    <col min="11" max="11" width="14.08984375"/>
-    <col min="12" max="1025" width="9.453125"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12887,7 +12894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1394</v>
       </c>
@@ -12922,7 +12929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1398</v>
       </c>
@@ -12957,7 +12964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1411</v>
       </c>
@@ -12992,7 +12999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1424</v>
       </c>
@@ -13027,7 +13034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1430</v>
       </c>
@@ -13062,7 +13069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1434</v>
       </c>
@@ -13097,7 +13104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1444</v>
       </c>
@@ -13129,7 +13136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1450</v>
       </c>
@@ -13164,7 +13171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1451</v>
       </c>
@@ -13199,7 +13206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1453</v>
       </c>
@@ -13234,7 +13241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1457</v>
       </c>
@@ -13269,7 +13276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1463</v>
       </c>
@@ -13304,7 +13311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1466</v>
       </c>
@@ -13339,7 +13346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1469</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1474</v>
       </c>
@@ -13409,7 +13416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1500</v>
       </c>
@@ -13442,6 +13449,9 @@
       </c>
       <c r="K304" t="s">
         <v>17</v>
+      </c>
+      <c r="L304" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7AE816C-C939-4D62-AA72-1B131230C1F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A21C1E22-322B-424B-AC0C-F1D4D83C6D77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="853">
   <si>
     <t>species_order</t>
   </si>
@@ -2569,6 +2569,21 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4865/31933987778_eb8a8ec938_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4877/45804873881_4fb0d70105_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4803/31934053238_2319e70998_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4806/44892069075_f7dc4b022e_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4806/45804865371_a7c91623c2_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4833/30865310147_47f78e9421_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2887,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4523,6 +4538,9 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
+      <c r="L45" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -7896,7 +7914,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>547</v>
       </c>
@@ -7925,7 +7943,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>548</v>
       </c>
@@ -7957,7 +7975,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>555</v>
       </c>
@@ -7986,7 +8004,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8015,7 +8033,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8050,7 +8068,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8085,7 +8103,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8114,7 +8132,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8175,7 +8193,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8210,7 +8228,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>591</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>611</v>
       </c>
@@ -8279,8 +8297,11 @@
       <c r="K156" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>613</v>
       </c>
@@ -8315,7 +8336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>615</v>
       </c>
@@ -8350,7 +8371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>619</v>
       </c>
@@ -8385,7 +8406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>627</v>
       </c>
@@ -13454,7 +13475,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1509</v>
       </c>
@@ -13489,7 +13510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1520</v>
       </c>
@@ -13524,7 +13545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1529</v>
       </c>
@@ -13559,7 +13580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1536</v>
       </c>
@@ -13594,7 +13615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1543</v>
       </c>
@@ -13629,7 +13650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1553</v>
       </c>
@@ -13664,7 +13685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1557</v>
       </c>
@@ -13699,7 +13720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1573</v>
       </c>
@@ -13734,7 +13755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1592</v>
       </c>
@@ -13768,8 +13789,11 @@
       <c r="K313" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1601</v>
       </c>
@@ -13804,7 +13828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1604</v>
       </c>
@@ -13839,7 +13863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1612</v>
       </c>
@@ -13874,7 +13898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1613</v>
       </c>
@@ -13909,7 +13933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1614</v>
       </c>
@@ -13944,7 +13968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1617</v>
       </c>
@@ -13979,7 +14003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1622</v>
       </c>
@@ -14014,7 +14038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1625</v>
       </c>
@@ -14049,7 +14073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1627</v>
       </c>
@@ -14084,7 +14108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1635</v>
       </c>
@@ -14119,7 +14143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1639</v>
       </c>
@@ -14153,8 +14177,11 @@
       <c r="K324" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L324" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1644</v>
       </c>
@@ -14189,7 +14216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1656</v>
       </c>
@@ -14221,7 +14248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1664</v>
       </c>
@@ -14256,7 +14283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1669</v>
       </c>
@@ -14291,7 +14318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1677</v>
       </c>
@@ -14326,7 +14353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1678</v>
       </c>
@@ -14361,7 +14388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1681</v>
       </c>
@@ -14396,7 +14423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1689</v>
       </c>
@@ -14431,7 +14458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1692</v>
       </c>
@@ -14466,7 +14493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1696</v>
       </c>
@@ -14501,7 +14528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1701</v>
       </c>
@@ -14536,7 +14563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1705</v>
       </c>
@@ -14604,6 +14631,9 @@
       </c>
       <c r="K337" t="s">
         <v>17</v>
+      </c>
+      <c r="L337" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A21C1E22-322B-424B-AC0C-F1D4D83C6D77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{915F3F54-13D9-4628-92E7-2E950B5B2502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="858">
   <si>
     <t>species_order</t>
   </si>
@@ -2584,6 +2584,21 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4833/30865310147_47f78e9421_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4906/43990773760_8dd63615e9_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4819/43990773190_8d5ba5d1b0_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4889/43990772210_de90e643fd_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4807/43990772850_662f6350c8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2902,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5521,6 +5536,9 @@
       <c r="K73" t="s">
         <v>17</v>
       </c>
+      <c r="L73" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -7405,7 +7423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>434</v>
       </c>
@@ -7440,7 +7458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>442</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>443</v>
       </c>
@@ -7510,7 +7528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>444</v>
       </c>
@@ -7545,7 +7563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>446</v>
       </c>
@@ -7580,7 +7598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>456</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>463</v>
       </c>
@@ -7649,8 +7667,11 @@
       <c r="K135" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>465</v>
       </c>
@@ -7679,7 +7700,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>493</v>
       </c>
@@ -7708,7 +7729,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>497</v>
       </c>
@@ -7737,7 +7758,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>501</v>
       </c>
@@ -7769,7 +7790,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>517</v>
       </c>
@@ -7798,7 +7819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>519</v>
       </c>
@@ -7827,7 +7848,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>534</v>
       </c>
@@ -7856,7 +7877,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>535</v>
       </c>
@@ -7885,7 +7906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>537</v>
       </c>
@@ -10678,7 +10699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>838</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>842</v>
       </c>
@@ -10748,7 +10769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>845</v>
       </c>
@@ -10783,7 +10804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>849</v>
       </c>
@@ -10817,8 +10838,11 @@
       <c r="K228" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>853</v>
       </c>
@@ -10853,7 +10877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>861</v>
       </c>
@@ -10888,7 +10912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>864</v>
       </c>
@@ -10923,7 +10947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>871</v>
       </c>
@@ -10958,7 +10982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>887</v>
       </c>
@@ -10993,7 +11017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>898</v>
       </c>
@@ -11028,7 +11052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>901</v>
       </c>
@@ -11060,7 +11084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>914</v>
       </c>
@@ -11095,7 +11119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>933</v>
       </c>
@@ -11130,7 +11154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>935</v>
       </c>
@@ -11165,7 +11189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>938</v>
       </c>
@@ -11200,7 +11224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>943</v>
       </c>
@@ -14107,6 +14131,9 @@
       <c r="K322" t="s">
         <v>17</v>
       </c>
+      <c r="L322" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -15617,6 +15644,9 @@
       </c>
       <c r="K365" t="s">
         <v>17</v>
+      </c>
+      <c r="L365" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{915F3F54-13D9-4628-92E7-2E950B5B2502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="858">
   <si>
     <t>species_order</t>
   </si>
@@ -2604,7 +2603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2914,11 +2913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3178,8 +3177,8 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>6</v>
       </c>
       <c r="I7">
         <v>2005</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="859">
   <si>
     <t>species_order</t>
   </si>
@@ -2598,6 +2598,9 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4838/44090300790_5c07f9ee01_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2916,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L287" sqref="L287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12902,6 +12905,9 @@
       <c r="K287" t="s">
         <v>17</v>
       </c>
+      <c r="L287" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03E885A6-84E0-4C23-8AEE-AC9793339DF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -2600,13 +2601,13 @@
     <t>https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
   </si>
   <si>
-    <t>https://c1.staticflickr.com/5/4838/44090300790_5c07f9ee01_b_d.jpg</t>
+    <t>https://c1.staticflickr.com/5/4838/44090300790_af0d27d9ba_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2916,10 +2917,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L287" sqref="L287"/>
     </sheetView>
   </sheetViews>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03E885A6-84E0-4C23-8AEE-AC9793339DF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="838">
   <si>
     <t>species_order</t>
   </si>
@@ -534,6 +533,12 @@
     <t>Pacific Golden Plover</t>
   </si>
   <si>
+    <t>Pluvialis dominica</t>
+  </si>
+  <si>
+    <t>American Golden Plover</t>
+  </si>
+  <si>
     <t>Charadrius ruficapillus</t>
   </si>
   <si>
@@ -2533,81 +2538,12 @@
   </si>
   <si>
     <t>3_6</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1905/45055136544_f0c9da9688_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4905/45055137744_3958182c8e_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4889/45729776412_7afe946f98_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4881/45055142214_663d8fa110_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1967/45729763972_428499f54f_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4850/45055131014_8d032f5775_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4861/45729766702_157f300a29_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4905/45055134774_2ca1b1cc23_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1925/45055135844_d170ae8d49_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4860/45729769952_fb28cb236b_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4878/45055143344_21583d31e5_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4865/31933987778_eb8a8ec938_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4877/45804873881_4fb0d70105_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4803/31934053238_2319e70998_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4806/44892069075_f7dc4b022e_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4806/45804865371_a7c91623c2_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4833/30865310147_47f78e9421_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4906/43990773760_8dd63615e9_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4819/43990773190_8d5ba5d1b0_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4889/43990772210_de90e643fd_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4807/43990772850_662f6350c8_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4838/44090300790_af0d27d9ba_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2917,27 +2853,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L384"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L287" sqref="L287"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="9.453125"/>
+    <col min="1" max="1" width="17.7265625"/>
+    <col min="2" max="2" width="46.453125"/>
+    <col min="3" max="3" width="38.08984375"/>
+    <col min="4" max="4" width="26.08984375"/>
+    <col min="5" max="5" width="105.1796875"/>
+    <col min="6" max="6" width="40.81640625"/>
+    <col min="7" max="8" width="17.08984375"/>
+    <col min="9" max="9" width="28.81640625"/>
+    <col min="10" max="10" width="26.453125"/>
+    <col min="11" max="11" width="14.08984375"/>
+    <col min="12" max="1025" width="9.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3051,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3089,7 +3024,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3167,7 +3102,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -3194,7 +3129,7 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3302,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3394,8 +3329,8 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
+      <c r="H13">
+        <v>6</v>
       </c>
       <c r="I13">
         <v>2005</v>
@@ -3407,7 +3342,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3429,8 +3364,8 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>16</v>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="I14">
         <v>2005</v>
@@ -3442,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3515,10 +3450,10 @@
         <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3552,11 +3487,8 @@
       <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3575,8 +3507,8 @@
       <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
+      <c r="H18">
+        <v>6</v>
       </c>
       <c r="I18">
         <v>2005</v>
@@ -3588,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3623,7 +3555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3658,7 +3590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3693,7 +3625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3713,10 +3645,10 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>835</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
+        <v>837</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
       </c>
       <c r="I22">
         <v>2005</v>
@@ -3728,7 +3660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -3763,7 +3695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3798,7 +3730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -3832,11 +3764,8 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="L25" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -3870,11 +3799,8 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="L26" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -3908,11 +3834,8 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3947,7 +3870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -3981,11 +3904,8 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L29" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4019,11 +3939,8 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-      <c r="L30" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4042,8 +3959,8 @@
       <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31">
+        <v>6</v>
       </c>
       <c r="I31">
         <v>2005</v>
@@ -4054,11 +3971,8 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-      <c r="L31" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4162,9 +4076,6 @@
       <c r="K34" t="s">
         <v>17</v>
       </c>
-      <c r="L34" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4220,8 +4131,8 @@
       <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="H36">
+        <v>6</v>
       </c>
       <c r="I36">
         <v>2005</v>
@@ -4267,9 +4178,6 @@
       <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="L37" t="s">
-        <v>845</v>
-      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4340,9 +4248,6 @@
       <c r="K39" t="s">
         <v>17</v>
       </c>
-      <c r="L39" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4413,9 +4318,6 @@
       <c r="K41" t="s">
         <v>17</v>
       </c>
-      <c r="L41" t="s">
-        <v>844</v>
-      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4556,9 +4458,6 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
-      <c r="L45" t="s">
-        <v>852</v>
-      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -4630,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4862,8 +4761,8 @@
       <c r="F54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" t="s">
-        <v>16</v>
+      <c r="H54">
+        <v>6</v>
       </c>
       <c r="I54">
         <v>2005</v>
@@ -4999,8 +4898,8 @@
       <c r="F58" t="s">
         <v>21</v>
       </c>
-      <c r="H58" t="s">
-        <v>16</v>
+      <c r="H58">
+        <v>6</v>
       </c>
       <c r="I58">
         <v>2005</v>
@@ -5047,7 +4946,7 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5209,8 +5108,8 @@
       <c r="F64" t="s">
         <v>21</v>
       </c>
-      <c r="H64" t="s">
-        <v>16</v>
+      <c r="H64">
+        <v>6</v>
       </c>
       <c r="I64">
         <v>2005</v>
@@ -5327,7 +5226,7 @@
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5384,8 +5283,8 @@
       <c r="F69" t="s">
         <v>21</v>
       </c>
-      <c r="H69" t="s">
-        <v>16</v>
+      <c r="H69">
+        <v>6</v>
       </c>
       <c r="I69">
         <v>2005</v>
@@ -5502,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5539,9 +5438,6 @@
       <c r="K73" t="s">
         <v>17</v>
       </c>
-      <c r="L73" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -5632,11 +5528,8 @@
       <c r="F76" t="s">
         <v>21</v>
       </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" t="s">
-        <v>16</v>
+      <c r="H76">
+        <v>6</v>
       </c>
       <c r="I76">
         <v>2005</v>
@@ -5662,7 +5555,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
         <v>21</v>
@@ -5688,19 +5581,19 @@
         <v>298</v>
       </c>
       <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
         <v>174</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
         <v>175</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
-      </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -5723,19 +5616,19 @@
         <v>300</v>
       </c>
       <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
         <v>178</v>
       </c>
-      <c r="C79" t="s">
+      <c r="F79" t="s">
         <v>179</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" t="s">
-        <v>114</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -5758,19 +5651,19 @@
         <v>303</v>
       </c>
       <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
         <v>181</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
         <v>182</v>
       </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -5807,6 +5700,9 @@
       <c r="F81" t="s">
         <v>21</v>
       </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
@@ -5839,9 +5735,6 @@
       <c r="F82" t="s">
         <v>21</v>
       </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
       <c r="H82" t="s">
         <v>16</v>
       </c>
@@ -5889,9 +5782,6 @@
       <c r="K83" t="s">
         <v>17</v>
       </c>
-      <c r="L83" t="s">
-        <v>817</v>
-      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -5904,13 +5794,16 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
       </c>
       <c r="H84" t="s">
         <v>16</v>
@@ -5923,6 +5816,9 @@
       </c>
       <c r="K84" t="s">
         <v>17</v>
+      </c>
+      <c r="L84" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5930,25 +5826,22 @@
         <v>319</v>
       </c>
       <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
         <v>192</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" t="s">
         <v>193</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s">
-        <v>21</v>
-      </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>16</v>
+        <v>114</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
       </c>
       <c r="I85">
         <v>2005</v>
@@ -5958,9 +5851,6 @@
       </c>
       <c r="K85" t="s">
         <v>17</v>
-      </c>
-      <c r="L85" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5977,7 +5867,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
@@ -5996,6 +5886,9 @@
       </c>
       <c r="K86" t="s">
         <v>17</v>
+      </c>
+      <c r="L86" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6017,6 +5910,9 @@
       <c r="F87" t="s">
         <v>21</v>
       </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
       <c r="H87" t="s">
         <v>16</v>
       </c>
@@ -6041,19 +5937,16 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>177</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
       </c>
       <c r="I88">
         <v>2005</v>
@@ -6070,19 +5963,19 @@
         <v>330</v>
       </c>
       <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" t="s">
         <v>202</v>
       </c>
-      <c r="D89" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
       <c r="F89" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -6105,19 +5998,19 @@
         <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
         <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -6146,7 +6039,7 @@
         <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
         <v>166</v>
@@ -6181,13 +6074,13 @@
         <v>210</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -6216,13 +6109,13 @@
         <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -6251,13 +6144,13 @@
         <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -6344,9 +6237,6 @@
       <c r="K96" t="s">
         <v>17</v>
       </c>
-      <c r="L96" t="s">
-        <v>815</v>
-      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -6359,13 +6249,13 @@
         <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F97" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -6383,7 +6273,7 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6397,13 +6287,16 @@
         <v>222</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>179</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
       </c>
       <c r="H98" t="s">
         <v>16</v>
@@ -6416,6 +6309,9 @@
       </c>
       <c r="K98" t="s">
         <v>17</v>
+      </c>
+      <c r="L98" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6437,11 +6333,8 @@
       <c r="F99" t="s">
         <v>21</v>
       </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" t="s">
-        <v>16</v>
+      <c r="H99">
+        <v>6</v>
       </c>
       <c r="I99">
         <v>2005</v>
@@ -6472,6 +6365,9 @@
       <c r="F100" t="s">
         <v>21</v>
       </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
       <c r="H100" t="s">
         <v>16</v>
       </c>
@@ -6504,9 +6400,6 @@
       <c r="F101" t="s">
         <v>21</v>
       </c>
-      <c r="G101" t="s">
-        <v>835</v>
-      </c>
       <c r="H101" t="s">
         <v>16</v>
       </c>
@@ -6531,7 +6424,7 @@
         <v>230</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
         <v>166</v>
@@ -6539,8 +6432,11 @@
       <c r="F102" t="s">
         <v>21</v>
       </c>
-      <c r="H102" t="s">
-        <v>16</v>
+      <c r="G102" t="s">
+        <v>837</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
       </c>
       <c r="I102">
         <v>2005</v>
@@ -6563,7 +6459,7 @@
         <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -6571,11 +6467,8 @@
       <c r="F103" t="s">
         <v>21</v>
       </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" t="s">
-        <v>16</v>
+      <c r="H103">
+        <v>6</v>
       </c>
       <c r="I103">
         <v>2005</v>
@@ -6706,10 +6599,13 @@
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
       </c>
       <c r="H107" t="s">
         <v>16</v>
@@ -6729,22 +6625,22 @@
         <v>370</v>
       </c>
       <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" t="s">
         <v>242</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
         <v>243</v>
       </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>21</v>
-      </c>
       <c r="F108" t="s">
         <v>21</v>
       </c>
-      <c r="H108" t="s">
-        <v>16</v>
+      <c r="H108">
+        <v>6</v>
       </c>
       <c r="I108">
         <v>2005</v>
@@ -6770,16 +6666,13 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
       </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" t="s">
-        <v>16</v>
+      <c r="H109">
+        <v>6</v>
       </c>
       <c r="I109">
         <v>2005</v>
@@ -6875,7 +6768,7 @@
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -6907,13 +6800,13 @@
         <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
@@ -6936,19 +6829,19 @@
         <v>384</v>
       </c>
       <c r="B114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" t="s">
         <v>255</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" t="s">
         <v>256</v>
       </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
-        <v>21</v>
-      </c>
       <c r="F114" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -6985,6 +6878,9 @@
       <c r="F115" t="s">
         <v>21</v>
       </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
       <c r="H115" t="s">
         <v>16</v>
       </c>
@@ -7012,7 +6908,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -7035,20 +6931,23 @@
         <v>392</v>
       </c>
       <c r="B117" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" t="s">
         <v>262</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
         <v>263</v>
       </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
-        <v>264</v>
-      </c>
       <c r="F117" t="s">
         <v>21</v>
       </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
       <c r="I117">
         <v>2005</v>
       </c>
@@ -7056,7 +6955,7 @@
         <v>1700</v>
       </c>
       <c r="K117" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -7064,34 +6963,28 @@
         <v>394</v>
       </c>
       <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
         <v>266</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118">
+        <v>2005</v>
+      </c>
+      <c r="J118">
+        <v>1700</v>
+      </c>
+      <c r="K118" t="s">
         <v>267</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>111</v>
-      </c>
-      <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118">
-        <v>2005</v>
-      </c>
-      <c r="J118">
-        <v>1700</v>
-      </c>
-      <c r="K118" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -7108,7 +7001,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -7126,7 +7019,7 @@
         <v>1700</v>
       </c>
       <c r="K119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -7143,11 +7036,14 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F120" t="s">
         <v>21</v>
       </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
       <c r="H120" t="s">
         <v>16</v>
       </c>
@@ -7158,7 +7054,7 @@
         <v>1700</v>
       </c>
       <c r="K120" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -7175,7 +7071,7 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -7190,7 +7086,7 @@
         <v>1700</v>
       </c>
       <c r="K121" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -7207,14 +7103,11 @@
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
       </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
       <c r="H122" t="s">
         <v>16</v>
       </c>
@@ -7225,7 +7118,7 @@
         <v>1700</v>
       </c>
       <c r="K122" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -7242,10 +7135,13 @@
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -7274,7 +7170,7 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -7306,7 +7202,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -7338,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -7353,7 +7249,7 @@
         <v>1700</v>
       </c>
       <c r="K126" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -7370,14 +7266,11 @@
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
       </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
       <c r="H127" t="s">
         <v>16</v>
       </c>
@@ -7388,7 +7281,7 @@
         <v>1700</v>
       </c>
       <c r="K127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -7405,7 +7298,7 @@
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -7423,10 +7316,10 @@
         <v>1700</v>
       </c>
       <c r="K128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>434</v>
       </c>
@@ -7440,7 +7333,7 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -7461,22 +7354,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>442</v>
       </c>
       <c r="B130" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" t="s">
         <v>291</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
         <v>292</v>
       </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>293</v>
-      </c>
       <c r="F130" t="s">
         <v>21</v>
       </c>
@@ -7496,22 +7389,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>443</v>
       </c>
       <c r="B131" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" t="s">
         <v>294</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
         <v>295</v>
       </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>261</v>
-      </c>
       <c r="F131" t="s">
         <v>21</v>
       </c>
@@ -7531,7 +7424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>444</v>
       </c>
@@ -7545,7 +7438,7 @@
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -7566,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>446</v>
       </c>
@@ -7601,7 +7494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>456</v>
       </c>
@@ -7615,7 +7508,7 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -7636,7 +7529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>463</v>
       </c>
@@ -7650,7 +7543,7 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
@@ -7668,13 +7561,10 @@
         <v>1700</v>
       </c>
       <c r="K135" t="s">
-        <v>265</v>
-      </c>
-      <c r="L135" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>465</v>
       </c>
@@ -7688,11 +7578,17 @@
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
       </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
       <c r="I136">
         <v>2005</v>
       </c>
@@ -7700,10 +7596,10 @@
         <v>1700</v>
       </c>
       <c r="K136" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>493</v>
       </c>
@@ -7717,7 +7613,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -7729,10 +7625,10 @@
         <v>1700</v>
       </c>
       <c r="K137" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>497</v>
       </c>
@@ -7746,7 +7642,7 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -7758,10 +7654,10 @@
         <v>1700</v>
       </c>
       <c r="K138" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>501</v>
       </c>
@@ -7772,16 +7668,13 @@
         <v>311</v>
       </c>
       <c r="D139" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>114</v>
-      </c>
-      <c r="H139" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I139">
         <v>2005</v>
@@ -7790,27 +7683,30 @@
         <v>1700</v>
       </c>
       <c r="K139" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>517</v>
       </c>
       <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
         <v>313</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>179</v>
+      </c>
+      <c r="E140" t="s">
         <v>314</v>
       </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>312</v>
-      </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
       </c>
       <c r="I140">
         <v>2005</v>
@@ -7819,10 +7715,10 @@
         <v>1700</v>
       </c>
       <c r="K140" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>519</v>
       </c>
@@ -7836,10 +7732,10 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F141" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I141">
         <v>2005</v>
@@ -7848,27 +7744,27 @@
         <v>1700</v>
       </c>
       <c r="K141" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>534</v>
       </c>
       <c r="B142" t="s">
+        <v>317</v>
+      </c>
+      <c r="C142" t="s">
         <v>318</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
         <v>319</v>
       </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>261</v>
-      </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I142">
         <v>2005</v>
@@ -7877,10 +7773,10 @@
         <v>1700</v>
       </c>
       <c r="K142" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>535</v>
       </c>
@@ -7894,7 +7790,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -7906,10 +7802,10 @@
         <v>1700</v>
       </c>
       <c r="K143" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>537</v>
       </c>
@@ -7923,7 +7819,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -7935,10 +7831,10 @@
         <v>1700</v>
       </c>
       <c r="K144" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>547</v>
       </c>
@@ -7952,7 +7848,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -7964,10 +7860,10 @@
         <v>1700</v>
       </c>
       <c r="K145" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>548</v>
       </c>
@@ -7978,17 +7874,14 @@
         <v>327</v>
       </c>
       <c r="D146" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
       </c>
-      <c r="H146" t="s">
-        <v>16</v>
-      </c>
       <c r="I146">
         <v>2005</v>
       </c>
@@ -7996,28 +7889,31 @@
         <v>1700</v>
       </c>
       <c r="K146" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>555</v>
       </c>
       <c r="B147" t="s">
+        <v>328</v>
+      </c>
+      <c r="C147" t="s">
         <v>329</v>
-      </c>
-      <c r="C147" t="s">
-        <v>330</v>
       </c>
       <c r="D147" t="s">
         <v>114</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="F147" t="s">
         <v>21</v>
       </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
       <c r="I147">
         <v>2005</v>
       </c>
@@ -8025,10 +7921,10 @@
         <v>1700</v>
       </c>
       <c r="K147" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8039,10 +7935,10 @@
         <v>332</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E148" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
         <v>21</v>
@@ -8054,33 +7950,27 @@
         <v>1700</v>
       </c>
       <c r="K148" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>564</v>
       </c>
       <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="s">
         <v>334</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
         <v>335</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>293</v>
-      </c>
       <c r="F149" t="s">
-        <v>114</v>
-      </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I149">
         <v>2005</v>
@@ -8089,10 +7979,10 @@
         <v>1700</v>
       </c>
       <c r="K149" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8106,10 +7996,10 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
@@ -8124,10 +8014,10 @@
         <v>1700</v>
       </c>
       <c r="K150" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8138,14 +8028,20 @@
         <v>339</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
       </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
       <c r="I151">
         <v>2005</v>
       </c>
@@ -8153,24 +8049,24 @@
         <v>1700</v>
       </c>
       <c r="K151" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>587</v>
       </c>
       <c r="B152" t="s">
+        <v>340</v>
+      </c>
+      <c r="C152" t="s">
         <v>341</v>
-      </c>
-      <c r="C152" t="s">
-        <v>342</v>
       </c>
       <c r="D152" t="s">
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -8182,10 +8078,10 @@
         <v>1700</v>
       </c>
       <c r="K152" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8196,17 +8092,14 @@
         <v>344</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
       </c>
-      <c r="H153" t="s">
-        <v>16</v>
-      </c>
       <c r="I153">
         <v>2005</v>
       </c>
@@ -8214,10 +8107,10 @@
         <v>1700</v>
       </c>
       <c r="K153" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8228,17 +8121,14 @@
         <v>346</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
       </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
       <c r="H154" t="s">
         <v>16</v>
       </c>
@@ -8249,10 +8139,10 @@
         <v>1700</v>
       </c>
       <c r="K154" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>591</v>
       </c>
@@ -8263,10 +8153,10 @@
         <v>348</v>
       </c>
       <c r="D155" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E155" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -8284,10 +8174,10 @@
         <v>1700</v>
       </c>
       <c r="K155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>611</v>
       </c>
@@ -8298,10 +8188,10 @@
         <v>350</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="E156" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
@@ -8321,11 +8211,8 @@
       <c r="K156" t="s">
         <v>17</v>
       </c>
-      <c r="L156" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>613</v>
       </c>
@@ -8339,7 +8226,7 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F157" t="s">
         <v>21</v>
@@ -8360,7 +8247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>615</v>
       </c>
@@ -8395,7 +8282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>619</v>
       </c>
@@ -8409,7 +8296,7 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F159" t="s">
         <v>21</v>
@@ -8430,7 +8317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>627</v>
       </c>
@@ -8444,7 +8331,7 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F160" t="s">
         <v>21</v>
@@ -8479,7 +8366,7 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -8514,7 +8401,7 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F162" t="s">
         <v>21</v>
@@ -8533,9 +8420,6 @@
       </c>
       <c r="K162" t="s">
         <v>17</v>
-      </c>
-      <c r="L162" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8552,7 +8436,7 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
         <v>21</v>
@@ -8571,6 +8455,9 @@
       </c>
       <c r="K163" t="s">
         <v>17</v>
+      </c>
+      <c r="L163" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8587,7 +8474,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F164" t="s">
         <v>21</v>
@@ -8622,7 +8509,7 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F165" t="s">
         <v>21</v>
@@ -8657,7 +8544,7 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F166" t="s">
         <v>21</v>
@@ -8676,9 +8563,6 @@
       </c>
       <c r="K166" t="s">
         <v>17</v>
-      </c>
-      <c r="L166" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8695,7 +8579,7 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F167" t="s">
         <v>21</v>
@@ -8714,6 +8598,9 @@
       </c>
       <c r="K167" t="s">
         <v>17</v>
+      </c>
+      <c r="L167" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8730,7 +8617,7 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F168" t="s">
         <v>21</v>
@@ -8765,7 +8652,7 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
@@ -8784,9 +8671,6 @@
       </c>
       <c r="K169" t="s">
         <v>17</v>
-      </c>
-      <c r="L169" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8803,7 +8687,7 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -8822,6 +8706,9 @@
       </c>
       <c r="K170" t="s">
         <v>17</v>
+      </c>
+      <c r="L170" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8873,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F172" t="s">
         <v>21</v>
@@ -8908,11 +8795,14 @@
         <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
       </c>
+      <c r="G173" t="s">
+        <v>16</v>
+      </c>
       <c r="H173" t="s">
         <v>16</v>
       </c>
@@ -8923,7 +8813,7 @@
         <v>1700</v>
       </c>
       <c r="K173" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8940,14 +8830,11 @@
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
       </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
       <c r="H174" t="s">
         <v>16</v>
       </c>
@@ -8958,7 +8845,7 @@
         <v>1700</v>
       </c>
       <c r="K174" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8975,7 +8862,7 @@
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -8993,7 +8880,7 @@
         <v>1700</v>
       </c>
       <c r="K175" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9010,11 +8897,14 @@
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
       </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
       <c r="H176" t="s">
         <v>16</v>
       </c>
@@ -9025,7 +8915,7 @@
         <v>1700</v>
       </c>
       <c r="K176" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -9042,14 +8932,11 @@
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="F177" t="s">
         <v>21</v>
       </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
       <c r="H177" t="s">
         <v>16</v>
       </c>
@@ -9060,7 +8947,7 @@
         <v>1700</v>
       </c>
       <c r="K177" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -9077,7 +8964,7 @@
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
         <v>21</v>
@@ -9095,7 +8982,7 @@
         <v>1700</v>
       </c>
       <c r="K178" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -9252,7 +9139,7 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F183" t="s">
         <v>21</v>
@@ -9287,7 +9174,7 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F184" t="s">
         <v>21</v>
@@ -9327,6 +9214,9 @@
       <c r="F185" t="s">
         <v>21</v>
       </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
       <c r="H185" t="s">
         <v>16</v>
       </c>
@@ -9359,9 +9249,6 @@
       <c r="F186" t="s">
         <v>21</v>
       </c>
-      <c r="G186" t="s">
-        <v>16</v>
-      </c>
       <c r="H186" t="s">
         <v>16</v>
       </c>
@@ -9494,7 +9381,7 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -9529,7 +9416,7 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -9599,7 +9486,7 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -9634,7 +9521,7 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -9669,7 +9556,7 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -9704,7 +9591,7 @@
         <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -9739,7 +9626,7 @@
         <v>14</v>
       </c>
       <c r="E197" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -9774,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F198" t="s">
         <v>21</v>
@@ -9952,7 +9839,7 @@
         <v>21</v>
       </c>
       <c r="F203" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
         <v>16</v>
@@ -9987,7 +9874,7 @@
         <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G204" t="s">
         <v>16</v>
@@ -10019,7 +9906,7 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F205" t="s">
         <v>21</v>
@@ -10054,7 +9941,7 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F206" t="s">
         <v>21</v>
@@ -10089,7 +9976,7 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F207" t="s">
         <v>21</v>
@@ -10124,7 +10011,7 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F208" t="s">
         <v>21</v>
@@ -10159,7 +10046,7 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
         <v>21</v>
@@ -10194,7 +10081,7 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F210" t="s">
         <v>21</v>
@@ -10229,7 +10116,7 @@
         <v>14</v>
       </c>
       <c r="E211" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
         <v>21</v>
@@ -10264,7 +10151,7 @@
         <v>14</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F212" t="s">
         <v>21</v>
@@ -10339,6 +10226,9 @@
       <c r="F214" t="s">
         <v>21</v>
       </c>
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
       <c r="H214" t="s">
         <v>16</v>
       </c>
@@ -10366,13 +10256,10 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F215" t="s">
         <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>16</v>
       </c>
       <c r="H215" t="s">
         <v>16</v>
@@ -10401,7 +10288,7 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F216" t="s">
         <v>21</v>
@@ -10614,7 +10501,7 @@
         <v>21</v>
       </c>
       <c r="F222" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G222" t="s">
         <v>16</v>
@@ -10649,7 +10536,7 @@
         <v>21</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
@@ -10702,7 +10589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>838</v>
       </c>
@@ -10737,7 +10624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>842</v>
       </c>
@@ -10772,7 +10659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>845</v>
       </c>
@@ -10807,7 +10694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>849</v>
       </c>
@@ -10841,11 +10728,8 @@
       <c r="K228" t="s">
         <v>17</v>
       </c>
-      <c r="L228" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>853</v>
       </c>
@@ -10880,7 +10764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>861</v>
       </c>
@@ -10915,7 +10799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>864</v>
       </c>
@@ -10950,7 +10834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>871</v>
       </c>
@@ -10985,7 +10869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11020,7 +10904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>898</v>
       </c>
@@ -11055,7 +10939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>901</v>
       </c>
@@ -11066,13 +10950,16 @@
         <v>508</v>
       </c>
       <c r="D235" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="F235" t="s">
-        <v>177</v>
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>16</v>
       </c>
       <c r="H235" t="s">
         <v>16</v>
@@ -11087,27 +10974,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>914</v>
       </c>
       <c r="B236" t="s">
+        <v>509</v>
+      </c>
+      <c r="C236" t="s">
+        <v>510</v>
+      </c>
+      <c r="D236" t="s">
         <v>511</v>
       </c>
-      <c r="C236" t="s">
+      <c r="E236" t="s">
         <v>512</v>
       </c>
-      <c r="D236" t="s">
-        <v>14</v>
-      </c>
-      <c r="E236" t="s">
-        <v>21</v>
-      </c>
       <c r="F236" t="s">
-        <v>21</v>
-      </c>
-      <c r="G236" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="H236" t="s">
         <v>16</v>
@@ -11122,7 +11006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>933</v>
       </c>
@@ -11157,7 +11041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>935</v>
       </c>
@@ -11192,7 +11076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>938</v>
       </c>
@@ -11227,7 +11111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>943</v>
       </c>
@@ -11276,7 +11160,7 @@
         <v>14</v>
       </c>
       <c r="E241" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F241" t="s">
         <v>21</v>
@@ -11311,7 +11195,7 @@
         <v>14</v>
       </c>
       <c r="E242" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F242" t="s">
         <v>21</v>
@@ -11491,6 +11375,9 @@
       <c r="F247" t="s">
         <v>21</v>
       </c>
+      <c r="G247" t="s">
+        <v>16</v>
+      </c>
       <c r="H247" t="s">
         <v>16</v>
       </c>
@@ -11523,9 +11410,6 @@
       <c r="F248" t="s">
         <v>21</v>
       </c>
-      <c r="G248" t="s">
-        <v>16</v>
-      </c>
       <c r="H248" t="s">
         <v>16</v>
       </c>
@@ -11690,13 +11574,13 @@
         <v>546</v>
       </c>
       <c r="D253" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E253" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="F253" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G253" t="s">
         <v>16</v>
@@ -11725,13 +11609,13 @@
         <v>548</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E254" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="F254" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G254" t="s">
         <v>16</v>
@@ -12250,13 +12134,13 @@
         <v>578</v>
       </c>
       <c r="D269" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="E269" t="s">
-        <v>579</v>
+        <v>21</v>
       </c>
       <c r="F269" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="G269" t="s">
         <v>16</v>
@@ -12279,19 +12163,19 @@
         <v>1214</v>
       </c>
       <c r="B270" t="s">
+        <v>579</v>
+      </c>
+      <c r="C270" t="s">
         <v>580</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
+        <v>511</v>
+      </c>
+      <c r="E270" t="s">
         <v>581</v>
       </c>
-      <c r="D270" t="s">
-        <v>14</v>
-      </c>
-      <c r="E270" t="s">
-        <v>21</v>
-      </c>
       <c r="F270" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="G270" t="s">
         <v>16</v>
@@ -12833,9 +12717,6 @@
       <c r="K285" t="s">
         <v>17</v>
       </c>
-      <c r="L285" t="s">
-        <v>813</v>
-      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -12871,6 +12752,9 @@
       <c r="K286" t="s">
         <v>17</v>
       </c>
+      <c r="L286" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -12906,9 +12790,6 @@
       <c r="K287" t="s">
         <v>17</v>
       </c>
-      <c r="L287" t="s">
-        <v>858</v>
-      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -12945,7 +12826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1394</v>
       </c>
@@ -12980,7 +12861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1398</v>
       </c>
@@ -13015,7 +12896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1411</v>
       </c>
@@ -13050,7 +12931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1424</v>
       </c>
@@ -13085,7 +12966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1430</v>
       </c>
@@ -13120,7 +13001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1434</v>
       </c>
@@ -13155,7 +13036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1444</v>
       </c>
@@ -13174,6 +13055,9 @@
       <c r="F295" t="s">
         <v>21</v>
       </c>
+      <c r="G295" t="s">
+        <v>16</v>
+      </c>
       <c r="H295" t="s">
         <v>16</v>
       </c>
@@ -13187,7 +13071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1450</v>
       </c>
@@ -13206,9 +13090,6 @@
       <c r="F296" t="s">
         <v>21</v>
       </c>
-      <c r="G296" t="s">
-        <v>16</v>
-      </c>
       <c r="H296" t="s">
         <v>16</v>
       </c>
@@ -13222,7 +13103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1451</v>
       </c>
@@ -13236,7 +13117,7 @@
         <v>14</v>
       </c>
       <c r="E297" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F297" t="s">
         <v>21</v>
@@ -13257,7 +13138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1453</v>
       </c>
@@ -13271,7 +13152,7 @@
         <v>14</v>
       </c>
       <c r="E298" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F298" t="s">
         <v>21</v>
@@ -13292,7 +13173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1457</v>
       </c>
@@ -13306,7 +13187,7 @@
         <v>14</v>
       </c>
       <c r="E299" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F299" t="s">
         <v>21</v>
@@ -13327,7 +13208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1463</v>
       </c>
@@ -13341,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="E300" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F300" t="s">
         <v>21</v>
@@ -13362,7 +13243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1466</v>
       </c>
@@ -13397,7 +13278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1469</v>
       </c>
@@ -13432,7 +13313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1474</v>
       </c>
@@ -13467,7 +13348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1500</v>
       </c>
@@ -13501,11 +13382,8 @@
       <c r="K304" t="s">
         <v>17</v>
       </c>
-      <c r="L304" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1509</v>
       </c>
@@ -13540,7 +13418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1520</v>
       </c>
@@ -13575,7 +13453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1529</v>
       </c>
@@ -13610,7 +13488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1536</v>
       </c>
@@ -13645,7 +13523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1543</v>
       </c>
@@ -13680,7 +13558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1553</v>
       </c>
@@ -13715,7 +13593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1557</v>
       </c>
@@ -13750,7 +13628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1573</v>
       </c>
@@ -13785,7 +13663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1592</v>
       </c>
@@ -13819,11 +13697,8 @@
       <c r="K313" t="s">
         <v>17</v>
       </c>
-      <c r="L313" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1601</v>
       </c>
@@ -13858,7 +13733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1604</v>
       </c>
@@ -13893,7 +13768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1612</v>
       </c>
@@ -13928,7 +13803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1613</v>
       </c>
@@ -13963,7 +13838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1614</v>
       </c>
@@ -13998,7 +13873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1617</v>
       </c>
@@ -14018,7 +13893,7 @@
         <v>21</v>
       </c>
       <c r="G319" t="s">
-        <v>680</v>
+        <v>16</v>
       </c>
       <c r="H319" t="s">
         <v>16</v>
@@ -14033,28 +13908,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1622</v>
       </c>
       <c r="B320" t="s">
+        <v>680</v>
+      </c>
+      <c r="C320" t="s">
         <v>681</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>21</v>
+      </c>
+      <c r="F320" t="s">
+        <v>21</v>
+      </c>
+      <c r="G320" t="s">
         <v>682</v>
       </c>
-      <c r="D320" t="s">
-        <v>14</v>
-      </c>
-      <c r="E320" t="s">
-        <v>21</v>
-      </c>
-      <c r="F320" t="s">
-        <v>21</v>
-      </c>
-      <c r="G320" t="s">
-        <v>16</v>
-      </c>
       <c r="H320" t="s">
         <v>16</v>
       </c>
@@ -14068,7 +13943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1625</v>
       </c>
@@ -14082,7 +13957,7 @@
         <v>14</v>
       </c>
       <c r="E321" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F321" t="s">
         <v>21</v>
@@ -14103,7 +13978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1627</v>
       </c>
@@ -14117,7 +13992,7 @@
         <v>14</v>
       </c>
       <c r="E322" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F322" t="s">
         <v>21</v>
@@ -14137,11 +14012,8 @@
       <c r="K322" t="s">
         <v>17</v>
       </c>
-      <c r="L322" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1635</v>
       </c>
@@ -14155,7 +14027,7 @@
         <v>14</v>
       </c>
       <c r="E323" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F323" t="s">
         <v>21</v>
@@ -14176,7 +14048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1639</v>
       </c>
@@ -14190,7 +14062,7 @@
         <v>14</v>
       </c>
       <c r="E324" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F324" t="s">
         <v>21</v>
@@ -14210,11 +14082,8 @@
       <c r="K324" t="s">
         <v>17</v>
       </c>
-      <c r="L324" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1644</v>
       </c>
@@ -14249,7 +14118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1656</v>
       </c>
@@ -14268,6 +14137,9 @@
       <c r="F326" t="s">
         <v>21</v>
       </c>
+      <c r="G326" t="s">
+        <v>16</v>
+      </c>
       <c r="H326" t="s">
         <v>16</v>
       </c>
@@ -14281,7 +14153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1664</v>
       </c>
@@ -14300,9 +14172,6 @@
       <c r="F327" t="s">
         <v>21</v>
       </c>
-      <c r="G327" t="s">
-        <v>16</v>
-      </c>
       <c r="H327" t="s">
         <v>16</v>
       </c>
@@ -14316,7 +14185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1669</v>
       </c>
@@ -14330,7 +14199,7 @@
         <v>14</v>
       </c>
       <c r="E328" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F328" t="s">
         <v>21</v>
@@ -14351,7 +14220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1677</v>
       </c>
@@ -14365,7 +14234,7 @@
         <v>14</v>
       </c>
       <c r="E329" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F329" t="s">
         <v>21</v>
@@ -14386,7 +14255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1678</v>
       </c>
@@ -14421,7 +14290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1681</v>
       </c>
@@ -14435,7 +14304,7 @@
         <v>14</v>
       </c>
       <c r="E331" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F331" t="s">
         <v>21</v>
@@ -14456,7 +14325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1689</v>
       </c>
@@ -14470,7 +14339,7 @@
         <v>14</v>
       </c>
       <c r="E332" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="F332" t="s">
         <v>21</v>
@@ -14491,7 +14360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1692</v>
       </c>
@@ -14505,7 +14374,7 @@
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F333" t="s">
         <v>21</v>
@@ -14526,7 +14395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1696</v>
       </c>
@@ -14540,7 +14409,7 @@
         <v>14</v>
       </c>
       <c r="E334" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F334" t="s">
         <v>21</v>
@@ -14561,7 +14430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1701</v>
       </c>
@@ -14575,7 +14444,7 @@
         <v>14</v>
       </c>
       <c r="E335" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F335" t="s">
         <v>21</v>
@@ -14596,7 +14465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1705</v>
       </c>
@@ -14665,9 +14534,6 @@
       <c r="K337" t="s">
         <v>17</v>
       </c>
-      <c r="L337" t="s">
-        <v>850</v>
-      </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
@@ -14773,9 +14639,6 @@
       <c r="K340" t="s">
         <v>17</v>
       </c>
-      <c r="L340" t="s">
-        <v>820</v>
-      </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
@@ -14811,6 +14674,9 @@
       <c r="K341" t="s">
         <v>17</v>
       </c>
+      <c r="L341" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
@@ -14986,9 +14852,6 @@
       <c r="K346" t="s">
         <v>17</v>
       </c>
-      <c r="L346" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
@@ -15025,7 +14888,7 @@
         <v>17</v>
       </c>
       <c r="L347" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -15062,6 +14925,9 @@
       <c r="K348" t="s">
         <v>17</v>
       </c>
+      <c r="L348" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
@@ -15182,7 +15048,7 @@
         <v>14</v>
       </c>
       <c r="E352" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F352" t="s">
         <v>21</v>
@@ -15217,7 +15083,7 @@
         <v>14</v>
       </c>
       <c r="E353" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="F353" t="s">
         <v>21</v>
@@ -15252,10 +15118,13 @@
         <v>14</v>
       </c>
       <c r="E354" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="F354" t="s">
         <v>21</v>
+      </c>
+      <c r="G354" t="s">
+        <v>16</v>
       </c>
       <c r="H354" t="s">
         <v>16</v>
@@ -15284,13 +15153,10 @@
         <v>14</v>
       </c>
       <c r="E355" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F355" t="s">
         <v>21</v>
-      </c>
-      <c r="G355" t="s">
-        <v>16</v>
       </c>
       <c r="H355" t="s">
         <v>16</v>
@@ -15564,7 +15430,7 @@
         <v>14</v>
       </c>
       <c r="E363" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F363" t="s">
         <v>21</v>
@@ -15599,10 +15465,13 @@
         <v>14</v>
       </c>
       <c r="E364" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F364" t="s">
         <v>21</v>
+      </c>
+      <c r="G364" t="s">
+        <v>16</v>
       </c>
       <c r="H364" t="s">
         <v>16</v>
@@ -15636,9 +15505,6 @@
       <c r="F365" t="s">
         <v>21</v>
       </c>
-      <c r="G365" t="s">
-        <v>16</v>
-      </c>
       <c r="H365" t="s">
         <v>16</v>
       </c>
@@ -15650,9 +15516,6 @@
       </c>
       <c r="K365" t="s">
         <v>17</v>
-      </c>
-      <c r="L365" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -15669,7 +15532,7 @@
         <v>14</v>
       </c>
       <c r="E366" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F366" t="s">
         <v>21</v>
@@ -15704,7 +15567,7 @@
         <v>14</v>
       </c>
       <c r="E367" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F367" t="s">
         <v>21</v>
@@ -15723,9 +15586,6 @@
       </c>
       <c r="K367" t="s">
         <v>17</v>
-      </c>
-      <c r="L367" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -15742,7 +15602,7 @@
         <v>14</v>
       </c>
       <c r="E368" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F368" t="s">
         <v>21</v>
@@ -15761,6 +15621,9 @@
       </c>
       <c r="K368" t="s">
         <v>17</v>
+      </c>
+      <c r="L368" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -15777,7 +15640,7 @@
         <v>14</v>
       </c>
       <c r="E369" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="F369" t="s">
         <v>21</v>
@@ -15885,7 +15748,7 @@
         <v>21</v>
       </c>
       <c r="F372" t="s">
-        <v>787</v>
+        <v>21</v>
       </c>
       <c r="G372" t="s">
         <v>16</v>
@@ -15908,19 +15771,19 @@
         <v>1966</v>
       </c>
       <c r="B373" t="s">
+        <v>787</v>
+      </c>
+      <c r="C373" t="s">
         <v>788</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373" t="s">
+        <v>21</v>
+      </c>
+      <c r="F373" t="s">
         <v>789</v>
-      </c>
-      <c r="D373" t="s">
-        <v>14</v>
-      </c>
-      <c r="E373" t="s">
-        <v>21</v>
-      </c>
-      <c r="F373" t="s">
-        <v>21</v>
       </c>
       <c r="G373" t="s">
         <v>16</v>
@@ -15981,7 +15844,7 @@
         <v>792</v>
       </c>
       <c r="C375" t="s">
-        <v>478</v>
+        <v>793</v>
       </c>
       <c r="D375" t="s">
         <v>14</v>
@@ -16013,10 +15876,10 @@
         <v>11100</v>
       </c>
       <c r="B376" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C376" t="s">
-        <v>794</v>
+        <v>480</v>
       </c>
       <c r="D376" t="s">
         <v>14</v>
@@ -16167,6 +16030,9 @@
       <c r="F380" t="s">
         <v>21</v>
       </c>
+      <c r="G380" t="s">
+        <v>16</v>
+      </c>
       <c r="H380" t="s">
         <v>16</v>
       </c>
@@ -16199,9 +16065,6 @@
       <c r="F381" t="s">
         <v>21</v>
       </c>
-      <c r="G381" t="s">
-        <v>16</v>
-      </c>
       <c r="H381" t="s">
         <v>16</v>
       </c>
@@ -16317,6 +16180,41 @@
         <v>1700</v>
       </c>
       <c r="K384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>11550</v>
+      </c>
+      <c r="B385" t="s">
+        <v>811</v>
+      </c>
+      <c r="C385" t="s">
+        <v>812</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>21</v>
+      </c>
+      <c r="F385" t="s">
+        <v>21</v>
+      </c>
+      <c r="G385" t="s">
+        <v>16</v>
+      </c>
+      <c r="H385" t="s">
+        <v>16</v>
+      </c>
+      <c r="I385">
+        <v>2005</v>
+      </c>
+      <c r="J385">
+        <v>1700</v>
+      </c>
+      <c r="K385" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhanson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhanson\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2600,7 +2600,7 @@
     <t>https://c1.staticflickr.com/5/4838/44090300790_af0d27d9ba_b_d.jpg</t>
   </si>
   <si>
-    <t>https://farm2.staticflickr.com/1883/44747039332_66eb763022_b_d.jpg</t>
+    <t>https://farm2.staticflickr.com/1883/44747039332_66eb763022_m_d.jpg</t>
   </si>
 </sst>
 </file>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhanson\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -2600,7 +2600,7 @@
     <t>https://c1.staticflickr.com/5/4838/44090300790_af0d27d9ba_b_d.jpg</t>
   </si>
   <si>
-    <t>https://farm2.staticflickr.com/1883/44747039332_66eb763022_m_d.jpg</t>
+    <t>https://c1.staticflickr.com/5/4807/45899295512_21ec97bd57_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2919,24 +2919,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="9.44140625"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1102AF9-4E50-4AEC-8093-BD6CDFCD75FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -2459,154 +2460,154 @@
     <t>Radjah radjah</t>
   </si>
   <si>
-    <t>https://c1.staticflickr.com/5/4809/45697654342_8bc84312a1_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4899/31876296378_1c060974f5_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4911/43930312680_4510f7f9b8_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4870/45748205421_3d1e266758_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4807/45748206511_f79a7c9403_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1973/45748207591_48612a3aac_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4844/45748208141_d9644b3842_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4865/44849846555_7f59f7c99e_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1927/30823273837_2772163664_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4861/44849823975_13a79ac5fb_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4839/45713194162_6e3c91bbfa_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4804/30823257747_3b99e4059c_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4820/45038273264_a70c862dca_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1934/45038271104_90620a4f83_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1912/45038269094_bc40949d24_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4824/43945599780_c431c35de5_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4857/45763352411_ca8876b80b_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4827/44850284545_d1c1a05c32_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4851/45763822791_e7a4985ed6_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4830/43946076730_cb74142588_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4817/43946076920_855c9ce67c_o_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4903/43946078610_32800b179c_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4897/43946083370_c13241a0f1_b_d.jpg</t>
-  </si>
-  <si>
     <t>3_6</t>
   </si>
   <si>
-    <t>https://c2.staticflickr.com/2/1905/45055136544_f0c9da9688_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4905/45055137744_3958182c8e_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4889/45729776412_7afe946f98_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4881/45055142214_663d8fa110_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1967/45729763972_428499f54f_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4850/45055131014_8d032f5775_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4861/45729766702_157f300a29_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4905/45055134774_2ca1b1cc23_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c2.staticflickr.com/2/1925/45055135844_d170ae8d49_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4860/45729769952_fb28cb236b_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4878/45055143344_21583d31e5_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4865/31933987778_eb8a8ec938_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4877/45804873881_4fb0d70105_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4803/31934053238_2319e70998_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4806/44892069075_f7dc4b022e_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4806/45804865371_a7c91623c2_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4833/30865310147_47f78e9421_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4906/43990773760_8dd63615e9_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4819/43990773190_8d5ba5d1b0_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4889/43990772210_de90e643fd_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4807/43990772850_662f6350c8_b_d.jpg</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
-  </si>
-  <si>
     <t>https://c1.staticflickr.com/5/4838/44090300790_af0d27d9ba_b_d.jpg</t>
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4807/45899295512_21ec97bd57_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4897/43946083370_36e4b80132_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4827/44850284545_3e5075382a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4903/43946078610_d904679c3d_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4830/43946076730_01a3fc7db8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4857/45763352411_66e78b8775_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4817/43946076920_f15efb6399_o_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4851/45763822791_0a4d764e6b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4861/45729766702_27b77f1c43_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4878/45055143344_885ae10653_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4905/45055134774_f36820c964_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4889/45729776412_31fc06461b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1905/45055136544_391e1ce94a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4905/45055137744_59f8e51d35_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4881/45055142214_6d1afe9816_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1967/45729763972_aacc7d3b15_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4860/45729769952_c162e8cdb8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4850/45055131014_a2e2eba2f4_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1925/45055135844_4c73d57165_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4833/30865310147_a35051e91b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1934/45038271104_d09ed5ca36_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4839/45713194162_04cf8c79fe_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4809/45697654342_42675df20a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4807/45748206511_018f9d8b07_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4879/44894529005_38cc72bc73_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1973/45748207591_5a9381a872_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4861/44849823975_69466e741d_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4870/45748205421_7b45502cfd_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4844/45748208141_252eb9fbd8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4889/43990772210_02144c6b21_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4806/45804865371_9970e078c8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4911/43930312680_9701578bcf_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1912/45038269094_61c09bf9cd_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4820/45038273264_d9e6716d7c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4807/43990772850_3028a626cb_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4899/31876296378_4b8f1f8a5a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4865/31933987778_71b54b947a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4803/31934053238_f4ee1b0003_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4819/43990773190_8d5f0b5f39_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4877/45804873881_18c3825d6a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4806/44892069075_d9f87fbf9c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1927/30823273837_d01e03e5f0_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4824/43945599780_8b23339f44_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4865/44849846555_87153992d4_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4906/43990773760_47df105ae4_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4804/30823257747_5bef04f12c_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2916,30 +2917,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L367" sqref="L367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="9.453125"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="9.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3012,10 +3013,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3050,10 +3051,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3088,10 +3089,10 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3193,10 +3194,10 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3301,10 +3302,10 @@
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3406,10 +3407,10 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3441,10 +3442,10 @@
         <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3514,10 +3515,10 @@
         <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3552,10 +3553,10 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -3727,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>79</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>85</v>
       </c>
@@ -3832,10 +3833,10 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
@@ -3870,10 +3871,10 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>96</v>
       </c>
@@ -3908,10 +3909,10 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>115</v>
       </c>
@@ -3981,10 +3982,10 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4019,10 +4020,10 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4054,10 +4055,10 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4162,10 +4163,10 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4267,10 +4268,10 @@
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4340,10 +4341,10 @@
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4413,10 +4414,10 @@
         <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4556,10 +4557,10 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4629,10 +4630,10 @@
         <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>192</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>195</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>206</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>213</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>218</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>223</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>228</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>234</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>241</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5046,10 +5047,10 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5326,10 +5327,10 @@
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>275</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>278</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>279</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>280</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>284</v>
       </c>
@@ -5501,10 +5502,10 @@
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>285</v>
       </c>
@@ -5539,10 +5540,10 @@
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>286</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>288</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>289</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>297</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>298</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>300</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>303</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>310</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>312</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>313</v>
       </c>
@@ -5889,10 +5890,10 @@
         <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>316</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>319</v>
       </c>
@@ -5959,10 +5960,10 @@
         <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>321</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>324</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>327</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>330</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>331</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>335</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>337</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>339</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>340</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>343</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>344</v>
       </c>
@@ -6344,10 +6345,10 @@
         <v>17</v>
       </c>
       <c r="L96" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>346</v>
       </c>
@@ -6382,10 +6383,10 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>348</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>349</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>350</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>351</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -6519,7 +6520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>359</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>360</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>363</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>366</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>367</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>369</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>370</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>371</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>373</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>376</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>377</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>382</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>384</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>385</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>392</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>394</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>395</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>396</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>400</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>404</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>411</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>416</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>417</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>423</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>428</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>431</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>434</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>442</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>443</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>444</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>446</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>456</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>463</v>
       </c>
@@ -7670,10 +7671,10 @@
         <v>264</v>
       </c>
       <c r="L135" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>465</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>493</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>497</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>501</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>517</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>519</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>534</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>535</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>537</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>547</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>548</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>555</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>591</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>611</v>
       </c>
@@ -8321,10 +8322,10 @@
         <v>17</v>
       </c>
       <c r="L156" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>613</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>615</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>619</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>627</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>629</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>636</v>
       </c>
@@ -8534,10 +8535,10 @@
         <v>17</v>
       </c>
       <c r="L162" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>640</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>645</v>
       </c>
@@ -8607,7 +8608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>647</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>650</v>
       </c>
@@ -8677,10 +8678,10 @@
         <v>17</v>
       </c>
       <c r="L166" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>651</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>656</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>658</v>
       </c>
@@ -8785,10 +8786,10 @@
         <v>17</v>
       </c>
       <c r="L169" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>659</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>660</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>661</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>662</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>663</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>669</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>670</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>684</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>686</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>688</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>690</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>693</v>
       </c>
@@ -9339,7 +9340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>697</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>698</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>699</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>702</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>705</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>706</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>707</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>708</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>710</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>717</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>720</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>721</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>722</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>724</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>726</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>728</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>730</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>735</v>
       </c>
@@ -9969,7 +9970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>741</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>742</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>746</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>764</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>765</v>
       </c>
@@ -10144,7 +10145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>773</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>782</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>785</v>
       </c>
@@ -10249,7 +10250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>789</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>793</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>797</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>800</v>
       </c>
@@ -10386,7 +10387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>803</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>807</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>810</v>
       </c>
@@ -10491,7 +10492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>813</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>814</v>
       </c>
@@ -10561,7 +10562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>818</v>
       </c>
@@ -10596,7 +10597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>819</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>825</v>
       </c>
@@ -10666,7 +10667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>829</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>838</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>842</v>
       </c>
@@ -10771,7 +10772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>845</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>849</v>
       </c>
@@ -10841,10 +10842,10 @@
         <v>17</v>
       </c>
       <c r="L228" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>853</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>861</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>864</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>871</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11019,7 +11020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>898</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>901</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>914</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>933</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>935</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>938</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>943</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>948</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>961</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>980</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>983</v>
       </c>
@@ -11401,7 +11402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>984</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>995</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1001</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -11538,7 +11539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1019</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1025</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1037</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1094</v>
       </c>
@@ -11678,7 +11679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1101</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1103</v>
       </c>
@@ -11748,7 +11749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1104</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1116</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1119</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1123</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1131</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1137</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1145</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1149</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1159</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1162</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1171</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1195</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1208</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1210</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1214</v>
       </c>
@@ -12308,7 +12309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1215</v>
       </c>
@@ -12343,7 +12344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1231</v>
       </c>
@@ -12378,7 +12379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1238</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1249</v>
       </c>
@@ -12448,7 +12449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1250</v>
       </c>
@@ -12483,7 +12484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1261</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1262</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1274</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1282</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1290</v>
       </c>
@@ -12658,7 +12659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1300</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1313</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1321</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1330</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1355</v>
       </c>
@@ -12833,10 +12834,10 @@
         <v>17</v>
       </c>
       <c r="L285" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1360</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1374</v>
       </c>
@@ -12906,10 +12907,10 @@
         <v>17</v>
       </c>
       <c r="L287" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1389</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1394</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1398</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1411</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1424</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1430</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1434</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1444</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1450</v>
       </c>
@@ -13221,7 +13222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1451</v>
       </c>
@@ -13256,7 +13257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1453</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1457</v>
       </c>
@@ -13326,7 +13327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1463</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1466</v>
       </c>
@@ -13396,7 +13397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1469</v>
       </c>
@@ -13431,7 +13432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1474</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1500</v>
       </c>
@@ -13501,10 +13502,10 @@
         <v>17</v>
       </c>
       <c r="L304" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1509</v>
       </c>
@@ -13539,7 +13540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1520</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1529</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1536</v>
       </c>
@@ -13644,7 +13645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1543</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1553</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1557</v>
       </c>
@@ -13749,7 +13750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1573</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1592</v>
       </c>
@@ -13819,10 +13820,10 @@
         <v>17</v>
       </c>
       <c r="L313" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1601</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1604</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1612</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1613</v>
       </c>
@@ -13962,7 +13963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1614</v>
       </c>
@@ -13997,7 +13998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1617</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1622</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1625</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1627</v>
       </c>
@@ -14137,10 +14138,10 @@
         <v>17</v>
       </c>
       <c r="L322" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1635</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1639</v>
       </c>
@@ -14210,10 +14211,10 @@
         <v>17</v>
       </c>
       <c r="L324" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1644</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1656</v>
       </c>
@@ -14280,7 +14281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1664</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1669</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1677</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1678</v>
       </c>
@@ -14420,7 +14421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1681</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1689</v>
       </c>
@@ -14490,7 +14491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1692</v>
       </c>
@@ -14525,7 +14526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1696</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1701</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1705</v>
       </c>
@@ -14630,7 +14631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1711</v>
       </c>
@@ -14665,10 +14666,10 @@
         <v>17</v>
       </c>
       <c r="L337" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1715</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1720</v>
       </c>
@@ -14738,7 +14739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1725</v>
       </c>
@@ -14773,10 +14774,10 @@
         <v>17</v>
       </c>
       <c r="L340" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1733</v>
       </c>
@@ -14811,7 +14812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1744</v>
       </c>
@@ -14846,7 +14847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1753</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1756</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1769</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1775</v>
       </c>
@@ -14986,10 +14987,10 @@
         <v>17</v>
       </c>
       <c r="L346" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1779</v>
       </c>
@@ -15024,10 +15025,10 @@
         <v>17</v>
       </c>
       <c r="L347" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1790</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1800</v>
       </c>
@@ -15097,7 +15098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1810</v>
       </c>
@@ -15132,7 +15133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1812</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1818</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1826</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1831</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1838</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1846</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1850</v>
       </c>
@@ -15374,7 +15375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1852</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1868</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1876</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1877</v>
       </c>
@@ -15514,7 +15515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1878</v>
       </c>
@@ -15549,7 +15550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1880</v>
       </c>
@@ -15584,7 +15585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1887</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1890</v>
       </c>
@@ -15651,10 +15652,10 @@
         <v>17</v>
       </c>
       <c r="L365" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1893</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1894</v>
       </c>
@@ -15724,10 +15725,10 @@
         <v>17</v>
       </c>
       <c r="L367" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1899</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1915</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1928</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1933</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1960</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1966</v>
       </c>
@@ -15937,7 +15938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>11000</v>
       </c>
@@ -15972,7 +15973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11050</v>
       </c>
@@ -16007,7 +16008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11100</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11150</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11200</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11250</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11300</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11350</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11400</v>
       </c>
@@ -16249,7 +16250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11450</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11500</v>
       </c>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1102AF9-4E50-4AEC-8093-BD6CDFCD75FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F855768-19C5-4223-A091-17D6E3B6C988}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="868">
   <si>
     <t>species_order</t>
   </si>
@@ -2602,6 +2602,33 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4804/30823257747_5bef04f12c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4867/31059439987_6fa4e95f01_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4851/45086692625_75348d5990_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4895/31059441667_50e03fe66f_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4891/45274229234_087aecd1d9_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4872/45274229394_f206e4ab5a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4867/45086693905_aaa8a92d9b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4875/45274229994_1516c2b80c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4861/45274230514_fa34f1aaac_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4886/45274230454_b5b83f6af2_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2920,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L367" sqref="L367"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L350" sqref="L350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6452,6 +6479,9 @@
       <c r="K99" t="s">
         <v>17</v>
       </c>
+      <c r="L99" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -6656,6 +6686,9 @@
       <c r="K105" t="s">
         <v>17</v>
       </c>
+      <c r="L105" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
@@ -8858,6 +8891,9 @@
       <c r="K171" t="s">
         <v>17</v>
       </c>
+      <c r="L171" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
@@ -9028,7 +9064,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9063,7 +9099,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9098,7 +9134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9133,7 +9169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9168,7 +9204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>684</v>
       </c>
@@ -9203,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>686</v>
       </c>
@@ -9237,8 +9273,11 @@
       <c r="K182" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>688</v>
       </c>
@@ -9273,7 +9312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>690</v>
       </c>
@@ -9308,7 +9347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>693</v>
       </c>
@@ -9340,7 +9379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>697</v>
       </c>
@@ -9375,7 +9414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>698</v>
       </c>
@@ -9410,7 +9449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>699</v>
       </c>
@@ -9445,7 +9484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>702</v>
       </c>
@@ -9480,7 +9519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>705</v>
       </c>
@@ -9515,7 +9554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>706</v>
       </c>
@@ -9550,7 +9589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>707</v>
       </c>
@@ -10145,7 +10184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>773</v>
       </c>
@@ -10179,8 +10218,11 @@
       <c r="K209" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>782</v>
       </c>
@@ -10215,7 +10257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>785</v>
       </c>
@@ -10250,7 +10292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>789</v>
       </c>
@@ -10285,7 +10327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>793</v>
       </c>
@@ -10320,7 +10362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>797</v>
       </c>
@@ -10352,7 +10394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>800</v>
       </c>
@@ -10387,7 +10429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>803</v>
       </c>
@@ -10422,7 +10464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>807</v>
       </c>
@@ -10457,7 +10499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>810</v>
       </c>
@@ -10492,7 +10534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>813</v>
       </c>
@@ -10527,7 +10569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>814</v>
       </c>
@@ -10562,7 +10604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>818</v>
       </c>
@@ -10597,7 +10639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>819</v>
       </c>
@@ -10632,7 +10674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>825</v>
       </c>
@@ -10667,7 +10709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>829</v>
       </c>
@@ -10879,6 +10921,9 @@
       <c r="K229" t="s">
         <v>17</v>
       </c>
+      <c r="L229" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
@@ -12693,6 +12738,9 @@
       <c r="K281" t="s">
         <v>17</v>
       </c>
+      <c r="L281" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
@@ -15132,6 +15180,9 @@
       <c r="K350" t="s">
         <v>17</v>
       </c>
+      <c r="L350" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351">
@@ -15408,6 +15459,9 @@
       </c>
       <c r="K358" t="s">
         <v>17</v>
+      </c>
+      <c r="L358" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F855768-19C5-4223-A091-17D6E3B6C988}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E723C62B-FDEE-4F1F-A286-996B3F441F66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="871">
   <si>
     <t>species_order</t>
   </si>
@@ -2629,6 +2629,15 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4886/45274230454_b5b83f6af2_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4830/45095240005_e0bb29cf7b_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4858/32135805748_c56698ab98_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4833/45957276642_b4f0421c3c_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2947,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L350" sqref="L350"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L352" sqref="L352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8783,6 +8792,9 @@
       <c r="K168" t="s">
         <v>17</v>
       </c>
+      <c r="L168" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
@@ -10256,6 +10268,9 @@
       <c r="K210" t="s">
         <v>17</v>
       </c>
+      <c r="L210" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
@@ -15252,6 +15267,9 @@
       </c>
       <c r="K352" t="s">
         <v>17</v>
+      </c>
+      <c r="L352" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="861">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -1412,9 +1412,6 @@
   </si>
   <si>
     <t xml:space="preserve">Collared Sparrowhawk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">Haliaeetus leucogaster</t>
@@ -2715,17 +2712,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.96428571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="63.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.4336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6377551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10022,7 +10020,7 @@
         <v>19</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10030,10 +10028,10 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C195" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>15</v>
@@ -10060,7 +10058,7 @@
         <v>19</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10068,10 +10066,10 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C196" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>15</v>
@@ -10098,7 +10096,7 @@
         <v>19</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,10 +10104,10 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C197" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>15</v>
@@ -10136,7 +10134,7 @@
         <v>19</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,11 +10142,11 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C198" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>472</v>
-      </c>
       <c r="D198" s="0" t="s">
         <v>15</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>19</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10182,11 +10180,11 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C199" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>474</v>
-      </c>
       <c r="D199" s="0" t="s">
         <v>15</v>
       </c>
@@ -10212,7 +10210,7 @@
         <v>19</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10220,11 +10218,11 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C200" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C200" s="0" t="s">
-        <v>476</v>
-      </c>
       <c r="D200" s="0" t="s">
         <v>15</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>19</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,11 +10256,11 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C201" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>478</v>
-      </c>
       <c r="D201" s="0" t="s">
         <v>15</v>
       </c>
@@ -10288,7 +10286,7 @@
         <v>19</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10296,11 +10294,11 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C202" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C202" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="D202" s="0" t="s">
         <v>15</v>
       </c>
@@ -10326,7 +10324,7 @@
         <v>19</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,10 +10332,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C203" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -10364,7 +10362,7 @@
         <v>19</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,11 +10370,11 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C204" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C204" s="0" t="s">
-        <v>484</v>
-      </c>
       <c r="D204" s="0" t="s">
         <v>15</v>
       </c>
@@ -10402,7 +10400,7 @@
         <v>19</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,10 +10408,10 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C205" s="0" t="s">
         <v>485</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>486</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>15</v>
@@ -10440,7 +10438,7 @@
         <v>19</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,10 +10446,10 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C206" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>15</v>
@@ -10478,7 +10476,7 @@
         <v>19</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10486,10 +10484,10 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C207" s="0" t="s">
         <v>489</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>15</v>
@@ -10516,7 +10514,7 @@
         <v>19</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10524,11 +10522,11 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C208" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>492</v>
-      </c>
       <c r="D208" s="0" t="s">
         <v>15</v>
       </c>
@@ -10554,7 +10552,7 @@
         <v>19</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10562,10 +10560,10 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C209" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>15</v>
@@ -10592,7 +10590,7 @@
         <v>19</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10600,11 +10598,11 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C210" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>496</v>
-      </c>
       <c r="D210" s="0" t="s">
         <v>15</v>
       </c>
@@ -10630,7 +10628,7 @@
         <v>19</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10638,10 +10636,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>15</v>
@@ -10668,7 +10666,7 @@
         <v>19</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10676,11 +10674,11 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C212" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="C212" s="0" t="s">
-        <v>500</v>
-      </c>
       <c r="D212" s="0" t="s">
         <v>15</v>
       </c>
@@ -10706,7 +10704,7 @@
         <v>19</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10714,11 +10712,11 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C213" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="C213" s="0" t="s">
-        <v>502</v>
-      </c>
       <c r="D213" s="0" t="s">
         <v>15</v>
       </c>
@@ -10744,7 +10742,7 @@
         <v>19</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,11 +10750,11 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C214" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="C214" s="0" t="s">
-        <v>504</v>
-      </c>
       <c r="D214" s="0" t="s">
         <v>15</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>19</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10787,10 +10785,10 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C215" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>15</v>
@@ -10817,7 +10815,7 @@
         <v>19</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10825,11 +10823,11 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C216" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>508</v>
-      </c>
       <c r="D216" s="0" t="s">
         <v>15</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>19</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10863,11 +10861,11 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="D217" s="0" t="s">
         <v>15</v>
       </c>
@@ -10893,7 +10891,7 @@
         <v>19</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,11 +10899,11 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C218" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>512</v>
-      </c>
       <c r="D218" s="0" t="s">
         <v>15</v>
       </c>
@@ -10931,7 +10929,7 @@
         <v>19</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10939,11 +10937,11 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C219" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="C219" s="0" t="s">
-        <v>514</v>
-      </c>
       <c r="D219" s="0" t="s">
         <v>15</v>
       </c>
@@ -10969,7 +10967,7 @@
         <v>19</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10977,11 +10975,11 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>516</v>
-      </c>
       <c r="D220" s="0" t="s">
         <v>15</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>19</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,11 +11013,11 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C221" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>518</v>
-      </c>
       <c r="D221" s="0" t="s">
         <v>15</v>
       </c>
@@ -11045,7 +11043,7 @@
         <v>19</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11053,10 +11051,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C222" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>15</v>
@@ -11083,7 +11081,7 @@
         <v>19</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,11 +11089,11 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C223" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>522</v>
-      </c>
       <c r="D223" s="0" t="s">
         <v>15</v>
       </c>
@@ -11121,7 +11119,7 @@
         <v>19</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11129,11 +11127,11 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C224" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C224" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="D224" s="0" t="s">
         <v>15</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>19</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,11 +11165,11 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C225" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="D225" s="0" t="s">
         <v>15</v>
       </c>
@@ -11197,7 +11195,7 @@
         <v>19</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,11 +11203,11 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>528</v>
-      </c>
       <c r="D226" s="0" t="s">
         <v>15</v>
       </c>
@@ -11235,7 +11233,7 @@
         <v>19</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11243,11 +11241,11 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="C227" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="D227" s="0" t="s">
         <v>15</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>19</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11281,40 +11279,40 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="D228" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J228" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L228" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="D228" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F228" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G228" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H228" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I228" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J228" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K228" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L228" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="M228" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11322,11 +11320,11 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C229" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="D229" s="0" t="s">
         <v>15</v>
       </c>
@@ -11352,7 +11350,7 @@
         <v>19</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,11 +11358,11 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C230" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="C230" s="0" t="s">
-        <v>537</v>
-      </c>
       <c r="D230" s="0" t="s">
         <v>15</v>
       </c>
@@ -11390,7 +11388,7 @@
         <v>19</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,11 +11396,11 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C231" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C231" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="D231" s="0" t="s">
         <v>15</v>
       </c>
@@ -11428,7 +11426,7 @@
         <v>19</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11436,11 +11434,11 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C232" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C232" s="0" t="s">
-        <v>541</v>
-      </c>
       <c r="D232" s="0" t="s">
         <v>15</v>
       </c>
@@ -11466,7 +11464,7 @@
         <v>19</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11474,11 +11472,11 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C233" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="C233" s="0" t="s">
-        <v>543</v>
-      </c>
       <c r="D233" s="0" t="s">
         <v>15</v>
       </c>
@@ -11504,7 +11502,7 @@
         <v>19</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11512,11 +11510,11 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C234" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C234" s="0" t="s">
-        <v>545</v>
-      </c>
       <c r="D234" s="0" t="s">
         <v>15</v>
       </c>
@@ -11542,7 +11540,7 @@
         <v>19</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11550,16 +11548,16 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C235" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="D235" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="E235" s="0" t="s">
         <v>548</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>549</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>205</v>
@@ -11577,7 +11575,7 @@
         <v>19</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,11 +11583,11 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>551</v>
-      </c>
       <c r="D236" s="0" t="s">
         <v>15</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>19</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11623,11 +11621,11 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>553</v>
-      </c>
       <c r="D237" s="0" t="s">
         <v>15</v>
       </c>
@@ -11653,7 +11651,7 @@
         <v>19</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11661,11 +11659,11 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C238" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="D238" s="0" t="s">
         <v>15</v>
       </c>
@@ -11691,7 +11689,7 @@
         <v>19</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11699,11 +11697,11 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="D239" s="0" t="s">
         <v>15</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>19</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,11 +11735,11 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="D240" s="0" t="s">
         <v>15</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>19</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11775,10 +11773,10 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>561</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>15</v>
@@ -11805,7 +11803,7 @@
         <v>19</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11813,11 +11811,11 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C242" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C242" s="0" t="s">
-        <v>563</v>
-      </c>
       <c r="D242" s="0" t="s">
         <v>15</v>
       </c>
@@ -11843,7 +11841,7 @@
         <v>19</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11851,11 +11849,11 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C243" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="C243" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="D243" s="0" t="s">
         <v>15</v>
       </c>
@@ -11881,7 +11879,7 @@
         <v>19</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11889,11 +11887,11 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C244" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C244" s="0" t="s">
-        <v>567</v>
-      </c>
       <c r="D244" s="0" t="s">
         <v>15</v>
       </c>
@@ -11919,7 +11917,7 @@
         <v>19</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,11 +11925,11 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>569</v>
-      </c>
       <c r="D245" s="0" t="s">
         <v>15</v>
       </c>
@@ -11957,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11965,11 +11963,11 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C246" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C246" s="0" t="s">
-        <v>571</v>
-      </c>
       <c r="D246" s="0" t="s">
         <v>15</v>
       </c>
@@ -11995,7 +11993,7 @@
         <v>19</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12003,11 +12001,11 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C247" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="D247" s="0" t="s">
         <v>15</v>
       </c>
@@ -12030,7 +12028,7 @@
         <v>19</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12038,11 +12036,11 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>575</v>
-      </c>
       <c r="D248" s="0" t="s">
         <v>15</v>
       </c>
@@ -12068,7 +12066,7 @@
         <v>19</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12076,11 +12074,11 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C249" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>577</v>
-      </c>
       <c r="D249" s="0" t="s">
         <v>15</v>
       </c>
@@ -12106,7 +12104,7 @@
         <v>19</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,11 +12112,11 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C250" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="C250" s="0" t="s">
-        <v>579</v>
-      </c>
       <c r="D250" s="0" t="s">
         <v>15</v>
       </c>
@@ -12144,7 +12142,7 @@
         <v>19</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12152,11 +12150,11 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>581</v>
-      </c>
       <c r="D251" s="0" t="s">
         <v>15</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>19</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,11 +12188,11 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>583</v>
-      </c>
       <c r="D252" s="0" t="s">
         <v>15</v>
       </c>
@@ -12220,7 +12218,7 @@
         <v>19</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12228,10 +12226,10 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>584</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>585</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>138</v>
@@ -12258,7 +12256,7 @@
         <v>19</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12266,11 +12264,11 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>587</v>
-      </c>
       <c r="D254" s="0" t="s">
         <v>15</v>
       </c>
@@ -12296,7 +12294,7 @@
         <v>19</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12304,11 +12302,11 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C255" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="C255" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="D255" s="0" t="s">
         <v>15</v>
       </c>
@@ -12334,7 +12332,7 @@
         <v>19</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,11 +12340,11 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="C256" s="0" t="s">
-        <v>591</v>
-      </c>
       <c r="D256" s="0" t="s">
         <v>15</v>
       </c>
@@ -12372,7 +12370,7 @@
         <v>19</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,11 +12378,11 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C257" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="C257" s="0" t="s">
-        <v>593</v>
-      </c>
       <c r="D257" s="0" t="s">
         <v>15</v>
       </c>
@@ -12410,7 +12408,7 @@
         <v>19</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12418,11 +12416,11 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>595</v>
-      </c>
       <c r="D258" s="0" t="s">
         <v>15</v>
       </c>
@@ -12448,7 +12446,7 @@
         <v>19</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12456,11 +12454,11 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C259" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>597</v>
-      </c>
       <c r="D259" s="0" t="s">
         <v>15</v>
       </c>
@@ -12486,7 +12484,7 @@
         <v>19</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12494,11 +12492,11 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C260" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C260" s="0" t="s">
-        <v>599</v>
-      </c>
       <c r="D260" s="0" t="s">
         <v>15</v>
       </c>
@@ -12524,7 +12522,7 @@
         <v>19</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12532,11 +12530,11 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C261" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="C261" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="D261" s="0" t="s">
         <v>15</v>
       </c>
@@ -12562,7 +12560,7 @@
         <v>19</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12570,11 +12568,11 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C262" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="C262" s="0" t="s">
-        <v>603</v>
-      </c>
       <c r="D262" s="0" t="s">
         <v>15</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>19</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12608,11 +12606,11 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C263" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="C263" s="0" t="s">
-        <v>605</v>
-      </c>
       <c r="D263" s="0" t="s">
         <v>15</v>
       </c>
@@ -12638,7 +12636,7 @@
         <v>19</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12646,11 +12644,11 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C264" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="C264" s="0" t="s">
-        <v>607</v>
-      </c>
       <c r="D264" s="0" t="s">
         <v>15</v>
       </c>
@@ -12676,7 +12674,7 @@
         <v>19</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12684,11 +12682,11 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C265" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="C265" s="0" t="s">
-        <v>609</v>
-      </c>
       <c r="D265" s="0" t="s">
         <v>15</v>
       </c>
@@ -12714,7 +12712,7 @@
         <v>19</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12722,11 +12720,11 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C266" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="C266" s="0" t="s">
-        <v>611</v>
-      </c>
       <c r="D266" s="0" t="s">
         <v>15</v>
       </c>
@@ -12752,7 +12750,7 @@
         <v>19</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12760,11 +12758,11 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="C267" s="0" t="s">
-        <v>613</v>
-      </c>
       <c r="D267" s="0" t="s">
         <v>15</v>
       </c>
@@ -12790,7 +12788,7 @@
         <v>19</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12798,11 +12796,11 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C268" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="C268" s="0" t="s">
-        <v>615</v>
-      </c>
       <c r="D268" s="0" t="s">
         <v>15</v>
       </c>
@@ -12828,7 +12826,7 @@
         <v>19</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12836,16 +12834,16 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C269" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="D269" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E269" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>205</v>
@@ -12866,7 +12864,7 @@
         <v>19</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12874,11 +12872,11 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C270" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="C270" s="0" t="s">
-        <v>620</v>
-      </c>
       <c r="D270" s="0" t="s">
         <v>15</v>
       </c>
@@ -12904,7 +12902,7 @@
         <v>19</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,11 +12910,11 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C271" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>622</v>
-      </c>
       <c r="D271" s="0" t="s">
         <v>15</v>
       </c>
@@ -12942,7 +12940,7 @@
         <v>19</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,11 +12948,11 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C272" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>624</v>
-      </c>
       <c r="D272" s="0" t="s">
         <v>15</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>19</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,11 +12986,11 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C273" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C273" s="0" t="s">
-        <v>626</v>
-      </c>
       <c r="D273" s="0" t="s">
         <v>15</v>
       </c>
@@ -13018,7 +13016,7 @@
         <v>19</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13026,11 +13024,11 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C274" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="C274" s="0" t="s">
-        <v>628</v>
-      </c>
       <c r="D274" s="0" t="s">
         <v>15</v>
       </c>
@@ -13056,7 +13054,7 @@
         <v>19</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13064,11 +13062,11 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C275" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="C275" s="0" t="s">
-        <v>630</v>
-      </c>
       <c r="D275" s="0" t="s">
         <v>15</v>
       </c>
@@ -13094,7 +13092,7 @@
         <v>19</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13102,11 +13100,11 @@
         <v>1261</v>
       </c>
       <c r="B276" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="C276" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="C276" s="0" t="s">
-        <v>632</v>
-      </c>
       <c r="D276" s="0" t="s">
         <v>15</v>
       </c>
@@ -13132,7 +13130,7 @@
         <v>19</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13140,11 +13138,11 @@
         <v>1262</v>
       </c>
       <c r="B277" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C277" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="C277" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="D277" s="0" t="s">
         <v>15</v>
       </c>
@@ -13170,7 +13168,7 @@
         <v>19</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13178,11 +13176,11 @@
         <v>1274</v>
       </c>
       <c r="B278" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="C278" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="C278" s="0" t="s">
-        <v>636</v>
-      </c>
       <c r="D278" s="0" t="s">
         <v>15</v>
       </c>
@@ -13208,7 +13206,7 @@
         <v>19</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13216,11 +13214,11 @@
         <v>1282</v>
       </c>
       <c r="B279" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="C279" s="0" t="s">
-        <v>638</v>
-      </c>
       <c r="D279" s="0" t="s">
         <v>15</v>
       </c>
@@ -13246,7 +13244,7 @@
         <v>19</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13254,11 +13252,11 @@
         <v>1290</v>
       </c>
       <c r="B280" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C280" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="C280" s="0" t="s">
-        <v>640</v>
-      </c>
       <c r="D280" s="0" t="s">
         <v>15</v>
       </c>
@@ -13284,7 +13282,7 @@
         <v>19</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13292,11 +13290,11 @@
         <v>1300</v>
       </c>
       <c r="B281" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C281" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>642</v>
-      </c>
       <c r="D281" s="0" t="s">
         <v>15</v>
       </c>
@@ -13322,7 +13320,7 @@
         <v>19</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13330,11 +13328,11 @@
         <v>1313</v>
       </c>
       <c r="B282" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>644</v>
-      </c>
       <c r="D282" s="0" t="s">
         <v>15</v>
       </c>
@@ -13360,7 +13358,7 @@
         <v>19</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13368,11 +13366,11 @@
         <v>1321</v>
       </c>
       <c r="B283" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="C283" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>646</v>
-      </c>
       <c r="D283" s="0" t="s">
         <v>15</v>
       </c>
@@ -13398,7 +13396,7 @@
         <v>19</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13406,11 +13404,11 @@
         <v>1330</v>
       </c>
       <c r="B284" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C284" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="C284" s="0" t="s">
-        <v>648</v>
-      </c>
       <c r="D284" s="0" t="s">
         <v>15</v>
       </c>
@@ -13436,7 +13434,7 @@
         <v>19</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13444,40 +13442,40 @@
         <v>1355</v>
       </c>
       <c r="B285" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C285" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="D285" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H285" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J285" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K285" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L285" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="D285" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E285" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F285" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G285" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H285" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I285" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J285" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K285" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L285" s="0" t="s">
-        <v>651</v>
-      </c>
       <c r="M285" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,11 +13483,11 @@
         <v>1360</v>
       </c>
       <c r="B286" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="C286" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>653</v>
-      </c>
       <c r="D286" s="0" t="s">
         <v>15</v>
       </c>
@@ -13515,7 +13513,7 @@
         <v>19</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,40 +13521,40 @@
         <v>1374</v>
       </c>
       <c r="B287" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C287" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="D287" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H287" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K287" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L287" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="D287" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H287" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I287" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J287" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K287" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L287" s="0" t="s">
-        <v>656</v>
-      </c>
       <c r="M287" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13564,11 +13562,11 @@
         <v>1389</v>
       </c>
       <c r="B288" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C288" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>658</v>
-      </c>
       <c r="D288" s="0" t="s">
         <v>15</v>
       </c>
@@ -13594,7 +13592,7 @@
         <v>19</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13602,11 +13600,11 @@
         <v>1394</v>
       </c>
       <c r="B289" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C289" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="C289" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="D289" s="0" t="s">
         <v>15</v>
       </c>
@@ -13632,7 +13630,7 @@
         <v>19</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13640,11 +13638,11 @@
         <v>1398</v>
       </c>
       <c r="B290" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C290" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="C290" s="0" t="s">
-        <v>662</v>
-      </c>
       <c r="D290" s="0" t="s">
         <v>15</v>
       </c>
@@ -13670,7 +13668,7 @@
         <v>19</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13678,11 +13676,11 @@
         <v>1411</v>
       </c>
       <c r="B291" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C291" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="C291" s="0" t="s">
-        <v>664</v>
-      </c>
       <c r="D291" s="0" t="s">
         <v>15</v>
       </c>
@@ -13708,7 +13706,7 @@
         <v>19</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13716,11 +13714,11 @@
         <v>1424</v>
       </c>
       <c r="B292" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C292" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="C292" s="0" t="s">
-        <v>666</v>
-      </c>
       <c r="D292" s="0" t="s">
         <v>15</v>
       </c>
@@ -13746,7 +13744,7 @@
         <v>19</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13754,11 +13752,11 @@
         <v>1430</v>
       </c>
       <c r="B293" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C293" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="C293" s="0" t="s">
-        <v>668</v>
-      </c>
       <c r="D293" s="0" t="s">
         <v>15</v>
       </c>
@@ -13784,7 +13782,7 @@
         <v>19</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13792,11 +13790,11 @@
         <v>1434</v>
       </c>
       <c r="B294" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C294" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="C294" s="0" t="s">
-        <v>670</v>
-      </c>
       <c r="D294" s="0" t="s">
         <v>15</v>
       </c>
@@ -13822,7 +13820,7 @@
         <v>19</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13830,11 +13828,11 @@
         <v>1444</v>
       </c>
       <c r="B295" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C295" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="C295" s="0" t="s">
-        <v>672</v>
-      </c>
       <c r="D295" s="0" t="s">
         <v>15</v>
       </c>
@@ -13857,7 +13855,7 @@
         <v>19</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13865,11 +13863,11 @@
         <v>1450</v>
       </c>
       <c r="B296" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="C296" s="0" t="s">
-        <v>674</v>
-      </c>
       <c r="D296" s="0" t="s">
         <v>15</v>
       </c>
@@ -13895,7 +13893,7 @@
         <v>19</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,10 +13901,10 @@
         <v>1451</v>
       </c>
       <c r="B297" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>676</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>15</v>
@@ -13933,7 +13931,7 @@
         <v>19</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13941,10 +13939,10 @@
         <v>1453</v>
       </c>
       <c r="B298" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>15</v>
@@ -13971,7 +13969,7 @@
         <v>19</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13979,10 +13977,10 @@
         <v>1457</v>
       </c>
       <c r="B299" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C299" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>680</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>15</v>
@@ -14009,7 +14007,7 @@
         <v>19</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14017,11 +14015,11 @@
         <v>1463</v>
       </c>
       <c r="B300" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="C300" s="0" t="s">
-        <v>682</v>
-      </c>
       <c r="D300" s="0" t="s">
         <v>15</v>
       </c>
@@ -14047,7 +14045,7 @@
         <v>19</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14055,11 +14053,11 @@
         <v>1466</v>
       </c>
       <c r="B301" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="C301" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="C301" s="0" t="s">
-        <v>684</v>
-      </c>
       <c r="D301" s="0" t="s">
         <v>15</v>
       </c>
@@ -14085,7 +14083,7 @@
         <v>19</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14093,11 +14091,11 @@
         <v>1469</v>
       </c>
       <c r="B302" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="C302" s="0" t="s">
-        <v>686</v>
-      </c>
       <c r="D302" s="0" t="s">
         <v>15</v>
       </c>
@@ -14123,7 +14121,7 @@
         <v>19</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14131,11 +14129,11 @@
         <v>1474</v>
       </c>
       <c r="B303" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C303" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>688</v>
-      </c>
       <c r="D303" s="0" t="s">
         <v>15</v>
       </c>
@@ -14161,7 +14159,7 @@
         <v>19</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14169,40 +14167,40 @@
         <v>1500</v>
       </c>
       <c r="B304" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="D304" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G304" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I304" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J304" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K304" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L304" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="D304" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F304" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G304" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H304" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I304" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J304" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K304" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L304" s="0" t="s">
-        <v>691</v>
-      </c>
       <c r="M304" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14210,11 +14208,11 @@
         <v>1509</v>
       </c>
       <c r="B305" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="C305" s="0" t="s">
-        <v>693</v>
-      </c>
       <c r="D305" s="0" t="s">
         <v>15</v>
       </c>
@@ -14240,7 +14238,7 @@
         <v>19</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14248,11 +14246,11 @@
         <v>1520</v>
       </c>
       <c r="B306" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C306" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="C306" s="0" t="s">
-        <v>695</v>
-      </c>
       <c r="D306" s="0" t="s">
         <v>15</v>
       </c>
@@ -14278,7 +14276,7 @@
         <v>19</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14286,11 +14284,11 @@
         <v>1529</v>
       </c>
       <c r="B307" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C307" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>697</v>
-      </c>
       <c r="D307" s="0" t="s">
         <v>15</v>
       </c>
@@ -14316,7 +14314,7 @@
         <v>19</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14324,11 +14322,11 @@
         <v>1536</v>
       </c>
       <c r="B308" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C308" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="C308" s="0" t="s">
-        <v>699</v>
-      </c>
       <c r="D308" s="0" t="s">
         <v>15</v>
       </c>
@@ -14354,7 +14352,7 @@
         <v>19</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14362,11 +14360,11 @@
         <v>1543</v>
       </c>
       <c r="B309" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C309" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="C309" s="0" t="s">
-        <v>701</v>
-      </c>
       <c r="D309" s="0" t="s">
         <v>15</v>
       </c>
@@ -14392,7 +14390,7 @@
         <v>19</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14400,11 +14398,11 @@
         <v>1553</v>
       </c>
       <c r="B310" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C310" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="C310" s="0" t="s">
-        <v>703</v>
-      </c>
       <c r="D310" s="0" t="s">
         <v>15</v>
       </c>
@@ -14430,7 +14428,7 @@
         <v>19</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14438,11 +14436,11 @@
         <v>1557</v>
       </c>
       <c r="B311" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="C311" s="0" t="s">
-        <v>705</v>
-      </c>
       <c r="D311" s="0" t="s">
         <v>15</v>
       </c>
@@ -14468,7 +14466,7 @@
         <v>19</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14476,11 +14474,11 @@
         <v>1573</v>
       </c>
       <c r="B312" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C312" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="C312" s="0" t="s">
-        <v>707</v>
-      </c>
       <c r="D312" s="0" t="s">
         <v>15</v>
       </c>
@@ -14506,7 +14504,7 @@
         <v>19</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14514,40 +14512,40 @@
         <v>1592</v>
       </c>
       <c r="B313" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C313" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="D313" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G313" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H313" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J313" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K313" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L313" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="D313" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F313" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G313" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H313" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I313" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J313" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K313" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L313" s="0" t="s">
-        <v>710</v>
-      </c>
       <c r="M313" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14555,11 +14553,11 @@
         <v>1601</v>
       </c>
       <c r="B314" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C314" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="C314" s="0" t="s">
-        <v>712</v>
-      </c>
       <c r="D314" s="0" t="s">
         <v>15</v>
       </c>
@@ -14585,7 +14583,7 @@
         <v>19</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14593,11 +14591,11 @@
         <v>1604</v>
       </c>
       <c r="B315" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C315" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="C315" s="0" t="s">
-        <v>714</v>
-      </c>
       <c r="D315" s="0" t="s">
         <v>15</v>
       </c>
@@ -14623,7 +14621,7 @@
         <v>19</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14631,11 +14629,11 @@
         <v>1612</v>
       </c>
       <c r="B316" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C316" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="C316" s="0" t="s">
-        <v>716</v>
-      </c>
       <c r="D316" s="0" t="s">
         <v>15</v>
       </c>
@@ -14661,7 +14659,7 @@
         <v>19</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14669,11 +14667,11 @@
         <v>1613</v>
       </c>
       <c r="B317" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="C317" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="C317" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="D317" s="0" t="s">
         <v>15</v>
       </c>
@@ -14699,7 +14697,7 @@
         <v>19</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14707,11 +14705,11 @@
         <v>1614</v>
       </c>
       <c r="B318" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C318" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="C318" s="0" t="s">
-        <v>720</v>
-      </c>
       <c r="D318" s="0" t="s">
         <v>15</v>
       </c>
@@ -14737,7 +14735,7 @@
         <v>19</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14745,23 +14743,23 @@
         <v>1617</v>
       </c>
       <c r="B319" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C319" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="D319" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="D319" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F319" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G319" s="0" t="s">
-        <v>723</v>
-      </c>
       <c r="H319" s="0" t="s">
         <v>18</v>
       </c>
@@ -14775,7 +14773,7 @@
         <v>19</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14783,11 +14781,11 @@
         <v>1622</v>
       </c>
       <c r="B320" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C320" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="C320" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="D320" s="0" t="s">
         <v>15</v>
       </c>
@@ -14813,7 +14811,7 @@
         <v>19</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14821,10 +14819,10 @@
         <v>1625</v>
       </c>
       <c r="B321" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C321" s="0" t="s">
         <v>726</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>727</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>15</v>
@@ -14851,7 +14849,7 @@
         <v>19</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14859,40 +14857,40 @@
         <v>1627</v>
       </c>
       <c r="B322" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="C322" s="0" t="s">
+      <c r="D322" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G322" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I322" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J322" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K322" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L322" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="D322" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F322" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G322" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H322" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I322" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J322" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K322" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L322" s="0" t="s">
-        <v>730</v>
-      </c>
       <c r="M322" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,10 +14898,10 @@
         <v>1635</v>
       </c>
       <c r="B323" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C323" s="0" t="s">
         <v>731</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>732</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>15</v>
@@ -14930,7 +14928,7 @@
         <v>19</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,40 +14936,40 @@
         <v>1639</v>
       </c>
       <c r="B324" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C324" s="0" t="s">
+      <c r="D324" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G324" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I324" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J324" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K324" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L324" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D324" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E324" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F324" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G324" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H324" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I324" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J324" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K324" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L324" s="0" t="s">
-        <v>735</v>
-      </c>
       <c r="M324" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14979,11 +14977,11 @@
         <v>1644</v>
       </c>
       <c r="B325" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C325" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="C325" s="0" t="s">
-        <v>737</v>
-      </c>
       <c r="D325" s="0" t="s">
         <v>15</v>
       </c>
@@ -15009,7 +15007,7 @@
         <v>19</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15017,11 +15015,11 @@
         <v>1656</v>
       </c>
       <c r="B326" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="C326" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="D326" s="0" t="s">
         <v>15</v>
       </c>
@@ -15044,7 +15042,7 @@
         <v>19</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15052,11 +15050,11 @@
         <v>1664</v>
       </c>
       <c r="B327" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="C327" s="0" t="s">
-        <v>741</v>
-      </c>
       <c r="D327" s="0" t="s">
         <v>15</v>
       </c>
@@ -15082,7 +15080,7 @@
         <v>19</v>
       </c>
       <c r="M327" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,10 +15088,10 @@
         <v>1669</v>
       </c>
       <c r="B328" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C328" s="0" t="s">
         <v>742</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>743</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>15</v>
@@ -15120,7 +15118,7 @@
         <v>19</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15128,11 +15126,11 @@
         <v>1677</v>
       </c>
       <c r="B329" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="C329" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="C329" s="0" t="s">
-        <v>745</v>
-      </c>
       <c r="D329" s="0" t="s">
         <v>15</v>
       </c>
@@ -15158,7 +15156,7 @@
         <v>19</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15166,11 +15164,11 @@
         <v>1678</v>
       </c>
       <c r="B330" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="C330" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="C330" s="0" t="s">
-        <v>747</v>
-      </c>
       <c r="D330" s="0" t="s">
         <v>15</v>
       </c>
@@ -15196,7 +15194,7 @@
         <v>19</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,10 +15202,10 @@
         <v>1681</v>
       </c>
       <c r="B331" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>749</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>15</v>
@@ -15234,7 +15232,7 @@
         <v>19</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,10 +15240,10 @@
         <v>1689</v>
       </c>
       <c r="B332" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>750</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>751</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>15</v>
@@ -15272,7 +15270,7 @@
         <v>19</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15280,11 +15278,11 @@
         <v>1692</v>
       </c>
       <c r="B333" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="C333" s="0" t="s">
-        <v>753</v>
-      </c>
       <c r="D333" s="0" t="s">
         <v>15</v>
       </c>
@@ -15310,7 +15308,7 @@
         <v>19</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15318,10 +15316,10 @@
         <v>1696</v>
       </c>
       <c r="B334" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>755</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>15</v>
@@ -15348,7 +15346,7 @@
         <v>19</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15356,11 +15354,11 @@
         <v>1701</v>
       </c>
       <c r="B335" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C335" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="C335" s="0" t="s">
-        <v>757</v>
-      </c>
       <c r="D335" s="0" t="s">
         <v>15</v>
       </c>
@@ -15386,7 +15384,7 @@
         <v>19</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15394,11 +15392,11 @@
         <v>1705</v>
       </c>
       <c r="B336" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C336" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="C336" s="0" t="s">
-        <v>759</v>
-      </c>
       <c r="D336" s="0" t="s">
         <v>15</v>
       </c>
@@ -15424,7 +15422,7 @@
         <v>19</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15432,40 +15430,40 @@
         <v>1711</v>
       </c>
       <c r="B337" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C337" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="D337" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I337" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J337" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K337" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L337" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="D337" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F337" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G337" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H337" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I337" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J337" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K337" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L337" s="0" t="s">
-        <v>762</v>
-      </c>
       <c r="M337" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15473,11 +15471,11 @@
         <v>1715</v>
       </c>
       <c r="B338" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C338" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="C338" s="0" t="s">
-        <v>764</v>
-      </c>
       <c r="D338" s="0" t="s">
         <v>15</v>
       </c>
@@ -15503,7 +15501,7 @@
         <v>19</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15511,11 +15509,11 @@
         <v>1720</v>
       </c>
       <c r="B339" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C339" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="C339" s="0" t="s">
-        <v>766</v>
-      </c>
       <c r="D339" s="0" t="s">
         <v>15</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>19</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15549,40 +15547,40 @@
         <v>1725</v>
       </c>
       <c r="B340" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C340" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="D340" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I340" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J340" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K340" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L340" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="D340" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E340" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F340" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G340" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H340" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I340" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J340" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K340" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L340" s="0" t="s">
-        <v>769</v>
-      </c>
       <c r="M340" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15590,11 +15588,11 @@
         <v>1733</v>
       </c>
       <c r="B341" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="C341" s="0" t="s">
-        <v>771</v>
-      </c>
       <c r="D341" s="0" t="s">
         <v>15</v>
       </c>
@@ -15620,7 +15618,7 @@
         <v>19</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15628,11 +15626,11 @@
         <v>1744</v>
       </c>
       <c r="B342" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="C342" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="C342" s="0" t="s">
-        <v>773</v>
-      </c>
       <c r="D342" s="0" t="s">
         <v>15</v>
       </c>
@@ -15658,7 +15656,7 @@
         <v>19</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15666,11 +15664,11 @@
         <v>1753</v>
       </c>
       <c r="B343" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C343" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="C343" s="0" t="s">
-        <v>775</v>
-      </c>
       <c r="D343" s="0" t="s">
         <v>15</v>
       </c>
@@ -15696,7 +15694,7 @@
         <v>19</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15704,11 +15702,11 @@
         <v>1756</v>
       </c>
       <c r="B344" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C344" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="C344" s="0" t="s">
-        <v>777</v>
-      </c>
       <c r="D344" s="0" t="s">
         <v>15</v>
       </c>
@@ -15734,7 +15732,7 @@
         <v>19</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15742,11 +15740,11 @@
         <v>1769</v>
       </c>
       <c r="B345" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C345" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="C345" s="0" t="s">
-        <v>779</v>
-      </c>
       <c r="D345" s="0" t="s">
         <v>15</v>
       </c>
@@ -15772,7 +15770,7 @@
         <v>19</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15780,40 +15778,40 @@
         <v>1775</v>
       </c>
       <c r="B346" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="C346" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="D346" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G346" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I346" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J346" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K346" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L346" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="D346" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F346" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G346" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H346" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I346" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J346" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K346" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L346" s="0" t="s">
-        <v>782</v>
-      </c>
       <c r="M346" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15821,40 +15819,40 @@
         <v>1779</v>
       </c>
       <c r="B347" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="C347" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="D347" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G347" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I347" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J347" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K347" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L347" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="D347" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F347" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G347" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H347" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I347" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J347" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K347" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L347" s="0" t="s">
-        <v>785</v>
-      </c>
       <c r="M347" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15862,11 +15860,11 @@
         <v>1790</v>
       </c>
       <c r="B348" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C348" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="C348" s="0" t="s">
-        <v>787</v>
-      </c>
       <c r="D348" s="0" t="s">
         <v>15</v>
       </c>
@@ -15892,7 +15890,7 @@
         <v>19</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15900,11 +15898,11 @@
         <v>1800</v>
       </c>
       <c r="B349" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C349" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="C349" s="0" t="s">
-        <v>789</v>
-      </c>
       <c r="D349" s="0" t="s">
         <v>15</v>
       </c>
@@ -15930,7 +15928,7 @@
         <v>19</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15938,11 +15936,11 @@
         <v>1810</v>
       </c>
       <c r="B350" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C350" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="C350" s="0" t="s">
-        <v>791</v>
-      </c>
       <c r="D350" s="0" t="s">
         <v>15</v>
       </c>
@@ -15968,7 +15966,7 @@
         <v>19</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15976,11 +15974,11 @@
         <v>1812</v>
       </c>
       <c r="B351" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C351" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="C351" s="0" t="s">
-        <v>793</v>
-      </c>
       <c r="D351" s="0" t="s">
         <v>15</v>
       </c>
@@ -16006,7 +16004,7 @@
         <v>19</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16014,10 +16012,10 @@
         <v>1818</v>
       </c>
       <c r="B352" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C352" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>15</v>
@@ -16044,7 +16042,7 @@
         <v>19</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16052,10 +16050,10 @@
         <v>1826</v>
       </c>
       <c r="B353" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C353" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>797</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>15</v>
@@ -16082,7 +16080,7 @@
         <v>19</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16090,10 +16088,10 @@
         <v>1831</v>
       </c>
       <c r="B354" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C354" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>799</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>15</v>
@@ -16117,7 +16115,7 @@
         <v>19</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16125,11 +16123,11 @@
         <v>1838</v>
       </c>
       <c r="B355" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C355" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="C355" s="0" t="s">
-        <v>801</v>
-      </c>
       <c r="D355" s="0" t="s">
         <v>15</v>
       </c>
@@ -16155,7 +16153,7 @@
         <v>19</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,11 +16161,11 @@
         <v>1846</v>
       </c>
       <c r="B356" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="C356" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="C356" s="0" t="s">
-        <v>803</v>
-      </c>
       <c r="D356" s="0" t="s">
         <v>15</v>
       </c>
@@ -16193,7 +16191,7 @@
         <v>19</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16201,11 +16199,11 @@
         <v>1850</v>
       </c>
       <c r="B357" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="C357" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="C357" s="0" t="s">
-        <v>805</v>
-      </c>
       <c r="D357" s="0" t="s">
         <v>15</v>
       </c>
@@ -16231,7 +16229,7 @@
         <v>19</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16239,11 +16237,11 @@
         <v>1852</v>
       </c>
       <c r="B358" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C358" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="C358" s="0" t="s">
-        <v>807</v>
-      </c>
       <c r="D358" s="0" t="s">
         <v>15</v>
       </c>
@@ -16269,7 +16267,7 @@
         <v>19</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16277,11 +16275,11 @@
         <v>1868</v>
       </c>
       <c r="B359" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C359" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="C359" s="0" t="s">
-        <v>809</v>
-      </c>
       <c r="D359" s="0" t="s">
         <v>15</v>
       </c>
@@ -16307,7 +16305,7 @@
         <v>19</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16315,11 +16313,11 @@
         <v>1876</v>
       </c>
       <c r="B360" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C360" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="C360" s="0" t="s">
-        <v>811</v>
-      </c>
       <c r="D360" s="0" t="s">
         <v>15</v>
       </c>
@@ -16345,7 +16343,7 @@
         <v>19</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16353,11 +16351,11 @@
         <v>1877</v>
       </c>
       <c r="B361" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C361" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C361" s="0" t="s">
-        <v>813</v>
-      </c>
       <c r="D361" s="0" t="s">
         <v>15</v>
       </c>
@@ -16383,7 +16381,7 @@
         <v>19</v>
       </c>
       <c r="M361" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16391,11 +16389,11 @@
         <v>1878</v>
       </c>
       <c r="B362" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="C362" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="C362" s="0" t="s">
-        <v>815</v>
-      </c>
       <c r="D362" s="0" t="s">
         <v>15</v>
       </c>
@@ -16421,7 +16419,7 @@
         <v>19</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16429,10 +16427,10 @@
         <v>1880</v>
       </c>
       <c r="B363" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C363" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="C363" s="0" t="s">
-        <v>817</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>15</v>
@@ -16459,7 +16457,7 @@
         <v>19</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16467,11 +16465,11 @@
         <v>1887</v>
       </c>
       <c r="B364" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C364" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="C364" s="0" t="s">
-        <v>819</v>
-      </c>
       <c r="D364" s="0" t="s">
         <v>15</v>
       </c>
@@ -16494,7 +16492,7 @@
         <v>19</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16502,40 +16500,40 @@
         <v>1890</v>
       </c>
       <c r="B365" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C365" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="C365" s="0" t="s">
+      <c r="D365" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G365" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I365" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J365" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K365" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L365" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="D365" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E365" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F365" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G365" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H365" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I365" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J365" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K365" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L365" s="0" t="s">
-        <v>822</v>
-      </c>
       <c r="M365" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16543,10 +16541,10 @@
         <v>1893</v>
       </c>
       <c r="B366" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>824</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>15</v>
@@ -16573,7 +16571,7 @@
         <v>19</v>
       </c>
       <c r="M366" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16581,10 +16579,10 @@
         <v>1894</v>
       </c>
       <c r="B367" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C367" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>826</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>15</v>
@@ -16611,10 +16609,10 @@
         <v>19</v>
       </c>
       <c r="L367" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16622,10 +16620,10 @@
         <v>1899</v>
       </c>
       <c r="B368" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C368" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>15</v>
@@ -16652,7 +16650,7 @@
         <v>19</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16660,11 +16658,11 @@
         <v>1915</v>
       </c>
       <c r="B369" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="C369" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C369" s="0" t="s">
-        <v>831</v>
-      </c>
       <c r="D369" s="0" t="s">
         <v>15</v>
       </c>
@@ -16690,7 +16688,7 @@
         <v>19</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16698,11 +16696,11 @@
         <v>1928</v>
       </c>
       <c r="B370" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C370" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C370" s="0" t="s">
-        <v>833</v>
-      </c>
       <c r="D370" s="0" t="s">
         <v>15</v>
       </c>
@@ -16728,7 +16726,7 @@
         <v>19</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16736,11 +16734,11 @@
         <v>1933</v>
       </c>
       <c r="B371" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C371" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C371" s="0" t="s">
-        <v>835</v>
-      </c>
       <c r="D371" s="0" t="s">
         <v>15</v>
       </c>
@@ -16766,7 +16764,7 @@
         <v>19</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16774,20 +16772,20 @@
         <v>1960</v>
       </c>
       <c r="B372" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C372" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C372" s="0" t="s">
+      <c r="D372" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="D372" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>838</v>
-      </c>
       <c r="G372" s="0" t="s">
         <v>18</v>
       </c>
@@ -16804,7 +16802,7 @@
         <v>19</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16812,11 +16810,11 @@
         <v>1966</v>
       </c>
       <c r="B373" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C373" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="C373" s="0" t="s">
-        <v>840</v>
-      </c>
       <c r="D373" s="0" t="s">
         <v>15</v>
       </c>
@@ -16842,7 +16840,7 @@
         <v>19</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16850,11 +16848,11 @@
         <v>11000</v>
       </c>
       <c r="B374" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="C374" s="0" t="s">
-        <v>842</v>
-      </c>
       <c r="D374" s="0" t="s">
         <v>15</v>
       </c>
@@ -16880,7 +16878,7 @@
         <v>19</v>
       </c>
       <c r="M374" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16888,10 +16886,10 @@
         <v>11050</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>15</v>
@@ -16918,7 +16916,7 @@
         <v>19</v>
       </c>
       <c r="M375" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16926,11 +16924,11 @@
         <v>11100</v>
       </c>
       <c r="B376" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C376" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="C376" s="0" t="s">
-        <v>845</v>
-      </c>
       <c r="D376" s="0" t="s">
         <v>15</v>
       </c>
@@ -16956,7 +16954,7 @@
         <v>19</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16964,11 +16962,11 @@
         <v>11150</v>
       </c>
       <c r="B377" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C377" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="C377" s="0" t="s">
-        <v>847</v>
-      </c>
       <c r="D377" s="0" t="s">
         <v>15</v>
       </c>
@@ -16994,7 +16992,7 @@
         <v>19</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17002,11 +17000,11 @@
         <v>11200</v>
       </c>
       <c r="B378" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C378" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="C378" s="0" t="s">
-        <v>849</v>
-      </c>
       <c r="D378" s="0" t="s">
         <v>15</v>
       </c>
@@ -17032,7 +17030,7 @@
         <v>19</v>
       </c>
       <c r="M378" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17040,11 +17038,11 @@
         <v>11250</v>
       </c>
       <c r="B379" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C379" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="C379" s="0" t="s">
-        <v>851</v>
-      </c>
       <c r="D379" s="0" t="s">
         <v>15</v>
       </c>
@@ -17070,7 +17068,7 @@
         <v>19</v>
       </c>
       <c r="M379" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17078,11 +17076,11 @@
         <v>11300</v>
       </c>
       <c r="B380" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C380" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="C380" s="0" t="s">
-        <v>853</v>
-      </c>
       <c r="D380" s="0" t="s">
         <v>15</v>
       </c>
@@ -17105,7 +17103,7 @@
         <v>19</v>
       </c>
       <c r="M380" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17113,11 +17111,11 @@
         <v>11350</v>
       </c>
       <c r="B381" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C381" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="C381" s="0" t="s">
-        <v>855</v>
-      </c>
       <c r="D381" s="0" t="s">
         <v>15</v>
       </c>
@@ -17143,7 +17141,7 @@
         <v>19</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17151,11 +17149,11 @@
         <v>11400</v>
       </c>
       <c r="B382" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C382" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="C382" s="0" t="s">
-        <v>857</v>
-      </c>
       <c r="D382" s="0" t="s">
         <v>15</v>
       </c>
@@ -17181,7 +17179,7 @@
         <v>19</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17189,11 +17187,11 @@
         <v>11450</v>
       </c>
       <c r="B383" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C383" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="C383" s="0" t="s">
-        <v>859</v>
-      </c>
       <c r="D383" s="0" t="s">
         <v>15</v>
       </c>
@@ -17219,7 +17217,7 @@
         <v>19</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17227,11 +17225,11 @@
         <v>11500</v>
       </c>
       <c r="B384" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C384" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="C384" s="0" t="s">
-        <v>861</v>
-      </c>
       <c r="D384" s="0" t="s">
         <v>15</v>
       </c>
@@ -17257,7 +17255,7 @@
         <v>19</v>
       </c>
       <c r="M384" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="873">
   <si>
     <t xml:space="preserve">species_order</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">land</t>
   </si>
   <si>
-    <t xml:space="preserve">https://farm2.staticflickr.com/1883/44747039332_0666291b70_o_d.png</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4807/45899295512_21ec97bd57_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Plumed Whistling-Duck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4897/43946083370_c13241a0f1_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4897/43946083370_36e4b80132_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Dendrocygna arcuata</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Wandering Whistling-Duck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4827/44850284545_d1c1a05c32_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4827/44850284545_3e5075382a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Malacorhynchus membranaceus</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Radjah Shelduck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4903/43946078610_32800b179c_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4903/43946078610_d904679c3d_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Aythya australis</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Pacific Black Duck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4830/43946076730_cb74142588_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4830/43946076730_01a3fc7db8_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Anas gracilis</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Freckled Duck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4857/45763352411_ca8876b80b_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4857/45763352411_66e78b8775_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Biziura lobata</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Musk Duck</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4817/43946076920_855c9ce67c_o_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4817/43946076920_f15efb6399_o_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Chenonetta jubata</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Cotton Pygmy-Goose</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4851/45763822791_e7a4985ed6_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4851/45763822791_0a4d764e6b_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Alectura lathami</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Australian Brush-turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4861/45729766702_157f300a29_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4861/45729766702_27b77f1c43_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Coturnix pectoralis</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">White-headed Pigeon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4878/45055143344_21583d31e5_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4878/45055143344_885ae10653_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Streptopelia chinensis</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Spotted Dove</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4905/45055134774_2ca1b1cc23_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4905/45055134774_f36820c964_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Macropygia phasianella</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Brown Cuckoo-Dove</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4889/45729776412_7afe946f98_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4889/45729776412_31fc06461b_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Leucosarcia melanoleuca</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">Common Bronzewing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1905/45055136544_f0c9da9688_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1905/45055136544_391e1ce94a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Ocyphaps lophotes</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Crested Pigeon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4905/45055137744_3958182c8e_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4905/45055137744_59f8e51d35_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Geopelia cuneata</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Diamond Dove</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4881/45055142214_663d8fa110_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4881/45055142214_6d1afe9816_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Geopelia placida</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Brown-capped Emerald-Dove</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1967/45729763972_428499f54f_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1967/45729763972_aacc7d3b15_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Ptilinopus magnificus</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Rose-crowned Fruit-Dove</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4860/45729769952_fb28cb236b_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4860/45729769952_c162e8cdb8_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Lopholaimus antarcticus</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Pheasant Coucal</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4850/45055131014_8d032f5775_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4850/45055131014_a2e2eba2f4_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Eudynamys orientalis</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Channel-billed Cuckoo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1925/45055135844_d170ae8d49_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1925/45055135844_4c73d57165_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Chrysococcyx basalis</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">Fan-tailed Cuckoo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4833/30865310147_47f78e9421_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4833/30865310147_a35051e91b_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Cacomantis variolosus</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">Pallid Cuckoo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1934/45038271104_90620a4f83_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1934/45038271104_d09ed5ca36_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Cuculus optatus</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">Baillon's Crake</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4839/45713194162_6e3c91bbfa_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4839/45713194162_04cf8c79fe_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Zapornia tabuensis</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">Bush Stone-curlew</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4809/45697654342_8bc84312a1_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4809/45697654342_42675df20a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Esacus magnirostris</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">Red-necked Avocet</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4807/45748206511_f79a7c9403_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4807/45748206511_018f9d8b07_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Himantopus leucocephalus</t>
@@ -595,7 +595,7 @@
     <t xml:space="preserve">Pied Stilt</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4879/44894529005_1493d275c4_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4879/44894529005_38cc72bc73_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Pluvialis squatarola</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">Red-kneed Dotterel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1973/45748207591_48612a3aac_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1973/45748207591_5a9381a872_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Rostratula australis</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Comb-crested Jacana</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4861/44849823975_13a79ac5fb_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4861/44849823975_69466e741d_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Numenius phaeopus</t>
@@ -769,7 +769,7 @@
     <t xml:space="preserve">Sharp-tailed Sandpiper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4870/45748205421_3d1e266758_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4870/45748205421_7b45502cfd_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Calidris ferruginea</t>
@@ -778,7 +778,7 @@
     <t xml:space="preserve">Curlew Sandpiper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4844/45748208141_d9644b3842_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4844/45748208141_252eb9fbd8_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Calidris subminuta</t>
@@ -793,6 +793,9 @@
     <t xml:space="preserve">Red-necked Stint</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4861/45274230514_fa34f1aaac_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calidris alba</t>
   </si>
   <si>
@@ -829,6 +832,9 @@
     <t xml:space="preserve">Common Sandpiper</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4875/45274229994_1516c2b80c_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tringa brevipes</t>
   </si>
   <si>
@@ -1030,7 +1036,7 @@
     <t xml:space="preserve">Crested Tern</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4889/43990772210_de90e643fd_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4889/43990772210_02144c6b21_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Oceanites oceanicus</t>
@@ -1174,7 +1180,7 @@
     <t xml:space="preserve">Australian Pelican</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4806/45804865371_a7c91623c2_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4806/45804865371_9970e078c8_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Ixobrychus dubius</t>
@@ -1213,7 +1219,7 @@
     <t xml:space="preserve">White-necked Heron</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4911/43930312680_4510f7f9b8_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4911/43930312680_9701578bcf_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Ardea alba</t>
@@ -1240,7 +1246,7 @@
     <t xml:space="preserve">Little Egret</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1912/45038269094_bc40949d24_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1912/45038269094_61c09bf9cd_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Egretta sacra</t>
@@ -1255,13 +1261,16 @@
     <t xml:space="preserve">Australian White Ibis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4858/32135805748_c56698ab98_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threskiornis spinicollis</t>
   </si>
   <si>
     <t xml:space="preserve">Straw-necked Ibis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4820/45038273264_a70c862dca_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4820/45038273264_d9e6716d7c_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Platalea flavipes</t>
@@ -1276,6 +1285,9 @@
     <t xml:space="preserve">Royal Spoonbill</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4867/45086693905_aaa8a92d9b_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plegadis falcinellus</t>
   </si>
   <si>
@@ -1342,6 +1354,9 @@
     <t xml:space="preserve">Australasian Darter</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4895/31059441667_50e03fe66f_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pandion haliaetus</t>
   </si>
   <si>
@@ -1504,12 +1519,18 @@
     <t xml:space="preserve">Forest Kingfisher</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4851/45086692625_75348d5990_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Todiramphus sordidus</t>
   </si>
   <si>
     <t xml:space="preserve">Collared Kingfisher</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4830/45095240005_e0bb29cf7b_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Todiramphus sanctus</t>
   </si>
   <si>
@@ -1618,7 +1639,7 @@
     <t xml:space="preserve">Sulphur-crested Cockatoo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4807/43990772850_662f6350c8_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4807/43990772850_3028a626cb_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Alisterus scapularis</t>
@@ -1627,6 +1648,9 @@
     <t xml:space="preserve">Australian King-Parrot</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4867/31059439987_6fa4e95f01_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aprosmictus erythropterus</t>
   </si>
   <si>
@@ -1948,6 +1972,9 @@
     <t xml:space="preserve">Mangrove Gerygone</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4891/45274229234_087aecd1d9_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smicrornis brevirostris</t>
   </si>
   <si>
@@ -1972,7 +1999,7 @@
     <t xml:space="preserve">White-browed Scrubwren</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4899/31876296378_1c060974f5_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4899/31876296378_4b8f1f8a5a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Sericornis magnirostra</t>
@@ -2092,7 +2119,7 @@
     <t xml:space="preserve">Golden Whistler</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4865/31933987778_eb8a8ec938_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4865/31933987778_71b54b947a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Colluricincla megarhyncha</t>
@@ -2149,7 +2176,7 @@
     <t xml:space="preserve">Pied Butcherbird</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4803/31934053238_2319e70998_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4803/31934053238_f4ee1b0003_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Cracticus torquatus</t>
@@ -2209,7 +2236,7 @@
     <t xml:space="preserve">Willie Wagtail</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4819/43990773190_8d5ba5d1b0_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4819/43990773190_8d5f0b5f39_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Rhipidura rufifrons</t>
@@ -2224,7 +2251,7 @@
     <t xml:space="preserve">Grey Fantail</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4877/45804873881_4fb0d70105_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4877/45804873881_18c3825d6a_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Corvus orru</t>
@@ -2305,7 +2332,7 @@
     <t xml:space="preserve">Rose Robin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4806/44892069075_f7dc4b022e_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4806/44892069075_d9f87fbf9c_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Petroica boodang</t>
@@ -2326,7 +2353,7 @@
     <t xml:space="preserve">Jacky Winter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c2.staticflickr.com/2/1927/30823273837_2772163664_b_d.jpg</t>
+    <t xml:space="preserve">https://c2.staticflickr.com/2/1927/30823273837_d01e03e5f0_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Eopsaltria australis</t>
@@ -2365,7 +2392,7 @@
     <t xml:space="preserve">Chestnut-breasted Mannikin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4824/43945599780_c431c35de5_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4824/43945599780_8b23339f44_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Neochmia temporalis</t>
@@ -2374,7 +2401,7 @@
     <t xml:space="preserve">Red-browed Finch</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4865/44849846555_7f59f7c99e_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4865/44849846555_87153992d4_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Neochmia modesta</t>
@@ -2395,6 +2422,9 @@
     <t xml:space="preserve">Double-barred Finch</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4886/45274230454_b5b83f6af2_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Passer domesticus</t>
   </si>
   <si>
@@ -2407,6 +2437,9 @@
     <t xml:space="preserve">Australasian Pipit</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4833/45957276642_b4f0421c3c_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motacilla tschutschensis</t>
   </si>
   <si>
@@ -2443,6 +2476,9 @@
     <t xml:space="preserve">Golden-headed Cisticola</t>
   </si>
   <si>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4872/45274229394_f206e4ab5a_b_d.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Megalurus cruralis</t>
   </si>
   <si>
@@ -2485,7 +2521,7 @@
     <t xml:space="preserve">Fairy Martin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4906/43990773760_8dd63615e9_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4906/43990773760_47df105ae4_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Petrochelidon nigricans</t>
@@ -2500,7 +2536,7 @@
     <t xml:space="preserve">Welcome Swallow</t>
   </si>
   <si>
-    <t xml:space="preserve">https://c1.staticflickr.com/5/4804/30823257747_3b99e4059c_b_d.jpg</t>
+    <t xml:space="preserve">https://c1.staticflickr.com/5/4804/30823257747_5bef04f12c_b_d.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Zosterops lateralis</t>
@@ -2678,8 +2714,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2706,24 +2746,22 @@
   </sheetPr>
   <dimension ref="A1:M384"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.4336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1173469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.25"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9132653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="63.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,7 +2801,7 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2804,7 +2842,7 @@
       <c r="L2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2845,7 +2883,7 @@
       <c r="L3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2886,7 +2924,7 @@
       <c r="L4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2924,7 +2962,7 @@
       <c r="K5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2962,7 +3000,7 @@
       <c r="K6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3000,7 +3038,7 @@
       <c r="L7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3038,7 +3076,7 @@
       <c r="K8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3076,7 +3114,7 @@
       <c r="K9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3117,7 +3155,7 @@
       <c r="L10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3155,7 +3193,7 @@
       <c r="K11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3193,7 +3231,7 @@
       <c r="K12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3231,7 +3269,7 @@
       <c r="L13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3269,7 +3307,7 @@
       <c r="L14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3307,7 +3345,7 @@
       <c r="K15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3348,7 +3386,7 @@
       <c r="L16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3389,7 +3427,7 @@
       <c r="L17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3424,7 +3462,7 @@
       <c r="K18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3462,7 +3500,7 @@
       <c r="K19" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3500,7 +3538,7 @@
       <c r="K20" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3538,7 +3576,7 @@
       <c r="K21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3576,7 +3614,7 @@
       <c r="K22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3614,7 +3652,7 @@
       <c r="K23" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3652,7 +3690,7 @@
       <c r="K24" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3693,7 +3731,7 @@
       <c r="L25" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3734,7 +3772,7 @@
       <c r="L26" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3775,7 +3813,7 @@
       <c r="L27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3813,7 +3851,7 @@
       <c r="K28" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3854,7 +3892,7 @@
       <c r="L29" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3895,7 +3933,7 @@
       <c r="L30" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3933,7 +3971,7 @@
       <c r="L31" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3971,7 +4009,7 @@
       <c r="K32" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4009,7 +4047,7 @@
       <c r="K33" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4050,7 +4088,7 @@
       <c r="L34" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4088,7 +4126,7 @@
       <c r="K35" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4123,7 +4161,7 @@
       <c r="K36" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4164,7 +4202,7 @@
       <c r="L37" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4202,7 +4240,7 @@
       <c r="K38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4243,7 +4281,7 @@
       <c r="L39" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4281,7 +4319,7 @@
       <c r="K40" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4322,7 +4360,7 @@
       <c r="L41" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4360,7 +4398,7 @@
       <c r="K42" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4398,7 +4436,7 @@
       <c r="K43" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4436,7 +4474,7 @@
       <c r="K44" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4477,7 +4515,7 @@
       <c r="L45" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4515,7 +4553,7 @@
       <c r="K46" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4556,7 +4594,7 @@
       <c r="L47" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4594,7 +4632,7 @@
       <c r="K48" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4632,7 +4670,7 @@
       <c r="K49" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4670,7 +4708,7 @@
       <c r="K50" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4708,7 +4746,7 @@
       <c r="K51" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4746,7 +4784,7 @@
       <c r="K52" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4784,7 +4822,7 @@
       <c r="K53" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4819,7 +4857,7 @@
       <c r="K54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4857,7 +4895,7 @@
       <c r="K55" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4895,7 +4933,7 @@
       <c r="K56" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4933,7 +4971,7 @@
       <c r="K57" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4968,7 +5006,7 @@
       <c r="K58" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5009,7 +5047,7 @@
       <c r="L59" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5047,7 +5085,7 @@
       <c r="K60" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5085,7 +5123,7 @@
       <c r="K61" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5123,7 +5161,7 @@
       <c r="K62" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5161,7 +5199,7 @@
       <c r="K63" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5196,7 +5234,7 @@
       <c r="K64" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5234,7 +5272,7 @@
       <c r="K65" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5272,7 +5310,7 @@
       <c r="K66" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5313,7 +5351,7 @@
       <c r="L67" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5351,7 +5389,7 @@
       <c r="K68" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5386,7 +5424,7 @@
       <c r="K69" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5424,7 +5462,7 @@
       <c r="K70" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5462,7 +5500,7 @@
       <c r="K71" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5503,7 +5541,7 @@
       <c r="L72" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5544,7 +5582,7 @@
       <c r="L73" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5582,7 +5620,7 @@
       <c r="K74" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5620,7 +5658,7 @@
       <c r="K75" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5658,7 +5696,7 @@
       <c r="K76" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5696,7 +5734,7 @@
       <c r="K77" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5734,7 +5772,7 @@
       <c r="K78" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5772,7 +5810,7 @@
       <c r="K79" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5810,7 +5848,7 @@
       <c r="K80" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5845,7 +5883,7 @@
       <c r="K81" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5883,7 +5921,7 @@
       <c r="K82" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5924,7 +5962,7 @@
       <c r="L83" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5959,7 +5997,7 @@
       <c r="K84" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6000,7 +6038,7 @@
       <c r="L85" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6038,7 +6076,7 @@
       <c r="K86" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6073,7 +6111,7 @@
       <c r="K87" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6111,7 +6149,7 @@
       <c r="K88" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6149,7 +6187,7 @@
       <c r="K89" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6187,7 +6225,7 @@
       <c r="K90" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6225,7 +6263,7 @@
       <c r="K91" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6263,7 +6301,7 @@
       <c r="K92" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6301,7 +6339,7 @@
       <c r="K93" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6339,7 +6377,7 @@
       <c r="K94" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6377,7 +6415,7 @@
       <c r="K95" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6418,7 +6456,7 @@
       <c r="L96" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6459,7 +6497,7 @@
       <c r="L97" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M97" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6494,7 +6532,7 @@
       <c r="K98" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6532,7 +6570,10 @@
       <c r="K99" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="L99" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6541,10 +6582,10 @@
         <v>350</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>15</v>
@@ -6567,7 +6608,7 @@
       <c r="K100" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6576,10 +6617,10 @@
         <v>351</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>15</v>
@@ -6605,7 +6646,7 @@
       <c r="K101" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6614,10 +6655,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>179</v>
@@ -6640,7 +6681,7 @@
       <c r="K102" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M102" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6649,10 +6690,10 @@
         <v>360</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>15</v>
@@ -6678,7 +6719,7 @@
       <c r="K103" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="M103" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6687,10 +6728,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>15</v>
@@ -6716,7 +6757,7 @@
       <c r="K104" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="M104" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6725,10 +6766,10 @@
         <v>366</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>15</v>
@@ -6754,7 +6795,10 @@
       <c r="K105" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="L105" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6763,10 +6807,10 @@
         <v>367</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>15</v>
@@ -6792,7 +6836,7 @@
       <c r="K106" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="M106" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6801,16 +6845,16 @@
         <v>369</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>17</v>
@@ -6827,7 +6871,7 @@
       <c r="K107" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6836,10 +6880,10 @@
         <v>370</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>15</v>
@@ -6862,7 +6906,7 @@
       <c r="K108" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="M108" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6871,10 +6915,10 @@
         <v>371</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>15</v>
@@ -6900,7 +6944,7 @@
       <c r="K109" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="M109" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6909,10 +6953,10 @@
         <v>373</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>15</v>
@@ -6938,7 +6982,7 @@
       <c r="K110" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="M110" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6947,10 +6991,10 @@
         <v>376</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>15</v>
@@ -6976,7 +7020,7 @@
       <c r="K111" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="M111" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6985,10 +7029,10 @@
         <v>377</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>15</v>
@@ -7014,7 +7058,7 @@
       <c r="K112" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="M112" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7023,16 +7067,16 @@
         <v>382</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>138</v>
@@ -7052,7 +7096,7 @@
       <c r="K113" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="M113" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7061,10 +7105,10 @@
         <v>384</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>15</v>
@@ -7090,7 +7134,7 @@
       <c r="K114" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="M114" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7099,10 +7143,10 @@
         <v>385</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>15</v>
@@ -7125,7 +7169,7 @@
       <c r="K115" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="M115" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7134,16 +7178,16 @@
         <v>390</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>17</v>
@@ -7160,7 +7204,7 @@
       <c r="K116" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="M116" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7169,16 +7213,16 @@
         <v>392</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>17</v>
@@ -7190,9 +7234,9 @@
         <v>1700</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M117" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M117" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7201,10 +7245,10 @@
         <v>394</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>15</v>
@@ -7228,9 +7272,9 @@
         <v>1700</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M118" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M118" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7239,16 +7283,16 @@
         <v>395</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>17</v>
@@ -7266,9 +7310,9 @@
         <v>1700</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M119" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7277,16 +7321,16 @@
         <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>17</v>
@@ -7301,9 +7345,9 @@
         <v>1700</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M120" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7312,16 +7356,16 @@
         <v>400</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>17</v>
@@ -7336,9 +7380,9 @@
         <v>1700</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M121" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M121" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7347,16 +7391,16 @@
         <v>404</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>17</v>
@@ -7376,7 +7420,7 @@
       <c r="K122" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="M122" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7385,16 +7429,16 @@
         <v>411</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>17</v>
@@ -7411,7 +7455,7 @@
       <c r="K123" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="M123" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7420,16 +7464,16 @@
         <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>17</v>
@@ -7446,7 +7490,7 @@
       <c r="K124" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="M124" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7455,16 +7499,16 @@
         <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>17</v>
@@ -7481,7 +7525,7 @@
       <c r="K125" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="M125" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7490,16 +7534,16 @@
         <v>423</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>17</v>
@@ -7514,9 +7558,9 @@
         <v>1700</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M126" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7525,16 +7569,16 @@
         <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>17</v>
@@ -7552,9 +7596,9 @@
         <v>1700</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M127" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M127" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7563,10 +7607,10 @@
         <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>15</v>
@@ -7592,7 +7636,7 @@
       <c r="K128" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="M128" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7601,16 +7645,16 @@
         <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>17</v>
@@ -7630,7 +7674,7 @@
       <c r="K129" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="M129" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7639,16 +7683,16 @@
         <v>442</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>17</v>
@@ -7668,7 +7712,7 @@
       <c r="K130" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="M130" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7677,16 +7721,16 @@
         <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>17</v>
@@ -7706,7 +7750,7 @@
       <c r="K131" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="M131" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7715,10 +7759,10 @@
         <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>15</v>
@@ -7744,7 +7788,7 @@
       <c r="K132" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="M132" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7753,10 +7797,10 @@
         <v>446</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>15</v>
@@ -7782,7 +7826,7 @@
       <c r="K133" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="M133" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7791,16 +7835,16 @@
         <v>456</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>17</v>
@@ -7820,7 +7864,7 @@
       <c r="K134" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="M134" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7829,16 +7873,16 @@
         <v>463</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>17</v>
@@ -7856,12 +7900,12 @@
         <v>1700</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="M135" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M135" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7870,16 +7914,16 @@
         <v>465</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>17</v>
@@ -7891,9 +7935,9 @@
         <v>1700</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M136" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M136" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7902,16 +7946,16 @@
         <v>493</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>17</v>
@@ -7923,9 +7967,9 @@
         <v>1700</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M137" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M137" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7934,16 +7978,16 @@
         <v>497</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>17</v>
@@ -7955,9 +7999,9 @@
         <v>1700</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M138" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M138" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7966,16 +8010,16 @@
         <v>501</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>205</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>138</v>
@@ -7990,9 +8034,9 @@
         <v>1700</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M139" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M139" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8001,17 +8045,17 @@
         <v>517</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C140" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D140" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="F140" s="0" t="s">
         <v>17</v>
       </c>
@@ -8022,9 +8066,9 @@
         <v>1700</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M140" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8033,16 +8077,16 @@
         <v>519</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>205</v>
@@ -8054,9 +8098,9 @@
         <v>1700</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M141" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M141" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8065,16 +8109,16 @@
         <v>534</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>17</v>
@@ -8086,9 +8130,9 @@
         <v>1700</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M142" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M142" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8097,16 +8141,16 @@
         <v>535</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>17</v>
@@ -8118,9 +8162,9 @@
         <v>1700</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M143" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M143" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8129,16 +8173,16 @@
         <v>537</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>17</v>
@@ -8150,9 +8194,9 @@
         <v>1700</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M144" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8161,16 +8205,16 @@
         <v>547</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>17</v>
@@ -8182,9 +8226,9 @@
         <v>1700</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M145" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M145" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8193,16 +8237,16 @@
         <v>548</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>138</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>17</v>
@@ -8217,9 +8261,9 @@
         <v>1700</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M146" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M146" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8228,16 +8272,16 @@
         <v>555</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>17</v>
@@ -8249,9 +8293,9 @@
         <v>1700</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M147" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M147" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8260,16 +8304,16 @@
         <v>563</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>17</v>
@@ -8281,9 +8325,9 @@
         <v>1700</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M148" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M148" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8292,16 +8336,16 @@
         <v>564</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>138</v>
@@ -8319,9 +8363,9 @@
         <v>1700</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M149" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M149" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8330,10 +8374,10 @@
         <v>582</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>15</v>
@@ -8357,9 +8401,9 @@
         <v>1700</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M150" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M150" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8368,16 +8412,16 @@
         <v>584</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F151" s="0" t="s">
         <v>17</v>
@@ -8389,9 +8433,9 @@
         <v>1700</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M151" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M151" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8400,10 +8444,10 @@
         <v>587</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>179</v>
@@ -8421,9 +8465,9 @@
         <v>1700</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M152" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8432,16 +8476,16 @@
         <v>589</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>17</v>
@@ -8456,9 +8500,9 @@
         <v>1700</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M153" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M153" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8467,16 +8511,16 @@
         <v>590</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>205</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>17</v>
@@ -8494,9 +8538,9 @@
         <v>1700</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M154" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M154" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8505,10 +8549,10 @@
         <v>591</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>179</v>
@@ -8534,7 +8578,7 @@
       <c r="K155" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M155" s="1" t="s">
+      <c r="M155" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8543,16 +8587,16 @@
         <v>611</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>17</v>
@@ -8573,9 +8617,9 @@
         <v>19</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="M156" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M156" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8584,10 +8628,10 @@
         <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>15</v>
@@ -8613,7 +8657,7 @@
       <c r="K157" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M157" s="1" t="s">
+      <c r="M157" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8622,10 +8666,10 @@
         <v>615</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>15</v>
@@ -8651,7 +8695,7 @@
       <c r="K158" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="M158" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8660,16 +8704,16 @@
         <v>619</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>17</v>
@@ -8689,7 +8733,7 @@
       <c r="K159" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="M159" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8698,10 +8742,10 @@
         <v>627</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>15</v>
@@ -8727,7 +8771,7 @@
       <c r="K160" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="M160" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8736,16 +8780,16 @@
         <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>17</v>
@@ -8765,7 +8809,7 @@
       <c r="K161" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="M161" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8774,10 +8818,10 @@
         <v>636</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>15</v>
@@ -8804,9 +8848,9 @@
         <v>19</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="M162" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8815,16 +8859,16 @@
         <v>640</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>17</v>
@@ -8844,7 +8888,7 @@
       <c r="K163" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M163" s="1" t="s">
+      <c r="M163" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8853,16 +8897,16 @@
         <v>645</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>17</v>
@@ -8882,7 +8926,7 @@
       <c r="K164" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="M164" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8891,10 +8935,10 @@
         <v>647</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>15</v>
@@ -8920,7 +8964,7 @@
       <c r="K165" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="M165" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8929,16 +8973,16 @@
         <v>650</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>17</v>
@@ -8959,9 +9003,9 @@
         <v>19</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="M166" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M166" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8970,10 +9014,10 @@
         <v>651</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>15</v>
@@ -8999,7 +9043,7 @@
       <c r="K167" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M167" s="1" t="s">
+      <c r="M167" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9008,16 +9052,16 @@
         <v>656</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>17</v>
@@ -9037,7 +9081,10 @@
       <c r="K168" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="L168" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="M168" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9046,16 +9093,16 @@
         <v>658</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>17</v>
@@ -9076,9 +9123,9 @@
         <v>19</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="M169" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M169" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9087,10 +9134,10 @@
         <v>659</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>15</v>
@@ -9116,7 +9163,7 @@
       <c r="K170" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M170" s="1" t="s">
+      <c r="M170" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9125,10 +9172,10 @@
         <v>660</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>15</v>
@@ -9154,7 +9201,10 @@
       <c r="K171" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="L171" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="M171" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9163,10 +9213,10 @@
         <v>661</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>15</v>
@@ -9192,7 +9242,7 @@
       <c r="K172" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="M172" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9201,10 +9251,10 @@
         <v>662</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>15</v>
@@ -9225,9 +9275,9 @@
         <v>1700</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M173" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M173" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9236,16 +9286,16 @@
         <v>663</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>17</v>
@@ -9263,9 +9313,9 @@
         <v>1700</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M174" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M174" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9274,16 +9324,16 @@
         <v>669</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>17</v>
@@ -9301,9 +9351,9 @@
         <v>1700</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M175" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M175" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9312,10 +9362,10 @@
         <v>670</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>15</v>
@@ -9336,9 +9386,9 @@
         <v>1700</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M176" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M176" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9347,16 +9397,16 @@
         <v>672</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>17</v>
@@ -9374,9 +9424,9 @@
         <v>1700</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="M177" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M177" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9385,10 +9435,10 @@
         <v>674</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>15</v>
@@ -9414,7 +9464,7 @@
       <c r="K178" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="M178" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9423,10 +9473,10 @@
         <v>677</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>15</v>
@@ -9452,7 +9502,7 @@
       <c r="K179" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M179" s="1" t="s">
+      <c r="M179" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9461,10 +9511,10 @@
         <v>682</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>15</v>
@@ -9490,7 +9540,7 @@
       <c r="K180" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M180" s="1" t="s">
+      <c r="M180" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9499,10 +9549,10 @@
         <v>684</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>15</v>
@@ -9528,7 +9578,7 @@
       <c r="K181" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="M181" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9537,10 +9587,10 @@
         <v>686</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>15</v>
@@ -9566,7 +9616,10 @@
       <c r="K182" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="L182" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="M182" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9575,10 +9628,10 @@
         <v>688</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>15</v>
@@ -9604,7 +9657,7 @@
       <c r="K183" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M183" s="1" t="s">
+      <c r="M183" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9613,10 +9666,10 @@
         <v>690</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>15</v>
@@ -9642,7 +9695,7 @@
       <c r="K184" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M184" s="1" t="s">
+      <c r="M184" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9651,10 +9704,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>15</v>
@@ -9677,7 +9730,7 @@
       <c r="K185" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M185" s="1" t="s">
+      <c r="M185" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9686,10 +9739,10 @@
         <v>697</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>15</v>
@@ -9715,7 +9768,7 @@
       <c r="K186" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M186" s="1" t="s">
+      <c r="M186" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9724,10 +9777,10 @@
         <v>698</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>15</v>
@@ -9753,7 +9806,7 @@
       <c r="K187" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="M187" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9762,10 +9815,10 @@
         <v>699</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>15</v>
@@ -9791,7 +9844,7 @@
       <c r="K188" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M188" s="1" t="s">
+      <c r="M188" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9800,10 +9853,10 @@
         <v>702</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>15</v>
@@ -9829,7 +9882,7 @@
       <c r="K189" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M189" s="1" t="s">
+      <c r="M189" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9838,16 +9891,16 @@
         <v>705</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>17</v>
@@ -9867,7 +9920,7 @@
       <c r="K190" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M190" s="1" t="s">
+      <c r="M190" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9876,10 +9929,10 @@
         <v>706</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>15</v>
@@ -9905,7 +9958,7 @@
       <c r="K191" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="M191" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9914,10 +9967,10 @@
         <v>707</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>15</v>
@@ -9943,7 +9996,7 @@
       <c r="K192" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="M192" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9952,16 +10005,16 @@
         <v>708</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>17</v>
@@ -9981,7 +10034,7 @@
       <c r="K193" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="M193" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9990,10 +10043,10 @@
         <v>710</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>15</v>
@@ -10019,7 +10072,7 @@
       <c r="K194" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M194" s="1" t="s">
+      <c r="M194" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10028,16 +10081,16 @@
         <v>717</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>17</v>
@@ -10057,7 +10110,7 @@
       <c r="K195" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M195" s="1" t="s">
+      <c r="M195" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10066,16 +10119,16 @@
         <v>720</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>17</v>
@@ -10095,7 +10148,7 @@
       <c r="K196" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M196" s="1" t="s">
+      <c r="M196" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10104,16 +10157,16 @@
         <v>721</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F197" s="0" t="s">
         <v>17</v>
@@ -10133,7 +10186,7 @@
       <c r="K197" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M197" s="1" t="s">
+      <c r="M197" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10142,10 +10195,10 @@
         <v>722</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>15</v>
@@ -10171,7 +10224,7 @@
       <c r="K198" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M198" s="1" t="s">
+      <c r="M198" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10180,10 +10233,10 @@
         <v>724</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>15</v>
@@ -10209,7 +10262,7 @@
       <c r="K199" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M199" s="1" t="s">
+      <c r="M199" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10218,10 +10271,10 @@
         <v>726</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>15</v>
@@ -10247,7 +10300,7 @@
       <c r="K200" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="M200" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10256,10 +10309,10 @@
         <v>728</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>15</v>
@@ -10285,7 +10338,7 @@
       <c r="K201" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M201" s="1" t="s">
+      <c r="M201" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10294,10 +10347,10 @@
         <v>730</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>15</v>
@@ -10323,7 +10376,7 @@
       <c r="K202" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M202" s="1" t="s">
+      <c r="M202" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10332,10 +10385,10 @@
         <v>735</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>15</v>
@@ -10361,7 +10414,7 @@
       <c r="K203" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M203" s="1" t="s">
+      <c r="M203" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10370,10 +10423,10 @@
         <v>741</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>15</v>
@@ -10399,7 +10452,7 @@
       <c r="K204" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M204" s="1" t="s">
+      <c r="M204" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10408,16 +10461,16 @@
         <v>742</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>17</v>
@@ -10437,7 +10490,7 @@
       <c r="K205" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M205" s="1" t="s">
+      <c r="M205" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10446,16 +10499,16 @@
         <v>746</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>17</v>
@@ -10475,7 +10528,7 @@
       <c r="K206" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M206" s="1" t="s">
+      <c r="M206" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10484,16 +10537,16 @@
         <v>764</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>17</v>
@@ -10513,7 +10566,7 @@
       <c r="K207" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M207" s="1" t="s">
+      <c r="M207" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10522,10 +10575,10 @@
         <v>765</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>15</v>
@@ -10551,7 +10604,7 @@
       <c r="K208" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M208" s="1" t="s">
+      <c r="M208" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10560,16 +10613,16 @@
         <v>773</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>17</v>
@@ -10589,7 +10642,10 @@
       <c r="K209" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M209" s="1" t="s">
+      <c r="L209" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="M209" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10598,10 +10654,10 @@
         <v>782</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>15</v>
@@ -10627,7 +10683,10 @@
       <c r="K210" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M210" s="1" t="s">
+      <c r="L210" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="M210" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10636,16 +10695,16 @@
         <v>785</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>17</v>
@@ -10665,7 +10724,7 @@
       <c r="K211" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M211" s="1" t="s">
+      <c r="M211" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10674,10 +10733,10 @@
         <v>789</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>15</v>
@@ -10703,7 +10762,7 @@
       <c r="K212" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M212" s="1" t="s">
+      <c r="M212" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10712,10 +10771,10 @@
         <v>793</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>15</v>
@@ -10741,7 +10800,7 @@
       <c r="K213" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M213" s="1" t="s">
+      <c r="M213" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10750,10 +10809,10 @@
         <v>797</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>15</v>
@@ -10776,7 +10835,7 @@
       <c r="K214" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="M214" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10785,16 +10844,16 @@
         <v>800</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>17</v>
@@ -10814,7 +10873,7 @@
       <c r="K215" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M215" s="1" t="s">
+      <c r="M215" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10823,10 +10882,10 @@
         <v>803</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>15</v>
@@ -10852,7 +10911,7 @@
       <c r="K216" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M216" s="1" t="s">
+      <c r="M216" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10861,10 +10920,10 @@
         <v>807</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>15</v>
@@ -10890,7 +10949,7 @@
       <c r="K217" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M217" s="1" t="s">
+      <c r="M217" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10899,10 +10958,10 @@
         <v>810</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>15</v>
@@ -10928,7 +10987,7 @@
       <c r="K218" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M218" s="1" t="s">
+      <c r="M218" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10937,10 +10996,10 @@
         <v>813</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>15</v>
@@ -10966,7 +11025,7 @@
       <c r="K219" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M219" s="1" t="s">
+      <c r="M219" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10975,10 +11034,10 @@
         <v>814</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>15</v>
@@ -11004,7 +11063,7 @@
       <c r="K220" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M220" s="1" t="s">
+      <c r="M220" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11013,10 +11072,10 @@
         <v>818</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>15</v>
@@ -11042,7 +11101,7 @@
       <c r="K221" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M221" s="1" t="s">
+      <c r="M221" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11051,10 +11110,10 @@
         <v>819</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>15</v>
@@ -11080,7 +11139,7 @@
       <c r="K222" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M222" s="1" t="s">
+      <c r="M222" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11089,10 +11148,10 @@
         <v>825</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>15</v>
@@ -11118,7 +11177,7 @@
       <c r="K223" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M223" s="1" t="s">
+      <c r="M223" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11127,10 +11186,10 @@
         <v>829</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>15</v>
@@ -11156,7 +11215,7 @@
       <c r="K224" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M224" s="1" t="s">
+      <c r="M224" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11165,10 +11224,10 @@
         <v>838</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>15</v>
@@ -11194,7 +11253,7 @@
       <c r="K225" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M225" s="1" t="s">
+      <c r="M225" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11203,10 +11262,10 @@
         <v>842</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>15</v>
@@ -11232,7 +11291,7 @@
       <c r="K226" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M226" s="1" t="s">
+      <c r="M226" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11241,10 +11300,10 @@
         <v>845</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>15</v>
@@ -11270,7 +11329,7 @@
       <c r="K227" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M227" s="1" t="s">
+      <c r="M227" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11279,10 +11338,10 @@
         <v>849</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>15</v>
@@ -11309,9 +11368,9 @@
         <v>19</v>
       </c>
       <c r="L228" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="M228" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="M228" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11320,10 +11379,10 @@
         <v>853</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>15</v>
@@ -11349,7 +11408,10 @@
       <c r="K229" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M229" s="1" t="s">
+      <c r="L229" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="M229" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11358,10 +11420,10 @@
         <v>861</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>15</v>
@@ -11387,7 +11449,7 @@
       <c r="K230" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M230" s="1" t="s">
+      <c r="M230" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11396,10 +11458,10 @@
         <v>864</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>15</v>
@@ -11425,7 +11487,7 @@
       <c r="K231" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M231" s="1" t="s">
+      <c r="M231" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11434,10 +11496,10 @@
         <v>871</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>15</v>
@@ -11463,7 +11525,7 @@
       <c r="K232" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M232" s="1" t="s">
+      <c r="M232" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11472,10 +11534,10 @@
         <v>887</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>15</v>
@@ -11501,7 +11563,7 @@
       <c r="K233" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M233" s="1" t="s">
+      <c r="M233" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11510,10 +11572,10 @@
         <v>898</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>15</v>
@@ -11539,7 +11601,7 @@
       <c r="K234" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M234" s="1" t="s">
+      <c r="M234" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11548,16 +11610,16 @@
         <v>901</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>205</v>
@@ -11574,7 +11636,7 @@
       <c r="K235" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M235" s="1" t="s">
+      <c r="M235" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11583,10 +11645,10 @@
         <v>914</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>15</v>
@@ -11612,7 +11674,7 @@
       <c r="K236" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M236" s="1" t="s">
+      <c r="M236" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11621,10 +11683,10 @@
         <v>933</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>15</v>
@@ -11650,7 +11712,7 @@
       <c r="K237" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M237" s="1" t="s">
+      <c r="M237" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11659,10 +11721,10 @@
         <v>935</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>15</v>
@@ -11688,7 +11750,7 @@
       <c r="K238" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M238" s="1" t="s">
+      <c r="M238" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11697,10 +11759,10 @@
         <v>938</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>15</v>
@@ -11726,7 +11788,7 @@
       <c r="K239" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M239" s="1" t="s">
+      <c r="M239" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11735,10 +11797,10 @@
         <v>943</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>15</v>
@@ -11764,7 +11826,7 @@
       <c r="K240" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M240" s="1" t="s">
+      <c r="M240" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11773,16 +11835,16 @@
         <v>948</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>17</v>
@@ -11802,7 +11864,7 @@
       <c r="K241" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M241" s="1" t="s">
+      <c r="M241" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11811,10 +11873,10 @@
         <v>961</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>15</v>
@@ -11840,7 +11902,7 @@
       <c r="K242" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M242" s="1" t="s">
+      <c r="M242" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11849,10 +11911,10 @@
         <v>980</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>15</v>
@@ -11878,7 +11940,7 @@
       <c r="K243" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M243" s="1" t="s">
+      <c r="M243" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11887,10 +11949,10 @@
         <v>983</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>15</v>
@@ -11916,7 +11978,7 @@
       <c r="K244" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M244" s="1" t="s">
+      <c r="M244" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11925,10 +11987,10 @@
         <v>984</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>15</v>
@@ -11954,7 +12016,7 @@
       <c r="K245" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M245" s="1" t="s">
+      <c r="M245" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11963,10 +12025,10 @@
         <v>995</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>15</v>
@@ -11992,7 +12054,7 @@
       <c r="K246" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M246" s="1" t="s">
+      <c r="M246" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12001,10 +12063,10 @@
         <v>1001</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>15</v>
@@ -12027,7 +12089,7 @@
       <c r="K247" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M247" s="1" t="s">
+      <c r="M247" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12036,10 +12098,10 @@
         <v>1006</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>15</v>
@@ -12065,7 +12127,7 @@
       <c r="K248" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M248" s="1" t="s">
+      <c r="M248" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12074,10 +12136,10 @@
         <v>1019</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>15</v>
@@ -12103,7 +12165,7 @@
       <c r="K249" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="M249" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12112,10 +12174,10 @@
         <v>1025</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>15</v>
@@ -12141,7 +12203,7 @@
       <c r="K250" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M250" s="1" t="s">
+      <c r="M250" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12150,10 +12212,10 @@
         <v>1037</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>15</v>
@@ -12179,7 +12241,7 @@
       <c r="K251" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M251" s="1" t="s">
+      <c r="M251" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12188,10 +12250,10 @@
         <v>1094</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>15</v>
@@ -12217,7 +12279,7 @@
       <c r="K252" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M252" s="1" t="s">
+      <c r="M252" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12226,16 +12288,16 @@
         <v>1101</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>138</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>138</v>
@@ -12255,7 +12317,7 @@
       <c r="K253" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M253" s="1" t="s">
+      <c r="M253" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12264,10 +12326,10 @@
         <v>1103</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>15</v>
@@ -12293,7 +12355,7 @@
       <c r="K254" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M254" s="1" t="s">
+      <c r="M254" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12302,10 +12364,10 @@
         <v>1104</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>15</v>
@@ -12331,7 +12393,7 @@
       <c r="K255" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M255" s="1" t="s">
+      <c r="M255" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12340,10 +12402,10 @@
         <v>1116</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>15</v>
@@ -12369,7 +12431,7 @@
       <c r="K256" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M256" s="1" t="s">
+      <c r="M256" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12378,10 +12440,10 @@
         <v>1119</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>15</v>
@@ -12407,7 +12469,7 @@
       <c r="K257" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M257" s="1" t="s">
+      <c r="M257" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12416,10 +12478,10 @@
         <v>1123</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>15</v>
@@ -12445,7 +12507,7 @@
       <c r="K258" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M258" s="1" t="s">
+      <c r="M258" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12454,10 +12516,10 @@
         <v>1131</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>15</v>
@@ -12483,7 +12545,7 @@
       <c r="K259" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M259" s="1" t="s">
+      <c r="M259" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12492,10 +12554,10 @@
         <v>1137</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>15</v>
@@ -12521,7 +12583,7 @@
       <c r="K260" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M260" s="1" t="s">
+      <c r="M260" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12530,10 +12592,10 @@
         <v>1145</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>15</v>
@@ -12559,7 +12621,7 @@
       <c r="K261" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M261" s="1" t="s">
+      <c r="M261" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12568,10 +12630,10 @@
         <v>1149</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>15</v>
@@ -12597,7 +12659,7 @@
       <c r="K262" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M262" s="1" t="s">
+      <c r="M262" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12606,10 +12668,10 @@
         <v>1153</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>15</v>
@@ -12635,7 +12697,7 @@
       <c r="K263" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M263" s="1" t="s">
+      <c r="M263" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12644,10 +12706,10 @@
         <v>1159</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>15</v>
@@ -12673,7 +12735,7 @@
       <c r="K264" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M264" s="1" t="s">
+      <c r="M264" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12682,10 +12744,10 @@
         <v>1162</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>15</v>
@@ -12711,7 +12773,7 @@
       <c r="K265" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M265" s="1" t="s">
+      <c r="M265" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12720,10 +12782,10 @@
         <v>1171</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>15</v>
@@ -12749,7 +12811,7 @@
       <c r="K266" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M266" s="1" t="s">
+      <c r="M266" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12758,10 +12820,10 @@
         <v>1195</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>15</v>
@@ -12787,7 +12849,7 @@
       <c r="K267" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M267" s="1" t="s">
+      <c r="M267" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12796,10 +12858,10 @@
         <v>1208</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>15</v>
@@ -12825,7 +12887,7 @@
       <c r="K268" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M268" s="1" t="s">
+      <c r="M268" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12834,16 +12896,16 @@
         <v>1210</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>205</v>
@@ -12863,7 +12925,7 @@
       <c r="K269" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M269" s="1" t="s">
+      <c r="M269" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12872,10 +12934,10 @@
         <v>1214</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>15</v>
@@ -12901,7 +12963,7 @@
       <c r="K270" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M270" s="1" t="s">
+      <c r="M270" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12910,10 +12972,10 @@
         <v>1215</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>15</v>
@@ -12939,7 +13001,7 @@
       <c r="K271" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M271" s="1" t="s">
+      <c r="M271" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12948,10 +13010,10 @@
         <v>1231</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>15</v>
@@ -12977,7 +13039,7 @@
       <c r="K272" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M272" s="1" t="s">
+      <c r="M272" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12986,10 +13048,10 @@
         <v>1238</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>15</v>
@@ -13015,7 +13077,7 @@
       <c r="K273" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M273" s="1" t="s">
+      <c r="M273" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13024,10 +13086,10 @@
         <v>1249</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>15</v>
@@ -13053,7 +13115,7 @@
       <c r="K274" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M274" s="1" t="s">
+      <c r="M274" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13062,10 +13124,10 @@
         <v>1250</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>15</v>
@@ -13091,7 +13153,7 @@
       <c r="K275" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M275" s="1" t="s">
+      <c r="M275" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13100,10 +13162,10 @@
         <v>1261</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>15</v>
@@ -13129,7 +13191,7 @@
       <c r="K276" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M276" s="1" t="s">
+      <c r="M276" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13138,10 +13200,10 @@
         <v>1262</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>15</v>
@@ -13167,7 +13229,7 @@
       <c r="K277" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M277" s="1" t="s">
+      <c r="M277" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13176,10 +13238,10 @@
         <v>1274</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>15</v>
@@ -13205,7 +13267,7 @@
       <c r="K278" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M278" s="1" t="s">
+      <c r="M278" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13214,10 +13276,10 @@
         <v>1282</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>15</v>
@@ -13243,7 +13305,7 @@
       <c r="K279" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M279" s="1" t="s">
+      <c r="M279" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13252,10 +13314,10 @@
         <v>1290</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>15</v>
@@ -13281,7 +13343,7 @@
       <c r="K280" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M280" s="1" t="s">
+      <c r="M280" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13290,10 +13352,10 @@
         <v>1300</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>15</v>
@@ -13319,7 +13381,10 @@
       <c r="K281" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M281" s="1" t="s">
+      <c r="L281" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="M281" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13328,10 +13393,10 @@
         <v>1313</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>15</v>
@@ -13357,7 +13422,7 @@
       <c r="K282" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M282" s="1" t="s">
+      <c r="M282" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13366,10 +13431,10 @@
         <v>1321</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>15</v>
@@ -13395,7 +13460,7 @@
       <c r="K283" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M283" s="1" t="s">
+      <c r="M283" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13404,10 +13469,10 @@
         <v>1330</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>15</v>
@@ -13433,7 +13498,7 @@
       <c r="K284" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M284" s="1" t="s">
+      <c r="M284" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13442,10 +13507,10 @@
         <v>1355</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>15</v>
@@ -13472,9 +13537,9 @@
         <v>19</v>
       </c>
       <c r="L285" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="M285" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M285" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13483,10 +13548,10 @@
         <v>1360</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>15</v>
@@ -13512,7 +13577,7 @@
       <c r="K286" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M286" s="1" t="s">
+      <c r="M286" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13521,10 +13586,10 @@
         <v>1374</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>15</v>
@@ -13551,9 +13616,9 @@
         <v>19</v>
       </c>
       <c r="L287" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="M287" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M287" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13562,10 +13627,10 @@
         <v>1389</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>15</v>
@@ -13591,7 +13656,7 @@
       <c r="K288" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M288" s="1" t="s">
+      <c r="M288" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13600,10 +13665,10 @@
         <v>1394</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>15</v>
@@ -13629,7 +13694,7 @@
       <c r="K289" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M289" s="1" t="s">
+      <c r="M289" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13638,10 +13703,10 @@
         <v>1398</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>15</v>
@@ -13667,7 +13732,7 @@
       <c r="K290" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M290" s="1" t="s">
+      <c r="M290" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13676,10 +13741,10 @@
         <v>1411</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>15</v>
@@ -13705,7 +13770,7 @@
       <c r="K291" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M291" s="1" t="s">
+      <c r="M291" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13714,10 +13779,10 @@
         <v>1424</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>15</v>
@@ -13743,7 +13808,7 @@
       <c r="K292" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M292" s="1" t="s">
+      <c r="M292" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13752,10 +13817,10 @@
         <v>1430</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>15</v>
@@ -13781,7 +13846,7 @@
       <c r="K293" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M293" s="1" t="s">
+      <c r="M293" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13790,10 +13855,10 @@
         <v>1434</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>15</v>
@@ -13819,7 +13884,7 @@
       <c r="K294" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M294" s="1" t="s">
+      <c r="M294" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13828,10 +13893,10 @@
         <v>1444</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>15</v>
@@ -13854,7 +13919,7 @@
       <c r="K295" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M295" s="1" t="s">
+      <c r="M295" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13863,10 +13928,10 @@
         <v>1450</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>15</v>
@@ -13892,7 +13957,7 @@
       <c r="K296" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M296" s="1" t="s">
+      <c r="M296" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13901,16 +13966,16 @@
         <v>1451</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F297" s="0" t="s">
         <v>17</v>
@@ -13930,7 +13995,7 @@
       <c r="K297" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M297" s="1" t="s">
+      <c r="M297" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13939,16 +14004,16 @@
         <v>1453</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F298" s="0" t="s">
         <v>17</v>
@@ -13968,7 +14033,7 @@
       <c r="K298" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M298" s="1" t="s">
+      <c r="M298" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13977,16 +14042,16 @@
         <v>1457</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F299" s="0" t="s">
         <v>17</v>
@@ -14006,7 +14071,7 @@
       <c r="K299" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M299" s="1" t="s">
+      <c r="M299" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14015,10 +14080,10 @@
         <v>1463</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>15</v>
@@ -14044,7 +14109,7 @@
       <c r="K300" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M300" s="1" t="s">
+      <c r="M300" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14053,10 +14118,10 @@
         <v>1466</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>15</v>
@@ -14082,7 +14147,7 @@
       <c r="K301" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M301" s="1" t="s">
+      <c r="M301" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14091,10 +14156,10 @@
         <v>1469</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>15</v>
@@ -14120,7 +14185,7 @@
       <c r="K302" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M302" s="1" t="s">
+      <c r="M302" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14129,10 +14194,10 @@
         <v>1474</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>15</v>
@@ -14158,7 +14223,7 @@
       <c r="K303" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M303" s="1" t="s">
+      <c r="M303" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14167,10 +14232,10 @@
         <v>1500</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>15</v>
@@ -14197,9 +14262,9 @@
         <v>19</v>
       </c>
       <c r="L304" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="M304" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="M304" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14208,10 +14273,10 @@
         <v>1509</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>15</v>
@@ -14237,7 +14302,7 @@
       <c r="K305" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M305" s="1" t="s">
+      <c r="M305" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14246,10 +14311,10 @@
         <v>1520</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>15</v>
@@ -14275,7 +14340,7 @@
       <c r="K306" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M306" s="1" t="s">
+      <c r="M306" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14284,10 +14349,10 @@
         <v>1529</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>15</v>
@@ -14313,7 +14378,7 @@
       <c r="K307" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M307" s="1" t="s">
+      <c r="M307" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14322,10 +14387,10 @@
         <v>1536</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>15</v>
@@ -14351,7 +14416,7 @@
       <c r="K308" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M308" s="1" t="s">
+      <c r="M308" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14360,10 +14425,10 @@
         <v>1543</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>15</v>
@@ -14389,7 +14454,7 @@
       <c r="K309" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M309" s="1" t="s">
+      <c r="M309" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14398,10 +14463,10 @@
         <v>1553</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>15</v>
@@ -14427,7 +14492,7 @@
       <c r="K310" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M310" s="1" t="s">
+      <c r="M310" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14436,10 +14501,10 @@
         <v>1557</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>15</v>
@@ -14465,7 +14530,7 @@
       <c r="K311" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M311" s="1" t="s">
+      <c r="M311" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14474,10 +14539,10 @@
         <v>1573</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>15</v>
@@ -14503,7 +14568,7 @@
       <c r="K312" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M312" s="1" t="s">
+      <c r="M312" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14512,10 +14577,10 @@
         <v>1592</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>15</v>
@@ -14542,9 +14607,9 @@
         <v>19</v>
       </c>
       <c r="L313" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="M313" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M313" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14553,10 +14618,10 @@
         <v>1601</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>15</v>
@@ -14582,7 +14647,7 @@
       <c r="K314" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M314" s="1" t="s">
+      <c r="M314" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14591,10 +14656,10 @@
         <v>1604</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>15</v>
@@ -14620,7 +14685,7 @@
       <c r="K315" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M315" s="1" t="s">
+      <c r="M315" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14629,10 +14694,10 @@
         <v>1612</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>15</v>
@@ -14658,7 +14723,7 @@
       <c r="K316" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M316" s="1" t="s">
+      <c r="M316" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14667,10 +14732,10 @@
         <v>1613</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>15</v>
@@ -14696,7 +14761,7 @@
       <c r="K317" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M317" s="1" t="s">
+      <c r="M317" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14705,10 +14770,10 @@
         <v>1614</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>15</v>
@@ -14734,7 +14799,7 @@
       <c r="K318" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M318" s="1" t="s">
+      <c r="M318" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14743,10 +14808,10 @@
         <v>1617</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>15</v>
@@ -14758,7 +14823,7 @@
         <v>17</v>
       </c>
       <c r="G319" s="0" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="H319" s="0" t="s">
         <v>18</v>
@@ -14772,7 +14837,7 @@
       <c r="K319" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M319" s="1" t="s">
+      <c r="M319" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14781,10 +14846,10 @@
         <v>1622</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>15</v>
@@ -14810,7 +14875,7 @@
       <c r="K320" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M320" s="1" t="s">
+      <c r="M320" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14819,16 +14884,16 @@
         <v>1625</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F321" s="0" t="s">
         <v>17</v>
@@ -14848,7 +14913,7 @@
       <c r="K321" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M321" s="1" t="s">
+      <c r="M321" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14857,10 +14922,10 @@
         <v>1627</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>15</v>
@@ -14887,9 +14952,9 @@
         <v>19</v>
       </c>
       <c r="L322" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="M322" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="M322" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14898,10 +14963,10 @@
         <v>1635</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>15</v>
@@ -14927,7 +14992,7 @@
       <c r="K323" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M323" s="1" t="s">
+      <c r="M323" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14936,10 +15001,10 @@
         <v>1639</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>15</v>
@@ -14966,9 +15031,9 @@
         <v>19</v>
       </c>
       <c r="L324" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="M324" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M324" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14977,10 +15042,10 @@
         <v>1644</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>15</v>
@@ -15006,7 +15071,7 @@
       <c r="K325" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M325" s="1" t="s">
+      <c r="M325" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15015,10 +15080,10 @@
         <v>1656</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>15</v>
@@ -15041,7 +15106,7 @@
       <c r="K326" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M326" s="1" t="s">
+      <c r="M326" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15050,10 +15115,10 @@
         <v>1664</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>15</v>
@@ -15079,7 +15144,7 @@
       <c r="K327" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M327" s="1" t="s">
+      <c r="M327" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15088,10 +15153,10 @@
         <v>1669</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>15</v>
@@ -15117,7 +15182,7 @@
       <c r="K328" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M328" s="1" t="s">
+      <c r="M328" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15126,10 +15191,10 @@
         <v>1677</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>15</v>
@@ -15155,7 +15220,7 @@
       <c r="K329" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M329" s="1" t="s">
+      <c r="M329" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15164,10 +15229,10 @@
         <v>1678</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>15</v>
@@ -15193,7 +15258,7 @@
       <c r="K330" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M330" s="1" t="s">
+      <c r="M330" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15202,16 +15267,16 @@
         <v>1681</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F331" s="0" t="s">
         <v>17</v>
@@ -15231,7 +15296,7 @@
       <c r="K331" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M331" s="1" t="s">
+      <c r="M331" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15240,10 +15305,10 @@
         <v>1689</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>15</v>
@@ -15269,7 +15334,7 @@
       <c r="K332" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M332" s="1" t="s">
+      <c r="M332" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15278,10 +15343,10 @@
         <v>1692</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>15</v>
@@ -15307,7 +15372,7 @@
       <c r="K333" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M333" s="1" t="s">
+      <c r="M333" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15316,10 +15381,10 @@
         <v>1696</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>15</v>
@@ -15345,7 +15410,7 @@
       <c r="K334" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M334" s="1" t="s">
+      <c r="M334" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15354,10 +15419,10 @@
         <v>1701</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>15</v>
@@ -15383,7 +15448,7 @@
       <c r="K335" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M335" s="1" t="s">
+      <c r="M335" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15392,10 +15457,10 @@
         <v>1705</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>15</v>
@@ -15421,7 +15486,7 @@
       <c r="K336" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M336" s="1" t="s">
+      <c r="M336" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15430,10 +15495,10 @@
         <v>1711</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>15</v>
@@ -15460,9 +15525,9 @@
         <v>19</v>
       </c>
       <c r="L337" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="M337" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="M337" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15471,10 +15536,10 @@
         <v>1715</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>15</v>
@@ -15500,7 +15565,7 @@
       <c r="K338" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M338" s="1" t="s">
+      <c r="M338" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15509,10 +15574,10 @@
         <v>1720</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>15</v>
@@ -15538,7 +15603,7 @@
       <c r="K339" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M339" s="1" t="s">
+      <c r="M339" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15547,10 +15612,10 @@
         <v>1725</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>15</v>
@@ -15577,9 +15642,9 @@
         <v>19</v>
       </c>
       <c r="L340" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="M340" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M340" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15588,10 +15653,10 @@
         <v>1733</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>15</v>
@@ -15617,7 +15682,7 @@
       <c r="K341" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M341" s="1" t="s">
+      <c r="M341" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15626,10 +15691,10 @@
         <v>1744</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>15</v>
@@ -15655,7 +15720,7 @@
       <c r="K342" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M342" s="1" t="s">
+      <c r="M342" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15664,10 +15729,10 @@
         <v>1753</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>15</v>
@@ -15693,7 +15758,7 @@
       <c r="K343" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M343" s="1" t="s">
+      <c r="M343" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15702,10 +15767,10 @@
         <v>1756</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>15</v>
@@ -15731,7 +15796,7 @@
       <c r="K344" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M344" s="1" t="s">
+      <c r="M344" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15740,10 +15805,10 @@
         <v>1769</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>15</v>
@@ -15769,7 +15834,7 @@
       <c r="K345" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M345" s="1" t="s">
+      <c r="M345" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15778,10 +15843,10 @@
         <v>1775</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>15</v>
@@ -15808,9 +15873,9 @@
         <v>19</v>
       </c>
       <c r="L346" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="M346" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="M346" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15819,10 +15884,10 @@
         <v>1779</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>15</v>
@@ -15849,9 +15914,9 @@
         <v>19</v>
       </c>
       <c r="L347" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="M347" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="M347" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15860,10 +15925,10 @@
         <v>1790</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>15</v>
@@ -15889,7 +15954,7 @@
       <c r="K348" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M348" s="1" t="s">
+      <c r="M348" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15898,10 +15963,10 @@
         <v>1800</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>15</v>
@@ -15927,7 +15992,7 @@
       <c r="K349" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M349" s="1" t="s">
+      <c r="M349" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15936,10 +16001,10 @@
         <v>1810</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>15</v>
@@ -15965,7 +16030,10 @@
       <c r="K350" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M350" s="1" t="s">
+      <c r="L350" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="M350" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -15974,10 +16042,10 @@
         <v>1812</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>15</v>
@@ -16003,7 +16071,7 @@
       <c r="K351" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M351" s="1" t="s">
+      <c r="M351" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16012,16 +16080,16 @@
         <v>1818</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F352" s="0" t="s">
         <v>17</v>
@@ -16041,7 +16109,10 @@
       <c r="K352" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M352" s="1" t="s">
+      <c r="L352" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="M352" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16050,10 +16121,10 @@
         <v>1826</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>15</v>
@@ -16079,7 +16150,7 @@
       <c r="K353" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M353" s="1" t="s">
+      <c r="M353" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16088,16 +16159,16 @@
         <v>1831</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>17</v>
@@ -16114,7 +16185,7 @@
       <c r="K354" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M354" s="1" t="s">
+      <c r="M354" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16123,10 +16194,10 @@
         <v>1838</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>15</v>
@@ -16152,7 +16223,7 @@
       <c r="K355" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M355" s="1" t="s">
+      <c r="M355" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16161,10 +16232,10 @@
         <v>1846</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>15</v>
@@ -16190,7 +16261,7 @@
       <c r="K356" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M356" s="1" t="s">
+      <c r="M356" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16199,10 +16270,10 @@
         <v>1850</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>15</v>
@@ -16228,7 +16299,7 @@
       <c r="K357" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M357" s="1" t="s">
+      <c r="M357" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16237,10 +16308,10 @@
         <v>1852</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>15</v>
@@ -16266,7 +16337,10 @@
       <c r="K358" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M358" s="1" t="s">
+      <c r="L358" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="M358" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16275,10 +16349,10 @@
         <v>1868</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>15</v>
@@ -16304,7 +16378,7 @@
       <c r="K359" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M359" s="1" t="s">
+      <c r="M359" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16313,10 +16387,10 @@
         <v>1876</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>15</v>
@@ -16342,7 +16416,7 @@
       <c r="K360" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M360" s="1" t="s">
+      <c r="M360" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16351,10 +16425,10 @@
         <v>1877</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>15</v>
@@ -16380,7 +16454,7 @@
       <c r="K361" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M361" s="1" t="s">
+      <c r="M361" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16389,10 +16463,10 @@
         <v>1878</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>15</v>
@@ -16418,7 +16492,7 @@
       <c r="K362" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M362" s="1" t="s">
+      <c r="M362" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16427,16 +16501,16 @@
         <v>1880</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F363" s="0" t="s">
         <v>17</v>
@@ -16456,7 +16530,7 @@
       <c r="K363" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M363" s="1" t="s">
+      <c r="M363" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16465,10 +16539,10 @@
         <v>1887</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>15</v>
@@ -16491,7 +16565,7 @@
       <c r="K364" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M364" s="1" t="s">
+      <c r="M364" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16500,10 +16574,10 @@
         <v>1890</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>15</v>
@@ -16530,9 +16604,9 @@
         <v>19</v>
       </c>
       <c r="L365" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="M365" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="M365" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16541,16 +16615,16 @@
         <v>1893</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F366" s="0" t="s">
         <v>17</v>
@@ -16570,7 +16644,7 @@
       <c r="K366" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M366" s="1" t="s">
+      <c r="M366" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16579,16 +16653,16 @@
         <v>1894</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F367" s="0" t="s">
         <v>17</v>
@@ -16609,9 +16683,9 @@
         <v>19</v>
       </c>
       <c r="L367" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="M367" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="M367" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16620,16 +16694,16 @@
         <v>1899</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F368" s="0" t="s">
         <v>17</v>
@@ -16649,7 +16723,7 @@
       <c r="K368" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M368" s="1" t="s">
+      <c r="M368" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16658,10 +16732,10 @@
         <v>1915</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>15</v>
@@ -16687,7 +16761,7 @@
       <c r="K369" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M369" s="1" t="s">
+      <c r="M369" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16696,10 +16770,10 @@
         <v>1928</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>15</v>
@@ -16725,7 +16799,7 @@
       <c r="K370" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M370" s="1" t="s">
+      <c r="M370" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16734,10 +16808,10 @@
         <v>1933</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>15</v>
@@ -16763,7 +16837,7 @@
       <c r="K371" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M371" s="1" t="s">
+      <c r="M371" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16772,10 +16846,10 @@
         <v>1960</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>15</v>
@@ -16784,7 +16858,7 @@
         <v>17</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>18</v>
@@ -16801,7 +16875,7 @@
       <c r="K372" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M372" s="1" t="s">
+      <c r="M372" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16810,10 +16884,10 @@
         <v>1966</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>15</v>
@@ -16839,7 +16913,7 @@
       <c r="K373" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M373" s="1" t="s">
+      <c r="M373" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16848,10 +16922,10 @@
         <v>11000</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>15</v>
@@ -16877,7 +16951,7 @@
       <c r="K374" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M374" s="1" t="s">
+      <c r="M374" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16886,10 +16960,10 @@
         <v>11050</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>15</v>
@@ -16915,7 +16989,7 @@
       <c r="K375" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M375" s="1" t="s">
+      <c r="M375" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16924,10 +16998,10 @@
         <v>11100</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>15</v>
@@ -16953,7 +17027,7 @@
       <c r="K376" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M376" s="1" t="s">
+      <c r="M376" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -16962,10 +17036,10 @@
         <v>11150</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>15</v>
@@ -16991,7 +17065,7 @@
       <c r="K377" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M377" s="1" t="s">
+      <c r="M377" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17000,10 +17074,10 @@
         <v>11200</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>15</v>
@@ -17029,7 +17103,7 @@
       <c r="K378" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M378" s="1" t="s">
+      <c r="M378" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17038,10 +17112,10 @@
         <v>11250</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>15</v>
@@ -17067,7 +17141,7 @@
       <c r="K379" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M379" s="1" t="s">
+      <c r="M379" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17076,10 +17150,10 @@
         <v>11300</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>15</v>
@@ -17102,7 +17176,7 @@
       <c r="K380" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M380" s="1" t="s">
+      <c r="M380" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17111,10 +17185,10 @@
         <v>11350</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>15</v>
@@ -17140,7 +17214,7 @@
       <c r="K381" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M381" s="1" t="s">
+      <c r="M381" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17149,10 +17223,10 @@
         <v>11400</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>15</v>
@@ -17178,7 +17252,7 @@
       <c r="K382" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M382" s="1" t="s">
+      <c r="M382" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17187,10 +17261,10 @@
         <v>11450</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>15</v>
@@ -17216,7 +17290,7 @@
       <c r="K383" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M383" s="1" t="s">
+      <c r="M383" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17225,10 +17299,10 @@
         <v>11500</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>15</v>
@@ -17254,7 +17328,7 @@
       <c r="K384" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M384" s="1" t="s">
+      <c r="M384" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFE86168-1421-4390-8AA1-E1169EDC2220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="882">
   <si>
     <t>species_order</t>
   </si>
@@ -2662,12 +2661,21 @@
   </si>
   <si>
     <t>Western Gerygone</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4914/32266210568_1f08be72c8_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4811/44320660970_3a6a4a5ab1_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4886/31198431047_a6663b235c_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2979,28 +2987,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M283" sqref="M283"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13"/>
-    <col min="2" max="2" width="35.140625"/>
-    <col min="3" max="3" width="29.85546875"/>
-    <col min="4" max="4" width="19.140625"/>
-    <col min="5" max="5" width="29.5703125"/>
-    <col min="6" max="6" width="17.28515625"/>
-    <col min="7" max="8" width="12.7109375"/>
-    <col min="9" max="9" width="21.5703125"/>
-    <col min="10" max="10" width="19.85546875"/>
-    <col min="12" max="12" width="63.28515625"/>
+    <col min="2" max="2" width="35.1796875"/>
+    <col min="3" max="3" width="29.81640625"/>
+    <col min="4" max="4" width="19.1796875"/>
+    <col min="5" max="5" width="29.54296875"/>
+    <col min="6" max="6" width="17.26953125"/>
+    <col min="7" max="8" width="12.7265625"/>
+    <col min="9" max="9" width="21.54296875"/>
+    <col min="10" max="10" width="19.81640625"/>
+    <col min="12" max="12" width="63.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3240,7 +3248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3354,7 +3362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3395,7 +3403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3433,7 +3441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3471,7 +3479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3626,7 +3634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3854,7 +3862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3930,7 +3938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4053,7 +4061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4132,7 +4140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4173,7 +4181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4211,7 +4219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4328,7 +4336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4442,7 +4450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4480,7 +4488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4559,7 +4567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4676,7 +4684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4755,7 +4763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>192</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>195</v>
       </c>
@@ -4910,7 +4918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201</v>
       </c>
@@ -4948,7 +4956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>206</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5062,7 +5070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5097,7 +5105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5363,7 +5371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5512,7 +5520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5591,7 +5599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>275</v>
       </c>
@@ -5629,7 +5637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>278</v>
       </c>
@@ -5664,7 +5672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>279</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>280</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>284</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>285</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>286</v>
       </c>
@@ -5860,7 +5868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>288</v>
       </c>
@@ -5898,7 +5906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>297</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>298</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6088,7 +6096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6123,7 +6131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6237,7 +6245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6389,7 +6397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6427,7 +6435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>339</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>340</v>
       </c>
@@ -6579,7 +6587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>343</v>
       </c>
@@ -6617,7 +6625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>344</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>346</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>348</v>
       </c>
@@ -6737,7 +6745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>349</v>
       </c>
@@ -6772,7 +6780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>350</v>
       </c>
@@ -6813,7 +6821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>351</v>
       </c>
@@ -6848,7 +6856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>358</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>359</v>
       </c>
@@ -6924,7 +6932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>360</v>
       </c>
@@ -6959,7 +6967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>363</v>
       </c>
@@ -6997,7 +7005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7035,7 +7043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7076,7 +7084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7114,7 +7122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7149,7 +7157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7222,7 +7230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7298,7 +7306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7374,7 +7382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7412,7 +7420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>392</v>
       </c>
@@ -7482,7 +7490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>394</v>
       </c>
@@ -7514,7 +7522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>395</v>
       </c>
@@ -7552,7 +7560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>396</v>
       </c>
@@ -7590,7 +7598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>400</v>
       </c>
@@ -7625,7 +7633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>404</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>411</v>
       </c>
@@ -7698,7 +7706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>416</v>
       </c>
@@ -7733,7 +7741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>417</v>
       </c>
@@ -7768,7 +7776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>423</v>
       </c>
@@ -7803,7 +7811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>428</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>431</v>
       </c>
@@ -7876,7 +7884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>434</v>
       </c>
@@ -7914,7 +7922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>442</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>443</v>
       </c>
@@ -7990,7 +7998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8066,7 +8074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8142,7 +8150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8183,7 +8191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8247,7 +8255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>534</v>
       </c>
@@ -8378,7 +8386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>535</v>
       </c>
@@ -8410,7 +8418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>537</v>
       </c>
@@ -8442,7 +8450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>547</v>
       </c>
@@ -8474,7 +8482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>548</v>
       </c>
@@ -8506,7 +8514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>555</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8573,7 +8581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8605,7 +8613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8643,7 +8651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8713,7 +8721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8745,7 +8753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8780,7 +8788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>591</v>
       </c>
@@ -8818,7 +8826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>611</v>
       </c>
@@ -8856,7 +8864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>613</v>
       </c>
@@ -8897,7 +8905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>615</v>
       </c>
@@ -8935,7 +8943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>619</v>
       </c>
@@ -8973,7 +8981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>627</v>
       </c>
@@ -9011,7 +9019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>629</v>
       </c>
@@ -9049,7 +9057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>636</v>
       </c>
@@ -9090,7 +9098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>640</v>
       </c>
@@ -9131,7 +9139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>645</v>
       </c>
@@ -9169,7 +9177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>647</v>
       </c>
@@ -9207,7 +9215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>650</v>
       </c>
@@ -9245,7 +9253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>651</v>
       </c>
@@ -9286,7 +9294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>656</v>
       </c>
@@ -9324,7 +9332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>658</v>
       </c>
@@ -9365,7 +9373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>659</v>
       </c>
@@ -9406,7 +9414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>660</v>
       </c>
@@ -9444,7 +9452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>661</v>
       </c>
@@ -9485,7 +9493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>662</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>663</v>
       </c>
@@ -9558,7 +9566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>669</v>
       </c>
@@ -9596,7 +9604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>670</v>
       </c>
@@ -9634,7 +9642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9669,7 +9677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9745,7 +9753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9783,7 +9791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>684</v>
       </c>
@@ -9821,7 +9829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>686</v>
       </c>
@@ -9859,7 +9867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>688</v>
       </c>
@@ -9900,7 +9908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>690</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>693</v>
       </c>
@@ -9976,7 +9984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>697</v>
       </c>
@@ -10011,7 +10019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>698</v>
       </c>
@@ -10049,7 +10057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>699</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>702</v>
       </c>
@@ -10125,7 +10133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>705</v>
       </c>
@@ -10163,7 +10171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>706</v>
       </c>
@@ -10201,7 +10209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>707</v>
       </c>
@@ -10239,7 +10247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>708</v>
       </c>
@@ -10277,7 +10285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>710</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>717</v>
       </c>
@@ -10353,7 +10361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>720</v>
       </c>
@@ -10391,7 +10399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>721</v>
       </c>
@@ -10429,7 +10437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>722</v>
       </c>
@@ -10467,7 +10475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>724</v>
       </c>
@@ -10505,7 +10513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>726</v>
       </c>
@@ -10543,7 +10551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>728</v>
       </c>
@@ -10581,7 +10589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>730</v>
       </c>
@@ -10619,7 +10627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>735</v>
       </c>
@@ -10657,7 +10665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>741</v>
       </c>
@@ -10695,7 +10703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>742</v>
       </c>
@@ -10733,7 +10741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>746</v>
       </c>
@@ -10771,7 +10779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>764</v>
       </c>
@@ -10809,7 +10817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>765</v>
       </c>
@@ -10847,7 +10855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>773</v>
       </c>
@@ -10885,7 +10893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>782</v>
       </c>
@@ -10926,7 +10934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>785</v>
       </c>
@@ -10967,7 +10975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>789</v>
       </c>
@@ -11005,7 +11013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>793</v>
       </c>
@@ -11043,7 +11051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>797</v>
       </c>
@@ -11081,7 +11089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>800</v>
       </c>
@@ -11116,7 +11124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>803</v>
       </c>
@@ -11154,7 +11162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>807</v>
       </c>
@@ -11192,7 +11200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>810</v>
       </c>
@@ -11230,7 +11238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>813</v>
       </c>
@@ -11268,7 +11276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>814</v>
       </c>
@@ -11306,7 +11314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>818</v>
       </c>
@@ -11344,7 +11352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>819</v>
       </c>
@@ -11382,7 +11390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>825</v>
       </c>
@@ -11420,7 +11428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>829</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>838</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>842</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>845</v>
       </c>
@@ -11572,7 +11580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>849</v>
       </c>
@@ -11610,7 +11618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>853</v>
       </c>
@@ -11651,7 +11659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>861</v>
       </c>
@@ -11692,7 +11700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>864</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>871</v>
       </c>
@@ -11768,7 +11776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11806,7 +11814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>898</v>
       </c>
@@ -11844,7 +11852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>901</v>
       </c>
@@ -11882,7 +11890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>914</v>
       </c>
@@ -11917,7 +11925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>933</v>
       </c>
@@ -11955,7 +11963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>935</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>938</v>
       </c>
@@ -12031,7 +12039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>943</v>
       </c>
@@ -12069,7 +12077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>948</v>
       </c>
@@ -12107,7 +12115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>961</v>
       </c>
@@ -12145,7 +12153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>980</v>
       </c>
@@ -12183,7 +12191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>983</v>
       </c>
@@ -12221,7 +12229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>984</v>
       </c>
@@ -12259,7 +12267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>995</v>
       </c>
@@ -12297,7 +12305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1001</v>
       </c>
@@ -12335,7 +12343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -12370,7 +12378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1019</v>
       </c>
@@ -12408,7 +12416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1025</v>
       </c>
@@ -12446,7 +12454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1037</v>
       </c>
@@ -12484,7 +12492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1094</v>
       </c>
@@ -12522,7 +12530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1101</v>
       </c>
@@ -12560,7 +12568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1103</v>
       </c>
@@ -12598,7 +12606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1104</v>
       </c>
@@ -12636,7 +12644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1116</v>
       </c>
@@ -12674,7 +12682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1119</v>
       </c>
@@ -12712,7 +12720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1123</v>
       </c>
@@ -12750,7 +12758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1131</v>
       </c>
@@ -12788,7 +12796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1137</v>
       </c>
@@ -12826,7 +12834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1145</v>
       </c>
@@ -12864,7 +12872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1149</v>
       </c>
@@ -12902,7 +12910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -12940,7 +12948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1159</v>
       </c>
@@ -12978,7 +12986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1162</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1171</v>
       </c>
@@ -13054,7 +13062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1195</v>
       </c>
@@ -13092,7 +13100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1208</v>
       </c>
@@ -13130,7 +13138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1210</v>
       </c>
@@ -13168,7 +13176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1214</v>
       </c>
@@ -13206,7 +13214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1215</v>
       </c>
@@ -13244,7 +13252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1231</v>
       </c>
@@ -13282,7 +13290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1238</v>
       </c>
@@ -13320,7 +13328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1249</v>
       </c>
@@ -13358,7 +13366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1250</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1261</v>
       </c>
@@ -13434,7 +13442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1262</v>
       </c>
@@ -13472,7 +13480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1274</v>
       </c>
@@ -13510,7 +13518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1282</v>
       </c>
@@ -13548,7 +13556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1290</v>
       </c>
@@ -13586,7 +13594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1300</v>
       </c>
@@ -13624,7 +13632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1313</v>
       </c>
@@ -13665,7 +13673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1317</v>
       </c>
@@ -13699,11 +13707,14 @@
       <c r="K283" t="s">
         <v>19</v>
       </c>
+      <c r="L283" t="s">
+        <v>881</v>
+      </c>
       <c r="M283" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1321</v>
       </c>
@@ -13741,7 +13752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1330</v>
       </c>
@@ -13779,7 +13790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1355</v>
       </c>
@@ -13817,7 +13828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1360</v>
       </c>
@@ -13858,7 +13869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1374</v>
       </c>
@@ -13896,7 +13907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1389</v>
       </c>
@@ -13937,7 +13948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1394</v>
       </c>
@@ -13975,7 +13986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1398</v>
       </c>
@@ -14013,7 +14024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1411</v>
       </c>
@@ -14047,11 +14058,14 @@
       <c r="K292" t="s">
         <v>19</v>
       </c>
+      <c r="L292" t="s">
+        <v>879</v>
+      </c>
       <c r="M292" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1424</v>
       </c>
@@ -14085,11 +14099,14 @@
       <c r="K293" t="s">
         <v>19</v>
       </c>
+      <c r="L293" t="s">
+        <v>880</v>
+      </c>
       <c r="M293" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1430</v>
       </c>
@@ -14127,7 +14144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1434</v>
       </c>
@@ -14165,7 +14182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1444</v>
       </c>
@@ -14203,7 +14220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1450</v>
       </c>
@@ -14238,7 +14255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1451</v>
       </c>
@@ -14276,7 +14293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1453</v>
       </c>
@@ -14314,7 +14331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1457</v>
       </c>
@@ -14352,7 +14369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1463</v>
       </c>
@@ -14390,7 +14407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1466</v>
       </c>
@@ -14428,7 +14445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1469</v>
       </c>
@@ -14466,7 +14483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1474</v>
       </c>
@@ -14504,7 +14521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1500</v>
       </c>
@@ -14542,7 +14559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1509</v>
       </c>
@@ -14583,7 +14600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1520</v>
       </c>
@@ -14621,7 +14638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1529</v>
       </c>
@@ -14659,7 +14676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1536</v>
       </c>
@@ -14697,7 +14714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1543</v>
       </c>
@@ -14735,7 +14752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1553</v>
       </c>
@@ -14773,7 +14790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1557</v>
       </c>
@@ -14811,7 +14828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1573</v>
       </c>
@@ -14849,7 +14866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1592</v>
       </c>
@@ -14887,7 +14904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1601</v>
       </c>
@@ -14928,7 +14945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1604</v>
       </c>
@@ -14966,7 +14983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1612</v>
       </c>
@@ -15004,7 +15021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1613</v>
       </c>
@@ -15042,7 +15059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1614</v>
       </c>
@@ -15080,7 +15097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1617</v>
       </c>
@@ -15118,7 +15135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1622</v>
       </c>
@@ -15156,7 +15173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1625</v>
       </c>
@@ -15194,7 +15211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1627</v>
       </c>
@@ -15232,7 +15249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1635</v>
       </c>
@@ -15273,7 +15290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1639</v>
       </c>
@@ -15311,7 +15328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1644</v>
       </c>
@@ -15352,7 +15369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1656</v>
       </c>
@@ -15390,7 +15407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1664</v>
       </c>
@@ -15425,7 +15442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1669</v>
       </c>
@@ -15463,7 +15480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1677</v>
       </c>
@@ -15501,7 +15518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1678</v>
       </c>
@@ -15539,7 +15556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1681</v>
       </c>
@@ -15577,7 +15594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1689</v>
       </c>
@@ -15615,7 +15632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1692</v>
       </c>
@@ -15653,7 +15670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1696</v>
       </c>
@@ -15691,7 +15708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1701</v>
       </c>
@@ -15729,7 +15746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1705</v>
       </c>
@@ -15767,7 +15784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1711</v>
       </c>
@@ -15805,7 +15822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1715</v>
       </c>
@@ -15846,7 +15863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1720</v>
       </c>
@@ -15884,7 +15901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -15922,7 +15939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1733</v>
       </c>
@@ -15963,7 +15980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1744</v>
       </c>
@@ -16001,7 +16018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1753</v>
       </c>
@@ -16039,7 +16056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1756</v>
       </c>
@@ -16077,7 +16094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1769</v>
       </c>
@@ -16115,7 +16132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1775</v>
       </c>
@@ -16153,7 +16170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1779</v>
       </c>
@@ -16194,7 +16211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1790</v>
       </c>
@@ -16235,7 +16252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1800</v>
       </c>
@@ -16273,7 +16290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1810</v>
       </c>
@@ -16311,7 +16328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1812</v>
       </c>
@@ -16352,7 +16369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1818</v>
       </c>
@@ -16390,7 +16407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1826</v>
       </c>
@@ -16431,7 +16448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1831</v>
       </c>
@@ -16469,7 +16486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -16504,7 +16521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1846</v>
       </c>
@@ -16542,7 +16559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1850</v>
       </c>
@@ -16580,7 +16597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1852</v>
       </c>
@@ -16618,7 +16635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1868</v>
       </c>
@@ -16659,7 +16676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1876</v>
       </c>
@@ -16697,7 +16714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1877</v>
       </c>
@@ -16735,7 +16752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1878</v>
       </c>
@@ -16773,7 +16790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1880</v>
       </c>
@@ -16811,7 +16828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1887</v>
       </c>
@@ -16849,7 +16866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1890</v>
       </c>
@@ -16884,7 +16901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1893</v>
       </c>
@@ -16925,7 +16942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1894</v>
       </c>
@@ -16963,7 +16980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1899</v>
       </c>
@@ -17004,7 +17021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -17042,7 +17059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1928</v>
       </c>
@@ -17080,7 +17097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1933</v>
       </c>
@@ -17121,7 +17138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1960</v>
       </c>
@@ -17159,7 +17176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1966</v>
       </c>
@@ -17197,7 +17214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>11000</v>
       </c>
@@ -17235,7 +17252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>11050</v>
       </c>
@@ -17273,7 +17290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>11100</v>
       </c>
@@ -17311,7 +17328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>11150</v>
       </c>
@@ -17349,7 +17366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>11200</v>
       </c>
@@ -17387,7 +17404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>11250</v>
       </c>
@@ -17425,7 +17442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>11300</v>
       </c>
@@ -17463,7 +17480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>11350</v>
       </c>
@@ -17498,7 +17515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>11400</v>
       </c>
@@ -17536,7 +17553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>11450</v>
       </c>
@@ -17574,7 +17591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>11500</v>
       </c>
@@ -17612,7 +17629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>871</v>
       </c>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="897">
   <si>
     <t>species_order</t>
   </si>
@@ -2468,9 +2468,6 @@
     <t>European Goldfinch</t>
   </si>
   <si>
-    <t>Mirafra javanica</t>
-  </si>
-  <si>
     <t>Horsfield's Bushlark</t>
   </si>
   <si>
@@ -2670,6 +2667,54 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4886/31198431047_a6663b235c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4901/45242594395_533b319161_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4803/31215515487_a801718680_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4865/44337875730_51ee8bb3e2_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4839/44337876730_03ac96114e_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4910/31215516437_de54309c57_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4918/45431037344_c031db345e_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4821/31215516957_2c0db515f9_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4914/44337879540_2d523f661a_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4896/31215518037_c4f3a4bc72_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4816/45431041144_9655fcc058_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4866/44337882180_d4f9f7fa15_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4914/44337882550_4db1b7e213_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4807/44337882970_99f3e6da94_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4824/44337883520_ff86607171_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4871/45431045024_bc56b49031_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4876/46155108951_844485b3ca_b_d.jpg</t>
   </si>
 </sst>
 </file>
@@ -2990,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283"/>
+    <sheetView tabSelected="1" topLeftCell="I49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3320,6 +3365,9 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
+      <c r="L8" t="s">
+        <v>895</v>
+      </c>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3437,6 +3485,9 @@
       <c r="K11" t="s">
         <v>19</v>
       </c>
+      <c r="L11" t="s">
+        <v>889</v>
+      </c>
       <c r="M11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3820,6 +3871,9 @@
       <c r="K21" t="s">
         <v>19</v>
       </c>
+      <c r="L21" t="s">
+        <v>881</v>
+      </c>
       <c r="M21" s="2" t="s">
         <v>21</v>
       </c>
@@ -4253,6 +4307,9 @@
       <c r="K32" t="s">
         <v>19</v>
       </c>
+      <c r="L32" t="s">
+        <v>883</v>
+      </c>
       <c r="M32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4291,6 +4348,9 @@
       <c r="K33" t="s">
         <v>19</v>
       </c>
+      <c r="L33" t="s">
+        <v>888</v>
+      </c>
       <c r="M33" s="2" t="s">
         <v>21</v>
       </c>
@@ -4484,6 +4544,9 @@
       <c r="K38" t="s">
         <v>19</v>
       </c>
+      <c r="L38" t="s">
+        <v>886</v>
+      </c>
       <c r="M38" s="2" t="s">
         <v>21</v>
       </c>
@@ -4642,6 +4705,9 @@
       <c r="K42" t="s">
         <v>19</v>
       </c>
+      <c r="L42" t="s">
+        <v>884</v>
+      </c>
       <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
@@ -4680,6 +4746,9 @@
       <c r="K43" t="s">
         <v>19</v>
       </c>
+      <c r="L43" t="s">
+        <v>893</v>
+      </c>
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
@@ -4876,6 +4945,9 @@
       <c r="K48" t="s">
         <v>19</v>
       </c>
+      <c r="L48" t="s">
+        <v>887</v>
+      </c>
       <c r="M48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4952,6 +5024,9 @@
       <c r="K50" t="s">
         <v>19</v>
       </c>
+      <c r="L50" t="s">
+        <v>882</v>
+      </c>
       <c r="M50" s="2" t="s">
         <v>21</v>
       </c>
@@ -5066,6 +5141,9 @@
       <c r="K53" t="s">
         <v>19</v>
       </c>
+      <c r="L53" t="s">
+        <v>891</v>
+      </c>
       <c r="M53" s="2" t="s">
         <v>21</v>
       </c>
@@ -5215,6 +5293,9 @@
       <c r="K57" t="s">
         <v>19</v>
       </c>
+      <c r="L57" t="s">
+        <v>885</v>
+      </c>
       <c r="M57" s="2" t="s">
         <v>21</v>
       </c>
@@ -5329,6 +5410,9 @@
       <c r="K60" t="s">
         <v>19</v>
       </c>
+      <c r="L60" t="s">
+        <v>894</v>
+      </c>
       <c r="M60" s="2" t="s">
         <v>21</v>
       </c>
@@ -5367,6 +5451,9 @@
       <c r="K61" t="s">
         <v>19</v>
       </c>
+      <c r="L61" t="s">
+        <v>896</v>
+      </c>
       <c r="M61" s="2" t="s">
         <v>21</v>
       </c>
@@ -5405,6 +5492,9 @@
       <c r="K62" t="s">
         <v>19</v>
       </c>
+      <c r="L62" t="s">
+        <v>890</v>
+      </c>
       <c r="M62" s="2" t="s">
         <v>21</v>
       </c>
@@ -6861,10 +6951,10 @@
         <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C101" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D101" t="s">
         <v>179</v>
@@ -7842,6 +7932,9 @@
       <c r="K127" t="s">
         <v>299</v>
       </c>
+      <c r="L127" t="s">
+        <v>892</v>
+      </c>
       <c r="M127" s="2" t="s">
         <v>21</v>
       </c>
@@ -9092,7 +9185,7 @@
         <v>19</v>
       </c>
       <c r="L162" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>21</v>
@@ -13678,11 +13771,11 @@
         <v>1317</v>
       </c>
       <c r="B283" t="s">
+        <v>876</v>
+      </c>
+      <c r="C283" t="s">
         <v>877</v>
       </c>
-      <c r="C283" t="s">
-        <v>878</v>
-      </c>
       <c r="D283" t="s">
         <v>15</v>
       </c>
@@ -13708,7 +13801,7 @@
         <v>19</v>
       </c>
       <c r="L283" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M283" s="2" t="s">
         <v>21</v>
@@ -14059,7 +14152,7 @@
         <v>19</v>
       </c>
       <c r="L292" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M292" s="2" t="s">
         <v>21</v>
@@ -14100,7 +14193,7 @@
         <v>19</v>
       </c>
       <c r="L293" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M293" s="2" t="s">
         <v>21</v>
@@ -16602,10 +16695,10 @@
         <v>1852</v>
       </c>
       <c r="B359" t="s">
+        <v>704</v>
+      </c>
+      <c r="C359" t="s">
         <v>814</v>
-      </c>
-      <c r="C359" t="s">
-        <v>815</v>
       </c>
       <c r="D359" t="s">
         <v>15</v>
@@ -16640,37 +16733,37 @@
         <v>1868</v>
       </c>
       <c r="B360" t="s">
+        <v>815</v>
+      </c>
+      <c r="C360" t="s">
         <v>816</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" t="s">
+        <v>17</v>
+      </c>
+      <c r="F360" t="s">
+        <v>17</v>
+      </c>
+      <c r="G360" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" t="s">
+        <v>18</v>
+      </c>
+      <c r="I360">
+        <v>2005</v>
+      </c>
+      <c r="J360">
+        <v>1700</v>
+      </c>
+      <c r="K360" t="s">
+        <v>19</v>
+      </c>
+      <c r="L360" t="s">
         <v>817</v>
-      </c>
-      <c r="D360" t="s">
-        <v>15</v>
-      </c>
-      <c r="E360" t="s">
-        <v>17</v>
-      </c>
-      <c r="F360" t="s">
-        <v>17</v>
-      </c>
-      <c r="G360" t="s">
-        <v>18</v>
-      </c>
-      <c r="H360" t="s">
-        <v>18</v>
-      </c>
-      <c r="I360">
-        <v>2005</v>
-      </c>
-      <c r="J360">
-        <v>1700</v>
-      </c>
-      <c r="K360" t="s">
-        <v>19</v>
-      </c>
-      <c r="L360" t="s">
-        <v>818</v>
       </c>
       <c r="M360" s="2" t="s">
         <v>21</v>
@@ -16681,10 +16774,10 @@
         <v>1876</v>
       </c>
       <c r="B361" t="s">
+        <v>818</v>
+      </c>
+      <c r="C361" t="s">
         <v>819</v>
-      </c>
-      <c r="C361" t="s">
-        <v>820</v>
       </c>
       <c r="D361" t="s">
         <v>15</v>
@@ -16719,10 +16812,10 @@
         <v>1877</v>
       </c>
       <c r="B362" t="s">
+        <v>820</v>
+      </c>
+      <c r="C362" t="s">
         <v>821</v>
-      </c>
-      <c r="C362" t="s">
-        <v>822</v>
       </c>
       <c r="D362" t="s">
         <v>15</v>
@@ -16757,10 +16850,10 @@
         <v>1878</v>
       </c>
       <c r="B363" t="s">
+        <v>822</v>
+      </c>
+      <c r="C363" t="s">
         <v>823</v>
-      </c>
-      <c r="C363" t="s">
-        <v>824</v>
       </c>
       <c r="D363" t="s">
         <v>15</v>
@@ -16795,10 +16888,10 @@
         <v>1880</v>
       </c>
       <c r="B364" t="s">
+        <v>824</v>
+      </c>
+      <c r="C364" t="s">
         <v>825</v>
-      </c>
-      <c r="C364" t="s">
-        <v>826</v>
       </c>
       <c r="D364" t="s">
         <v>15</v>
@@ -16833,10 +16926,10 @@
         <v>1887</v>
       </c>
       <c r="B365" t="s">
+        <v>826</v>
+      </c>
+      <c r="C365" t="s">
         <v>827</v>
-      </c>
-      <c r="C365" t="s">
-        <v>828</v>
       </c>
       <c r="D365" t="s">
         <v>15</v>
@@ -16871,10 +16964,10 @@
         <v>1890</v>
       </c>
       <c r="B366" t="s">
+        <v>828</v>
+      </c>
+      <c r="C366" t="s">
         <v>829</v>
-      </c>
-      <c r="C366" t="s">
-        <v>830</v>
       </c>
       <c r="D366" t="s">
         <v>15</v>
@@ -16906,37 +16999,37 @@
         <v>1893</v>
       </c>
       <c r="B367" t="s">
+        <v>830</v>
+      </c>
+      <c r="C367" t="s">
         <v>831</v>
       </c>
-      <c r="C367" t="s">
+      <c r="D367" t="s">
+        <v>15</v>
+      </c>
+      <c r="E367" t="s">
+        <v>17</v>
+      </c>
+      <c r="F367" t="s">
+        <v>17</v>
+      </c>
+      <c r="G367" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" t="s">
+        <v>18</v>
+      </c>
+      <c r="I367">
+        <v>2005</v>
+      </c>
+      <c r="J367">
+        <v>1700</v>
+      </c>
+      <c r="K367" t="s">
+        <v>19</v>
+      </c>
+      <c r="L367" t="s">
         <v>832</v>
-      </c>
-      <c r="D367" t="s">
-        <v>15</v>
-      </c>
-      <c r="E367" t="s">
-        <v>17</v>
-      </c>
-      <c r="F367" t="s">
-        <v>17</v>
-      </c>
-      <c r="G367" t="s">
-        <v>18</v>
-      </c>
-      <c r="H367" t="s">
-        <v>18</v>
-      </c>
-      <c r="I367">
-        <v>2005</v>
-      </c>
-      <c r="J367">
-        <v>1700</v>
-      </c>
-      <c r="K367" t="s">
-        <v>19</v>
-      </c>
-      <c r="L367" t="s">
-        <v>833</v>
       </c>
       <c r="M367" s="2" t="s">
         <v>21</v>
@@ -16947,10 +17040,10 @@
         <v>1894</v>
       </c>
       <c r="B368" t="s">
+        <v>833</v>
+      </c>
+      <c r="C368" t="s">
         <v>834</v>
-      </c>
-      <c r="C368" t="s">
-        <v>835</v>
       </c>
       <c r="D368" t="s">
         <v>15</v>
@@ -16985,10 +17078,10 @@
         <v>1899</v>
       </c>
       <c r="B369" t="s">
+        <v>835</v>
+      </c>
+      <c r="C369" t="s">
         <v>836</v>
-      </c>
-      <c r="C369" t="s">
-        <v>837</v>
       </c>
       <c r="D369" t="s">
         <v>15</v>
@@ -17015,7 +17108,7 @@
         <v>19</v>
       </c>
       <c r="L369" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M369" s="2" t="s">
         <v>21</v>
@@ -17026,10 +17119,10 @@
         <v>1915</v>
       </c>
       <c r="B370" t="s">
+        <v>838</v>
+      </c>
+      <c r="C370" t="s">
         <v>839</v>
-      </c>
-      <c r="C370" t="s">
-        <v>840</v>
       </c>
       <c r="D370" t="s">
         <v>15</v>
@@ -17064,10 +17157,10 @@
         <v>1928</v>
       </c>
       <c r="B371" t="s">
+        <v>840</v>
+      </c>
+      <c r="C371" t="s">
         <v>841</v>
-      </c>
-      <c r="C371" t="s">
-        <v>842</v>
       </c>
       <c r="D371" t="s">
         <v>15</v>
@@ -17102,11 +17195,11 @@
         <v>1933</v>
       </c>
       <c r="B372" t="s">
+        <v>842</v>
+      </c>
+      <c r="C372" t="s">
         <v>843</v>
       </c>
-      <c r="C372" t="s">
-        <v>844</v>
-      </c>
       <c r="D372" t="s">
         <v>15</v>
       </c>
@@ -17132,7 +17225,7 @@
         <v>19</v>
       </c>
       <c r="L372" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M372" s="2" t="s">
         <v>21</v>
@@ -17143,10 +17236,10 @@
         <v>1960</v>
       </c>
       <c r="B373" t="s">
+        <v>844</v>
+      </c>
+      <c r="C373" t="s">
         <v>845</v>
-      </c>
-      <c r="C373" t="s">
-        <v>846</v>
       </c>
       <c r="D373" t="s">
         <v>15</v>
@@ -17181,19 +17274,19 @@
         <v>1966</v>
       </c>
       <c r="B374" t="s">
+        <v>846</v>
+      </c>
+      <c r="C374" t="s">
         <v>847</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" t="s">
+        <v>17</v>
+      </c>
+      <c r="F374" t="s">
         <v>848</v>
-      </c>
-      <c r="D374" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" t="s">
-        <v>17</v>
-      </c>
-      <c r="F374" t="s">
-        <v>849</v>
       </c>
       <c r="G374" t="s">
         <v>18</v>
@@ -17219,10 +17312,10 @@
         <v>11000</v>
       </c>
       <c r="B375" t="s">
+        <v>849</v>
+      </c>
+      <c r="C375" t="s">
         <v>850</v>
-      </c>
-      <c r="C375" t="s">
-        <v>851</v>
       </c>
       <c r="D375" t="s">
         <v>15</v>
@@ -17257,10 +17350,10 @@
         <v>11050</v>
       </c>
       <c r="B376" t="s">
+        <v>851</v>
+      </c>
+      <c r="C376" t="s">
         <v>852</v>
-      </c>
-      <c r="C376" t="s">
-        <v>853</v>
       </c>
       <c r="D376" t="s">
         <v>15</v>
@@ -17295,7 +17388,7 @@
         <v>11100</v>
       </c>
       <c r="B377" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C377" t="s">
         <v>522</v>
@@ -17333,10 +17426,10 @@
         <v>11150</v>
       </c>
       <c r="B378" t="s">
+        <v>854</v>
+      </c>
+      <c r="C378" t="s">
         <v>855</v>
-      </c>
-      <c r="C378" t="s">
-        <v>856</v>
       </c>
       <c r="D378" t="s">
         <v>15</v>
@@ -17371,10 +17464,10 @@
         <v>11200</v>
       </c>
       <c r="B379" t="s">
+        <v>856</v>
+      </c>
+      <c r="C379" t="s">
         <v>857</v>
-      </c>
-      <c r="C379" t="s">
-        <v>858</v>
       </c>
       <c r="D379" t="s">
         <v>15</v>
@@ -17409,10 +17502,10 @@
         <v>11250</v>
       </c>
       <c r="B380" t="s">
+        <v>858</v>
+      </c>
+      <c r="C380" t="s">
         <v>859</v>
-      </c>
-      <c r="C380" t="s">
-        <v>860</v>
       </c>
       <c r="D380" t="s">
         <v>15</v>
@@ -17447,10 +17540,10 @@
         <v>11300</v>
       </c>
       <c r="B381" t="s">
+        <v>860</v>
+      </c>
+      <c r="C381" t="s">
         <v>861</v>
-      </c>
-      <c r="C381" t="s">
-        <v>862</v>
       </c>
       <c r="D381" t="s">
         <v>15</v>
@@ -17485,10 +17578,10 @@
         <v>11350</v>
       </c>
       <c r="B382" t="s">
+        <v>862</v>
+      </c>
+      <c r="C382" t="s">
         <v>863</v>
-      </c>
-      <c r="C382" t="s">
-        <v>864</v>
       </c>
       <c r="D382" t="s">
         <v>15</v>
@@ -17520,10 +17613,10 @@
         <v>11400</v>
       </c>
       <c r="B383" t="s">
+        <v>864</v>
+      </c>
+      <c r="C383" t="s">
         <v>865</v>
-      </c>
-      <c r="C383" t="s">
-        <v>866</v>
       </c>
       <c r="D383" t="s">
         <v>15</v>
@@ -17558,10 +17651,10 @@
         <v>11450</v>
       </c>
       <c r="B384" t="s">
+        <v>866</v>
+      </c>
+      <c r="C384" t="s">
         <v>867</v>
-      </c>
-      <c r="C384" t="s">
-        <v>868</v>
       </c>
       <c r="D384" t="s">
         <v>15</v>
@@ -17596,10 +17689,10 @@
         <v>11500</v>
       </c>
       <c r="B385" t="s">
+        <v>868</v>
+      </c>
+      <c r="C385" t="s">
         <v>869</v>
-      </c>
-      <c r="C385" t="s">
-        <v>870</v>
       </c>
       <c r="D385" t="s">
         <v>15</v>
@@ -17631,10 +17724,10 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
+        <v>870</v>
+      </c>
+      <c r="C386" t="s">
         <v>871</v>
-      </c>
-      <c r="C386" t="s">
-        <v>872</v>
       </c>
       <c r="D386" t="s">
         <v>15</v>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="898">
   <si>
     <t>species_order</t>
   </si>
@@ -2715,6 +2715,9 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4876/46155108951_844485b3ca_b_d.jpg</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
   </si>
 </sst>
 </file>
@@ -3035,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16695,7 +16698,7 @@
         <v>1852</v>
       </c>
       <c r="B359" t="s">
-        <v>704</v>
+        <v>897</v>
       </c>
       <c r="C359" t="s">
         <v>814</v>
@@ -17723,6 +17726,9 @@
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>11550</v>
+      </c>
       <c r="B386" t="s">
         <v>870</v>
       </c>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34D55D17-E1F1-4D7F-A845-6A8E82472CB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="900">
   <si>
     <t>species_order</t>
   </si>
@@ -2718,12 +2719,18 @@
   </si>
   <si>
     <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4872/31216175917_b97b6572e4_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/5/4803/31216176627_9af339678e_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3035,28 +3042,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13"/>
-    <col min="2" max="2" width="35.1796875"/>
-    <col min="3" max="3" width="29.81640625"/>
-    <col min="4" max="4" width="19.1796875"/>
-    <col min="5" max="5" width="29.54296875"/>
-    <col min="6" max="6" width="17.26953125"/>
-    <col min="7" max="8" width="12.7265625"/>
-    <col min="9" max="9" width="21.54296875"/>
-    <col min="10" max="10" width="19.81640625"/>
-    <col min="12" max="12" width="63.26953125"/>
+    <col min="2" max="2" width="35.140625"/>
+    <col min="3" max="3" width="29.85546875"/>
+    <col min="4" max="4" width="19.140625"/>
+    <col min="5" max="5" width="29.5703125"/>
+    <col min="6" max="6" width="17.28515625"/>
+    <col min="7" max="8" width="12.7109375"/>
+    <col min="9" max="9" width="21.5703125"/>
+    <col min="10" max="10" width="19.85546875"/>
+    <col min="12" max="12" width="63.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3292,11 +3299,14 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
+      <c r="L6" t="s">
+        <v>898</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3334,7 +3344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3375,7 +3385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3571,7 +3581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3609,7 +3619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3688,7 +3698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3798,11 +3808,14 @@
       <c r="K19" t="s">
         <v>19</v>
       </c>
+      <c r="L19" t="s">
+        <v>899</v>
+      </c>
       <c r="M19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>79</v>
       </c>
@@ -3957,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3995,7 +4008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>85</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4077,7 +4090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4118,7 +4131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4156,7 +4169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4317,7 +4330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4358,7 +4371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4399,7 +4412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4437,7 +4450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4472,7 +4485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4513,7 +4526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4595,7 +4608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4674,7 +4687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4715,7 +4728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4794,7 +4807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4873,7 +4886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4914,7 +4927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>192</v>
       </c>
@@ -4955,7 +4968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>195</v>
       </c>
@@ -4993,7 +5006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201</v>
       </c>
@@ -5034,7 +5047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>206</v>
       </c>
@@ -5072,7 +5085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5110,7 +5123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5186,7 +5199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5224,7 +5237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5303,7 +5316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5338,7 +5351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5379,7 +5392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5420,7 +5433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5461,7 +5474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5502,7 +5515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5540,7 +5553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5575,7 +5588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5613,7 +5626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5651,7 +5664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5692,7 +5705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>275</v>
       </c>
@@ -5730,7 +5743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>278</v>
       </c>
@@ -5765,7 +5778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>279</v>
       </c>
@@ -5803,7 +5816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>280</v>
       </c>
@@ -5841,7 +5854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>284</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>285</v>
       </c>
@@ -5923,7 +5936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>286</v>
       </c>
@@ -5961,7 +5974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>288</v>
       </c>
@@ -5999,7 +6012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>297</v>
       </c>
@@ -6037,7 +6050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>298</v>
       </c>
@@ -6075,7 +6088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6113,7 +6126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6151,7 +6164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6189,7 +6202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6224,7 +6237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6262,7 +6275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6338,7 +6351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6379,7 +6392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6417,7 +6430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6452,7 +6465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6528,7 +6541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6566,7 +6579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6604,7 +6617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>339</v>
       </c>
@@ -6642,7 +6655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>340</v>
       </c>
@@ -6680,7 +6693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>343</v>
       </c>
@@ -6718,7 +6731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>344</v>
       </c>
@@ -6756,7 +6769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>346</v>
       </c>
@@ -6797,7 +6810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>348</v>
       </c>
@@ -6838,7 +6851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>349</v>
       </c>
@@ -6873,7 +6886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>350</v>
       </c>
@@ -6914,7 +6927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>351</v>
       </c>
@@ -6949,7 +6962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>358</v>
       </c>
@@ -6987,7 +7000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>359</v>
       </c>
@@ -7025,7 +7038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>360</v>
       </c>
@@ -7060,7 +7073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>363</v>
       </c>
@@ -7098,7 +7111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7136,7 +7149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7177,7 +7190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7215,7 +7228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7250,7 +7263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7285,7 +7298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7323,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7361,7 +7374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7399,7 +7412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7437,7 +7450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7475,7 +7488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7513,7 +7526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7548,7 +7561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>392</v>
       </c>
@@ -7583,7 +7596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>394</v>
       </c>
@@ -7615,7 +7628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>395</v>
       </c>
@@ -7653,7 +7666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>396</v>
       </c>
@@ -7691,7 +7704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>400</v>
       </c>
@@ -7726,7 +7739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>404</v>
       </c>
@@ -7761,7 +7774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>411</v>
       </c>
@@ -7799,7 +7812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>416</v>
       </c>
@@ -7834,7 +7847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>417</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>423</v>
       </c>
@@ -7904,7 +7917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>428</v>
       </c>
@@ -7942,7 +7955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>431</v>
       </c>
@@ -7980,7 +7993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>434</v>
       </c>
@@ -8018,7 +8031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>442</v>
       </c>
@@ -8056,7 +8069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>443</v>
       </c>
@@ -8094,7 +8107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8132,7 +8145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8170,7 +8183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8208,7 +8221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8246,7 +8259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8287,7 +8300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8319,7 +8332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8351,7 +8364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8383,7 +8396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8418,7 +8431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8450,7 +8463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>534</v>
       </c>
@@ -8482,7 +8495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>535</v>
       </c>
@@ -8514,7 +8527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>537</v>
       </c>
@@ -8546,7 +8559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>547</v>
       </c>
@@ -8578,7 +8591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>548</v>
       </c>
@@ -8610,7 +8623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>555</v>
       </c>
@@ -8645,7 +8658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8677,7 +8690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8709,7 +8722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8747,7 +8760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8785,7 +8798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8817,7 +8830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8849,7 +8862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8884,7 +8897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>591</v>
       </c>
@@ -8922,7 +8935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>611</v>
       </c>
@@ -8960,7 +8973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>613</v>
       </c>
@@ -9001,7 +9014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>615</v>
       </c>
@@ -9039,7 +9052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>619</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>627</v>
       </c>
@@ -9115,7 +9128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>629</v>
       </c>
@@ -9153,7 +9166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>636</v>
       </c>
@@ -9194,7 +9207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>640</v>
       </c>
@@ -9235,7 +9248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>645</v>
       </c>
@@ -9273,7 +9286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>647</v>
       </c>
@@ -9311,7 +9324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>650</v>
       </c>
@@ -9349,7 +9362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>651</v>
       </c>
@@ -9390,7 +9403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>656</v>
       </c>
@@ -9428,7 +9441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>658</v>
       </c>
@@ -9469,7 +9482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>659</v>
       </c>
@@ -9510,7 +9523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>660</v>
       </c>
@@ -9548,7 +9561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>661</v>
       </c>
@@ -9589,7 +9602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>662</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>663</v>
       </c>
@@ -9662,7 +9675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>669</v>
       </c>
@@ -9700,7 +9713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>670</v>
       </c>
@@ -9738,7 +9751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9773,7 +9786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9811,7 +9824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9849,7 +9862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9887,7 +9900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>684</v>
       </c>
@@ -9925,7 +9938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>686</v>
       </c>
@@ -9963,7 +9976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>688</v>
       </c>
@@ -10004,7 +10017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>690</v>
       </c>
@@ -10042,7 +10055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>693</v>
       </c>
@@ -10080,7 +10093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>697</v>
       </c>
@@ -10115,7 +10128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>698</v>
       </c>
@@ -10153,7 +10166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>699</v>
       </c>
@@ -10191,7 +10204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>702</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>705</v>
       </c>
@@ -10267,7 +10280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>706</v>
       </c>
@@ -10305,7 +10318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>707</v>
       </c>
@@ -10343,7 +10356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>708</v>
       </c>
@@ -10381,7 +10394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>710</v>
       </c>
@@ -10419,7 +10432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>717</v>
       </c>
@@ -10457,7 +10470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>720</v>
       </c>
@@ -10495,7 +10508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>721</v>
       </c>
@@ -10533,7 +10546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>722</v>
       </c>
@@ -10571,7 +10584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>724</v>
       </c>
@@ -10609,7 +10622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>726</v>
       </c>
@@ -10647,7 +10660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>728</v>
       </c>
@@ -10685,7 +10698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>730</v>
       </c>
@@ -10723,7 +10736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>735</v>
       </c>
@@ -10761,7 +10774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>741</v>
       </c>
@@ -10799,7 +10812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>742</v>
       </c>
@@ -10837,7 +10850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>746</v>
       </c>
@@ -10875,7 +10888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>764</v>
       </c>
@@ -10913,7 +10926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>765</v>
       </c>
@@ -10951,7 +10964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>773</v>
       </c>
@@ -10989,7 +11002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>782</v>
       </c>
@@ -11030,7 +11043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>785</v>
       </c>
@@ -11071,7 +11084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>789</v>
       </c>
@@ -11109,7 +11122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>793</v>
       </c>
@@ -11147,7 +11160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>797</v>
       </c>
@@ -11185,7 +11198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>800</v>
       </c>
@@ -11220,7 +11233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>803</v>
       </c>
@@ -11258,7 +11271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>807</v>
       </c>
@@ -11296,7 +11309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>810</v>
       </c>
@@ -11334,7 +11347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>813</v>
       </c>
@@ -11372,7 +11385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>814</v>
       </c>
@@ -11410,7 +11423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>818</v>
       </c>
@@ -11448,7 +11461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>819</v>
       </c>
@@ -11486,7 +11499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>825</v>
       </c>
@@ -11524,7 +11537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>829</v>
       </c>
@@ -11562,7 +11575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>838</v>
       </c>
@@ -11600,7 +11613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>842</v>
       </c>
@@ -11638,7 +11651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>845</v>
       </c>
@@ -11676,7 +11689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>849</v>
       </c>
@@ -11714,7 +11727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>853</v>
       </c>
@@ -11755,7 +11768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>861</v>
       </c>
@@ -11796,7 +11809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>864</v>
       </c>
@@ -11834,7 +11847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>871</v>
       </c>
@@ -11872,7 +11885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11910,7 +11923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>898</v>
       </c>
@@ -11948,7 +11961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>901</v>
       </c>
@@ -11986,7 +11999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>914</v>
       </c>
@@ -12021,7 +12034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>933</v>
       </c>
@@ -12059,7 +12072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>935</v>
       </c>
@@ -12097,7 +12110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>938</v>
       </c>
@@ -12135,7 +12148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>943</v>
       </c>
@@ -12173,7 +12186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>948</v>
       </c>
@@ -12211,7 +12224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>961</v>
       </c>
@@ -12249,7 +12262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>980</v>
       </c>
@@ -12287,7 +12300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>983</v>
       </c>
@@ -12325,7 +12338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>984</v>
       </c>
@@ -12363,7 +12376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>995</v>
       </c>
@@ -12401,7 +12414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1001</v>
       </c>
@@ -12439,7 +12452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -12474,7 +12487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1019</v>
       </c>
@@ -12512,7 +12525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1025</v>
       </c>
@@ -12550,7 +12563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1037</v>
       </c>
@@ -12588,7 +12601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1094</v>
       </c>
@@ -12626,7 +12639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1101</v>
       </c>
@@ -12664,7 +12677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1103</v>
       </c>
@@ -12702,7 +12715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1104</v>
       </c>
@@ -12740,7 +12753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1116</v>
       </c>
@@ -12778,7 +12791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1119</v>
       </c>
@@ -12816,7 +12829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1123</v>
       </c>
@@ -12854,7 +12867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1131</v>
       </c>
@@ -12892,7 +12905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1137</v>
       </c>
@@ -12930,7 +12943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1145</v>
       </c>
@@ -12968,7 +12981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1149</v>
       </c>
@@ -13006,7 +13019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -13044,7 +13057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1159</v>
       </c>
@@ -13082,7 +13095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1162</v>
       </c>
@@ -13120,7 +13133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1171</v>
       </c>
@@ -13158,7 +13171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1195</v>
       </c>
@@ -13196,7 +13209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1208</v>
       </c>
@@ -13234,7 +13247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1210</v>
       </c>
@@ -13272,7 +13285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1214</v>
       </c>
@@ -13310,7 +13323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1215</v>
       </c>
@@ -13348,7 +13361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1231</v>
       </c>
@@ -13386,7 +13399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1238</v>
       </c>
@@ -13424,7 +13437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1249</v>
       </c>
@@ -13462,7 +13475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1250</v>
       </c>
@@ -13500,7 +13513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1261</v>
       </c>
@@ -13538,7 +13551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1262</v>
       </c>
@@ -13576,7 +13589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1274</v>
       </c>
@@ -13614,7 +13627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1282</v>
       </c>
@@ -13652,7 +13665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1290</v>
       </c>
@@ -13690,7 +13703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1300</v>
       </c>
@@ -13728,7 +13741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1313</v>
       </c>
@@ -13769,7 +13782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1317</v>
       </c>
@@ -13810,7 +13823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1321</v>
       </c>
@@ -13848,7 +13861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1330</v>
       </c>
@@ -13886,7 +13899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1355</v>
       </c>
@@ -13924,7 +13937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1360</v>
       </c>
@@ -13965,7 +13978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1374</v>
       </c>
@@ -14003,7 +14016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1389</v>
       </c>
@@ -14044,7 +14057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1394</v>
       </c>
@@ -14082,7 +14095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1398</v>
       </c>
@@ -14120,7 +14133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1411</v>
       </c>
@@ -14161,7 +14174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1424</v>
       </c>
@@ -14202,7 +14215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1430</v>
       </c>
@@ -14240,7 +14253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1434</v>
       </c>
@@ -14278,7 +14291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1444</v>
       </c>
@@ -14316,7 +14329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1450</v>
       </c>
@@ -14351,7 +14364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1451</v>
       </c>
@@ -14389,7 +14402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1453</v>
       </c>
@@ -14427,7 +14440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1457</v>
       </c>
@@ -14465,7 +14478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1463</v>
       </c>
@@ -14503,7 +14516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1466</v>
       </c>
@@ -14541,7 +14554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1469</v>
       </c>
@@ -14579,7 +14592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1474</v>
       </c>
@@ -14617,7 +14630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1500</v>
       </c>
@@ -14655,7 +14668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1509</v>
       </c>
@@ -14696,7 +14709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1520</v>
       </c>
@@ -14734,7 +14747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1529</v>
       </c>
@@ -14772,7 +14785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1536</v>
       </c>
@@ -14810,7 +14823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1543</v>
       </c>
@@ -14848,7 +14861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1553</v>
       </c>
@@ -14886,7 +14899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1557</v>
       </c>
@@ -14924,7 +14937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1573</v>
       </c>
@@ -14962,7 +14975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1592</v>
       </c>
@@ -15000,7 +15013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1601</v>
       </c>
@@ -15041,7 +15054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1604</v>
       </c>
@@ -15079,7 +15092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1612</v>
       </c>
@@ -15117,7 +15130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1613</v>
       </c>
@@ -15155,7 +15168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1614</v>
       </c>
@@ -15193,7 +15206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1617</v>
       </c>
@@ -15231,7 +15244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1622</v>
       </c>
@@ -15269,7 +15282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1625</v>
       </c>
@@ -15307,7 +15320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1627</v>
       </c>
@@ -15345,7 +15358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1635</v>
       </c>
@@ -15386,7 +15399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1639</v>
       </c>
@@ -15424,7 +15437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1644</v>
       </c>
@@ -15465,7 +15478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1656</v>
       </c>
@@ -15503,7 +15516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1664</v>
       </c>
@@ -15538,7 +15551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1669</v>
       </c>
@@ -15576,7 +15589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1677</v>
       </c>
@@ -15614,7 +15627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1678</v>
       </c>
@@ -15652,7 +15665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1681</v>
       </c>
@@ -15690,7 +15703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1689</v>
       </c>
@@ -15728,7 +15741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1692</v>
       </c>
@@ -15766,7 +15779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1696</v>
       </c>
@@ -15804,7 +15817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1701</v>
       </c>
@@ -15842,7 +15855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1705</v>
       </c>
@@ -15880,7 +15893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1711</v>
       </c>
@@ -15918,7 +15931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1715</v>
       </c>
@@ -15959,7 +15972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1720</v>
       </c>
@@ -15997,7 +16010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -16035,7 +16048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1733</v>
       </c>
@@ -16076,7 +16089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1744</v>
       </c>
@@ -16114,7 +16127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1753</v>
       </c>
@@ -16152,7 +16165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1756</v>
       </c>
@@ -16190,7 +16203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1769</v>
       </c>
@@ -16228,7 +16241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1775</v>
       </c>
@@ -16266,7 +16279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1779</v>
       </c>
@@ -16307,7 +16320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1790</v>
       </c>
@@ -16348,7 +16361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1800</v>
       </c>
@@ -16386,7 +16399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1810</v>
       </c>
@@ -16424,7 +16437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1812</v>
       </c>
@@ -16465,7 +16478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1818</v>
       </c>
@@ -16503,7 +16516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1826</v>
       </c>
@@ -16544,7 +16557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1831</v>
       </c>
@@ -16582,7 +16595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -16617,7 +16630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1846</v>
       </c>
@@ -16655,7 +16668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1850</v>
       </c>
@@ -16693,7 +16706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1852</v>
       </c>
@@ -16731,7 +16744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1868</v>
       </c>
@@ -16772,7 +16785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1876</v>
       </c>
@@ -16810,7 +16823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1877</v>
       </c>
@@ -16848,7 +16861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1878</v>
       </c>
@@ -16886,7 +16899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1880</v>
       </c>
@@ -16924,7 +16937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1887</v>
       </c>
@@ -16962,7 +16975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1890</v>
       </c>
@@ -16997,7 +17010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1893</v>
       </c>
@@ -17038,7 +17051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1894</v>
       </c>
@@ -17076,7 +17089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1899</v>
       </c>
@@ -17117,7 +17130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -17155,7 +17168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1928</v>
       </c>
@@ -17193,7 +17206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1933</v>
       </c>
@@ -17234,7 +17247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1960</v>
       </c>
@@ -17272,7 +17285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1966</v>
       </c>
@@ -17310,7 +17323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11000</v>
       </c>
@@ -17348,7 +17361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11050</v>
       </c>
@@ -17386,7 +17399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11100</v>
       </c>
@@ -17424,7 +17437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11150</v>
       </c>
@@ -17462,7 +17475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11200</v>
       </c>
@@ -17500,7 +17513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11250</v>
       </c>
@@ -17538,7 +17551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11300</v>
       </c>
@@ -17576,7 +17589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11350</v>
       </c>
@@ -17611,7 +17624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11400</v>
       </c>
@@ -17649,7 +17662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11450</v>
       </c>
@@ -17687,7 +17700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11500</v>
       </c>
@@ -17725,7 +17738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>11550</v>
       </c>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D4019B6-8E28-40E4-94AF-CDCA5B664157}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="907">
   <si>
     <t>species_order</t>
   </si>
@@ -2743,12 +2742,15 @@
   </si>
   <si>
     <t>https://c1.staticflickr.com/5/4827/44354642860_0a6414af1c_b_d.jpg</t>
+  </si>
+  <si>
+    <t>https://c2.staticflickr.com/2/1965/32369618868_8c2fa1ace7_b_d.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3094,30 +3096,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875"/>
-    <col min="2" max="2" width="37.5703125"/>
+    <col min="1" max="1" width="13.81640625"/>
+    <col min="2" max="2" width="37.54296875"/>
     <col min="3" max="3" width="32"/>
-    <col min="4" max="4" width="20.42578125"/>
-    <col min="5" max="5" width="31.7109375"/>
-    <col min="6" max="6" width="18.42578125"/>
-    <col min="7" max="8" width="13.5703125"/>
-    <col min="9" max="9" width="23.140625"/>
-    <col min="10" max="10" width="21.28515625"/>
-    <col min="11" max="11" width="8.85546875"/>
-    <col min="12" max="12" width="67.7109375"/>
-    <col min="13" max="1025" width="8.85546875"/>
+    <col min="4" max="4" width="20.453125"/>
+    <col min="5" max="5" width="31.7265625"/>
+    <col min="6" max="6" width="18.453125"/>
+    <col min="7" max="8" width="13.54296875"/>
+    <col min="9" max="9" width="23.1796875"/>
+    <col min="10" max="10" width="21.26953125"/>
+    <col min="11" max="11" width="8.81640625"/>
+    <col min="12" max="12" width="67.7265625"/>
+    <col min="13" max="1025" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3910,7 +3912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4387,7 +4389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>192</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>195</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>206</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>275</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>278</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>279</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>280</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>284</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>285</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>286</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>288</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>297</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>298</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>339</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>340</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>343</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>344</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>346</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>348</v>
       </c>
@@ -6911,7 +6913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>349</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>350</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>351</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>358</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>359</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>360</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>363</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>392</v>
       </c>
@@ -7662,7 +7664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>394</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>395</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>396</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>400</v>
       </c>
@@ -7805,7 +7807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>404</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>411</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>416</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>417</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>423</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>428</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>431</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>434</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>442</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>443</v>
       </c>
@@ -8176,7 +8178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8433,7 +8435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>534</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>535</v>
       </c>
@@ -8596,7 +8598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>537</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>547</v>
       </c>
@@ -8660,7 +8662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>548</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>555</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8899,7 +8901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8966,7 +8968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>591</v>
       </c>
@@ -9004,7 +9006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>611</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>613</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>615</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>619</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>627</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>629</v>
       </c>
@@ -9235,7 +9237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>636</v>
       </c>
@@ -9276,7 +9278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>640</v>
       </c>
@@ -9317,7 +9319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>645</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>647</v>
       </c>
@@ -9393,7 +9395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>650</v>
       </c>
@@ -9431,7 +9433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>651</v>
       </c>
@@ -9472,7 +9474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>656</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>658</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>659</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>660</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>661</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>662</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>663</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>669</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>670</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9969,7 +9971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>684</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>686</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>688</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>690</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>693</v>
       </c>
@@ -10162,7 +10164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>697</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>698</v>
       </c>
@@ -10235,7 +10237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>699</v>
       </c>
@@ -10273,7 +10275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>702</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>705</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>706</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>707</v>
       </c>
@@ -10425,7 +10427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>708</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>710</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>717</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>720</v>
       </c>
@@ -10577,7 +10579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>721</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>722</v>
       </c>
@@ -10653,7 +10655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>724</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>726</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>728</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>730</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>735</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>741</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>742</v>
       </c>
@@ -10919,7 +10921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>746</v>
       </c>
@@ -10957,7 +10959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>764</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>765</v>
       </c>
@@ -11033,7 +11035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>773</v>
       </c>
@@ -11071,7 +11073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>782</v>
       </c>
@@ -11112,7 +11114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>785</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>789</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>793</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>797</v>
       </c>
@@ -11267,7 +11269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>800</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>803</v>
       </c>
@@ -11340,7 +11342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>807</v>
       </c>
@@ -11378,7 +11380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>810</v>
       </c>
@@ -11416,7 +11418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>813</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>814</v>
       </c>
@@ -11492,7 +11494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>818</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>819</v>
       </c>
@@ -11568,7 +11570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>825</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>829</v>
       </c>
@@ -11644,7 +11646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>838</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>842</v>
       </c>
@@ -11720,7 +11722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>845</v>
       </c>
@@ -11758,7 +11760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>849</v>
       </c>
@@ -11796,7 +11798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>853</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>861</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>864</v>
       </c>
@@ -11916,7 +11918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>871</v>
       </c>
@@ -11954,7 +11956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11992,7 +11994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>898</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>901</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>914</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>933</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>935</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>938</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>943</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>948</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>961</v>
       </c>
@@ -12331,7 +12333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>980</v>
       </c>
@@ -12369,7 +12371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>983</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>984</v>
       </c>
@@ -12445,7 +12447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>995</v>
       </c>
@@ -12483,7 +12485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1001</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1019</v>
       </c>
@@ -12594,7 +12596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1025</v>
       </c>
@@ -12632,7 +12634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1037</v>
       </c>
@@ -12670,7 +12672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1094</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1101</v>
       </c>
@@ -12746,7 +12748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1103</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1104</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1116</v>
       </c>
@@ -12860,7 +12862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1119</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1123</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1131</v>
       </c>
@@ -12974,7 +12976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1137</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1145</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1149</v>
       </c>
@@ -13088,7 +13090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -13126,7 +13128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1159</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1162</v>
       </c>
@@ -13202,7 +13204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1171</v>
       </c>
@@ -13240,7 +13242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1195</v>
       </c>
@@ -13278,7 +13280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1208</v>
       </c>
@@ -13316,7 +13318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1210</v>
       </c>
@@ -13354,7 +13356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1214</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1215</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1231</v>
       </c>
@@ -13468,7 +13470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1238</v>
       </c>
@@ -13506,7 +13508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1249</v>
       </c>
@@ -13544,7 +13546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1250</v>
       </c>
@@ -13582,7 +13584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1261</v>
       </c>
@@ -13620,7 +13622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1262</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1274</v>
       </c>
@@ -13696,7 +13698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1282</v>
       </c>
@@ -13734,7 +13736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1290</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1300</v>
       </c>
@@ -13810,7 +13812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1313</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1317</v>
       </c>
@@ -13889,7 +13891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1321</v>
       </c>
@@ -13927,7 +13929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1330</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1355</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1360</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1374</v>
       </c>
@@ -14082,7 +14084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1389</v>
       </c>
@@ -14123,7 +14125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1394</v>
       </c>
@@ -14161,7 +14163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1398</v>
       </c>
@@ -14199,7 +14201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1411</v>
       </c>
@@ -14240,7 +14242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1424</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1430</v>
       </c>
@@ -14319,7 +14321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1434</v>
       </c>
@@ -14357,7 +14359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1444</v>
       </c>
@@ -14395,7 +14397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1450</v>
       </c>
@@ -14430,7 +14432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1451</v>
       </c>
@@ -14468,7 +14470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1453</v>
       </c>
@@ -14506,7 +14508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1457</v>
       </c>
@@ -14544,7 +14546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1463</v>
       </c>
@@ -14582,7 +14584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1466</v>
       </c>
@@ -14620,7 +14622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1469</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1474</v>
       </c>
@@ -14696,7 +14698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1500</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1509</v>
       </c>
@@ -14775,7 +14777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1520</v>
       </c>
@@ -14813,7 +14815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1529</v>
       </c>
@@ -14851,7 +14853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1536</v>
       </c>
@@ -14889,7 +14891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1543</v>
       </c>
@@ -14927,7 +14929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1553</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1557</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1573</v>
       </c>
@@ -15041,7 +15043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1592</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1601</v>
       </c>
@@ -15120,7 +15122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1604</v>
       </c>
@@ -15158,7 +15160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1612</v>
       </c>
@@ -15196,7 +15198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1613</v>
       </c>
@@ -15234,7 +15236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1614</v>
       </c>
@@ -15272,7 +15274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1617</v>
       </c>
@@ -15310,7 +15312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1622</v>
       </c>
@@ -15348,7 +15350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1625</v>
       </c>
@@ -15386,7 +15388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1627</v>
       </c>
@@ -15424,7 +15426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1635</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1639</v>
       </c>
@@ -15503,7 +15505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1644</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1656</v>
       </c>
@@ -15582,7 +15584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1664</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1669</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1677</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1678</v>
       </c>
@@ -15731,7 +15733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1681</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1689</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1692</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1696</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1701</v>
       </c>
@@ -15921,7 +15923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1705</v>
       </c>
@@ -15959,7 +15961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1711</v>
       </c>
@@ -15997,7 +15999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1715</v>
       </c>
@@ -16038,7 +16040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1720</v>
       </c>
@@ -16076,7 +16078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1733</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1744</v>
       </c>
@@ -16193,7 +16195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1753</v>
       </c>
@@ -16231,7 +16233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1756</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1769</v>
       </c>
@@ -16307,7 +16309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1775</v>
       </c>
@@ -16345,7 +16347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1779</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1790</v>
       </c>
@@ -16427,7 +16429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1800</v>
       </c>
@@ -16465,7 +16467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1810</v>
       </c>
@@ -16503,7 +16505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1812</v>
       </c>
@@ -16544,7 +16546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1818</v>
       </c>
@@ -16582,7 +16584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1826</v>
       </c>
@@ -16623,7 +16625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1831</v>
       </c>
@@ -16661,7 +16663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1846</v>
       </c>
@@ -16734,7 +16736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1850</v>
       </c>
@@ -16772,7 +16774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1852</v>
       </c>
@@ -16810,7 +16812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1868</v>
       </c>
@@ -16851,7 +16853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1876</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1877</v>
       </c>
@@ -16927,7 +16929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1878</v>
       </c>
@@ -16965,7 +16967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1880</v>
       </c>
@@ -17003,7 +17005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1887</v>
       </c>
@@ -17037,11 +17039,14 @@
       <c r="K365" t="s">
         <v>19</v>
       </c>
+      <c r="L365" t="s">
+        <v>906</v>
+      </c>
       <c r="M365" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1890</v>
       </c>
@@ -17076,7 +17081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1893</v>
       </c>
@@ -17117,7 +17122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1894</v>
       </c>
@@ -17155,7 +17160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1899</v>
       </c>
@@ -17196,7 +17201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -17234,7 +17239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1928</v>
       </c>
@@ -17272,7 +17277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1933</v>
       </c>
@@ -17313,7 +17318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1960</v>
       </c>
@@ -17351,7 +17356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1966</v>
       </c>
@@ -17389,7 +17394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>11000</v>
       </c>
@@ -17427,7 +17432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>11050</v>
       </c>
@@ -17465,7 +17470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>11100</v>
       </c>
@@ -17503,7 +17508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>11150</v>
       </c>
@@ -17541,7 +17546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>11200</v>
       </c>
@@ -17579,7 +17584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>11250</v>
       </c>
@@ -17617,7 +17622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>11300</v>
       </c>
@@ -17655,7 +17660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>11350</v>
       </c>
@@ -17690,7 +17695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>11400</v>
       </c>
@@ -17728,7 +17733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>11450</v>
       </c>
@@ -17766,7 +17771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>11500</v>
       </c>
@@ -17804,7 +17809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>11550</v>
       </c>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319483B9-D715-48E9-8D29-CF68E1A53B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="913">
   <si>
     <t>species_order</t>
   </si>
@@ -2745,12 +2751,30 @@
   </si>
   <si>
     <t>https://c2.staticflickr.com/2/1965/32369618868_8c2fa1ace7_b_d.jpg</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3096,30 +3120,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M386"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N226" sqref="N226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.81640625"/>
-    <col min="2" max="2" width="37.54296875"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="32"/>
-    <col min="4" max="4" width="20.453125"/>
-    <col min="5" max="5" width="31.7265625"/>
-    <col min="6" max="6" width="18.453125"/>
-    <col min="7" max="8" width="13.54296875"/>
-    <col min="9" max="9" width="23.1796875"/>
-    <col min="10" max="10" width="21.26953125"/>
-    <col min="11" max="11" width="8.81640625"/>
-    <col min="12" max="12" width="67.7265625"/>
-    <col min="13" max="1025" width="8.81640625"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875"/>
+    <col min="12" max="12" width="67.7109375"/>
+    <col min="13" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3159,8 +3183,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3200,8 +3227,11 @@
       <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3241,8 +3271,11 @@
       <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3282,8 +3315,11 @@
       <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3320,8 +3356,11 @@
       <c r="M5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3361,8 +3400,11 @@
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3399,8 +3441,11 @@
       <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3440,8 +3485,11 @@
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3481,8 +3529,11 @@
       <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3522,8 +3573,11 @@
       <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3563,8 +3617,11 @@
       <c r="M11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3601,8 +3658,11 @@
       <c r="M12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3639,8 +3699,11 @@
       <c r="M13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3677,8 +3740,11 @@
       <c r="M14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3715,8 +3781,11 @@
       <c r="M15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3756,8 +3825,11 @@
       <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3797,8 +3869,11 @@
       <c r="M17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3832,8 +3907,11 @@
       <c r="M18" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3873,8 +3951,11 @@
       <c r="M19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3911,8 +3992,11 @@
       <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>76</v>
       </c>
@@ -3952,8 +4036,11 @@
       <c r="M21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>78</v>
       </c>
@@ -3990,8 +4077,11 @@
       <c r="M22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>79</v>
       </c>
@@ -4028,8 +4118,11 @@
       <c r="M23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>81</v>
       </c>
@@ -4066,8 +4159,11 @@
       <c r="M24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>85</v>
       </c>
@@ -4107,8 +4203,11 @@
       <c r="M25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4148,8 +4247,11 @@
       <c r="M26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4189,8 +4291,11 @@
       <c r="M27" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4227,8 +4332,11 @@
       <c r="M28" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4268,8 +4376,11 @@
       <c r="M29" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4309,8 +4420,11 @@
       <c r="M30" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4347,8 +4461,11 @@
       <c r="M31" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4388,8 +4505,11 @@
       <c r="M32" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4429,8 +4549,11 @@
       <c r="M33" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4470,8 +4593,11 @@
       <c r="M34" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4508,8 +4634,11 @@
       <c r="M35" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4543,8 +4672,11 @@
       <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4584,8 +4716,11 @@
       <c r="M37" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4625,8 +4760,11 @@
       <c r="M38" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4666,8 +4804,11 @@
       <c r="M39" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4704,8 +4845,11 @@
       <c r="M40" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4745,8 +4889,11 @@
       <c r="M41" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4786,8 +4933,11 @@
       <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4827,8 +4977,11 @@
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>178</v>
       </c>
@@ -4865,8 +5018,11 @@
       <c r="M44" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>184</v>
       </c>
@@ -4906,8 +5062,11 @@
       <c r="M45" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>186</v>
       </c>
@@ -4944,8 +5103,11 @@
       <c r="M46" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>189</v>
       </c>
@@ -4985,8 +5147,11 @@
       <c r="M47" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>192</v>
       </c>
@@ -5026,8 +5191,11 @@
       <c r="M48" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>195</v>
       </c>
@@ -5064,8 +5232,11 @@
       <c r="M49" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201</v>
       </c>
@@ -5105,8 +5276,11 @@
       <c r="M50" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>206</v>
       </c>
@@ -5143,8 +5317,11 @@
       <c r="M51" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5181,8 +5358,11 @@
       <c r="M52" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5222,8 +5402,11 @@
       <c r="M53" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5257,8 +5440,11 @@
       <c r="M54" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5295,8 +5481,11 @@
       <c r="M55" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5333,8 +5522,11 @@
       <c r="M56" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5374,8 +5566,11 @@
       <c r="M57" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5409,8 +5604,11 @@
       <c r="M58" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5450,8 +5648,11 @@
       <c r="M59" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5491,8 +5692,11 @@
       <c r="M60" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5532,8 +5736,11 @@
       <c r="M61" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5573,8 +5780,11 @@
       <c r="M62" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5611,8 +5821,11 @@
       <c r="M63" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5646,8 +5859,11 @@
       <c r="M64" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5684,8 +5900,11 @@
       <c r="M65" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5722,8 +5941,11 @@
       <c r="M66" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5763,8 +5985,11 @@
       <c r="M67" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>275</v>
       </c>
@@ -5801,8 +6026,11 @@
       <c r="M68" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>278</v>
       </c>
@@ -5836,8 +6064,11 @@
       <c r="M69" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>279</v>
       </c>
@@ -5874,8 +6105,11 @@
       <c r="M70" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>280</v>
       </c>
@@ -5912,8 +6146,11 @@
       <c r="M71" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>284</v>
       </c>
@@ -5953,8 +6190,11 @@
       <c r="M72" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>285</v>
       </c>
@@ -5994,8 +6234,11 @@
       <c r="M73" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>286</v>
       </c>
@@ -6032,8 +6275,11 @@
       <c r="M74" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>288</v>
       </c>
@@ -6070,8 +6316,11 @@
       <c r="M75" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>297</v>
       </c>
@@ -6108,8 +6357,11 @@
       <c r="M76" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>298</v>
       </c>
@@ -6146,8 +6398,11 @@
       <c r="M77" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6184,8 +6439,11 @@
       <c r="M78" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6222,8 +6480,11 @@
       <c r="M79" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6260,8 +6521,11 @@
       <c r="M80" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6295,8 +6559,11 @@
       <c r="M81" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6333,8 +6600,11 @@
       <c r="M82" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6374,8 +6644,11 @@
       <c r="M83" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6409,8 +6682,11 @@
       <c r="M84" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6450,8 +6726,11 @@
       <c r="M85" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6491,8 +6770,11 @@
       <c r="M86" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6526,8 +6808,11 @@
       <c r="M87" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6564,8 +6849,11 @@
       <c r="M88" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6602,8 +6890,11 @@
       <c r="M89" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6640,8 +6931,11 @@
       <c r="M90" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6678,8 +6972,11 @@
       <c r="M91" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>339</v>
       </c>
@@ -6716,8 +7013,11 @@
       <c r="M92" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>340</v>
       </c>
@@ -6754,8 +7054,11 @@
       <c r="M93" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>343</v>
       </c>
@@ -6792,8 +7095,11 @@
       <c r="M94" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>344</v>
       </c>
@@ -6830,8 +7136,11 @@
       <c r="M95" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>346</v>
       </c>
@@ -6871,8 +7180,11 @@
       <c r="M96" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>348</v>
       </c>
@@ -6912,8 +7224,11 @@
       <c r="M97" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>349</v>
       </c>
@@ -6950,8 +7265,11 @@
       <c r="M98" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>350</v>
       </c>
@@ -6991,8 +7309,11 @@
       <c r="M99" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>351</v>
       </c>
@@ -7026,8 +7347,11 @@
       <c r="M100" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>358</v>
       </c>
@@ -7061,8 +7385,11 @@
       <c r="M101" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>359</v>
       </c>
@@ -7099,8 +7426,11 @@
       <c r="M102" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>360</v>
       </c>
@@ -7134,8 +7464,11 @@
       <c r="M103" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>363</v>
       </c>
@@ -7175,8 +7508,11 @@
       <c r="M104" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7213,8 +7549,11 @@
       <c r="M105" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7254,8 +7593,11 @@
       <c r="M106" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7292,8 +7634,11 @@
       <c r="M107" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7327,8 +7672,11 @@
       <c r="M108" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7362,8 +7710,11 @@
       <c r="M109" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7400,8 +7751,11 @@
       <c r="M110" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7438,8 +7792,11 @@
       <c r="M111" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7476,8 +7833,11 @@
       <c r="M112" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7514,8 +7874,11 @@
       <c r="M113" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7552,8 +7915,11 @@
       <c r="M114" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7593,8 +7959,11 @@
       <c r="M115" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7628,8 +7997,11 @@
       <c r="M116" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>392</v>
       </c>
@@ -7663,8 +8035,11 @@
       <c r="M117" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>394</v>
       </c>
@@ -7695,8 +8070,11 @@
       <c r="M118" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>395</v>
       </c>
@@ -7733,8 +8111,11 @@
       <c r="M119" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>396</v>
       </c>
@@ -7771,8 +8152,11 @@
       <c r="M120" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>400</v>
       </c>
@@ -7806,8 +8190,11 @@
       <c r="M121" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>404</v>
       </c>
@@ -7841,8 +8228,11 @@
       <c r="M122" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>411</v>
       </c>
@@ -7879,8 +8269,11 @@
       <c r="M123" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>416</v>
       </c>
@@ -7914,8 +8307,11 @@
       <c r="M124" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>417</v>
       </c>
@@ -7949,8 +8345,11 @@
       <c r="M125" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>423</v>
       </c>
@@ -7984,8 +8383,11 @@
       <c r="M126" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>428</v>
       </c>
@@ -8022,8 +8424,11 @@
       <c r="M127" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>431</v>
       </c>
@@ -8060,8 +8465,11 @@
       <c r="M128" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>434</v>
       </c>
@@ -8101,8 +8509,11 @@
       <c r="M129" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>442</v>
       </c>
@@ -8139,8 +8550,11 @@
       <c r="M130" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>443</v>
       </c>
@@ -8177,8 +8591,11 @@
       <c r="M131" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8215,8 +8632,11 @@
       <c r="M132" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8253,8 +8673,11 @@
       <c r="M133" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8291,8 +8714,11 @@
       <c r="M134" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8329,8 +8755,11 @@
       <c r="M135" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8370,8 +8799,11 @@
       <c r="M136" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8402,8 +8834,11 @@
       <c r="M137" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8434,8 +8869,11 @@
       <c r="M138" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8466,8 +8904,11 @@
       <c r="M139" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8501,8 +8942,11 @@
       <c r="M140" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8533,8 +8977,11 @@
       <c r="M141" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>534</v>
       </c>
@@ -8565,8 +9012,11 @@
       <c r="M142" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>535</v>
       </c>
@@ -8597,8 +9047,11 @@
       <c r="M143" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>537</v>
       </c>
@@ -8629,8 +9082,11 @@
       <c r="M144" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>547</v>
       </c>
@@ -8661,8 +9117,11 @@
       <c r="M145" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>548</v>
       </c>
@@ -8693,8 +9152,11 @@
       <c r="M146" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>555</v>
       </c>
@@ -8728,8 +9190,11 @@
       <c r="M147" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>563</v>
       </c>
@@ -8760,8 +9225,11 @@
       <c r="M148" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>564</v>
       </c>
@@ -8792,8 +9260,11 @@
       <c r="M149" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>582</v>
       </c>
@@ -8830,8 +9301,11 @@
       <c r="M150" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8868,8 +9342,11 @@
       <c r="M151" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>587</v>
       </c>
@@ -8900,8 +9377,11 @@
       <c r="M152" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>589</v>
       </c>
@@ -8932,8 +9412,11 @@
       <c r="M153" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>590</v>
       </c>
@@ -8967,8 +9450,11 @@
       <c r="M154" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>591</v>
       </c>
@@ -9005,8 +9491,11 @@
       <c r="M155" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>611</v>
       </c>
@@ -9043,8 +9532,11 @@
       <c r="M156" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>613</v>
       </c>
@@ -9084,8 +9576,11 @@
       <c r="M157" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>615</v>
       </c>
@@ -9122,8 +9617,11 @@
       <c r="M158" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>619</v>
       </c>
@@ -9160,8 +9658,11 @@
       <c r="M159" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>627</v>
       </c>
@@ -9198,8 +9699,11 @@
       <c r="M160" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>629</v>
       </c>
@@ -9236,8 +9740,11 @@
       <c r="M161" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>636</v>
       </c>
@@ -9277,8 +9784,11 @@
       <c r="M162" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>640</v>
       </c>
@@ -9318,8 +9828,11 @@
       <c r="M163" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>645</v>
       </c>
@@ -9356,8 +9869,11 @@
       <c r="M164" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>647</v>
       </c>
@@ -9394,8 +9910,11 @@
       <c r="M165" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>650</v>
       </c>
@@ -9432,8 +9951,11 @@
       <c r="M166" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>651</v>
       </c>
@@ -9473,8 +9995,11 @@
       <c r="M167" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>656</v>
       </c>
@@ -9511,8 +10036,11 @@
       <c r="M168" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>658</v>
       </c>
@@ -9552,8 +10080,11 @@
       <c r="M169" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>659</v>
       </c>
@@ -9593,8 +10124,11 @@
       <c r="M170" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>660</v>
       </c>
@@ -9631,8 +10165,11 @@
       <c r="M171" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>661</v>
       </c>
@@ -9672,8 +10209,11 @@
       <c r="M172" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>662</v>
       </c>
@@ -9710,8 +10250,11 @@
       <c r="M173" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>663</v>
       </c>
@@ -9745,8 +10288,11 @@
       <c r="M174" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>669</v>
       </c>
@@ -9783,8 +10329,11 @@
       <c r="M175" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>670</v>
       </c>
@@ -9821,8 +10370,11 @@
       <c r="M176" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>672</v>
       </c>
@@ -9856,8 +10408,11 @@
       <c r="M177" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>674</v>
       </c>
@@ -9894,8 +10449,11 @@
       <c r="M178" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>677</v>
       </c>
@@ -9932,8 +10490,11 @@
       <c r="M179" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>682</v>
       </c>
@@ -9970,8 +10531,11 @@
       <c r="M180" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>684</v>
       </c>
@@ -10008,8 +10572,11 @@
       <c r="M181" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>686</v>
       </c>
@@ -10046,8 +10613,11 @@
       <c r="M182" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>688</v>
       </c>
@@ -10087,8 +10657,11 @@
       <c r="M183" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>690</v>
       </c>
@@ -10125,8 +10698,11 @@
       <c r="M184" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>693</v>
       </c>
@@ -10163,8 +10739,11 @@
       <c r="M185" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>697</v>
       </c>
@@ -10198,8 +10777,11 @@
       <c r="M186" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>698</v>
       </c>
@@ -10236,8 +10818,11 @@
       <c r="M187" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>699</v>
       </c>
@@ -10274,8 +10859,11 @@
       <c r="M188" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>702</v>
       </c>
@@ -10312,8 +10900,11 @@
       <c r="M189" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>705</v>
       </c>
@@ -10350,8 +10941,11 @@
       <c r="M190" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>706</v>
       </c>
@@ -10388,8 +10982,11 @@
       <c r="M191" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>707</v>
       </c>
@@ -10426,8 +11023,11 @@
       <c r="M192" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>708</v>
       </c>
@@ -10464,8 +11064,11 @@
       <c r="M193" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>710</v>
       </c>
@@ -10502,8 +11105,11 @@
       <c r="M194" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>717</v>
       </c>
@@ -10540,8 +11146,11 @@
       <c r="M195" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>720</v>
       </c>
@@ -10578,8 +11187,11 @@
       <c r="M196" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>721</v>
       </c>
@@ -10616,8 +11228,11 @@
       <c r="M197" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>722</v>
       </c>
@@ -10654,8 +11269,11 @@
       <c r="M198" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>724</v>
       </c>
@@ -10692,8 +11310,11 @@
       <c r="M199" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>726</v>
       </c>
@@ -10730,8 +11351,11 @@
       <c r="M200" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>728</v>
       </c>
@@ -10768,8 +11392,11 @@
       <c r="M201" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>730</v>
       </c>
@@ -10806,8 +11433,11 @@
       <c r="M202" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>735</v>
       </c>
@@ -10844,8 +11474,11 @@
       <c r="M203" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>741</v>
       </c>
@@ -10882,8 +11515,11 @@
       <c r="M204" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>742</v>
       </c>
@@ -10920,8 +11556,11 @@
       <c r="M205" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>746</v>
       </c>
@@ -10958,8 +11597,11 @@
       <c r="M206" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>764</v>
       </c>
@@ -10996,8 +11638,11 @@
       <c r="M207" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>765</v>
       </c>
@@ -11034,8 +11679,11 @@
       <c r="M208" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>773</v>
       </c>
@@ -11072,8 +11720,11 @@
       <c r="M209" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>782</v>
       </c>
@@ -11113,8 +11764,11 @@
       <c r="M210" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>785</v>
       </c>
@@ -11154,8 +11808,11 @@
       <c r="M211" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>789</v>
       </c>
@@ -11192,8 +11849,11 @@
       <c r="M212" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>793</v>
       </c>
@@ -11230,8 +11890,11 @@
       <c r="M213" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>797</v>
       </c>
@@ -11268,8 +11931,11 @@
       <c r="M214" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>800</v>
       </c>
@@ -11303,8 +11969,11 @@
       <c r="M215" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>803</v>
       </c>
@@ -11341,8 +12010,11 @@
       <c r="M216" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>807</v>
       </c>
@@ -11379,8 +12051,11 @@
       <c r="M217" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>810</v>
       </c>
@@ -11417,8 +12092,11 @@
       <c r="M218" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>813</v>
       </c>
@@ -11455,8 +12133,11 @@
       <c r="M219" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>814</v>
       </c>
@@ -11493,8 +12174,11 @@
       <c r="M220" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>818</v>
       </c>
@@ -11531,8 +12215,11 @@
       <c r="M221" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>819</v>
       </c>
@@ -11569,8 +12256,11 @@
       <c r="M222" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>825</v>
       </c>
@@ -11607,8 +12297,11 @@
       <c r="M223" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>829</v>
       </c>
@@ -11645,8 +12338,11 @@
       <c r="M224" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>838</v>
       </c>
@@ -11683,8 +12379,11 @@
       <c r="M225" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>842</v>
       </c>
@@ -11721,8 +12420,11 @@
       <c r="M226" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>845</v>
       </c>
@@ -11759,8 +12461,11 @@
       <c r="M227" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>849</v>
       </c>
@@ -11797,8 +12502,11 @@
       <c r="M228" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>853</v>
       </c>
@@ -11838,8 +12546,11 @@
       <c r="M229" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>861</v>
       </c>
@@ -11879,8 +12590,11 @@
       <c r="M230" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>864</v>
       </c>
@@ -11917,8 +12631,11 @@
       <c r="M231" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>871</v>
       </c>
@@ -11955,8 +12672,11 @@
       <c r="M232" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>887</v>
       </c>
@@ -11993,8 +12713,11 @@
       <c r="M233" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>898</v>
       </c>
@@ -12031,8 +12754,11 @@
       <c r="M234" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>901</v>
       </c>
@@ -12069,8 +12795,11 @@
       <c r="M235" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>914</v>
       </c>
@@ -12104,8 +12833,11 @@
       <c r="M236" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>933</v>
       </c>
@@ -12142,8 +12874,11 @@
       <c r="M237" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>935</v>
       </c>
@@ -12180,8 +12915,11 @@
       <c r="M238" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>938</v>
       </c>
@@ -12218,8 +12956,11 @@
       <c r="M239" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>943</v>
       </c>
@@ -12256,8 +12997,11 @@
       <c r="M240" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>948</v>
       </c>
@@ -12294,8 +13038,11 @@
       <c r="M241" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>961</v>
       </c>
@@ -12332,8 +13079,11 @@
       <c r="M242" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>980</v>
       </c>
@@ -12370,8 +13120,11 @@
       <c r="M243" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>983</v>
       </c>
@@ -12408,8 +13161,11 @@
       <c r="M244" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>984</v>
       </c>
@@ -12446,8 +13202,11 @@
       <c r="M245" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>995</v>
       </c>
@@ -12484,8 +13243,11 @@
       <c r="M246" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1001</v>
       </c>
@@ -12522,8 +13284,11 @@
       <c r="M247" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -12557,8 +13322,11 @@
       <c r="M248" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1019</v>
       </c>
@@ -12595,8 +13363,11 @@
       <c r="M249" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1025</v>
       </c>
@@ -12633,8 +13404,11 @@
       <c r="M250" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1037</v>
       </c>
@@ -12671,8 +13445,11 @@
       <c r="M251" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1094</v>
       </c>
@@ -12709,8 +13486,11 @@
       <c r="M252" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1101</v>
       </c>
@@ -12747,8 +13527,11 @@
       <c r="M253" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1103</v>
       </c>
@@ -12785,8 +13568,11 @@
       <c r="M254" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1104</v>
       </c>
@@ -12823,8 +13609,11 @@
       <c r="M255" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1116</v>
       </c>
@@ -12861,8 +13650,11 @@
       <c r="M256" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1119</v>
       </c>
@@ -12899,8 +13691,11 @@
       <c r="M257" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1123</v>
       </c>
@@ -12937,8 +13732,11 @@
       <c r="M258" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1131</v>
       </c>
@@ -12975,8 +13773,11 @@
       <c r="M259" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1137</v>
       </c>
@@ -13013,8 +13814,11 @@
       <c r="M260" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1145</v>
       </c>
@@ -13051,8 +13855,11 @@
       <c r="M261" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1149</v>
       </c>
@@ -13089,8 +13896,11 @@
       <c r="M262" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -13127,8 +13937,11 @@
       <c r="M263" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1159</v>
       </c>
@@ -13165,8 +13978,11 @@
       <c r="M264" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1162</v>
       </c>
@@ -13203,8 +14019,11 @@
       <c r="M265" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1171</v>
       </c>
@@ -13241,8 +14060,11 @@
       <c r="M266" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1195</v>
       </c>
@@ -13279,8 +14101,11 @@
       <c r="M267" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1208</v>
       </c>
@@ -13317,8 +14142,11 @@
       <c r="M268" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1210</v>
       </c>
@@ -13355,8 +14183,11 @@
       <c r="M269" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1214</v>
       </c>
@@ -13393,8 +14224,11 @@
       <c r="M270" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1215</v>
       </c>
@@ -13431,8 +14265,11 @@
       <c r="M271" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1231</v>
       </c>
@@ -13469,8 +14306,11 @@
       <c r="M272" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1238</v>
       </c>
@@ -13507,8 +14347,11 @@
       <c r="M273" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1249</v>
       </c>
@@ -13545,8 +14388,11 @@
       <c r="M274" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1250</v>
       </c>
@@ -13583,8 +14429,11 @@
       <c r="M275" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1261</v>
       </c>
@@ -13621,8 +14470,11 @@
       <c r="M276" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1262</v>
       </c>
@@ -13659,8 +14511,11 @@
       <c r="M277" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1274</v>
       </c>
@@ -13697,8 +14552,11 @@
       <c r="M278" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1282</v>
       </c>
@@ -13735,8 +14593,11 @@
       <c r="M279" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1290</v>
       </c>
@@ -13773,8 +14634,11 @@
       <c r="M280" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1300</v>
       </c>
@@ -13811,8 +14675,11 @@
       <c r="M281" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1313</v>
       </c>
@@ -13852,8 +14719,11 @@
       <c r="M282" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1317</v>
       </c>
@@ -13890,8 +14760,11 @@
       <c r="M283" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1321</v>
       </c>
@@ -13928,8 +14801,11 @@
       <c r="M284" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1330</v>
       </c>
@@ -13966,8 +14842,11 @@
       <c r="M285" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1355</v>
       </c>
@@ -14004,8 +14883,11 @@
       <c r="M286" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1360</v>
       </c>
@@ -14045,8 +14927,11 @@
       <c r="M287" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1374</v>
       </c>
@@ -14083,8 +14968,11 @@
       <c r="M288" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1389</v>
       </c>
@@ -14124,8 +15012,11 @@
       <c r="M289" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1394</v>
       </c>
@@ -14162,8 +15053,11 @@
       <c r="M290" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1398</v>
       </c>
@@ -14200,8 +15094,11 @@
       <c r="M291" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1411</v>
       </c>
@@ -14241,8 +15138,11 @@
       <c r="M292" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1424</v>
       </c>
@@ -14282,8 +15182,11 @@
       <c r="M293" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1430</v>
       </c>
@@ -14320,8 +15223,11 @@
       <c r="M294" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1434</v>
       </c>
@@ -14358,8 +15264,11 @@
       <c r="M295" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1444</v>
       </c>
@@ -14396,8 +15305,11 @@
       <c r="M296" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1450</v>
       </c>
@@ -14431,8 +15343,11 @@
       <c r="M297" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1451</v>
       </c>
@@ -14469,8 +15384,11 @@
       <c r="M298" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1453</v>
       </c>
@@ -14507,8 +15425,11 @@
       <c r="M299" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1457</v>
       </c>
@@ -14545,8 +15466,11 @@
       <c r="M300" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1463</v>
       </c>
@@ -14583,8 +15507,11 @@
       <c r="M301" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1466</v>
       </c>
@@ -14621,8 +15548,11 @@
       <c r="M302" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1469</v>
       </c>
@@ -14659,8 +15589,11 @@
       <c r="M303" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1474</v>
       </c>
@@ -14697,8 +15630,11 @@
       <c r="M304" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1500</v>
       </c>
@@ -14735,8 +15671,11 @@
       <c r="M305" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1509</v>
       </c>
@@ -14776,8 +15715,11 @@
       <c r="M306" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1520</v>
       </c>
@@ -14814,8 +15756,11 @@
       <c r="M307" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1529</v>
       </c>
@@ -14852,8 +15797,11 @@
       <c r="M308" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1536</v>
       </c>
@@ -14890,8 +15838,11 @@
       <c r="M309" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1543</v>
       </c>
@@ -14928,8 +15879,11 @@
       <c r="M310" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1553</v>
       </c>
@@ -14966,8 +15920,11 @@
       <c r="M311" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1557</v>
       </c>
@@ -15004,8 +15961,11 @@
       <c r="M312" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1573</v>
       </c>
@@ -15042,8 +16002,11 @@
       <c r="M313" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1592</v>
       </c>
@@ -15080,8 +16043,11 @@
       <c r="M314" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1601</v>
       </c>
@@ -15121,8 +16087,11 @@
       <c r="M315" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1604</v>
       </c>
@@ -15159,8 +16128,11 @@
       <c r="M316" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1612</v>
       </c>
@@ -15197,8 +16169,11 @@
       <c r="M317" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1613</v>
       </c>
@@ -15235,8 +16210,11 @@
       <c r="M318" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1614</v>
       </c>
@@ -15273,8 +16251,11 @@
       <c r="M319" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1617</v>
       </c>
@@ -15311,8 +16292,11 @@
       <c r="M320" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1622</v>
       </c>
@@ -15349,8 +16333,11 @@
       <c r="M321" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1625</v>
       </c>
@@ -15387,8 +16374,11 @@
       <c r="M322" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1627</v>
       </c>
@@ -15425,8 +16415,11 @@
       <c r="M323" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1635</v>
       </c>
@@ -15466,8 +16459,11 @@
       <c r="M324" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1639</v>
       </c>
@@ -15504,8 +16500,11 @@
       <c r="M325" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1644</v>
       </c>
@@ -15545,8 +16544,11 @@
       <c r="M326" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1656</v>
       </c>
@@ -15583,8 +16585,11 @@
       <c r="M327" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1664</v>
       </c>
@@ -15618,8 +16623,11 @@
       <c r="M328" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1669</v>
       </c>
@@ -15656,8 +16664,11 @@
       <c r="M329" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1677</v>
       </c>
@@ -15694,8 +16705,11 @@
       <c r="M330" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1678</v>
       </c>
@@ -15732,8 +16746,11 @@
       <c r="M331" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1681</v>
       </c>
@@ -15770,8 +16787,11 @@
       <c r="M332" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1689</v>
       </c>
@@ -15808,8 +16828,11 @@
       <c r="M333" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1692</v>
       </c>
@@ -15846,8 +16869,11 @@
       <c r="M334" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1696</v>
       </c>
@@ -15884,8 +16910,11 @@
       <c r="M335" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1701</v>
       </c>
@@ -15922,8 +16951,11 @@
       <c r="M336" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1705</v>
       </c>
@@ -15960,8 +16992,11 @@
       <c r="M337" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1711</v>
       </c>
@@ -15998,8 +17033,11 @@
       <c r="M338" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1715</v>
       </c>
@@ -16039,8 +17077,11 @@
       <c r="M339" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1720</v>
       </c>
@@ -16077,8 +17118,11 @@
       <c r="M340" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1725</v>
       </c>
@@ -16115,8 +17159,11 @@
       <c r="M341" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1733</v>
       </c>
@@ -16156,8 +17203,11 @@
       <c r="M342" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1744</v>
       </c>
@@ -16194,8 +17244,11 @@
       <c r="M343" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1753</v>
       </c>
@@ -16232,8 +17285,11 @@
       <c r="M344" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1756</v>
       </c>
@@ -16270,8 +17326,11 @@
       <c r="M345" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1769</v>
       </c>
@@ -16308,8 +17367,11 @@
       <c r="M346" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1775</v>
       </c>
@@ -16346,8 +17408,11 @@
       <c r="M347" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1779</v>
       </c>
@@ -16387,8 +17452,11 @@
       <c r="M348" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1790</v>
       </c>
@@ -16428,8 +17496,11 @@
       <c r="M349" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1800</v>
       </c>
@@ -16466,8 +17537,11 @@
       <c r="M350" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1810</v>
       </c>
@@ -16504,8 +17578,11 @@
       <c r="M351" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1812</v>
       </c>
@@ -16545,8 +17622,11 @@
       <c r="M352" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1818</v>
       </c>
@@ -16583,8 +17663,11 @@
       <c r="M353" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1826</v>
       </c>
@@ -16624,8 +17707,11 @@
       <c r="M354" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1831</v>
       </c>
@@ -16662,8 +17748,11 @@
       <c r="M355" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -16697,8 +17786,11 @@
       <c r="M356" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N356" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1846</v>
       </c>
@@ -16735,8 +17827,11 @@
       <c r="M357" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N357" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1850</v>
       </c>
@@ -16773,8 +17868,11 @@
       <c r="M358" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N358" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1852</v>
       </c>
@@ -16811,8 +17909,11 @@
       <c r="M359" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1868</v>
       </c>
@@ -16852,8 +17953,11 @@
       <c r="M360" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N360" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1876</v>
       </c>
@@ -16890,8 +17994,11 @@
       <c r="M361" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N361" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1877</v>
       </c>
@@ -16928,8 +18035,11 @@
       <c r="M362" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N362" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1878</v>
       </c>
@@ -16966,8 +18076,11 @@
       <c r="M363" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1880</v>
       </c>
@@ -17004,8 +18117,11 @@
       <c r="M364" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1887</v>
       </c>
@@ -17045,8 +18161,11 @@
       <c r="M365" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1890</v>
       </c>
@@ -17080,8 +18199,11 @@
       <c r="M366" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1893</v>
       </c>
@@ -17121,8 +18243,11 @@
       <c r="M367" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1894</v>
       </c>
@@ -17159,8 +18284,11 @@
       <c r="M368" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1899</v>
       </c>
@@ -17200,8 +18328,11 @@
       <c r="M369" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -17238,8 +18369,11 @@
       <c r="M370" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1928</v>
       </c>
@@ -17276,8 +18410,11 @@
       <c r="M371" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1933</v>
       </c>
@@ -17317,8 +18454,11 @@
       <c r="M372" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1960</v>
       </c>
@@ -17355,8 +18495,11 @@
       <c r="M373" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1966</v>
       </c>
@@ -17393,8 +18536,11 @@
       <c r="M374" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11000</v>
       </c>
@@ -17431,8 +18577,11 @@
       <c r="M375" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11050</v>
       </c>
@@ -17469,8 +18618,11 @@
       <c r="M376" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11100</v>
       </c>
@@ -17507,8 +18659,11 @@
       <c r="M377" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11150</v>
       </c>
@@ -17545,8 +18700,11 @@
       <c r="M378" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11200</v>
       </c>
@@ -17583,8 +18741,11 @@
       <c r="M379" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11250</v>
       </c>
@@ -17621,8 +18782,11 @@
       <c r="M380" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11300</v>
       </c>
@@ -17659,8 +18823,11 @@
       <c r="M381" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11350</v>
       </c>
@@ -17694,8 +18861,11 @@
       <c r="M382" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11400</v>
       </c>
@@ -17732,8 +18902,11 @@
       <c r="M383" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11450</v>
       </c>
@@ -17770,8 +18943,11 @@
       <c r="M384" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N384" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11500</v>
       </c>
@@ -17808,8 +18984,11 @@
       <c r="M385" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N385" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>11550</v>
       </c>
@@ -17845,6 +19024,9 @@
       </c>
       <c r="M386" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="N386" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319483B9-D715-48E9-8D29-CF68E1A53B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="916">
   <si>
     <t>species_order</t>
   </si>
@@ -1151,12 +1150,6 @@
     <t>Endangered; Marine; Migratory (Bonn)</t>
   </si>
   <si>
-    <t>Fulmarus glacialoides</t>
-  </si>
-  <si>
-    <t>Southern Fulmar</t>
-  </si>
-  <si>
     <t>Daption capense</t>
   </si>
   <si>
@@ -2769,12 +2762,27 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Mandarin Duck</t>
+  </si>
+  <si>
+    <t>Aix galericulata</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos x superciliosa</t>
+  </si>
+  <si>
+    <t>Mallard x Pacific Black Duck (hybrid)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3120,30 +3128,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N386"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N226" sqref="N226"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
     <col min="3" max="3" width="32"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875"/>
-    <col min="12" max="12" width="67.7109375"/>
-    <col min="13" max="1025" width="8.85546875"/>
+    <col min="11" max="11" width="8.81640625"/>
+    <col min="12" max="12" width="67.7265625"/>
+    <col min="13" max="1025" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3184,10 +3192,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3228,10 +3236,10 @@
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3272,10 +3280,10 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3316,10 +3324,10 @@
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3357,10 +3365,10 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3401,10 +3409,10 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3442,10 +3450,10 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3486,10 +3494,10 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3524,16 +3532,16 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3574,10 +3582,10 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3618,10 +3626,10 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3659,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3700,10 +3708,10 @@
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3741,10 +3749,10 @@
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3782,10 +3790,10 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3826,10 +3834,10 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3870,10 +3878,10 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3908,10 +3916,10 @@
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3952,10 +3960,10 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -3993,10 +4001,10 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -4037,10 +4045,10 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -4078,10 +4086,10 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -4119,10 +4127,10 @@
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -4160,10 +4168,10 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -4204,10 +4212,10 @@
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4248,10 +4256,10 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4292,10 +4300,10 @@
         <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4333,10 +4341,10 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4377,10 +4385,10 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4421,10 +4429,10 @@
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4462,10 +4470,10 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4506,10 +4514,10 @@
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4550,10 +4558,10 @@
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4594,10 +4602,10 @@
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4635,10 +4643,10 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4673,10 +4681,10 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4717,10 +4725,10 @@
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4761,10 +4769,10 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4805,10 +4813,10 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4846,10 +4854,10 @@
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4890,10 +4898,10 @@
         <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4934,10 +4942,10 @@
         <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4978,10 +4986,10 @@
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>178</v>
       </c>
@@ -5019,10 +5027,10 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>184</v>
       </c>
@@ -5063,10 +5071,10 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>186</v>
       </c>
@@ -5104,10 +5112,10 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>189</v>
       </c>
@@ -5148,10 +5156,10 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>192</v>
       </c>
@@ -5192,10 +5200,10 @@
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>195</v>
       </c>
@@ -5233,10 +5241,10 @@
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201</v>
       </c>
@@ -5277,10 +5285,10 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>206</v>
       </c>
@@ -5318,10 +5326,10 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5359,10 +5367,10 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5403,10 +5411,10 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5441,10 +5449,10 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5482,10 +5490,10 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5523,10 +5531,10 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5567,10 +5575,10 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5605,10 +5613,10 @@
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5649,10 +5657,10 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5693,10 +5701,10 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5737,10 +5745,10 @@
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5781,10 +5789,10 @@
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5822,10 +5830,10 @@
         <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5860,10 +5868,10 @@
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5901,10 +5909,10 @@
         <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5942,10 +5950,10 @@
         <v>21</v>
       </c>
       <c r="N66" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5986,10 +5994,10 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>275</v>
       </c>
@@ -6027,10 +6035,10 @@
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>278</v>
       </c>
@@ -6065,10 +6073,10 @@
         <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>279</v>
       </c>
@@ -6106,10 +6114,10 @@
         <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>280</v>
       </c>
@@ -6147,10 +6155,10 @@
         <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>284</v>
       </c>
@@ -6191,10 +6199,10 @@
         <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>285</v>
       </c>
@@ -6235,10 +6243,10 @@
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>286</v>
       </c>
@@ -6276,10 +6284,10 @@
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>288</v>
       </c>
@@ -6317,10 +6325,10 @@
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>297</v>
       </c>
@@ -6358,10 +6366,10 @@
         <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>298</v>
       </c>
@@ -6399,10 +6407,10 @@
         <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6440,10 +6448,10 @@
         <v>21</v>
       </c>
       <c r="N78" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6481,10 +6489,10 @@
         <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6522,10 +6530,10 @@
         <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6560,10 +6568,10 @@
         <v>21</v>
       </c>
       <c r="N81" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6601,10 +6609,10 @@
         <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6645,10 +6653,10 @@
         <v>21</v>
       </c>
       <c r="N83" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6683,10 +6691,10 @@
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6727,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="N85" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6765,16 +6773,16 @@
         <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N86" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6809,10 +6817,10 @@
         <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6850,10 +6858,10 @@
         <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6891,10 +6899,10 @@
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6932,10 +6940,10 @@
         <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6973,10 +6981,10 @@
         <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>339</v>
       </c>
@@ -7014,10 +7022,10 @@
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>340</v>
       </c>
@@ -7055,10 +7063,10 @@
         <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>343</v>
       </c>
@@ -7096,10 +7104,10 @@
         <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>344</v>
       </c>
@@ -7137,10 +7145,10 @@
         <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>346</v>
       </c>
@@ -7181,10 +7189,10 @@
         <v>21</v>
       </c>
       <c r="N96" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>348</v>
       </c>
@@ -7225,10 +7233,10 @@
         <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>349</v>
       </c>
@@ -7260,16 +7268,16 @@
         <v>19</v>
       </c>
       <c r="L98" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N98" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>350</v>
       </c>
@@ -7310,10 +7318,10 @@
         <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>351</v>
       </c>
@@ -7348,10 +7356,10 @@
         <v>21</v>
       </c>
       <c r="N100" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>358</v>
       </c>
@@ -7386,10 +7394,10 @@
         <v>21</v>
       </c>
       <c r="N101" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>359</v>
       </c>
@@ -7427,10 +7435,10 @@
         <v>21</v>
       </c>
       <c r="N102" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>360</v>
       </c>
@@ -7465,10 +7473,10 @@
         <v>21</v>
       </c>
       <c r="N103" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>363</v>
       </c>
@@ -7503,16 +7511,16 @@
         <v>19</v>
       </c>
       <c r="L104" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N104" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7550,10 +7558,10 @@
         <v>21</v>
       </c>
       <c r="N105" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7594,10 +7602,10 @@
         <v>21</v>
       </c>
       <c r="N106" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7635,10 +7643,10 @@
         <v>21</v>
       </c>
       <c r="N107" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7673,10 +7681,10 @@
         <v>21</v>
       </c>
       <c r="N108" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7711,10 +7719,10 @@
         <v>21</v>
       </c>
       <c r="N109" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7752,10 +7760,10 @@
         <v>21</v>
       </c>
       <c r="N110" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7793,10 +7801,10 @@
         <v>21</v>
       </c>
       <c r="N111" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7834,10 +7842,10 @@
         <v>21</v>
       </c>
       <c r="N112" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7875,10 +7883,10 @@
         <v>21</v>
       </c>
       <c r="N113" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7916,10 +7924,10 @@
         <v>21</v>
       </c>
       <c r="N114" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7954,16 +7962,16 @@
         <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N115" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>390</v>
       </c>
@@ -7998,10 +8006,10 @@
         <v>21</v>
       </c>
       <c r="N116" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>392</v>
       </c>
@@ -8036,10 +8044,10 @@
         <v>21</v>
       </c>
       <c r="N117" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>394</v>
       </c>
@@ -8071,10 +8079,10 @@
         <v>21</v>
       </c>
       <c r="N118" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>395</v>
       </c>
@@ -8112,10 +8120,10 @@
         <v>21</v>
       </c>
       <c r="N119" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>396</v>
       </c>
@@ -8153,10 +8161,10 @@
         <v>21</v>
       </c>
       <c r="N120" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>400</v>
       </c>
@@ -8191,10 +8199,10 @@
         <v>21</v>
       </c>
       <c r="N121" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>404</v>
       </c>
@@ -8229,10 +8237,10 @@
         <v>21</v>
       </c>
       <c r="N122" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>411</v>
       </c>
@@ -8270,10 +8278,10 @@
         <v>21</v>
       </c>
       <c r="N123" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>416</v>
       </c>
@@ -8308,10 +8316,10 @@
         <v>21</v>
       </c>
       <c r="N124" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>417</v>
       </c>
@@ -8346,10 +8354,10 @@
         <v>21</v>
       </c>
       <c r="N125" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>423</v>
       </c>
@@ -8384,10 +8392,10 @@
         <v>21</v>
       </c>
       <c r="N126" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>428</v>
       </c>
@@ -8425,10 +8433,10 @@
         <v>21</v>
       </c>
       <c r="N127" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>431</v>
       </c>
@@ -8466,10 +8474,10 @@
         <v>21</v>
       </c>
       <c r="N128" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>434</v>
       </c>
@@ -8504,16 +8512,16 @@
         <v>19</v>
       </c>
       <c r="L129" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N129" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>442</v>
       </c>
@@ -8551,10 +8559,10 @@
         <v>21</v>
       </c>
       <c r="N130" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>443</v>
       </c>
@@ -8592,10 +8600,10 @@
         <v>21</v>
       </c>
       <c r="N131" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8633,10 +8641,10 @@
         <v>21</v>
       </c>
       <c r="N132" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8674,10 +8682,10 @@
         <v>21</v>
       </c>
       <c r="N133" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8715,10 +8723,10 @@
         <v>21</v>
       </c>
       <c r="N134" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8756,10 +8764,10 @@
         <v>21</v>
       </c>
       <c r="N135" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8800,10 +8808,10 @@
         <v>21</v>
       </c>
       <c r="N136" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8835,10 +8843,10 @@
         <v>21</v>
       </c>
       <c r="N137" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8870,10 +8878,10 @@
         <v>21</v>
       </c>
       <c r="N138" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8905,10 +8913,10 @@
         <v>21</v>
       </c>
       <c r="N139" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8943,10 +8951,10 @@
         <v>21</v>
       </c>
       <c r="N140" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8978,10 +8986,10 @@
         <v>21</v>
       </c>
       <c r="N141" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>534</v>
       </c>
@@ -9013,12 +9021,12 @@
         <v>21</v>
       </c>
       <c r="N142" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B143" t="s">
         <v>373</v>
@@ -9048,12 +9056,12 @@
         <v>21</v>
       </c>
       <c r="N143" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B144" t="s">
         <v>375</v>
@@ -9083,12 +9091,12 @@
         <v>21</v>
       </c>
       <c r="N144" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B145" t="s">
         <v>377</v>
@@ -9118,12 +9126,12 @@
         <v>21</v>
       </c>
       <c r="N145" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B146" t="s">
         <v>379</v>
@@ -9132,13 +9140,16 @@
         <v>380</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
       </c>
       <c r="I146">
         <v>2005</v>
@@ -9153,30 +9164,27 @@
         <v>21</v>
       </c>
       <c r="N146" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D147" t="s">
         <v>149</v>
       </c>
       <c r="E147" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
-      </c>
-      <c r="H147" t="s">
-        <v>18</v>
       </c>
       <c r="I147">
         <v>2005</v>
@@ -9191,12 +9199,12 @@
         <v>21</v>
       </c>
       <c r="N147" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B148" t="s">
         <v>384</v>
@@ -9205,10 +9213,10 @@
         <v>385</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -9226,27 +9234,33 @@
         <v>21</v>
       </c>
       <c r="N148" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C149" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>18</v>
       </c>
       <c r="I149">
         <v>2005</v>
@@ -9261,12 +9275,12 @@
         <v>21</v>
       </c>
       <c r="N149" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B150" t="s">
         <v>389</v>
@@ -9278,10 +9292,10 @@
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="F150" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
         <v>18</v>
@@ -9302,12 +9316,12 @@
         <v>21</v>
       </c>
       <c r="N150" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B151" t="s">
         <v>391</v>
@@ -9316,19 +9330,13 @@
         <v>392</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E151" t="s">
-        <v>145</v>
+        <v>393</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" t="s">
-        <v>18</v>
       </c>
       <c r="I151">
         <v>2005</v>
@@ -9343,24 +9351,24 @@
         <v>21</v>
       </c>
       <c r="N151" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C152" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D152" t="s">
         <v>196</v>
       </c>
       <c r="E152" t="s">
-        <v>395</v>
+        <v>145</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -9378,12 +9386,12 @@
         <v>21</v>
       </c>
       <c r="N152" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B153" t="s">
         <v>396</v>
@@ -9392,13 +9400,16 @@
         <v>397</v>
       </c>
       <c r="D153" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
+      </c>
+      <c r="H153" t="s">
+        <v>18</v>
       </c>
       <c r="I153">
         <v>2005</v>
@@ -9413,12 +9424,12 @@
         <v>21</v>
       </c>
       <c r="N153" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B154" t="s">
         <v>398</v>
@@ -9427,7 +9438,7 @@
         <v>399</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E154" t="s">
         <v>314</v>
@@ -9435,6 +9446,9 @@
       <c r="F154" t="s">
         <v>17</v>
       </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
       <c r="H154" t="s">
         <v>18</v>
       </c>
@@ -9451,12 +9465,12 @@
         <v>21</v>
       </c>
       <c r="N154" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="B155" t="s">
         <v>400</v>
@@ -9465,10 +9479,10 @@
         <v>401</v>
       </c>
       <c r="D155" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E155" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -9486,18 +9500,18 @@
         <v>1700</v>
       </c>
       <c r="K155" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N155" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B156" t="s">
         <v>402</v>
@@ -9506,10 +9520,10 @@
         <v>403</v>
       </c>
       <c r="D156" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
@@ -9529,28 +9543,31 @@
       <c r="K156" t="s">
         <v>19</v>
       </c>
+      <c r="L156" t="s">
+        <v>404</v>
+      </c>
       <c r="M156" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N156" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B157" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
@@ -9570,19 +9587,16 @@
       <c r="K157" t="s">
         <v>19</v>
       </c>
-      <c r="L157" t="s">
-        <v>406</v>
-      </c>
       <c r="M157" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N157" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B158" t="s">
         <v>407</v>
@@ -9618,12 +9632,12 @@
         <v>21</v>
       </c>
       <c r="N158" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B159" t="s">
         <v>409</v>
@@ -9635,7 +9649,7 @@
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -9659,12 +9673,12 @@
         <v>21</v>
       </c>
       <c r="N159" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B160" t="s">
         <v>411</v>
@@ -9676,7 +9690,7 @@
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -9700,12 +9714,12 @@
         <v>21</v>
       </c>
       <c r="N160" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B161" t="s">
         <v>413</v>
@@ -9717,7 +9731,7 @@
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
         <v>17</v>
@@ -9737,73 +9751,76 @@
       <c r="K161" t="s">
         <v>19</v>
       </c>
+      <c r="L161" t="s">
+        <v>415</v>
+      </c>
       <c r="M161" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N161" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B162" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C162" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162">
+        <v>2005</v>
+      </c>
+      <c r="J162">
+        <v>1700</v>
+      </c>
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" t="s">
+        <v>418</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>645</v>
+      </c>
+      <c r="B163" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" t="s">
+        <v>420</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
         <v>314</v>
       </c>
-      <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" t="s">
-        <v>18</v>
-      </c>
-      <c r="I162">
-        <v>2005</v>
-      </c>
-      <c r="J162">
-        <v>1700</v>
-      </c>
-      <c r="K162" t="s">
-        <v>19</v>
-      </c>
-      <c r="L162" t="s">
-        <v>417</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N162" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>640</v>
-      </c>
-      <c r="B163" t="s">
-        <v>418</v>
-      </c>
-      <c r="C163" t="s">
-        <v>419</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" t="s">
-        <v>17</v>
-      </c>
       <c r="F163" t="s">
         <v>17</v>
       </c>
@@ -9822,19 +9839,16 @@
       <c r="K163" t="s">
         <v>19</v>
       </c>
-      <c r="L163" t="s">
-        <v>420</v>
-      </c>
       <c r="M163" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N163" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B164" t="s">
         <v>421</v>
@@ -9870,12 +9884,12 @@
         <v>21</v>
       </c>
       <c r="N164" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B165" t="s">
         <v>423</v>
@@ -9887,7 +9901,7 @@
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -9911,12 +9925,12 @@
         <v>21</v>
       </c>
       <c r="N165" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B166" t="s">
         <v>425</v>
@@ -9928,7 +9942,7 @@
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
         <v>17</v>
@@ -9948,28 +9962,31 @@
       <c r="K166" t="s">
         <v>19</v>
       </c>
+      <c r="L166" t="s">
+        <v>427</v>
+      </c>
       <c r="M166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N166" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B167" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C167" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F167" t="s">
         <v>17</v>
@@ -9989,19 +10006,16 @@
       <c r="K167" t="s">
         <v>19</v>
       </c>
-      <c r="L167" t="s">
-        <v>429</v>
-      </c>
       <c r="M167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N167" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B168" t="s">
         <v>430</v>
@@ -10013,7 +10027,7 @@
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
         <v>17</v>
@@ -10033,22 +10047,25 @@
       <c r="K168" t="s">
         <v>19</v>
       </c>
+      <c r="L168" t="s">
+        <v>432</v>
+      </c>
       <c r="M168" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N168" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B169" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C169" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
@@ -10075,30 +10092,30 @@
         <v>19</v>
       </c>
       <c r="L169" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N169" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B170" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C170" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
@@ -10118,19 +10135,16 @@
       <c r="K170" t="s">
         <v>19</v>
       </c>
-      <c r="L170" t="s">
-        <v>437</v>
-      </c>
       <c r="M170" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N170" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B171" t="s">
         <v>438</v>
@@ -10162,28 +10176,31 @@
       <c r="K171" t="s">
         <v>19</v>
       </c>
+      <c r="L171" t="s">
+        <v>440</v>
+      </c>
       <c r="M171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N171" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B172" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C172" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
@@ -10203,19 +10220,16 @@
       <c r="K172" t="s">
         <v>19</v>
       </c>
-      <c r="L172" t="s">
-        <v>442</v>
-      </c>
       <c r="M172" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N172" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B173" t="s">
         <v>443</v>
@@ -10227,14 +10241,11 @@
         <v>15</v>
       </c>
       <c r="E173" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="F173" t="s">
         <v>17</v>
       </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
       <c r="H173" t="s">
         <v>18</v>
       </c>
@@ -10245,18 +10256,18 @@
         <v>1700</v>
       </c>
       <c r="K173" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N173" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B174" t="s">
         <v>445</v>
@@ -10268,10 +10279,13 @@
         <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="F174" t="s">
         <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
       </c>
       <c r="H174" t="s">
         <v>18</v>
@@ -10289,12 +10303,12 @@
         <v>21</v>
       </c>
       <c r="N174" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B175" t="s">
         <v>447</v>
@@ -10306,7 +10320,7 @@
         <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
@@ -10330,12 +10344,12 @@
         <v>21</v>
       </c>
       <c r="N175" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B176" t="s">
         <v>449</v>
@@ -10347,13 +10361,10 @@
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>145</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
       </c>
       <c r="H176" t="s">
         <v>18</v>
@@ -10371,12 +10382,12 @@
         <v>21</v>
       </c>
       <c r="N176" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B177" t="s">
         <v>451</v>
@@ -10388,10 +10399,13 @@
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>145</v>
+        <v>393</v>
       </c>
       <c r="F177" t="s">
         <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
       </c>
       <c r="H177" t="s">
         <v>18</v>
@@ -10409,12 +10423,12 @@
         <v>21</v>
       </c>
       <c r="N177" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B178" t="s">
         <v>453</v>
@@ -10426,7 +10440,7 @@
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>395</v>
+        <v>17</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -10444,18 +10458,18 @@
         <v>1700</v>
       </c>
       <c r="K178" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N178" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B179" t="s">
         <v>455</v>
@@ -10491,12 +10505,12 @@
         <v>21</v>
       </c>
       <c r="N179" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B180" t="s">
         <v>457</v>
@@ -10532,12 +10546,12 @@
         <v>21</v>
       </c>
       <c r="N180" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B181" t="s">
         <v>459</v>
@@ -10573,12 +10587,12 @@
         <v>21</v>
       </c>
       <c r="N181" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B182" t="s">
         <v>461</v>
@@ -10610,28 +10624,31 @@
       <c r="K182" t="s">
         <v>19</v>
       </c>
+      <c r="L182" t="s">
+        <v>463</v>
+      </c>
       <c r="M182" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N182" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
@@ -10651,19 +10668,16 @@
       <c r="K183" t="s">
         <v>19</v>
       </c>
-      <c r="L183" t="s">
-        <v>465</v>
-      </c>
       <c r="M183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N183" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B184" t="s">
         <v>466</v>
@@ -10675,7 +10689,7 @@
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
@@ -10699,12 +10713,12 @@
         <v>21</v>
       </c>
       <c r="N184" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B185" t="s">
         <v>468</v>
@@ -10721,9 +10735,6 @@
       <c r="F185" t="s">
         <v>17</v>
       </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
       <c r="H185" t="s">
         <v>18</v>
       </c>
@@ -10740,12 +10751,12 @@
         <v>21</v>
       </c>
       <c r="N185" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B186" t="s">
         <v>470</v>
@@ -10762,6 +10773,9 @@
       <c r="F186" t="s">
         <v>17</v>
       </c>
+      <c r="G186" t="s">
+        <v>18</v>
+      </c>
       <c r="H186" t="s">
         <v>18</v>
       </c>
@@ -10778,12 +10792,12 @@
         <v>21</v>
       </c>
       <c r="N186" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B187" t="s">
         <v>472</v>
@@ -10819,12 +10833,12 @@
         <v>21</v>
       </c>
       <c r="N187" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B188" t="s">
         <v>474</v>
@@ -10860,12 +10874,12 @@
         <v>21</v>
       </c>
       <c r="N188" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B189" t="s">
         <v>476</v>
@@ -10901,12 +10915,12 @@
         <v>21</v>
       </c>
       <c r="N189" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B190" t="s">
         <v>478</v>
@@ -10918,7 +10932,7 @@
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -10942,12 +10956,12 @@
         <v>21</v>
       </c>
       <c r="N190" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B191" t="s">
         <v>480</v>
@@ -10959,7 +10973,7 @@
         <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F191" t="s">
         <v>17</v>
@@ -10983,12 +10997,12 @@
         <v>21</v>
       </c>
       <c r="N191" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B192" t="s">
         <v>482</v>
@@ -11024,12 +11038,12 @@
         <v>21</v>
       </c>
       <c r="N192" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B193" t="s">
         <v>484</v>
@@ -11041,7 +11055,7 @@
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -11065,12 +11079,12 @@
         <v>21</v>
       </c>
       <c r="N193" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B194" t="s">
         <v>486</v>
@@ -11082,7 +11096,7 @@
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -11106,12 +11120,12 @@
         <v>21</v>
       </c>
       <c r="N194" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B195" t="s">
         <v>488</v>
@@ -11123,7 +11137,7 @@
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F195" t="s">
         <v>17</v>
@@ -11147,12 +11161,12 @@
         <v>21</v>
       </c>
       <c r="N195" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B196" t="s">
         <v>490</v>
@@ -11188,12 +11202,12 @@
         <v>21</v>
       </c>
       <c r="N196" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B197" t="s">
         <v>492</v>
@@ -11229,12 +11243,12 @@
         <v>21</v>
       </c>
       <c r="N197" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B198" t="s">
         <v>494</v>
@@ -11246,7 +11260,7 @@
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -11270,12 +11284,12 @@
         <v>21</v>
       </c>
       <c r="N198" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s">
         <v>496</v>
@@ -11311,12 +11325,12 @@
         <v>21</v>
       </c>
       <c r="N199" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B200" t="s">
         <v>498</v>
@@ -11352,12 +11366,12 @@
         <v>21</v>
       </c>
       <c r="N200" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B201" t="s">
         <v>500</v>
@@ -11393,12 +11407,12 @@
         <v>21</v>
       </c>
       <c r="N201" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B202" t="s">
         <v>502</v>
@@ -11434,12 +11448,12 @@
         <v>21</v>
       </c>
       <c r="N202" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s">
         <v>504</v>
@@ -11454,7 +11468,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G203" t="s">
         <v>18</v>
@@ -11475,12 +11489,12 @@
         <v>21</v>
       </c>
       <c r="N203" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B204" t="s">
         <v>506</v>
@@ -11495,7 +11509,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
@@ -11516,12 +11530,12 @@
         <v>21</v>
       </c>
       <c r="N204" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B205" t="s">
         <v>508</v>
@@ -11533,7 +11547,7 @@
         <v>15</v>
       </c>
       <c r="E205" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F205" t="s">
         <v>17</v>
@@ -11557,12 +11571,12 @@
         <v>21</v>
       </c>
       <c r="N205" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="B206" t="s">
         <v>510</v>
@@ -11598,12 +11612,12 @@
         <v>21</v>
       </c>
       <c r="N206" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B207" t="s">
         <v>512</v>
@@ -11639,12 +11653,12 @@
         <v>21</v>
       </c>
       <c r="N207" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B208" t="s">
         <v>514</v>
@@ -11656,7 +11670,7 @@
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
@@ -11680,12 +11694,12 @@
         <v>21</v>
       </c>
       <c r="N208" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="B209" t="s">
         <v>516</v>
@@ -11697,7 +11711,7 @@
         <v>15</v>
       </c>
       <c r="E209" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -11717,73 +11731,76 @@
       <c r="K209" t="s">
         <v>19</v>
       </c>
+      <c r="L209" t="s">
+        <v>518</v>
+      </c>
       <c r="M209" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N209" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B210" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C210" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
       </c>
       <c r="E210" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210">
+        <v>2005</v>
+      </c>
+      <c r="J210">
+        <v>1700</v>
+      </c>
+      <c r="K210" t="s">
+        <v>19</v>
+      </c>
+      <c r="L210" t="s">
+        <v>521</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N210" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>789</v>
+      </c>
+      <c r="B211" t="s">
+        <v>522</v>
+      </c>
+      <c r="C211" t="s">
+        <v>523</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
         <v>314</v>
       </c>
-      <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s">
-        <v>18</v>
-      </c>
-      <c r="H210" t="s">
-        <v>18</v>
-      </c>
-      <c r="I210">
-        <v>2005</v>
-      </c>
-      <c r="J210">
-        <v>1700</v>
-      </c>
-      <c r="K210" t="s">
-        <v>19</v>
-      </c>
-      <c r="L210" t="s">
-        <v>520</v>
-      </c>
-      <c r="M210" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N210" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>785</v>
-      </c>
-      <c r="B211" t="s">
-        <v>521</v>
-      </c>
-      <c r="C211" t="s">
-        <v>522</v>
-      </c>
-      <c r="D211" t="s">
-        <v>15</v>
-      </c>
-      <c r="E211" t="s">
-        <v>17</v>
-      </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
@@ -11802,19 +11819,16 @@
       <c r="K211" t="s">
         <v>19</v>
       </c>
-      <c r="L211" t="s">
-        <v>523</v>
-      </c>
       <c r="M211" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N211" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B212" t="s">
         <v>524</v>
@@ -11826,7 +11840,7 @@
         <v>15</v>
       </c>
       <c r="E212" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
@@ -11850,12 +11864,12 @@
         <v>21</v>
       </c>
       <c r="N212" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B213" t="s">
         <v>526</v>
@@ -11891,12 +11905,12 @@
         <v>21</v>
       </c>
       <c r="N213" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B214" t="s">
         <v>528</v>
@@ -11913,9 +11927,6 @@
       <c r="F214" t="s">
         <v>17</v>
       </c>
-      <c r="G214" t="s">
-        <v>18</v>
-      </c>
       <c r="H214" t="s">
         <v>18</v>
       </c>
@@ -11932,12 +11943,12 @@
         <v>21</v>
       </c>
       <c r="N214" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B215" t="s">
         <v>530</v>
@@ -11949,11 +11960,14 @@
         <v>15</v>
       </c>
       <c r="E215" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
       </c>
+      <c r="G215" t="s">
+        <v>18</v>
+      </c>
       <c r="H215" t="s">
         <v>18</v>
       </c>
@@ -11970,12 +11984,12 @@
         <v>21</v>
       </c>
       <c r="N215" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B216" t="s">
         <v>532</v>
@@ -11987,7 +12001,7 @@
         <v>15</v>
       </c>
       <c r="E216" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
@@ -12011,12 +12025,12 @@
         <v>21</v>
       </c>
       <c r="N216" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B217" t="s">
         <v>534</v>
@@ -12052,12 +12066,12 @@
         <v>21</v>
       </c>
       <c r="N217" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B218" t="s">
         <v>536</v>
@@ -12093,12 +12107,12 @@
         <v>21</v>
       </c>
       <c r="N218" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B219" t="s">
         <v>538</v>
@@ -12134,12 +12148,12 @@
         <v>21</v>
       </c>
       <c r="N219" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B220" t="s">
         <v>540</v>
@@ -12175,12 +12189,12 @@
         <v>21</v>
       </c>
       <c r="N220" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B221" t="s">
         <v>542</v>
@@ -12216,12 +12230,12 @@
         <v>21</v>
       </c>
       <c r="N221" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B222" t="s">
         <v>544</v>
@@ -12236,7 +12250,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G222" t="s">
         <v>18</v>
@@ -12257,12 +12271,12 @@
         <v>21</v>
       </c>
       <c r="N222" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B223" t="s">
         <v>546</v>
@@ -12277,7 +12291,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G223" t="s">
         <v>18</v>
@@ -12298,12 +12312,12 @@
         <v>21</v>
       </c>
       <c r="N223" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B224" t="s">
         <v>548</v>
@@ -12339,12 +12353,12 @@
         <v>21</v>
       </c>
       <c r="N224" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B225" t="s">
         <v>550</v>
@@ -12380,12 +12394,12 @@
         <v>21</v>
       </c>
       <c r="N225" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B226" t="s">
         <v>552</v>
@@ -12421,12 +12435,12 @@
         <v>21</v>
       </c>
       <c r="N226" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B227" t="s">
         <v>554</v>
@@ -12462,12 +12476,12 @@
         <v>21</v>
       </c>
       <c r="N227" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B228" t="s">
         <v>556</v>
@@ -12499,22 +12513,25 @@
       <c r="K228" t="s">
         <v>19</v>
       </c>
+      <c r="L228" t="s">
+        <v>558</v>
+      </c>
       <c r="M228" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N228" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="B229" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C229" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
@@ -12541,24 +12558,24 @@
         <v>19</v>
       </c>
       <c r="L229" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M229" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N229" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B230" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C230" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
@@ -12584,19 +12601,16 @@
       <c r="K230" t="s">
         <v>19</v>
       </c>
-      <c r="L230" t="s">
-        <v>563</v>
-      </c>
       <c r="M230" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N230" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="B231" t="s">
         <v>564</v>
@@ -12632,12 +12646,12 @@
         <v>21</v>
       </c>
       <c r="N231" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="B232" t="s">
         <v>566</v>
@@ -12673,12 +12687,12 @@
         <v>21</v>
       </c>
       <c r="N232" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="B233" t="s">
         <v>568</v>
@@ -12714,12 +12728,12 @@
         <v>21</v>
       </c>
       <c r="N233" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B234" t="s">
         <v>570</v>
@@ -12755,12 +12769,12 @@
         <v>21</v>
       </c>
       <c r="N234" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="B235" t="s">
         <v>572</v>
@@ -12769,16 +12783,13 @@
         <v>573</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="E235" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
-      </c>
-      <c r="G235" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="H235" t="s">
         <v>18</v>
@@ -12796,27 +12807,30 @@
         <v>21</v>
       </c>
       <c r="N235" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B236" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C236" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D236" t="s">
-        <v>576</v>
+        <v>15</v>
       </c>
       <c r="E236" t="s">
-        <v>577</v>
+        <v>17</v>
       </c>
       <c r="F236" t="s">
-        <v>222</v>
+        <v>17</v>
+      </c>
+      <c r="G236" t="s">
+        <v>18</v>
       </c>
       <c r="H236" t="s">
         <v>18</v>
@@ -12834,12 +12848,12 @@
         <v>21</v>
       </c>
       <c r="N236" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B237" t="s">
         <v>578</v>
@@ -12875,12 +12889,12 @@
         <v>21</v>
       </c>
       <c r="N237" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B238" t="s">
         <v>580</v>
@@ -12916,12 +12930,12 @@
         <v>21</v>
       </c>
       <c r="N238" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="B239" t="s">
         <v>582</v>
@@ -12957,12 +12971,12 @@
         <v>21</v>
       </c>
       <c r="N239" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B240" t="s">
         <v>584</v>
@@ -12998,12 +13012,12 @@
         <v>21</v>
       </c>
       <c r="N240" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="B241" t="s">
         <v>586</v>
@@ -13015,7 +13029,7 @@
         <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F241" t="s">
         <v>17</v>
@@ -13039,12 +13053,12 @@
         <v>21</v>
       </c>
       <c r="N241" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="B242" t="s">
         <v>588</v>
@@ -13056,7 +13070,7 @@
         <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F242" t="s">
         <v>17</v>
@@ -13080,12 +13094,12 @@
         <v>21</v>
       </c>
       <c r="N242" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B243" t="s">
         <v>590</v>
@@ -13121,12 +13135,12 @@
         <v>21</v>
       </c>
       <c r="N243" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B244" t="s">
         <v>592</v>
@@ -13162,12 +13176,12 @@
         <v>21</v>
       </c>
       <c r="N244" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="B245" t="s">
         <v>594</v>
@@ -13203,12 +13217,12 @@
         <v>21</v>
       </c>
       <c r="N245" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B246" t="s">
         <v>596</v>
@@ -13244,12 +13258,12 @@
         <v>21</v>
       </c>
       <c r="N246" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B247" t="s">
         <v>598</v>
@@ -13266,9 +13280,6 @@
       <c r="F247" t="s">
         <v>17</v>
       </c>
-      <c r="G247" t="s">
-        <v>18</v>
-      </c>
       <c r="H247" t="s">
         <v>18</v>
       </c>
@@ -13285,12 +13296,12 @@
         <v>21</v>
       </c>
       <c r="N247" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B248" t="s">
         <v>600</v>
@@ -13307,6 +13318,9 @@
       <c r="F248" t="s">
         <v>17</v>
       </c>
+      <c r="G248" t="s">
+        <v>18</v>
+      </c>
       <c r="H248" t="s">
         <v>18</v>
       </c>
@@ -13323,12 +13337,12 @@
         <v>21</v>
       </c>
       <c r="N248" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B249" t="s">
         <v>602</v>
@@ -13364,12 +13378,12 @@
         <v>21</v>
       </c>
       <c r="N249" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="B250" t="s">
         <v>604</v>
@@ -13405,12 +13419,12 @@
         <v>21</v>
       </c>
       <c r="N250" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1037</v>
+        <v>1094</v>
       </c>
       <c r="B251" t="s">
         <v>606</v>
@@ -13446,12 +13460,12 @@
         <v>21</v>
       </c>
       <c r="N251" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="B252" t="s">
         <v>608</v>
@@ -13487,12 +13501,12 @@
         <v>21</v>
       </c>
       <c r="N252" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B253" t="s">
         <v>610</v>
@@ -13501,13 +13515,13 @@
         <v>611</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E253" t="s">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="F253" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G253" t="s">
         <v>18</v>
@@ -13528,12 +13542,12 @@
         <v>21</v>
       </c>
       <c r="N253" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B254" t="s">
         <v>612</v>
@@ -13542,13 +13556,13 @@
         <v>613</v>
       </c>
       <c r="D254" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E254" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="F254" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="G254" t="s">
         <v>18</v>
@@ -13569,12 +13583,12 @@
         <v>21</v>
       </c>
       <c r="N254" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="B255" t="s">
         <v>614</v>
@@ -13610,12 +13624,12 @@
         <v>21</v>
       </c>
       <c r="N255" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B256" t="s">
         <v>616</v>
@@ -13651,12 +13665,12 @@
         <v>21</v>
       </c>
       <c r="N256" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B257" t="s">
         <v>618</v>
@@ -13692,12 +13706,12 @@
         <v>21</v>
       </c>
       <c r="N257" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="B258" t="s">
         <v>620</v>
@@ -13733,12 +13747,12 @@
         <v>21</v>
       </c>
       <c r="N258" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B259" t="s">
         <v>622</v>
@@ -13774,12 +13788,12 @@
         <v>21</v>
       </c>
       <c r="N259" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="B260" t="s">
         <v>624</v>
@@ -13815,12 +13829,12 @@
         <v>21</v>
       </c>
       <c r="N260" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B261" t="s">
         <v>626</v>
@@ -13856,12 +13870,12 @@
         <v>21</v>
       </c>
       <c r="N261" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B262" t="s">
         <v>628</v>
@@ -13897,12 +13911,12 @@
         <v>21</v>
       </c>
       <c r="N262" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="B263" t="s">
         <v>630</v>
@@ -13938,12 +13952,12 @@
         <v>21</v>
       </c>
       <c r="N263" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B264" t="s">
         <v>632</v>
@@ -13979,12 +13993,12 @@
         <v>21</v>
       </c>
       <c r="N264" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="B265" t="s">
         <v>634</v>
@@ -14020,12 +14034,12 @@
         <v>21</v>
       </c>
       <c r="N265" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1171</v>
+        <v>1195</v>
       </c>
       <c r="B266" t="s">
         <v>636</v>
@@ -14061,12 +14075,12 @@
         <v>21</v>
       </c>
       <c r="N266" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1195</v>
+        <v>1208</v>
       </c>
       <c r="B267" t="s">
         <v>638</v>
@@ -14102,12 +14116,12 @@
         <v>21</v>
       </c>
       <c r="N267" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B268" t="s">
         <v>640</v>
@@ -14143,12 +14157,12 @@
         <v>21</v>
       </c>
       <c r="N268" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="B269" t="s">
         <v>642</v>
@@ -14157,13 +14171,13 @@
         <v>643</v>
       </c>
       <c r="D269" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="E269" t="s">
-        <v>17</v>
+        <v>644</v>
       </c>
       <c r="F269" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="G269" t="s">
         <v>18</v>
@@ -14184,27 +14198,27 @@
         <v>21</v>
       </c>
       <c r="N269" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B270" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C270" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D270" t="s">
-        <v>576</v>
+        <v>15</v>
       </c>
       <c r="E270" t="s">
-        <v>646</v>
+        <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="G270" t="s">
         <v>18</v>
@@ -14225,12 +14239,12 @@
         <v>21</v>
       </c>
       <c r="N270" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="B271" t="s">
         <v>647</v>
@@ -14266,12 +14280,12 @@
         <v>21</v>
       </c>
       <c r="N271" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="B272" t="s">
         <v>649</v>
@@ -14307,12 +14321,12 @@
         <v>21</v>
       </c>
       <c r="N272" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="B273" t="s">
         <v>651</v>
@@ -14348,12 +14362,12 @@
         <v>21</v>
       </c>
       <c r="N273" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B274" t="s">
         <v>653</v>
@@ -14389,12 +14403,12 @@
         <v>21</v>
       </c>
       <c r="N274" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="B275" t="s">
         <v>655</v>
@@ -14430,12 +14444,12 @@
         <v>21</v>
       </c>
       <c r="N275" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B276" t="s">
         <v>657</v>
@@ -14471,12 +14485,12 @@
         <v>21</v>
       </c>
       <c r="N276" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="B277" t="s">
         <v>659</v>
@@ -14512,12 +14526,12 @@
         <v>21</v>
       </c>
       <c r="N277" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="B278" t="s">
         <v>661</v>
@@ -14553,12 +14567,12 @@
         <v>21</v>
       </c>
       <c r="N278" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="B279" t="s">
         <v>663</v>
@@ -14594,12 +14608,12 @@
         <v>21</v>
       </c>
       <c r="N279" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="B280" t="s">
         <v>665</v>
@@ -14635,12 +14649,12 @@
         <v>21</v>
       </c>
       <c r="N280" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1300</v>
+        <v>1313</v>
       </c>
       <c r="B281" t="s">
         <v>667</v>
@@ -14672,22 +14686,25 @@
       <c r="K281" t="s">
         <v>19</v>
       </c>
+      <c r="L281" t="s">
+        <v>669</v>
+      </c>
       <c r="M281" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N281" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="B282" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C282" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D282" t="s">
         <v>15</v>
@@ -14698,9 +14715,6 @@
       <c r="F282" t="s">
         <v>17</v>
       </c>
-      <c r="G282" t="s">
-        <v>18</v>
-      </c>
       <c r="H282" t="s">
         <v>18</v>
       </c>
@@ -14714,24 +14728,24 @@
         <v>19</v>
       </c>
       <c r="L282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M282" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N282" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C283" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D283" t="s">
         <v>15</v>
@@ -14742,6 +14756,9 @@
       <c r="F283" t="s">
         <v>17</v>
       </c>
+      <c r="G283" t="s">
+        <v>18</v>
+      </c>
       <c r="H283" t="s">
         <v>18</v>
       </c>
@@ -14754,19 +14771,16 @@
       <c r="K283" t="s">
         <v>19</v>
       </c>
-      <c r="L283" t="s">
-        <v>674</v>
-      </c>
       <c r="M283" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N283" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="B284" t="s">
         <v>675</v>
@@ -14802,12 +14816,12 @@
         <v>21</v>
       </c>
       <c r="N284" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="B285" t="s">
         <v>677</v>
@@ -14843,12 +14857,12 @@
         <v>21</v>
       </c>
       <c r="N285" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="B286" t="s">
         <v>679</v>
@@ -14880,22 +14894,25 @@
       <c r="K286" t="s">
         <v>19</v>
       </c>
+      <c r="L286" t="s">
+        <v>681</v>
+      </c>
       <c r="M286" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N286" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="B287" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C287" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D287" t="s">
         <v>15</v>
@@ -14921,19 +14938,16 @@
       <c r="K287" t="s">
         <v>19</v>
       </c>
-      <c r="L287" t="s">
-        <v>683</v>
-      </c>
       <c r="M287" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N287" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="B288" t="s">
         <v>684</v>
@@ -14965,22 +14979,25 @@
       <c r="K288" t="s">
         <v>19</v>
       </c>
+      <c r="L288" t="s">
+        <v>686</v>
+      </c>
       <c r="M288" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N288" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="B289" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C289" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D289" t="s">
         <v>15</v>
@@ -15006,19 +15023,16 @@
       <c r="K289" t="s">
         <v>19</v>
       </c>
-      <c r="L289" t="s">
-        <v>688</v>
-      </c>
       <c r="M289" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N289" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B290" t="s">
         <v>689</v>
@@ -15054,12 +15068,12 @@
         <v>21</v>
       </c>
       <c r="N290" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1398</v>
+        <v>1411</v>
       </c>
       <c r="B291" t="s">
         <v>691</v>
@@ -15091,22 +15105,25 @@
       <c r="K291" t="s">
         <v>19</v>
       </c>
+      <c r="L291" t="s">
+        <v>693</v>
+      </c>
       <c r="M291" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N291" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1411</v>
+        <v>1424</v>
       </c>
       <c r="B292" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C292" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D292" t="s">
         <v>15</v>
@@ -15133,24 +15150,24 @@
         <v>19</v>
       </c>
       <c r="L292" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M292" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N292" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="B293" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C293" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D293" t="s">
         <v>15</v>
@@ -15176,19 +15193,16 @@
       <c r="K293" t="s">
         <v>19</v>
       </c>
-      <c r="L293" t="s">
-        <v>698</v>
-      </c>
       <c r="M293" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N293" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B294" t="s">
         <v>699</v>
@@ -15224,12 +15238,12 @@
         <v>21</v>
       </c>
       <c r="N294" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="B295" t="s">
         <v>701</v>
@@ -15265,12 +15279,12 @@
         <v>21</v>
       </c>
       <c r="N295" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="B296" t="s">
         <v>703</v>
@@ -15287,9 +15301,6 @@
       <c r="F296" t="s">
         <v>17</v>
       </c>
-      <c r="G296" t="s">
-        <v>18</v>
-      </c>
       <c r="H296" t="s">
         <v>18</v>
       </c>
@@ -15306,12 +15317,12 @@
         <v>21</v>
       </c>
       <c r="N296" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B297" t="s">
         <v>705</v>
@@ -15328,6 +15339,9 @@
       <c r="F297" t="s">
         <v>17</v>
       </c>
+      <c r="G297" t="s">
+        <v>18</v>
+      </c>
       <c r="H297" t="s">
         <v>18</v>
       </c>
@@ -15344,12 +15358,12 @@
         <v>21</v>
       </c>
       <c r="N297" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B298" t="s">
         <v>707</v>
@@ -15361,7 +15375,7 @@
         <v>15</v>
       </c>
       <c r="E298" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -15385,12 +15399,12 @@
         <v>21</v>
       </c>
       <c r="N298" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="B299" t="s">
         <v>709</v>
@@ -15426,12 +15440,12 @@
         <v>21</v>
       </c>
       <c r="N299" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="B300" t="s">
         <v>711</v>
@@ -15467,12 +15481,12 @@
         <v>21</v>
       </c>
       <c r="N300" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B301" t="s">
         <v>713</v>
@@ -15484,7 +15498,7 @@
         <v>15</v>
       </c>
       <c r="E301" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F301" t="s">
         <v>17</v>
@@ -15508,12 +15522,12 @@
         <v>21</v>
       </c>
       <c r="N301" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B302" t="s">
         <v>715</v>
@@ -15549,12 +15563,12 @@
         <v>21</v>
       </c>
       <c r="N302" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="B303" t="s">
         <v>717</v>
@@ -15590,12 +15604,12 @@
         <v>21</v>
       </c>
       <c r="N303" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1474</v>
+        <v>1500</v>
       </c>
       <c r="B304" t="s">
         <v>719</v>
@@ -15631,12 +15645,12 @@
         <v>21</v>
       </c>
       <c r="N304" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1500</v>
+        <v>1509</v>
       </c>
       <c r="B305" t="s">
         <v>721</v>
@@ -15668,22 +15682,25 @@
       <c r="K305" t="s">
         <v>19</v>
       </c>
+      <c r="L305" t="s">
+        <v>723</v>
+      </c>
       <c r="M305" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N305" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1509</v>
+        <v>1520</v>
       </c>
       <c r="B306" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C306" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D306" t="s">
         <v>15</v>
@@ -15709,19 +15726,16 @@
       <c r="K306" t="s">
         <v>19</v>
       </c>
-      <c r="L306" t="s">
-        <v>725</v>
-      </c>
       <c r="M306" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N306" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1520</v>
+        <v>1529</v>
       </c>
       <c r="B307" t="s">
         <v>726</v>
@@ -15757,12 +15771,12 @@
         <v>21</v>
       </c>
       <c r="N307" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="B308" t="s">
         <v>728</v>
@@ -15798,12 +15812,12 @@
         <v>21</v>
       </c>
       <c r="N308" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="B309" t="s">
         <v>730</v>
@@ -15839,12 +15853,12 @@
         <v>21</v>
       </c>
       <c r="N309" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="B310" t="s">
         <v>732</v>
@@ -15880,12 +15894,12 @@
         <v>21</v>
       </c>
       <c r="N310" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="B311" t="s">
         <v>734</v>
@@ -15921,12 +15935,12 @@
         <v>21</v>
       </c>
       <c r="N311" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1557</v>
+        <v>1573</v>
       </c>
       <c r="B312" t="s">
         <v>736</v>
@@ -15962,12 +15976,12 @@
         <v>21</v>
       </c>
       <c r="N312" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1573</v>
+        <v>1592</v>
       </c>
       <c r="B313" t="s">
         <v>738</v>
@@ -16003,12 +16017,12 @@
         <v>21</v>
       </c>
       <c r="N313" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="B314" t="s">
         <v>740</v>
@@ -16040,22 +16054,25 @@
       <c r="K314" t="s">
         <v>19</v>
       </c>
+      <c r="L314" t="s">
+        <v>742</v>
+      </c>
       <c r="M314" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N314" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B315" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C315" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D315" t="s">
         <v>15</v>
@@ -16081,19 +16098,16 @@
       <c r="K315" t="s">
         <v>19</v>
       </c>
-      <c r="L315" t="s">
-        <v>744</v>
-      </c>
       <c r="M315" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N315" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="B316" t="s">
         <v>745</v>
@@ -16129,12 +16143,12 @@
         <v>21</v>
       </c>
       <c r="N316" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B317" t="s">
         <v>747</v>
@@ -16170,12 +16184,12 @@
         <v>21</v>
       </c>
       <c r="N317" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B318" t="s">
         <v>749</v>
@@ -16211,12 +16225,12 @@
         <v>21</v>
       </c>
       <c r="N318" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B319" t="s">
         <v>751</v>
@@ -16252,12 +16266,12 @@
         <v>21</v>
       </c>
       <c r="N319" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="B320" t="s">
         <v>753</v>
@@ -16275,7 +16289,7 @@
         <v>17</v>
       </c>
       <c r="G320" t="s">
-        <v>18</v>
+        <v>755</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
@@ -16293,18 +16307,18 @@
         <v>21</v>
       </c>
       <c r="N320" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B321" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C321" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D321" t="s">
         <v>15</v>
@@ -16316,7 +16330,7 @@
         <v>17</v>
       </c>
       <c r="G321" t="s">
-        <v>757</v>
+        <v>18</v>
       </c>
       <c r="H321" t="s">
         <v>18</v>
@@ -16334,12 +16348,12 @@
         <v>21</v>
       </c>
       <c r="N321" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B322" t="s">
         <v>758</v>
@@ -16351,7 +16365,7 @@
         <v>15</v>
       </c>
       <c r="E322" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F322" t="s">
         <v>17</v>
@@ -16375,12 +16389,12 @@
         <v>21</v>
       </c>
       <c r="N322" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="B323" t="s">
         <v>760</v>
@@ -16392,7 +16406,7 @@
         <v>15</v>
       </c>
       <c r="E323" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F323" t="s">
         <v>17</v>
@@ -16412,28 +16426,31 @@
       <c r="K323" t="s">
         <v>19</v>
       </c>
+      <c r="L323" t="s">
+        <v>762</v>
+      </c>
       <c r="M323" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N323" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="B324" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C324" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D324" t="s">
         <v>15</v>
       </c>
       <c r="E324" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F324" t="s">
         <v>17</v>
@@ -16453,19 +16470,16 @@
       <c r="K324" t="s">
         <v>19</v>
       </c>
-      <c r="L324" t="s">
-        <v>764</v>
-      </c>
       <c r="M324" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N324" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="B325" t="s">
         <v>765</v>
@@ -16477,7 +16491,7 @@
         <v>15</v>
       </c>
       <c r="E325" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -16497,22 +16511,25 @@
       <c r="K325" t="s">
         <v>19</v>
       </c>
+      <c r="L325" t="s">
+        <v>767</v>
+      </c>
       <c r="M325" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N325" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1644</v>
+        <v>1656</v>
       </c>
       <c r="B326" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C326" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D326" t="s">
         <v>15</v>
@@ -16538,19 +16555,16 @@
       <c r="K326" t="s">
         <v>19</v>
       </c>
-      <c r="L326" t="s">
-        <v>769</v>
-      </c>
       <c r="M326" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N326" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="B327" t="s">
         <v>770</v>
@@ -16567,9 +16581,6 @@
       <c r="F327" t="s">
         <v>17</v>
       </c>
-      <c r="G327" t="s">
-        <v>18</v>
-      </c>
       <c r="H327" t="s">
         <v>18</v>
       </c>
@@ -16586,12 +16597,12 @@
         <v>21</v>
       </c>
       <c r="N327" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="B328" t="s">
         <v>772</v>
@@ -16608,6 +16619,9 @@
       <c r="F328" t="s">
         <v>17</v>
       </c>
+      <c r="G328" t="s">
+        <v>18</v>
+      </c>
       <c r="H328" t="s">
         <v>18</v>
       </c>
@@ -16624,12 +16638,12 @@
         <v>21</v>
       </c>
       <c r="N328" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="B329" t="s">
         <v>774</v>
@@ -16641,7 +16655,7 @@
         <v>15</v>
       </c>
       <c r="E329" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F329" t="s">
         <v>17</v>
@@ -16665,12 +16679,12 @@
         <v>21</v>
       </c>
       <c r="N329" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B330" t="s">
         <v>776</v>
@@ -16682,7 +16696,7 @@
         <v>15</v>
       </c>
       <c r="E330" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="F330" t="s">
         <v>17</v>
@@ -16706,12 +16720,12 @@
         <v>21</v>
       </c>
       <c r="N330" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B331" t="s">
         <v>778</v>
@@ -16747,12 +16761,12 @@
         <v>21</v>
       </c>
       <c r="N331" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="B332" t="s">
         <v>780</v>
@@ -16764,7 +16778,7 @@
         <v>15</v>
       </c>
       <c r="E332" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F332" t="s">
         <v>17</v>
@@ -16788,12 +16802,12 @@
         <v>21</v>
       </c>
       <c r="N332" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B333" t="s">
         <v>782</v>
@@ -16805,7 +16819,7 @@
         <v>15</v>
       </c>
       <c r="E333" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="F333" t="s">
         <v>17</v>
@@ -16829,12 +16843,12 @@
         <v>21</v>
       </c>
       <c r="N333" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="B334" t="s">
         <v>784</v>
@@ -16846,7 +16860,7 @@
         <v>15</v>
       </c>
       <c r="E334" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="F334" t="s">
         <v>17</v>
@@ -16870,12 +16884,12 @@
         <v>21</v>
       </c>
       <c r="N334" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="B335" t="s">
         <v>786</v>
@@ -16887,7 +16901,7 @@
         <v>15</v>
       </c>
       <c r="E335" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="F335" t="s">
         <v>17</v>
@@ -16911,12 +16925,12 @@
         <v>21</v>
       </c>
       <c r="N335" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="B336" t="s">
         <v>788</v>
@@ -16928,7 +16942,7 @@
         <v>15</v>
       </c>
       <c r="E336" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="F336" t="s">
         <v>17</v>
@@ -16952,12 +16966,12 @@
         <v>21</v>
       </c>
       <c r="N336" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="B337" t="s">
         <v>790</v>
@@ -16993,12 +17007,12 @@
         <v>21</v>
       </c>
       <c r="N337" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="B338" t="s">
         <v>792</v>
@@ -17030,22 +17044,25 @@
       <c r="K338" t="s">
         <v>19</v>
       </c>
+      <c r="L338" t="s">
+        <v>794</v>
+      </c>
       <c r="M338" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N338" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="B339" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C339" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D339" t="s">
         <v>15</v>
@@ -17071,19 +17088,16 @@
       <c r="K339" t="s">
         <v>19</v>
       </c>
-      <c r="L339" t="s">
-        <v>796</v>
-      </c>
       <c r="M339" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N339" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="B340" t="s">
         <v>797</v>
@@ -17119,12 +17133,12 @@
         <v>21</v>
       </c>
       <c r="N340" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="B341" t="s">
         <v>799</v>
@@ -17156,22 +17170,25 @@
       <c r="K341" t="s">
         <v>19</v>
       </c>
+      <c r="L341" t="s">
+        <v>801</v>
+      </c>
       <c r="M341" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N341" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1733</v>
+        <v>1744</v>
       </c>
       <c r="B342" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C342" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D342" t="s">
         <v>15</v>
@@ -17197,19 +17214,16 @@
       <c r="K342" t="s">
         <v>19</v>
       </c>
-      <c r="L342" t="s">
-        <v>803</v>
-      </c>
       <c r="M342" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N342" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1744</v>
+        <v>1753</v>
       </c>
       <c r="B343" t="s">
         <v>804</v>
@@ -17245,12 +17259,12 @@
         <v>21</v>
       </c>
       <c r="N343" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B344" t="s">
         <v>806</v>
@@ -17286,12 +17300,12 @@
         <v>21</v>
       </c>
       <c r="N344" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1756</v>
+        <v>1769</v>
       </c>
       <c r="B345" t="s">
         <v>808</v>
@@ -17327,12 +17341,12 @@
         <v>21</v>
       </c>
       <c r="N345" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="B346" t="s">
         <v>810</v>
@@ -17371,9 +17385,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B347" t="s">
         <v>812</v>
@@ -17405,22 +17419,25 @@
       <c r="K347" t="s">
         <v>19</v>
       </c>
+      <c r="L347" t="s">
+        <v>814</v>
+      </c>
       <c r="M347" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N347" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1779</v>
+        <v>1790</v>
       </c>
       <c r="B348" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C348" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D348" t="s">
         <v>15</v>
@@ -17447,24 +17464,24 @@
         <v>19</v>
       </c>
       <c r="L348" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M348" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N348" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="B349" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C349" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D349" t="s">
         <v>15</v>
@@ -17490,19 +17507,16 @@
       <c r="K349" t="s">
         <v>19</v>
       </c>
-      <c r="L349" t="s">
-        <v>819</v>
-      </c>
       <c r="M349" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N349" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="B350" t="s">
         <v>820</v>
@@ -17538,12 +17552,12 @@
         <v>21</v>
       </c>
       <c r="N350" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B351" t="s">
         <v>822</v>
@@ -17575,22 +17589,25 @@
       <c r="K351" t="s">
         <v>19</v>
       </c>
+      <c r="L351" t="s">
+        <v>824</v>
+      </c>
       <c r="M351" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N351" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="B352" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C352" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D352" t="s">
         <v>15</v>
@@ -17615,9 +17632,6 @@
       </c>
       <c r="K352" t="s">
         <v>19</v>
-      </c>
-      <c r="L352" t="s">
-        <v>826</v>
       </c>
       <c r="M352" s="2" t="s">
         <v>21</v>
@@ -17626,9 +17640,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="B353" t="s">
         <v>827</v>
@@ -17640,7 +17654,7 @@
         <v>15</v>
       </c>
       <c r="E353" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F353" t="s">
         <v>17</v>
@@ -17660,28 +17674,31 @@
       <c r="K353" t="s">
         <v>19</v>
       </c>
+      <c r="L353" t="s">
+        <v>829</v>
+      </c>
       <c r="M353" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N353" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="B354" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C354" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D354" t="s">
         <v>15</v>
       </c>
       <c r="E354" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="F354" t="s">
         <v>17</v>
@@ -17701,19 +17718,16 @@
       <c r="K354" t="s">
         <v>19</v>
       </c>
-      <c r="L354" t="s">
-        <v>831</v>
-      </c>
       <c r="M354" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N354" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="B355" t="s">
         <v>832</v>
@@ -17725,14 +17739,11 @@
         <v>15</v>
       </c>
       <c r="E355" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="F355" t="s">
         <v>17</v>
       </c>
-      <c r="G355" t="s">
-        <v>18</v>
-      </c>
       <c r="H355" t="s">
         <v>18</v>
       </c>
@@ -17749,12 +17760,12 @@
         <v>21</v>
       </c>
       <c r="N355" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="B356" t="s">
         <v>834</v>
@@ -17766,10 +17777,13 @@
         <v>15</v>
       </c>
       <c r="E356" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F356" t="s">
         <v>17</v>
+      </c>
+      <c r="G356" t="s">
+        <v>18</v>
       </c>
       <c r="H356" t="s">
         <v>18</v>
@@ -17790,9 +17804,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="B357" t="s">
         <v>836</v>
@@ -17828,12 +17842,12 @@
         <v>21</v>
       </c>
       <c r="N357" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B358" t="s">
         <v>838</v>
@@ -17869,12 +17883,12 @@
         <v>21</v>
       </c>
       <c r="N358" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1852</v>
+        <v>1868</v>
       </c>
       <c r="B359" t="s">
         <v>840</v>
@@ -17906,22 +17920,25 @@
       <c r="K359" t="s">
         <v>19</v>
       </c>
+      <c r="L359" t="s">
+        <v>842</v>
+      </c>
       <c r="M359" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N359" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="B360" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C360" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D360" t="s">
         <v>15</v>
@@ -17947,19 +17964,16 @@
       <c r="K360" t="s">
         <v>19</v>
       </c>
-      <c r="L360" t="s">
-        <v>844</v>
-      </c>
       <c r="M360" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N360" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B361" t="s">
         <v>845</v>
@@ -17995,12 +18009,12 @@
         <v>21</v>
       </c>
       <c r="N361" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B362" t="s">
         <v>847</v>
@@ -18036,12 +18050,12 @@
         <v>21</v>
       </c>
       <c r="N362" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B363" t="s">
         <v>849</v>
@@ -18077,12 +18091,12 @@
         <v>21</v>
       </c>
       <c r="N363" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="B364" t="s">
         <v>851</v>
@@ -18094,7 +18108,7 @@
         <v>15</v>
       </c>
       <c r="E364" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F364" t="s">
         <v>17</v>
@@ -18114,16 +18128,19 @@
       <c r="K364" t="s">
         <v>19</v>
       </c>
+      <c r="L364" t="s">
+        <v>904</v>
+      </c>
       <c r="M364" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N364" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B365" t="s">
         <v>853</v>
@@ -18135,14 +18152,11 @@
         <v>15</v>
       </c>
       <c r="E365" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F365" t="s">
         <v>17</v>
       </c>
-      <c r="G365" t="s">
-        <v>18</v>
-      </c>
       <c r="H365" t="s">
         <v>18</v>
       </c>
@@ -18155,19 +18169,16 @@
       <c r="K365" t="s">
         <v>19</v>
       </c>
-      <c r="L365" t="s">
-        <v>906</v>
-      </c>
       <c r="M365" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N365" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="B366" t="s">
         <v>855</v>
@@ -18184,6 +18195,9 @@
       <c r="F366" t="s">
         <v>17</v>
       </c>
+      <c r="G366" t="s">
+        <v>18</v>
+      </c>
       <c r="H366" t="s">
         <v>18</v>
       </c>
@@ -18196,28 +18210,31 @@
       <c r="K366" t="s">
         <v>19</v>
       </c>
+      <c r="L366" t="s">
+        <v>857</v>
+      </c>
       <c r="M366" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N366" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B367" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C367" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D367" t="s">
         <v>15</v>
       </c>
       <c r="E367" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F367" t="s">
         <v>17</v>
@@ -18237,19 +18254,16 @@
       <c r="K367" t="s">
         <v>19</v>
       </c>
-      <c r="L367" t="s">
-        <v>859</v>
-      </c>
       <c r="M367" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N367" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="B368" t="s">
         <v>860</v>
@@ -18281,22 +18295,25 @@
       <c r="K368" t="s">
         <v>19</v>
       </c>
+      <c r="L368" t="s">
+        <v>862</v>
+      </c>
       <c r="M368" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N368" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>1899</v>
+        <v>1915</v>
       </c>
       <c r="B369" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C369" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D369" t="s">
         <v>15</v>
@@ -18322,19 +18339,16 @@
       <c r="K369" t="s">
         <v>19</v>
       </c>
-      <c r="L369" t="s">
-        <v>864</v>
-      </c>
       <c r="M369" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N369" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1915</v>
+        <v>1928</v>
       </c>
       <c r="B370" t="s">
         <v>865</v>
@@ -18346,7 +18360,7 @@
         <v>15</v>
       </c>
       <c r="E370" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F370" t="s">
         <v>17</v>
@@ -18373,9 +18387,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="B371" t="s">
         <v>867</v>
@@ -18407,22 +18421,25 @@
       <c r="K371" t="s">
         <v>19</v>
       </c>
+      <c r="L371" t="s">
+        <v>869</v>
+      </c>
       <c r="M371" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N371" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1933</v>
+        <v>1960</v>
       </c>
       <c r="B372" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C372" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D372" t="s">
         <v>15</v>
@@ -18448,19 +18465,16 @@
       <c r="K372" t="s">
         <v>19</v>
       </c>
-      <c r="L372" t="s">
-        <v>871</v>
-      </c>
       <c r="M372" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N372" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="B373" t="s">
         <v>872</v>
@@ -18475,7 +18489,7 @@
         <v>17</v>
       </c>
       <c r="F373" t="s">
-        <v>17</v>
+        <v>874</v>
       </c>
       <c r="G373" t="s">
         <v>18</v>
@@ -18499,15 +18513,15 @@
         <v>908</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1966</v>
+        <v>11000</v>
       </c>
       <c r="B374" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C374" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D374" t="s">
         <v>15</v>
@@ -18516,7 +18530,7 @@
         <v>17</v>
       </c>
       <c r="F374" t="s">
-        <v>876</v>
+        <v>17</v>
       </c>
       <c r="G374" t="s">
         <v>18</v>
@@ -18537,12 +18551,12 @@
         <v>21</v>
       </c>
       <c r="N374" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>11000</v>
+        <v>11050</v>
       </c>
       <c r="B375" t="s">
         <v>877</v>
@@ -18578,60 +18592,60 @@
         <v>21</v>
       </c>
       <c r="N375" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>11050</v>
+        <v>11100</v>
       </c>
       <c r="B376" t="s">
         <v>879</v>
       </c>
       <c r="C376" t="s">
+        <v>541</v>
+      </c>
+      <c r="D376" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" t="s">
+        <v>17</v>
+      </c>
+      <c r="F376" t="s">
+        <v>17</v>
+      </c>
+      <c r="G376" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" t="s">
+        <v>18</v>
+      </c>
+      <c r="I376">
+        <v>2005</v>
+      </c>
+      <c r="J376">
+        <v>1700</v>
+      </c>
+      <c r="K376" t="s">
+        <v>19</v>
+      </c>
+      <c r="M376" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N376" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>11150</v>
+      </c>
+      <c r="B377" t="s">
         <v>880</v>
       </c>
-      <c r="D376" t="s">
-        <v>15</v>
-      </c>
-      <c r="E376" t="s">
-        <v>17</v>
-      </c>
-      <c r="F376" t="s">
-        <v>17</v>
-      </c>
-      <c r="G376" t="s">
-        <v>18</v>
-      </c>
-      <c r="H376" t="s">
-        <v>18</v>
-      </c>
-      <c r="I376">
-        <v>2005</v>
-      </c>
-      <c r="J376">
-        <v>1700</v>
-      </c>
-      <c r="K376" t="s">
-        <v>19</v>
-      </c>
-      <c r="M376" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N376" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A377">
-        <v>11100</v>
-      </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>881</v>
       </c>
-      <c r="C377" t="s">
-        <v>543</v>
-      </c>
       <c r="D377" t="s">
         <v>15</v>
       </c>
@@ -18660,18 +18674,18 @@
         <v>21</v>
       </c>
       <c r="N377" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>11180</v>
+      </c>
+      <c r="B378" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A378">
-        <v>11150</v>
-      </c>
-      <c r="B378" t="s">
-        <v>882</v>
-      </c>
       <c r="C378" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="D378" t="s">
         <v>15</v>
@@ -18701,332 +18715,414 @@
         <v>21</v>
       </c>
       <c r="N378" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>11200</v>
       </c>
       <c r="B379" t="s">
+        <v>882</v>
+      </c>
+      <c r="C379" t="s">
+        <v>883</v>
+      </c>
+      <c r="D379" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" t="s">
+        <v>17</v>
+      </c>
+      <c r="F379" t="s">
+        <v>17</v>
+      </c>
+      <c r="G379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379">
+        <v>2005</v>
+      </c>
+      <c r="J379">
+        <v>1700</v>
+      </c>
+      <c r="K379" t="s">
+        <v>19</v>
+      </c>
+      <c r="M379" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N379" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>11248</v>
+      </c>
+      <c r="B380" t="s">
+        <v>913</v>
+      </c>
+      <c r="C380" t="s">
+        <v>885</v>
+      </c>
+      <c r="D380" t="s">
+        <v>15</v>
+      </c>
+      <c r="E380" t="s">
+        <v>17</v>
+      </c>
+      <c r="F380" t="s">
+        <v>17</v>
+      </c>
+      <c r="G380" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" t="s">
+        <v>18</v>
+      </c>
+      <c r="I380">
+        <v>2005</v>
+      </c>
+      <c r="J380">
+        <v>1700</v>
+      </c>
+      <c r="K380" t="s">
+        <v>19</v>
+      </c>
+      <c r="M380" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N380" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>11250</v>
+      </c>
+      <c r="B381" t="s">
         <v>884</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C381" t="s">
         <v>885</v>
       </c>
-      <c r="D379" t="s">
-        <v>15</v>
-      </c>
-      <c r="E379" t="s">
-        <v>17</v>
-      </c>
-      <c r="F379" t="s">
-        <v>17</v>
-      </c>
-      <c r="G379" t="s">
-        <v>18</v>
-      </c>
-      <c r="H379" t="s">
-        <v>18</v>
-      </c>
-      <c r="I379">
-        <v>2005</v>
-      </c>
-      <c r="J379">
-        <v>1700</v>
-      </c>
-      <c r="K379" t="s">
-        <v>19</v>
-      </c>
-      <c r="M379" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N379" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A380">
-        <v>11250</v>
-      </c>
-      <c r="B380" t="s">
+      <c r="D381" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" t="s">
+        <v>17</v>
+      </c>
+      <c r="F381" t="s">
+        <v>17</v>
+      </c>
+      <c r="G381" t="s">
+        <v>18</v>
+      </c>
+      <c r="H381" t="s">
+        <v>18</v>
+      </c>
+      <c r="I381">
+        <v>2005</v>
+      </c>
+      <c r="J381">
+        <v>1700</v>
+      </c>
+      <c r="K381" t="s">
+        <v>19</v>
+      </c>
+      <c r="M381" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N381" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>11252</v>
+      </c>
+      <c r="B382" t="s">
+        <v>914</v>
+      </c>
+      <c r="C382" t="s">
+        <v>915</v>
+      </c>
+      <c r="D382" t="s">
+        <v>15</v>
+      </c>
+      <c r="E382" t="s">
+        <v>17</v>
+      </c>
+      <c r="F382" t="s">
+        <v>17</v>
+      </c>
+      <c r="G382" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" t="s">
+        <v>18</v>
+      </c>
+      <c r="I382">
+        <v>2005</v>
+      </c>
+      <c r="J382">
+        <v>1700</v>
+      </c>
+      <c r="K382" t="s">
+        <v>19</v>
+      </c>
+      <c r="M382" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N382" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>11300</v>
+      </c>
+      <c r="B383" t="s">
         <v>886</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C383" t="s">
         <v>887</v>
       </c>
-      <c r="D380" t="s">
-        <v>15</v>
-      </c>
-      <c r="E380" t="s">
-        <v>17</v>
-      </c>
-      <c r="F380" t="s">
-        <v>17</v>
-      </c>
-      <c r="G380" t="s">
-        <v>18</v>
-      </c>
-      <c r="H380" t="s">
-        <v>18</v>
-      </c>
-      <c r="I380">
-        <v>2005</v>
-      </c>
-      <c r="J380">
-        <v>1700</v>
-      </c>
-      <c r="K380" t="s">
-        <v>19</v>
-      </c>
-      <c r="M380" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N380" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A381">
-        <v>11300</v>
-      </c>
-      <c r="B381" t="s">
+      <c r="D383" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383" t="s">
+        <v>17</v>
+      </c>
+      <c r="F383" t="s">
+        <v>17</v>
+      </c>
+      <c r="G383" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" t="s">
+        <v>18</v>
+      </c>
+      <c r="I383">
+        <v>2005</v>
+      </c>
+      <c r="J383">
+        <v>1700</v>
+      </c>
+      <c r="K383" t="s">
+        <v>19</v>
+      </c>
+      <c r="M383" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N383" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>11350</v>
+      </c>
+      <c r="B384" t="s">
         <v>888</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C384" t="s">
         <v>889</v>
       </c>
-      <c r="D381" t="s">
-        <v>15</v>
-      </c>
-      <c r="E381" t="s">
-        <v>17</v>
-      </c>
-      <c r="F381" t="s">
-        <v>17</v>
-      </c>
-      <c r="G381" t="s">
-        <v>18</v>
-      </c>
-      <c r="H381" t="s">
-        <v>18</v>
-      </c>
-      <c r="I381">
-        <v>2005</v>
-      </c>
-      <c r="J381">
-        <v>1700</v>
-      </c>
-      <c r="K381" t="s">
-        <v>19</v>
-      </c>
-      <c r="M381" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N381" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A382">
-        <v>11350</v>
-      </c>
-      <c r="B382" t="s">
+      <c r="D384" t="s">
+        <v>15</v>
+      </c>
+      <c r="E384" t="s">
+        <v>17</v>
+      </c>
+      <c r="F384" t="s">
+        <v>17</v>
+      </c>
+      <c r="H384" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384">
+        <v>2005</v>
+      </c>
+      <c r="J384">
+        <v>1700</v>
+      </c>
+      <c r="K384" t="s">
+        <v>19</v>
+      </c>
+      <c r="M384" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N384" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>11400</v>
+      </c>
+      <c r="B385" t="s">
         <v>890</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C385" t="s">
         <v>891</v>
       </c>
-      <c r="D382" t="s">
-        <v>15</v>
-      </c>
-      <c r="E382" t="s">
-        <v>17</v>
-      </c>
-      <c r="F382" t="s">
-        <v>17</v>
-      </c>
-      <c r="H382" t="s">
-        <v>18</v>
-      </c>
-      <c r="I382">
-        <v>2005</v>
-      </c>
-      <c r="J382">
-        <v>1700</v>
-      </c>
-      <c r="K382" t="s">
-        <v>19</v>
-      </c>
-      <c r="M382" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N382" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A383">
-        <v>11400</v>
-      </c>
-      <c r="B383" t="s">
+      <c r="D385" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" t="s">
+        <v>17</v>
+      </c>
+      <c r="F385" t="s">
+        <v>17</v>
+      </c>
+      <c r="G385" t="s">
+        <v>18</v>
+      </c>
+      <c r="H385" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385">
+        <v>2005</v>
+      </c>
+      <c r="J385">
+        <v>1700</v>
+      </c>
+      <c r="K385" t="s">
+        <v>19</v>
+      </c>
+      <c r="M385" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N385" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>11450</v>
+      </c>
+      <c r="B386" t="s">
         <v>892</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C386" t="s">
         <v>893</v>
       </c>
-      <c r="D383" t="s">
-        <v>15</v>
-      </c>
-      <c r="E383" t="s">
-        <v>17</v>
-      </c>
-      <c r="F383" t="s">
-        <v>17</v>
-      </c>
-      <c r="G383" t="s">
-        <v>18</v>
-      </c>
-      <c r="H383" t="s">
-        <v>18</v>
-      </c>
-      <c r="I383">
-        <v>2005</v>
-      </c>
-      <c r="J383">
-        <v>1700</v>
-      </c>
-      <c r="K383" t="s">
-        <v>19</v>
-      </c>
-      <c r="M383" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N383" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A384">
-        <v>11450</v>
-      </c>
-      <c r="B384" t="s">
+      <c r="D386" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" t="s">
+        <v>17</v>
+      </c>
+      <c r="F386" t="s">
+        <v>17</v>
+      </c>
+      <c r="G386" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386">
+        <v>2005</v>
+      </c>
+      <c r="J386">
+        <v>1700</v>
+      </c>
+      <c r="K386" t="s">
+        <v>19</v>
+      </c>
+      <c r="M386" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N386" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>11500</v>
+      </c>
+      <c r="B387" t="s">
         <v>894</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C387" t="s">
         <v>895</v>
       </c>
-      <c r="D384" t="s">
-        <v>15</v>
-      </c>
-      <c r="E384" t="s">
-        <v>17</v>
-      </c>
-      <c r="F384" t="s">
-        <v>17</v>
-      </c>
-      <c r="G384" t="s">
-        <v>18</v>
-      </c>
-      <c r="H384" t="s">
-        <v>18</v>
-      </c>
-      <c r="I384">
-        <v>2005</v>
-      </c>
-      <c r="J384">
-        <v>1700</v>
-      </c>
-      <c r="K384" t="s">
-        <v>19</v>
-      </c>
-      <c r="M384" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N384" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A385">
-        <v>11500</v>
-      </c>
-      <c r="B385" t="s">
+      <c r="D387" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" t="s">
+        <v>17</v>
+      </c>
+      <c r="F387" t="s">
+        <v>17</v>
+      </c>
+      <c r="G387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" t="s">
+        <v>18</v>
+      </c>
+      <c r="I387">
+        <v>2005</v>
+      </c>
+      <c r="J387">
+        <v>1700</v>
+      </c>
+      <c r="K387" t="s">
+        <v>19</v>
+      </c>
+      <c r="M387" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N387" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>11550</v>
+      </c>
+      <c r="B388" t="s">
         <v>896</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C388" t="s">
         <v>897</v>
       </c>
-      <c r="D385" t="s">
-        <v>15</v>
-      </c>
-      <c r="E385" t="s">
-        <v>17</v>
-      </c>
-      <c r="F385" t="s">
-        <v>17</v>
-      </c>
-      <c r="G385" t="s">
-        <v>18</v>
-      </c>
-      <c r="H385" t="s">
-        <v>18</v>
-      </c>
-      <c r="I385">
-        <v>2005</v>
-      </c>
-      <c r="J385">
-        <v>1700</v>
-      </c>
-      <c r="K385" t="s">
-        <v>19</v>
-      </c>
-      <c r="M385" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N385" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A386">
-        <v>11550</v>
-      </c>
-      <c r="B386" t="s">
-        <v>898</v>
-      </c>
-      <c r="C386" t="s">
-        <v>899</v>
-      </c>
-      <c r="D386" t="s">
-        <v>15</v>
-      </c>
-      <c r="E386" t="s">
-        <v>17</v>
-      </c>
-      <c r="F386" t="s">
-        <v>17</v>
-      </c>
-      <c r="G386" t="s">
-        <v>18</v>
-      </c>
-      <c r="H386" t="s">
-        <v>18</v>
-      </c>
-      <c r="I386">
-        <v>2005</v>
-      </c>
-      <c r="J386">
-        <v>1700</v>
-      </c>
-      <c r="K386" t="s">
-        <v>19</v>
-      </c>
-      <c r="M386" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N386" t="s">
-        <v>912</v>
+      <c r="D388" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388" t="s">
+        <v>17</v>
+      </c>
+      <c r="F388" t="s">
+        <v>17</v>
+      </c>
+      <c r="G388" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" t="s">
+        <v>18</v>
+      </c>
+      <c r="I388">
+        <v>2005</v>
+      </c>
+      <c r="J388">
+        <v>1700</v>
+      </c>
+      <c r="K388" t="s">
+        <v>19</v>
+      </c>
+      <c r="M388" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N388" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/data/species/atlas_list.xlsx
+++ b/data/species/atlas_list.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqrfulle_local\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\data\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D789EC9-FED6-4493-A461-BD28367F6752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atlas_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -2776,13 +2772,13 @@
     <t>Anas platyrhynchos x superciliosa</t>
   </si>
   <si>
-    <t>Mallard x Pacific Black Duck (hybrid)</t>
+    <t>Mallard x Pacific Black Duck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3128,30 +3124,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="32"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="8" width="13.54296875"/>
-    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625"/>
-    <col min="12" max="12" width="67.7265625"/>
-    <col min="13" max="1025" width="8.81640625"/>
+    <col min="11" max="11" width="8.85546875"/>
+    <col min="12" max="12" width="67.7109375"/>
+    <col min="13" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3239,7 +3235,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3412,7 +3408,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24</v>
       </c>
@@ -3453,7 +3449,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3541,7 +3537,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3629,7 +3625,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>42</v>
       </c>
@@ -3752,7 +3748,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>43</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>44</v>
       </c>
@@ -3837,7 +3833,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64</v>
       </c>
@@ -4004,7 +4000,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>76</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>78</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>79</v>
       </c>
@@ -4130,7 +4126,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>81</v>
       </c>
@@ -4171,7 +4167,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>85</v>
       </c>
@@ -4215,7 +4211,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4259,7 +4255,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>96</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>115</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>120</v>
       </c>
@@ -4432,7 +4428,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>123</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>124</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>128</v>
       </c>
@@ -4561,7 +4557,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>145</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>149</v>
       </c>
@@ -4684,7 +4680,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>151</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>158</v>
       </c>
@@ -4772,7 +4768,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>161</v>
       </c>
@@ -4816,7 +4812,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>167</v>
       </c>
@@ -4857,7 +4853,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>171</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>173</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>175</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>178</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>184</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>186</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>189</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>192</v>
       </c>
@@ -5203,7 +5199,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>195</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>206</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>213</v>
       </c>
@@ -5370,7 +5366,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>218</v>
       </c>
@@ -5414,7 +5410,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>223</v>
       </c>
@@ -5452,7 +5448,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>228</v>
       </c>
@@ -5493,7 +5489,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>234</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>241</v>
       </c>
@@ -5578,7 +5574,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>246</v>
       </c>
@@ -5616,7 +5612,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>249</v>
       </c>
@@ -5660,7 +5656,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>251</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>253</v>
       </c>
@@ -5748,7 +5744,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>259</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>265</v>
       </c>
@@ -5833,7 +5829,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>267</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>269</v>
       </c>
@@ -5912,7 +5908,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>273</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>274</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>275</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>278</v>
       </c>
@@ -6076,7 +6072,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>279</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>280</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>284</v>
       </c>
@@ -6202,7 +6198,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>285</v>
       </c>
@@ -6246,7 +6242,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>286</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>288</v>
       </c>
@@ -6328,7 +6324,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>297</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>298</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>300</v>
       </c>
@@ -6451,7 +6447,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>303</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>310</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>312</v>
       </c>
@@ -6571,7 +6567,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>313</v>
       </c>
@@ -6612,7 +6608,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>316</v>
       </c>
@@ -6656,7 +6652,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>319</v>
       </c>
@@ -6694,7 +6690,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>321</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>324</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>327</v>
       </c>
@@ -6820,7 +6816,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>330</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>331</v>
       </c>
@@ -6902,7 +6898,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>335</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>337</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>339</v>
       </c>
@@ -7025,7 +7021,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>340</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>343</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>344</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>346</v>
       </c>
@@ -7192,7 +7188,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>348</v>
       </c>
@@ -7236,7 +7232,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>349</v>
       </c>
@@ -7277,7 +7273,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>350</v>
       </c>
@@ -7321,7 +7317,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>351</v>
       </c>
@@ -7359,7 +7355,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>358</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>359</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>360</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>363</v>
       </c>
@@ -7520,7 +7516,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>366</v>
       </c>
@@ -7561,7 +7557,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>367</v>
       </c>
@@ -7605,7 +7601,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>369</v>
       </c>
@@ -7646,7 +7642,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>370</v>
       </c>
@@ -7684,7 +7680,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>371</v>
       </c>
@@ -7722,7 +7718,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>373</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>376</v>
       </c>
@@ -7804,7 +7800,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>377</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>382</v>
       </c>
@@ -7886,7 +7882,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>384</v>
       </c>
@@ -7927,7 +7923,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>385</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>390</v>
       </c>
@@ -8009,7 +8005,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>392</v>
       </c>
@@ -8047,7 +8043,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>394</v>
       </c>
@@ -8082,7 +8078,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>395</v>
       </c>
@@ -8123,7 +8119,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>396</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>400</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>404</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>411</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>416</v>
       </c>
@@ -8319,7 +8315,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>417</v>
       </c>
@@ -8357,7 +8353,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>423</v>
       </c>
@@ -8395,7 +8391,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>428</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>431</v>
       </c>
@@ -8477,7 +8473,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>434</v>
       </c>
@@ -8521,7 +8517,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>442</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>443</v>
       </c>
@@ -8603,7 +8599,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>444</v>
       </c>
@@ -8644,7 +8640,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>446</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>456</v>
       </c>
@@ -8726,7 +8722,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>463</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>465</v>
       </c>
@@ -8811,7 +8807,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>493</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>497</v>
       </c>
@@ -8881,7 +8877,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>501</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>517</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>519</v>
       </c>
@@ -8989,7 +8985,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>534</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>537</v>
       </c>
@@ -9059,7 +9055,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>547</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.